--- a/SimulationStudyData/Dataset3_Yobs.xlsx
+++ b/SimulationStudyData/Dataset3_Yobs.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.48378647017225</v>
+        <v>9.61018436074297</v>
       </c>
       <c r="B2" t="n">
-        <v>12.0369784512869</v>
+        <v>9.67461903512848</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0418466491224</v>
+        <v>9.10771846506756</v>
       </c>
       <c r="D2" t="n">
-        <v>14.6070201712579</v>
+        <v>8.2967985356269</v>
       </c>
       <c r="E2" t="n">
-        <v>14.3287385902934</v>
+        <v>8.00423717862858</v>
       </c>
       <c r="F2" t="n">
-        <v>15.7153344242576</v>
+        <v>7.72918464598953</v>
       </c>
       <c r="G2" t="n">
-        <v>15.6607992255052</v>
+        <v>7.27529022783115</v>
       </c>
       <c r="H2" t="n">
-        <v>16.821611396034</v>
+        <v>6.56544527093718</v>
       </c>
       <c r="I2" t="n">
-        <v>17.9718765404918</v>
+        <v>6.02928061572968</v>
       </c>
       <c r="J2" t="n">
-        <v>20.3007938221234</v>
+        <v>5.61502417448979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10.8289755701352</v>
+        <v>11.1891686053647</v>
       </c>
       <c r="B3" t="n">
-        <v>10.8448017114281</v>
+        <v>10.9892378145162</v>
       </c>
       <c r="C3" t="n">
-        <v>11.311867472627</v>
+        <v>12.7388599001622</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9036148412316</v>
+        <v>12.0490344774381</v>
       </c>
       <c r="E3" t="n">
-        <v>14.5484657409818</v>
+        <v>15.8854200928812</v>
       </c>
       <c r="F3" t="n">
-        <v>14.3098715558713</v>
+        <v>14.6951296952599</v>
       </c>
       <c r="G3" t="n">
-        <v>16.1448516794499</v>
+        <v>16.4925109507786</v>
       </c>
       <c r="H3" t="n">
-        <v>16.730117443005</v>
+        <v>18.5833704989104</v>
       </c>
       <c r="I3" t="n">
-        <v>17.7475193760349</v>
+        <v>17.7885869831938</v>
       </c>
       <c r="J3" t="n">
-        <v>19.5010413677111</v>
+        <v>19.2654263896779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.00673382764145</v>
+        <v>10.1103375623099</v>
       </c>
       <c r="B4" t="n">
-        <v>8.51741496762882</v>
+        <v>10.017420260021</v>
       </c>
       <c r="C4" t="n">
-        <v>8.02514643127379</v>
+        <v>8.7277579525225</v>
       </c>
       <c r="D4" t="n">
-        <v>7.89942556983437</v>
+        <v>8.51593847939242</v>
       </c>
       <c r="E4" t="n">
-        <v>6.83801919795625</v>
+        <v>8.10676359976335</v>
       </c>
       <c r="F4" t="n">
-        <v>6.17885444061798</v>
+        <v>7.62266964242039</v>
       </c>
       <c r="G4" t="n">
-        <v>5.30125103083157</v>
+        <v>6.62409586901421</v>
       </c>
       <c r="H4" t="n">
-        <v>5.35163687399294</v>
+        <v>6.54166282931479</v>
       </c>
       <c r="I4" t="n">
-        <v>5.09684708875238</v>
+        <v>6.07451910937523</v>
       </c>
       <c r="J4" t="n">
-        <v>4.64746666476561</v>
+        <v>5.71792743927241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.37074341385733</v>
+        <v>10.1337563737462</v>
       </c>
       <c r="B5" t="n">
-        <v>8.20074394881951</v>
+        <v>9.44023264880428</v>
       </c>
       <c r="C5" t="n">
-        <v>7.93428879123133</v>
+        <v>9.23604516223998</v>
       </c>
       <c r="D5" t="n">
-        <v>7.41716104777091</v>
+        <v>8.29530188578377</v>
       </c>
       <c r="E5" t="n">
-        <v>6.91343726152934</v>
+        <v>7.66411214039436</v>
       </c>
       <c r="F5" t="n">
-        <v>6.63141246635558</v>
+        <v>7.27245638258663</v>
       </c>
       <c r="G5" t="n">
-        <v>5.79020293602805</v>
+        <v>7.12692025986713</v>
       </c>
       <c r="H5" t="n">
-        <v>5.65529521095038</v>
+        <v>6.26289410985678</v>
       </c>
       <c r="I5" t="n">
-        <v>4.50231822934642</v>
+        <v>6.23195245903488</v>
       </c>
       <c r="J5" t="n">
-        <v>4.56613494326441</v>
+        <v>5.3605844727854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.1559588329376</v>
+        <v>10.0615370480217</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9096541957844</v>
+        <v>9.90126230423407</v>
       </c>
       <c r="C6" t="n">
-        <v>13.181138198648</v>
+        <v>9.1662045276751</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8016110016781</v>
+        <v>8.55656953692866</v>
       </c>
       <c r="E6" t="n">
-        <v>12.9377465400539</v>
+        <v>7.78558556618601</v>
       </c>
       <c r="F6" t="n">
-        <v>13.7441140021391</v>
+        <v>7.26057681994102</v>
       </c>
       <c r="G6" t="n">
-        <v>14.6318678379337</v>
+        <v>7.10040512223109</v>
       </c>
       <c r="H6" t="n">
-        <v>16.3608210571493</v>
+        <v>6.30386194951779</v>
       </c>
       <c r="I6" t="n">
-        <v>18.0884901284275</v>
+        <v>6.01291712037712</v>
       </c>
       <c r="J6" t="n">
-        <v>19.4987785877871</v>
+        <v>5.5222379485199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0613688076844</v>
+        <v>10.0021238827372</v>
       </c>
       <c r="B7" t="n">
-        <v>10.550192407755</v>
+        <v>9.67813407216834</v>
       </c>
       <c r="C7" t="n">
-        <v>12.3443282952912</v>
+        <v>12.0911338863945</v>
       </c>
       <c r="D7" t="n">
-        <v>12.0663864682978</v>
+        <v>13.0684757127879</v>
       </c>
       <c r="E7" t="n">
-        <v>13.7807889894559</v>
+        <v>15.4995290796829</v>
       </c>
       <c r="F7" t="n">
-        <v>15.4661141413099</v>
+        <v>15.7646072389027</v>
       </c>
       <c r="G7" t="n">
-        <v>15.2305508167304</v>
+        <v>15.7183915145396</v>
       </c>
       <c r="H7" t="n">
-        <v>16.675542040448</v>
+        <v>17.8593355598203</v>
       </c>
       <c r="I7" t="n">
-        <v>18.3600923355777</v>
+        <v>17.4352867668605</v>
       </c>
       <c r="J7" t="n">
-        <v>19.5313646060625</v>
+        <v>19.9843703205561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.31758340179384</v>
+        <v>9.9980676790744</v>
       </c>
       <c r="B8" t="n">
-        <v>10.311201016977</v>
+        <v>10.2578175093445</v>
       </c>
       <c r="C8" t="n">
-        <v>10.5781754876053</v>
+        <v>12.1822944074913</v>
       </c>
       <c r="D8" t="n">
-        <v>12.332249667178</v>
+        <v>13.3975260306602</v>
       </c>
       <c r="E8" t="n">
-        <v>15.1898238876694</v>
+        <v>13.2502908767004</v>
       </c>
       <c r="F8" t="n">
-        <v>14.4806294773444</v>
+        <v>14.5063680844742</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2849597912503</v>
+        <v>17.4517164156206</v>
       </c>
       <c r="H8" t="n">
-        <v>17.0312940818354</v>
+        <v>17.7844361950539</v>
       </c>
       <c r="I8" t="n">
-        <v>18.6335248162367</v>
+        <v>18.320553642258</v>
       </c>
       <c r="J8" t="n">
-        <v>19.3517632634811</v>
+        <v>19.2676691204912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.07524891548553</v>
+        <v>9.91813901313605</v>
       </c>
       <c r="B9" t="n">
-        <v>8.55602422868442</v>
+        <v>10.7640833872065</v>
       </c>
       <c r="C9" t="n">
-        <v>7.77876781829219</v>
+        <v>12.5892842225617</v>
       </c>
       <c r="D9" t="n">
-        <v>7.66095465019535</v>
+        <v>12.0494776281644</v>
       </c>
       <c r="E9" t="n">
-        <v>7.05345525864622</v>
+        <v>14.2135250933201</v>
       </c>
       <c r="F9" t="n">
-        <v>6.45500983378073</v>
+        <v>14.9965487404555</v>
       </c>
       <c r="G9" t="n">
-        <v>6.3304281359354</v>
+        <v>16.2229157710705</v>
       </c>
       <c r="H9" t="n">
-        <v>5.70395411045351</v>
+        <v>17.9295688914687</v>
       </c>
       <c r="I9" t="n">
-        <v>4.88085587826679</v>
+        <v>17.8934835827905</v>
       </c>
       <c r="J9" t="n">
-        <v>4.20678442361152</v>
+        <v>19.2851631630942</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.04938944963792</v>
+        <v>11.1759617221836</v>
       </c>
       <c r="B10" t="n">
-        <v>11.3102559978599</v>
+        <v>10.2650868902401</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8929453913822</v>
+        <v>13.3307505991335</v>
       </c>
       <c r="D10" t="n">
-        <v>11.8726178244649</v>
+        <v>13.0674973843142</v>
       </c>
       <c r="E10" t="n">
-        <v>13.4689878057018</v>
+        <v>15.1249342696868</v>
       </c>
       <c r="F10" t="n">
-        <v>14.9933249463262</v>
+        <v>15.6378370576041</v>
       </c>
       <c r="G10" t="n">
-        <v>16.6760541655098</v>
+        <v>15.5701832236848</v>
       </c>
       <c r="H10" t="n">
-        <v>17.6416973986471</v>
+        <v>16.7679497821619</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0525293899105</v>
+        <v>18.3503536105098</v>
       </c>
       <c r="J10" t="n">
-        <v>19.158819597489</v>
+        <v>18.9071918330659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.4418354946879</v>
+        <v>11.0012908614847</v>
       </c>
       <c r="B11" t="n">
-        <v>10.3925199435646</v>
+        <v>10.5867100083826</v>
       </c>
       <c r="C11" t="n">
-        <v>11.8135008174496</v>
+        <v>11.2602793897428</v>
       </c>
       <c r="D11" t="n">
-        <v>12.8333561879872</v>
+        <v>12.7701594347002</v>
       </c>
       <c r="E11" t="n">
-        <v>12.5450472084748</v>
+        <v>12.9217983357422</v>
       </c>
       <c r="F11" t="n">
-        <v>15.836886891259</v>
+        <v>15.3623061416792</v>
       </c>
       <c r="G11" t="n">
-        <v>14.6421838208099</v>
+        <v>15.5967940535974</v>
       </c>
       <c r="H11" t="n">
-        <v>17.7287679390236</v>
+        <v>17.6654165316712</v>
       </c>
       <c r="I11" t="n">
-        <v>17.2242667842314</v>
+        <v>18.4642613997684</v>
       </c>
       <c r="J11" t="n">
-        <v>19.899507498761</v>
+        <v>18.155001387363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.7262979880015</v>
+        <v>10.1305154562459</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0981161230049</v>
+        <v>10.6006192500005</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3596193493825</v>
+        <v>13.2634453871232</v>
       </c>
       <c r="D12" t="n">
-        <v>13.3510896616884</v>
+        <v>13.232683763392</v>
       </c>
       <c r="E12" t="n">
-        <v>13.3850130846807</v>
+        <v>14.2366688507685</v>
       </c>
       <c r="F12" t="n">
-        <v>15.6480131989307</v>
+        <v>16.5783384671116</v>
       </c>
       <c r="G12" t="n">
-        <v>16.6888042607424</v>
+        <v>15.2494199232171</v>
       </c>
       <c r="H12" t="n">
-        <v>17.1886621592465</v>
+        <v>17.472418866054</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8600463096826</v>
+        <v>16.9639394628011</v>
       </c>
       <c r="J12" t="n">
-        <v>19.3176961623546</v>
+        <v>18.2143046069422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.16947467745413</v>
+        <v>9.72504808584114</v>
       </c>
       <c r="B13" t="n">
-        <v>11.6019369392009</v>
+        <v>9.44074199643766</v>
       </c>
       <c r="C13" t="n">
-        <v>12.3626203685337</v>
+        <v>9.17046176524652</v>
       </c>
       <c r="D13" t="n">
-        <v>13.6605724906941</v>
+        <v>8.4272261101537</v>
       </c>
       <c r="E13" t="n">
-        <v>14.3668857354049</v>
+        <v>8.38801365971568</v>
       </c>
       <c r="F13" t="n">
-        <v>14.3256706065481</v>
+        <v>7.80317448101466</v>
       </c>
       <c r="G13" t="n">
-        <v>15.7392820515631</v>
+        <v>6.65927527274604</v>
       </c>
       <c r="H13" t="n">
-        <v>17.6320665106049</v>
+        <v>6.47966388847029</v>
       </c>
       <c r="I13" t="n">
-        <v>18.0727012186534</v>
+        <v>5.72868971055108</v>
       </c>
       <c r="J13" t="n">
-        <v>17.9984664191528</v>
+        <v>6.0232500578525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.22253018587114</v>
+        <v>9.68970809056904</v>
       </c>
       <c r="B14" t="n">
-        <v>8.73653385421062</v>
+        <v>9.4293469458926</v>
       </c>
       <c r="C14" t="n">
-        <v>8.07974869135934</v>
+        <v>9.10501351411113</v>
       </c>
       <c r="D14" t="n">
-        <v>7.31005577107691</v>
+        <v>8.73360730779225</v>
       </c>
       <c r="E14" t="n">
-        <v>7.01230280874545</v>
+        <v>7.90712640508406</v>
       </c>
       <c r="F14" t="n">
-        <v>5.99021196531972</v>
+        <v>7.52434416417142</v>
       </c>
       <c r="G14" t="n">
-        <v>6.01873757337371</v>
+        <v>7.0004461867623</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6632493960633</v>
+        <v>6.63943870350226</v>
       </c>
       <c r="I14" t="n">
-        <v>5.24130915191454</v>
+        <v>5.77020720766586</v>
       </c>
       <c r="J14" t="n">
-        <v>4.58583545719508</v>
+        <v>5.72043814538106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.293990157581</v>
+        <v>9.73019586821188</v>
       </c>
       <c r="B15" t="n">
-        <v>10.9055722884152</v>
+        <v>9.56097637091836</v>
       </c>
       <c r="C15" t="n">
-        <v>11.6931363503917</v>
+        <v>8.82030836938453</v>
       </c>
       <c r="D15" t="n">
-        <v>12.774213791604</v>
+        <v>8.31341684652065</v>
       </c>
       <c r="E15" t="n">
-        <v>13.0235073387011</v>
+        <v>8.01850692034987</v>
       </c>
       <c r="F15" t="n">
-        <v>14.4419933769763</v>
+        <v>7.41451785795578</v>
       </c>
       <c r="G15" t="n">
-        <v>15.7198578336699</v>
+        <v>6.77157259603941</v>
       </c>
       <c r="H15" t="n">
-        <v>16.1251752897149</v>
+        <v>6.75418432934994</v>
       </c>
       <c r="I15" t="n">
-        <v>17.8747279573894</v>
+        <v>5.97568177742402</v>
       </c>
       <c r="J15" t="n">
-        <v>19.7627873323827</v>
+        <v>5.33174201886577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.16446370226477</v>
+        <v>11.128381819037</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5308832064499</v>
+        <v>11.1389980243085</v>
       </c>
       <c r="C16" t="n">
-        <v>12.605977571012</v>
+        <v>12.7055342956959</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9771596856775</v>
+        <v>13.5972523826103</v>
       </c>
       <c r="E16" t="n">
-        <v>13.4346722843022</v>
+        <v>14.1520690408517</v>
       </c>
       <c r="F16" t="n">
-        <v>14.555992937523</v>
+        <v>15.0837388727202</v>
       </c>
       <c r="G16" t="n">
-        <v>16.1029299283024</v>
+        <v>17.0741043695712</v>
       </c>
       <c r="H16" t="n">
-        <v>17.9712154473963</v>
+        <v>16.2077940084852</v>
       </c>
       <c r="I16" t="n">
-        <v>18.3047870244941</v>
+        <v>16.6482803757084</v>
       </c>
       <c r="J16" t="n">
-        <v>19.0570225977259</v>
+        <v>19.9317253555943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.9938092243606</v>
+        <v>9.96407466989927</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6090185423404</v>
+        <v>9.84164665347311</v>
       </c>
       <c r="C17" t="n">
-        <v>11.4760945964942</v>
+        <v>8.79406924150042</v>
       </c>
       <c r="D17" t="n">
-        <v>13.087519594359</v>
+        <v>8.62288485272303</v>
       </c>
       <c r="E17" t="n">
-        <v>14.334475656233</v>
+        <v>8.24429831523325</v>
       </c>
       <c r="F17" t="n">
-        <v>15.2661538354823</v>
+        <v>7.46637118244528</v>
       </c>
       <c r="G17" t="n">
-        <v>17.0917248987559</v>
+        <v>7.1933127917711</v>
       </c>
       <c r="H17" t="n">
-        <v>16.4901623904987</v>
+        <v>6.54774503742818</v>
       </c>
       <c r="I17" t="n">
-        <v>17.6261914074349</v>
+        <v>5.88982309285192</v>
       </c>
       <c r="J17" t="n">
-        <v>18.154276321303</v>
+        <v>5.407531368552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.63790215272328</v>
+        <v>8.76316279867553</v>
       </c>
       <c r="B18" t="n">
-        <v>11.4281284591032</v>
+        <v>10.2930424997</v>
       </c>
       <c r="C18" t="n">
-        <v>13.2455880182509</v>
+        <v>11.5269905411076</v>
       </c>
       <c r="D18" t="n">
-        <v>14.3100632927556</v>
+        <v>12.9673786985296</v>
       </c>
       <c r="E18" t="n">
-        <v>14.58557085778</v>
+        <v>14.1245880598156</v>
       </c>
       <c r="F18" t="n">
-        <v>15.4674306553447</v>
+        <v>14.3006026435311</v>
       </c>
       <c r="G18" t="n">
-        <v>16.6346663331263</v>
+        <v>16.7193580313382</v>
       </c>
       <c r="H18" t="n">
-        <v>18.3698126593428</v>
+        <v>16.4633529067389</v>
       </c>
       <c r="I18" t="n">
-        <v>18.1769488674718</v>
+        <v>17.5011142652724</v>
       </c>
       <c r="J18" t="n">
-        <v>19.8137240051377</v>
+        <v>18.5735443949239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.48793864568715</v>
+        <v>9.93809661606396</v>
       </c>
       <c r="B19" t="n">
-        <v>8.46881457892018</v>
+        <v>12.096132466839</v>
       </c>
       <c r="C19" t="n">
-        <v>7.98766500806322</v>
+        <v>12.3759421515284</v>
       </c>
       <c r="D19" t="n">
-        <v>7.00353728702019</v>
+        <v>13.6265578502827</v>
       </c>
       <c r="E19" t="n">
-        <v>6.83435220415363</v>
+        <v>14.8085848683296</v>
       </c>
       <c r="F19" t="n">
-        <v>6.24266075563687</v>
+        <v>15.8368847975444</v>
       </c>
       <c r="G19" t="n">
-        <v>6.35733699173986</v>
+        <v>15.319391142784</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7429700465611</v>
+        <v>15.8319172916169</v>
       </c>
       <c r="I19" t="n">
-        <v>5.38827130719058</v>
+        <v>17.5495166349646</v>
       </c>
       <c r="J19" t="n">
-        <v>4.6053972237976</v>
+        <v>17.9932108269038</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.95223208581849</v>
+        <v>8.62042383089285</v>
       </c>
       <c r="B20" t="n">
-        <v>8.07528743685996</v>
+        <v>10.2827674241246</v>
       </c>
       <c r="C20" t="n">
-        <v>7.80555795271174</v>
+        <v>12.0655554914588</v>
       </c>
       <c r="D20" t="n">
-        <v>7.90859890356896</v>
+        <v>13.0698016859722</v>
       </c>
       <c r="E20" t="n">
-        <v>6.76914795333204</v>
+        <v>14.572286662233</v>
       </c>
       <c r="F20" t="n">
-        <v>6.70449008943577</v>
+        <v>13.868573753015</v>
       </c>
       <c r="G20" t="n">
-        <v>6.08038124580896</v>
+        <v>16.4606206673289</v>
       </c>
       <c r="H20" t="n">
-        <v>6.00172722521504</v>
+        <v>17.6629981166734</v>
       </c>
       <c r="I20" t="n">
-        <v>4.99872570366819</v>
+        <v>18.1847758846959</v>
       </c>
       <c r="J20" t="n">
-        <v>4.32831010900504</v>
+        <v>19.117721225798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.000590741695</v>
+        <v>11.0600470974054</v>
       </c>
       <c r="B21" t="n">
-        <v>11.6156163880956</v>
+        <v>12.351602114035</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1298540562197</v>
+        <v>12.1446129983148</v>
       </c>
       <c r="D21" t="n">
-        <v>14.2164249023037</v>
+        <v>13.3235097881099</v>
       </c>
       <c r="E21" t="n">
-        <v>14.4927864976204</v>
+        <v>13.8551882502506</v>
       </c>
       <c r="F21" t="n">
-        <v>15.6425627317954</v>
+        <v>15.4663082816444</v>
       </c>
       <c r="G21" t="n">
-        <v>16.1634825863244</v>
+        <v>15.1645867192763</v>
       </c>
       <c r="H21" t="n">
-        <v>17.3386727408053</v>
+        <v>17.543331153083</v>
       </c>
       <c r="I21" t="n">
-        <v>18.1649571789334</v>
+        <v>17.970873894095</v>
       </c>
       <c r="J21" t="n">
-        <v>19.5053303635737</v>
+        <v>18.6498985269129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.02048029683659</v>
+        <v>10.0443385123756</v>
       </c>
       <c r="B22" t="n">
-        <v>8.39819730572995</v>
+        <v>9.07945563503132</v>
       </c>
       <c r="C22" t="n">
-        <v>7.9624563464098</v>
+        <v>8.92249388039622</v>
       </c>
       <c r="D22" t="n">
-        <v>7.66174091735806</v>
+        <v>9.26620396526576</v>
       </c>
       <c r="E22" t="n">
-        <v>7.238358358246</v>
+        <v>7.57064398388959</v>
       </c>
       <c r="F22" t="n">
-        <v>6.58027754490028</v>
+        <v>7.35153115314965</v>
       </c>
       <c r="G22" t="n">
-        <v>6.15115414384504</v>
+        <v>6.91079770517461</v>
       </c>
       <c r="H22" t="n">
-        <v>5.55625231835346</v>
+        <v>6.29152308856938</v>
       </c>
       <c r="I22" t="n">
-        <v>4.50420224897644</v>
+        <v>6.36320599085133</v>
       </c>
       <c r="J22" t="n">
-        <v>4.62107634145944</v>
+        <v>6.03707304320821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.16284045664442</v>
+        <v>10.6107280482441</v>
       </c>
       <c r="B23" t="n">
-        <v>10.3053119927802</v>
+        <v>10.1504014085564</v>
       </c>
       <c r="C23" t="n">
-        <v>11.3638892942024</v>
+        <v>11.5156234538725</v>
       </c>
       <c r="D23" t="n">
-        <v>13.7781470989314</v>
+        <v>12.166351896161</v>
       </c>
       <c r="E23" t="n">
-        <v>14.1807851955812</v>
+        <v>14.4325193803831</v>
       </c>
       <c r="F23" t="n">
-        <v>14.0272181461301</v>
+        <v>15.0072917348604</v>
       </c>
       <c r="G23" t="n">
-        <v>15.5061875974262</v>
+        <v>15.8637959630034</v>
       </c>
       <c r="H23" t="n">
-        <v>17.1298861446303</v>
+        <v>17.0323902357062</v>
       </c>
       <c r="I23" t="n">
-        <v>17.7342626193261</v>
+        <v>17.5936339208985</v>
       </c>
       <c r="J23" t="n">
-        <v>18.3876537690843</v>
+        <v>18.3491774097527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.92525321737419</v>
+        <v>10.0145548192778</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0741392276884</v>
+        <v>10.1107410835804</v>
       </c>
       <c r="C24" t="n">
-        <v>11.6268122222569</v>
+        <v>12.8596363583743</v>
       </c>
       <c r="D24" t="n">
-        <v>11.4107757195352</v>
+        <v>12.9137254101055</v>
       </c>
       <c r="E24" t="n">
-        <v>13.6133677160376</v>
+        <v>14.5397921600475</v>
       </c>
       <c r="F24" t="n">
-        <v>15.6581076883696</v>
+        <v>14.5346694493459</v>
       </c>
       <c r="G24" t="n">
-        <v>15.0565867773552</v>
+        <v>16.848722003869</v>
       </c>
       <c r="H24" t="n">
-        <v>17.5801489190681</v>
+        <v>17.7314125945372</v>
       </c>
       <c r="I24" t="n">
-        <v>17.9130831997662</v>
+        <v>17.9815476376449</v>
       </c>
       <c r="J24" t="n">
-        <v>19.0343316569156</v>
+        <v>19.2207502315259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.1975975150469</v>
+        <v>9.59948400514304</v>
       </c>
       <c r="B25" t="n">
-        <v>9.71406706783074</v>
+        <v>11.362825774738</v>
       </c>
       <c r="C25" t="n">
-        <v>11.5295413272408</v>
+        <v>12.8737412635295</v>
       </c>
       <c r="D25" t="n">
-        <v>14.1980446395819</v>
+        <v>12.7223065376056</v>
       </c>
       <c r="E25" t="n">
-        <v>13.6272282167975</v>
+        <v>14.2421899120715</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0485002076392</v>
+        <v>14.5482486541512</v>
       </c>
       <c r="G25" t="n">
-        <v>16.1240015716455</v>
+        <v>16.1192465064905</v>
       </c>
       <c r="H25" t="n">
-        <v>17.1827503143725</v>
+        <v>16.3374549153747</v>
       </c>
       <c r="I25" t="n">
-        <v>18.5929528624521</v>
+        <v>18.5375248322794</v>
       </c>
       <c r="J25" t="n">
-        <v>19.2414367056079</v>
+        <v>18.814678173298</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.42986133962003</v>
+        <v>10.3001007311515</v>
       </c>
       <c r="B26" t="n">
-        <v>12.0167926043759</v>
+        <v>10.9883097046212</v>
       </c>
       <c r="C26" t="n">
-        <v>11.347286476</v>
+        <v>11.6441252932487</v>
       </c>
       <c r="D26" t="n">
-        <v>12.8815359480999</v>
+        <v>12.5856673892415</v>
       </c>
       <c r="E26" t="n">
-        <v>14.7333675943637</v>
+        <v>13.0213413783919</v>
       </c>
       <c r="F26" t="n">
-        <v>14.0332038326114</v>
+        <v>13.8530799063458</v>
       </c>
       <c r="G26" t="n">
-        <v>15.7379618272747</v>
+        <v>15.4638537117602</v>
       </c>
       <c r="H26" t="n">
-        <v>16.3330945668277</v>
+        <v>17.2772040338191</v>
       </c>
       <c r="I26" t="n">
-        <v>17.6408578242233</v>
+        <v>18.9475200419892</v>
       </c>
       <c r="J26" t="n">
-        <v>18.0942820874502</v>
+        <v>18.8119114564887</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.3619529677097</v>
+        <v>9.74563125924386</v>
       </c>
       <c r="B27" t="n">
-        <v>10.8793652843164</v>
+        <v>10.6013019429775</v>
       </c>
       <c r="C27" t="n">
-        <v>12.7667539722646</v>
+        <v>11.5995822368601</v>
       </c>
       <c r="D27" t="n">
-        <v>13.8730367599146</v>
+        <v>13.5337993129862</v>
       </c>
       <c r="E27" t="n">
-        <v>12.552892126264</v>
+        <v>14.5058272718213</v>
       </c>
       <c r="F27" t="n">
-        <v>16.0653042900291</v>
+        <v>14.8299166558839</v>
       </c>
       <c r="G27" t="n">
-        <v>15.8784066490091</v>
+        <v>14.537092564118</v>
       </c>
       <c r="H27" t="n">
-        <v>17.3857843583518</v>
+        <v>16.9686576944785</v>
       </c>
       <c r="I27" t="n">
-        <v>16.9954669009177</v>
+        <v>17.7510239008138</v>
       </c>
       <c r="J27" t="n">
-        <v>19.0398670117413</v>
+        <v>19.1044036343756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.87127227912793</v>
+        <v>10.1792230519341</v>
       </c>
       <c r="B28" t="n">
-        <v>10.8780392861872</v>
+        <v>9.26898264488277</v>
       </c>
       <c r="C28" t="n">
-        <v>13.0968189864972</v>
+        <v>9.33710524121272</v>
       </c>
       <c r="D28" t="n">
-        <v>11.572801592261</v>
+        <v>8.26332396604337</v>
       </c>
       <c r="E28" t="n">
-        <v>14.7293210646571</v>
+        <v>8.11653914670488</v>
       </c>
       <c r="F28" t="n">
-        <v>15.0982109407911</v>
+        <v>7.53330125967236</v>
       </c>
       <c r="G28" t="n">
-        <v>15.8880111377867</v>
+        <v>7.3903104826939</v>
       </c>
       <c r="H28" t="n">
-        <v>16.5399065755865</v>
+        <v>6.4986328050245</v>
       </c>
       <c r="I28" t="n">
-        <v>18.0573236864392</v>
+        <v>5.844310886126</v>
       </c>
       <c r="J28" t="n">
-        <v>19.866382178132</v>
+        <v>5.30867835208839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.25849722492211</v>
+        <v>9.51913468377454</v>
       </c>
       <c r="B29" t="n">
-        <v>8.40581894599648</v>
+        <v>10.4748562167919</v>
       </c>
       <c r="C29" t="n">
-        <v>7.96119962553073</v>
+        <v>13.1664618832377</v>
       </c>
       <c r="D29" t="n">
-        <v>7.49930461545902</v>
+        <v>12.8161485520812</v>
       </c>
       <c r="E29" t="n">
-        <v>6.87707309269483</v>
+        <v>13.8817651620748</v>
       </c>
       <c r="F29" t="n">
-        <v>6.88148257496941</v>
+        <v>14.5492326504466</v>
       </c>
       <c r="G29" t="n">
-        <v>6.10130221704745</v>
+        <v>16.0357353732638</v>
       </c>
       <c r="H29" t="n">
-        <v>5.6851880339126</v>
+        <v>16.9820826664571</v>
       </c>
       <c r="I29" t="n">
-        <v>5.12341574384035</v>
+        <v>16.8195605755307</v>
       </c>
       <c r="J29" t="n">
-        <v>4.37638958482527</v>
+        <v>19.3673153597432</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.7745595301994</v>
+        <v>9.70946755762537</v>
       </c>
       <c r="B30" t="n">
-        <v>12.1087875120067</v>
+        <v>11.2194653401797</v>
       </c>
       <c r="C30" t="n">
-        <v>12.3848752112304</v>
+        <v>12.7325433999883</v>
       </c>
       <c r="D30" t="n">
-        <v>11.3866709127453</v>
+        <v>13.5241846523596</v>
       </c>
       <c r="E30" t="n">
-        <v>13.8706355027982</v>
+        <v>13.1101142137883</v>
       </c>
       <c r="F30" t="n">
-        <v>16.5973594698057</v>
+        <v>15.1973709849384</v>
       </c>
       <c r="G30" t="n">
-        <v>16.1193104016862</v>
+        <v>15.16914588637</v>
       </c>
       <c r="H30" t="n">
-        <v>16.9236639854632</v>
+        <v>17.4751289963734</v>
       </c>
       <c r="I30" t="n">
-        <v>16.9782372127387</v>
+        <v>16.9779764098418</v>
       </c>
       <c r="J30" t="n">
-        <v>18.4308906801563</v>
+        <v>19.5946466639996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.75630036278524</v>
+        <v>10.062370189489</v>
       </c>
       <c r="B31" t="n">
-        <v>8.48165616875708</v>
+        <v>9.48447676702635</v>
       </c>
       <c r="C31" t="n">
-        <v>8.54573071397146</v>
+        <v>9.30113041662022</v>
       </c>
       <c r="D31" t="n">
-        <v>7.30788995542712</v>
+        <v>8.22659112310328</v>
       </c>
       <c r="E31" t="n">
-        <v>6.71559552154254</v>
+        <v>7.83439625899312</v>
       </c>
       <c r="F31" t="n">
-        <v>6.28161538924065</v>
+        <v>7.77766174071263</v>
       </c>
       <c r="G31" t="n">
-        <v>6.20767150766413</v>
+        <v>6.98135348010523</v>
       </c>
       <c r="H31" t="n">
-        <v>5.61426582960715</v>
+        <v>6.16420762965832</v>
       </c>
       <c r="I31" t="n">
-        <v>5.11927055626221</v>
+        <v>6.00775468475557</v>
       </c>
       <c r="J31" t="n">
-        <v>4.97741027148664</v>
+        <v>5.68031801208174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.1848224192069</v>
+        <v>10.4061777524877</v>
       </c>
       <c r="B32" t="n">
-        <v>8.29240794424528</v>
+        <v>11.9890178275571</v>
       </c>
       <c r="C32" t="n">
-        <v>7.69290589236615</v>
+        <v>12.1250726126754</v>
       </c>
       <c r="D32" t="n">
-        <v>7.5492059051975</v>
+        <v>12.6328225362922</v>
       </c>
       <c r="E32" t="n">
-        <v>6.98617455068992</v>
+        <v>13.6289325125723</v>
       </c>
       <c r="F32" t="n">
-        <v>6.51787669496058</v>
+        <v>15.2741124761191</v>
       </c>
       <c r="G32" t="n">
-        <v>5.68644861437432</v>
+        <v>15.8769034444071</v>
       </c>
       <c r="H32" t="n">
-        <v>5.56019760171528</v>
+        <v>17.6704848803998</v>
       </c>
       <c r="I32" t="n">
-        <v>4.36502685206672</v>
+        <v>18.9558602124959</v>
       </c>
       <c r="J32" t="n">
-        <v>4.78481306534283</v>
+        <v>19.4517371301493</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.68617515590433</v>
+        <v>10.9238454293505</v>
       </c>
       <c r="B33" t="n">
-        <v>11.6423168287586</v>
+        <v>10.9884424779232</v>
       </c>
       <c r="C33" t="n">
-        <v>10.5693892557141</v>
+        <v>12.0602276577518</v>
       </c>
       <c r="D33" t="n">
-        <v>13.4610810010428</v>
+        <v>13.7035340506327</v>
       </c>
       <c r="E33" t="n">
-        <v>14.1477269444527</v>
+        <v>13.9693845581438</v>
       </c>
       <c r="F33" t="n">
-        <v>14.4385493604494</v>
+        <v>15.5778045311179</v>
       </c>
       <c r="G33" t="n">
-        <v>14.9531575609005</v>
+        <v>16.2890005482596</v>
       </c>
       <c r="H33" t="n">
-        <v>16.4245905434412</v>
+        <v>17.2297521666718</v>
       </c>
       <c r="I33" t="n">
-        <v>17.3095745834868</v>
+        <v>18.0353123219388</v>
       </c>
       <c r="J33" t="n">
-        <v>19.0703975563192</v>
+        <v>18.6103685047231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.7356872042005</v>
+        <v>9.50150272853917</v>
       </c>
       <c r="B34" t="n">
-        <v>10.4318660521235</v>
+        <v>9.56920141774238</v>
       </c>
       <c r="C34" t="n">
-        <v>13.3569304691704</v>
+        <v>8.78232401716267</v>
       </c>
       <c r="D34" t="n">
-        <v>12.8019464764691</v>
+        <v>8.54462194508423</v>
       </c>
       <c r="E34" t="n">
-        <v>13.7501293690335</v>
+        <v>7.98646840440591</v>
       </c>
       <c r="F34" t="n">
-        <v>14.8466047552685</v>
+        <v>7.0061060531512</v>
       </c>
       <c r="G34" t="n">
-        <v>14.7665246584122</v>
+        <v>6.99085261097704</v>
       </c>
       <c r="H34" t="n">
-        <v>16.3854748982952</v>
+        <v>6.49557858881087</v>
       </c>
       <c r="I34" t="n">
-        <v>18.484115598993</v>
+        <v>5.79481969058262</v>
       </c>
       <c r="J34" t="n">
-        <v>18.0653000962078</v>
+        <v>5.63577439005433</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.18454500429381</v>
+        <v>9.81925303071881</v>
       </c>
       <c r="B35" t="n">
-        <v>8.09524830887765</v>
+        <v>9.79496391605769</v>
       </c>
       <c r="C35" t="n">
-        <v>8.15683451821132</v>
+        <v>9.18056670495866</v>
       </c>
       <c r="D35" t="n">
-        <v>7.72866590377214</v>
+        <v>8.40602248602459</v>
       </c>
       <c r="E35" t="n">
-        <v>7.23939407703348</v>
+        <v>8.33040482189018</v>
       </c>
       <c r="F35" t="n">
-        <v>6.43569707977763</v>
+        <v>6.78382416905637</v>
       </c>
       <c r="G35" t="n">
-        <v>5.80223977872137</v>
+        <v>6.83461133641973</v>
       </c>
       <c r="H35" t="n">
-        <v>5.14621860264407</v>
+        <v>6.48235139613182</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1502078502352</v>
+        <v>6.04723324272079</v>
       </c>
       <c r="J35" t="n">
-        <v>4.74130430799403</v>
+        <v>5.76012104840853</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8.91408629638688</v>
+        <v>10.6866248457881</v>
       </c>
       <c r="B36" t="n">
-        <v>8.36646561927552</v>
+        <v>10.4809652012151</v>
       </c>
       <c r="C36" t="n">
-        <v>8.16331769180448</v>
+        <v>12.0870017507639</v>
       </c>
       <c r="D36" t="n">
-        <v>7.18906393979726</v>
+        <v>12.674487486128</v>
       </c>
       <c r="E36" t="n">
-        <v>7.06704790803644</v>
+        <v>14.2671809654984</v>
       </c>
       <c r="F36" t="n">
-        <v>6.55588014119665</v>
+        <v>15.0005358216183</v>
       </c>
       <c r="G36" t="n">
-        <v>6.16158503930577</v>
+        <v>15.159475849011</v>
       </c>
       <c r="H36" t="n">
-        <v>5.45657881982678</v>
+        <v>17.8083664899482</v>
       </c>
       <c r="I36" t="n">
-        <v>4.64701500394284</v>
+        <v>18.5102990523752</v>
       </c>
       <c r="J36" t="n">
-        <v>4.62806931471985</v>
+        <v>20.948334678073</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.62990281726313</v>
+        <v>10.2964159767104</v>
       </c>
       <c r="B37" t="n">
-        <v>10.2960825235601</v>
+        <v>9.74316167518028</v>
       </c>
       <c r="C37" t="n">
-        <v>11.6526827172658</v>
+        <v>8.74995942049462</v>
       </c>
       <c r="D37" t="n">
-        <v>11.7975145773397</v>
+        <v>8.88624533787743</v>
       </c>
       <c r="E37" t="n">
-        <v>14.4553457784257</v>
+        <v>8.04117769405008</v>
       </c>
       <c r="F37" t="n">
-        <v>15.4485363312224</v>
+        <v>7.18203488153314</v>
       </c>
       <c r="G37" t="n">
-        <v>16.4191947598519</v>
+        <v>6.86058169118072</v>
       </c>
       <c r="H37" t="n">
-        <v>17.3422923673055</v>
+        <v>6.67297080404304</v>
       </c>
       <c r="I37" t="n">
-        <v>19.0087979895369</v>
+        <v>5.77113639054584</v>
       </c>
       <c r="J37" t="n">
-        <v>19.1020254364589</v>
+        <v>5.48960167062291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8.91308129794258</v>
+        <v>9.61359808695158</v>
       </c>
       <c r="B38" t="n">
-        <v>8.78140903110951</v>
+        <v>9.18919540638908</v>
       </c>
       <c r="C38" t="n">
-        <v>8.27955702411564</v>
+        <v>8.8076526229388</v>
       </c>
       <c r="D38" t="n">
-        <v>7.22459173446809</v>
+        <v>8.47902491839826</v>
       </c>
       <c r="E38" t="n">
-        <v>6.80314156820787</v>
+        <v>7.8448278611617</v>
       </c>
       <c r="F38" t="n">
-        <v>5.89076025008117</v>
+        <v>7.7908814624383</v>
       </c>
       <c r="G38" t="n">
-        <v>5.64202041488481</v>
+        <v>7.73098416693663</v>
       </c>
       <c r="H38" t="n">
-        <v>5.38155192075501</v>
+        <v>6.4832758386766</v>
       </c>
       <c r="I38" t="n">
-        <v>4.89371243813036</v>
+        <v>5.89381000786632</v>
       </c>
       <c r="J38" t="n">
-        <v>4.79601541394381</v>
+        <v>5.76300102360086</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.87055781414725</v>
+        <v>9.57953324076691</v>
       </c>
       <c r="B39" t="n">
-        <v>12.6369563193357</v>
+        <v>9.62032191435897</v>
       </c>
       <c r="C39" t="n">
-        <v>11.4098212564929</v>
+        <v>9.27528569531628</v>
       </c>
       <c r="D39" t="n">
-        <v>13.8738392646179</v>
+        <v>8.4171754045328</v>
       </c>
       <c r="E39" t="n">
-        <v>13.96193478049</v>
+        <v>7.83198197264157</v>
       </c>
       <c r="F39" t="n">
-        <v>14.0353579632026</v>
+        <v>7.08983711087381</v>
       </c>
       <c r="G39" t="n">
-        <v>15.0337623928518</v>
+        <v>7.21325785339772</v>
       </c>
       <c r="H39" t="n">
-        <v>17.7232417542973</v>
+        <v>6.71297312624005</v>
       </c>
       <c r="I39" t="n">
-        <v>18.681055975949</v>
+        <v>6.45291877694167</v>
       </c>
       <c r="J39" t="n">
-        <v>19.5483013965886</v>
+        <v>5.43580394899343</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.59427699850299</v>
+        <v>9.75697754182597</v>
       </c>
       <c r="B40" t="n">
-        <v>8.41797845576774</v>
+        <v>11.2967764416595</v>
       </c>
       <c r="C40" t="n">
-        <v>7.84180025824851</v>
+        <v>11.8478523166804</v>
       </c>
       <c r="D40" t="n">
-        <v>7.86382922647292</v>
+        <v>13.2334550361778</v>
       </c>
       <c r="E40" t="n">
-        <v>6.96388981571878</v>
+        <v>14.9067223302408</v>
       </c>
       <c r="F40" t="n">
-        <v>6.70922765353471</v>
+        <v>14.1670741929863</v>
       </c>
       <c r="G40" t="n">
-        <v>5.66566893894945</v>
+        <v>16.239913752801</v>
       </c>
       <c r="H40" t="n">
-        <v>5.41570188251396</v>
+        <v>17.1791977329533</v>
       </c>
       <c r="I40" t="n">
-        <v>4.99350666133885</v>
+        <v>17.1611190187288</v>
       </c>
       <c r="J40" t="n">
-        <v>4.20628772006923</v>
+        <v>19.9746854189477</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.91694207390414</v>
+        <v>10.3601989213945</v>
       </c>
       <c r="B41" t="n">
-        <v>8.52840125476433</v>
+        <v>10.950197213422</v>
       </c>
       <c r="C41" t="n">
-        <v>8.23005569330398</v>
+        <v>11.287487612818</v>
       </c>
       <c r="D41" t="n">
-        <v>7.69155006115523</v>
+        <v>12.9654184160004</v>
       </c>
       <c r="E41" t="n">
-        <v>7.06320982525043</v>
+        <v>13.6773595696141</v>
       </c>
       <c r="F41" t="n">
-        <v>6.56906849236234</v>
+        <v>14.2887002613768</v>
       </c>
       <c r="G41" t="n">
-        <v>6.27333384742439</v>
+        <v>14.5643058757443</v>
       </c>
       <c r="H41" t="n">
-        <v>5.19861539716826</v>
+        <v>16.7877002929761</v>
       </c>
       <c r="I41" t="n">
-        <v>4.94426029353129</v>
+        <v>18.8846873969787</v>
       </c>
       <c r="J41" t="n">
-        <v>4.28711340220297</v>
+        <v>20.8327969241023</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.87518451535661</v>
+        <v>10.9381292802544</v>
       </c>
       <c r="B42" t="n">
-        <v>11.5809294872764</v>
+        <v>10.6457839413033</v>
       </c>
       <c r="C42" t="n">
-        <v>11.7481237131834</v>
+        <v>10.8096931729455</v>
       </c>
       <c r="D42" t="n">
-        <v>13.7650336583994</v>
+        <v>12.4651343631995</v>
       </c>
       <c r="E42" t="n">
-        <v>14.1811865352365</v>
+        <v>14.3777674671556</v>
       </c>
       <c r="F42" t="n">
-        <v>14.7784943025957</v>
+        <v>15.8585311439807</v>
       </c>
       <c r="G42" t="n">
-        <v>16.8203418908657</v>
+        <v>16.0066085597048</v>
       </c>
       <c r="H42" t="n">
-        <v>17.0612254512217</v>
+        <v>16.2803473706359</v>
       </c>
       <c r="I42" t="n">
-        <v>18.3441590234346</v>
+        <v>18.6586994186171</v>
       </c>
       <c r="J42" t="n">
-        <v>20.0621723801496</v>
+        <v>19.0843698969999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.9154893823304</v>
+        <v>9.29005394387275</v>
       </c>
       <c r="B43" t="n">
-        <v>11.3505351142504</v>
+        <v>9.37308094855588</v>
       </c>
       <c r="C43" t="n">
-        <v>12.1513678711519</v>
+        <v>11.8770559382329</v>
       </c>
       <c r="D43" t="n">
-        <v>11.1393317621386</v>
+        <v>13.1992464519261</v>
       </c>
       <c r="E43" t="n">
-        <v>13.2024536391038</v>
+        <v>13.824391203646</v>
       </c>
       <c r="F43" t="n">
-        <v>14.4974179702062</v>
+        <v>15.069417271771</v>
       </c>
       <c r="G43" t="n">
-        <v>15.9456463509921</v>
+        <v>17.236609024073</v>
       </c>
       <c r="H43" t="n">
-        <v>18.0330753916647</v>
+        <v>17.3582966782443</v>
       </c>
       <c r="I43" t="n">
-        <v>18.363406348559</v>
+        <v>17.6812185584795</v>
       </c>
       <c r="J43" t="n">
-        <v>19.3636393383778</v>
+        <v>18.6810681526606</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.00613681604786</v>
+        <v>10.0296988273221</v>
       </c>
       <c r="B44" t="n">
-        <v>11.1227607518489</v>
+        <v>9.61447352839254</v>
       </c>
       <c r="C44" t="n">
-        <v>11.3334750655502</v>
+        <v>8.65157393334308</v>
       </c>
       <c r="D44" t="n">
-        <v>12.8794915130932</v>
+        <v>8.58159108901999</v>
       </c>
       <c r="E44" t="n">
-        <v>14.484119872998</v>
+        <v>8.26377509720595</v>
       </c>
       <c r="F44" t="n">
-        <v>16.2145030993107</v>
+        <v>7.37800137044937</v>
       </c>
       <c r="G44" t="n">
-        <v>16.7883886890883</v>
+        <v>6.89488451027624</v>
       </c>
       <c r="H44" t="n">
-        <v>16.5806018867715</v>
+        <v>6.13920629886844</v>
       </c>
       <c r="I44" t="n">
-        <v>19.0528253283876</v>
+        <v>6.31508807567088</v>
       </c>
       <c r="J44" t="n">
-        <v>18.1854978927835</v>
+        <v>5.27965661102762</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.2947822346049</v>
+        <v>8.66287488203668</v>
       </c>
       <c r="B45" t="n">
-        <v>10.6810714126856</v>
+        <v>9.92768062175004</v>
       </c>
       <c r="C45" t="n">
-        <v>13.0449534015527</v>
+        <v>13.8386360622172</v>
       </c>
       <c r="D45" t="n">
-        <v>11.5768880272367</v>
+        <v>12.9001836805808</v>
       </c>
       <c r="E45" t="n">
-        <v>13.1238171763342</v>
+        <v>13.9028385801427</v>
       </c>
       <c r="F45" t="n">
-        <v>14.4373577638912</v>
+        <v>14.6032794652545</v>
       </c>
       <c r="G45" t="n">
-        <v>15.9991808045022</v>
+        <v>15.35484072491</v>
       </c>
       <c r="H45" t="n">
-        <v>17.4623105625461</v>
+        <v>16.2371360593969</v>
       </c>
       <c r="I45" t="n">
-        <v>17.9104361689359</v>
+        <v>19.1493014792418</v>
       </c>
       <c r="J45" t="n">
-        <v>17.9535468168007</v>
+        <v>19.1154385523505</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.73731793638483</v>
+        <v>10.2061066417484</v>
       </c>
       <c r="B46" t="n">
-        <v>10.0377818586545</v>
+        <v>10.0013812215696</v>
       </c>
       <c r="C46" t="n">
-        <v>12.9920899143998</v>
+        <v>9.37952445797555</v>
       </c>
       <c r="D46" t="n">
-        <v>12.7690797074319</v>
+        <v>8.54451511356831</v>
       </c>
       <c r="E46" t="n">
-        <v>15.4988128656658</v>
+        <v>7.9696402276654</v>
       </c>
       <c r="F46" t="n">
-        <v>14.407019166584</v>
+        <v>7.5190557699774</v>
       </c>
       <c r="G46" t="n">
-        <v>15.8464019435995</v>
+        <v>7.04396602737914</v>
       </c>
       <c r="H46" t="n">
-        <v>17.0853244416386</v>
+        <v>6.75798031526207</v>
       </c>
       <c r="I46" t="n">
-        <v>18.471739619563</v>
+        <v>5.75903299184092</v>
       </c>
       <c r="J46" t="n">
-        <v>19.5162029835114</v>
+        <v>5.51809712009309</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.80838888788331</v>
+        <v>9.26273643573989</v>
       </c>
       <c r="B47" t="n">
-        <v>12.017067840841</v>
+        <v>9.41888364913879</v>
       </c>
       <c r="C47" t="n">
-        <v>11.4853060424497</v>
+        <v>12.3863000695722</v>
       </c>
       <c r="D47" t="n">
-        <v>12.1755283453842</v>
+        <v>12.6453474314013</v>
       </c>
       <c r="E47" t="n">
-        <v>14.5286374304595</v>
+        <v>15.5267251775189</v>
       </c>
       <c r="F47" t="n">
-        <v>15.6920608026883</v>
+        <v>14.8444766849062</v>
       </c>
       <c r="G47" t="n">
-        <v>16.0754543910764</v>
+        <v>15.8666519360611</v>
       </c>
       <c r="H47" t="n">
-        <v>17.664117541859</v>
+        <v>18.1674312234938</v>
       </c>
       <c r="I47" t="n">
-        <v>17.1230183231812</v>
+        <v>17.3488977423908</v>
       </c>
       <c r="J47" t="n">
-        <v>19.178242388724</v>
+        <v>17.804566085689</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11.4802589143184</v>
+        <v>9.70058047181857</v>
       </c>
       <c r="B48" t="n">
-        <v>11.2296388822345</v>
+        <v>10.336921081817</v>
       </c>
       <c r="C48" t="n">
-        <v>11.230487176877</v>
+        <v>12.1723647794492</v>
       </c>
       <c r="D48" t="n">
-        <v>12.557595014932</v>
+        <v>13.4098414963427</v>
       </c>
       <c r="E48" t="n">
-        <v>14.4261541583377</v>
+        <v>14.1385608414246</v>
       </c>
       <c r="F48" t="n">
-        <v>15.602117197964</v>
+        <v>14.2580172424925</v>
       </c>
       <c r="G48" t="n">
-        <v>16.5800878764978</v>
+        <v>17.2783090740613</v>
       </c>
       <c r="H48" t="n">
-        <v>16.4476058046697</v>
+        <v>16.1880325182989</v>
       </c>
       <c r="I48" t="n">
-        <v>17.0167651693791</v>
+        <v>18.0450969790693</v>
       </c>
       <c r="J48" t="n">
-        <v>19.8379227755943</v>
+        <v>18.0503668089174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.7878471839741</v>
+        <v>10.4540638064848</v>
       </c>
       <c r="B49" t="n">
-        <v>8.26084908461167</v>
+        <v>12.3212814552997</v>
       </c>
       <c r="C49" t="n">
-        <v>8.05830042443334</v>
+        <v>10.9442813709609</v>
       </c>
       <c r="D49" t="n">
-        <v>7.36133725189772</v>
+        <v>11.192217735317</v>
       </c>
       <c r="E49" t="n">
-        <v>7.03628492333934</v>
+        <v>15.2636082756375</v>
       </c>
       <c r="F49" t="n">
-        <v>6.20223796554664</v>
+        <v>16.2858368627121</v>
       </c>
       <c r="G49" t="n">
-        <v>5.62006400599354</v>
+        <v>16.9494971398411</v>
       </c>
       <c r="H49" t="n">
-        <v>5.45999123191382</v>
+        <v>16.5633141070755</v>
       </c>
       <c r="I49" t="n">
-        <v>5.06229332124152</v>
+        <v>18.3609758274005</v>
       </c>
       <c r="J49" t="n">
-        <v>4.4489808077361</v>
+        <v>19.2972807690411</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9.93073291867281</v>
+        <v>10.4016770570351</v>
       </c>
       <c r="B50" t="n">
-        <v>9.61007628562004</v>
+        <v>10.0403699418337</v>
       </c>
       <c r="C50" t="n">
-        <v>11.8809535388978</v>
+        <v>11.3254205148145</v>
       </c>
       <c r="D50" t="n">
-        <v>13.0651083948929</v>
+        <v>13.1466905977929</v>
       </c>
       <c r="E50" t="n">
-        <v>15.0798464899078</v>
+        <v>13.2137064646258</v>
       </c>
       <c r="F50" t="n">
-        <v>15.0497268464217</v>
+        <v>15.6625968967969</v>
       </c>
       <c r="G50" t="n">
-        <v>15.9726890598547</v>
+        <v>16.4744732725805</v>
       </c>
       <c r="H50" t="n">
-        <v>16.5568595347238</v>
+        <v>17.1069360849008</v>
       </c>
       <c r="I50" t="n">
-        <v>19.0352577879429</v>
+        <v>17.5875215171718</v>
       </c>
       <c r="J50" t="n">
-        <v>19.3789432104032</v>
+        <v>19.5813174094422</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.18697143016159</v>
+        <v>10.1719408824866</v>
       </c>
       <c r="B51" t="n">
-        <v>11.8841801827861</v>
+        <v>10.1953897838178</v>
       </c>
       <c r="C51" t="n">
-        <v>10.9763747245941</v>
+        <v>11.6737015232409</v>
       </c>
       <c r="D51" t="n">
-        <v>12.5143351578208</v>
+        <v>12.4090393642624</v>
       </c>
       <c r="E51" t="n">
-        <v>14.4842775745579</v>
+        <v>14.1873414632208</v>
       </c>
       <c r="F51" t="n">
-        <v>15.1322555868574</v>
+        <v>15.0816553903282</v>
       </c>
       <c r="G51" t="n">
-        <v>15.1446931618456</v>
+        <v>16.2230639381865</v>
       </c>
       <c r="H51" t="n">
-        <v>16.4145526574104</v>
+        <v>17.1881160956496</v>
       </c>
       <c r="I51" t="n">
-        <v>17.9400218659762</v>
+        <v>18.7296950460168</v>
       </c>
       <c r="J51" t="n">
-        <v>19.4854560035341</v>
+        <v>20.3204589289125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.2811903767474</v>
+        <v>8.73774165041532</v>
       </c>
       <c r="B52" t="n">
-        <v>9.21554764432542</v>
+        <v>10.7597111872397</v>
       </c>
       <c r="C52" t="n">
-        <v>11.2543967327205</v>
+        <v>13.1924470353645</v>
       </c>
       <c r="D52" t="n">
-        <v>13.6996106146417</v>
+        <v>12.9777766043911</v>
       </c>
       <c r="E52" t="n">
-        <v>14.7570823770879</v>
+        <v>14.1393591761514</v>
       </c>
       <c r="F52" t="n">
-        <v>13.7961259726594</v>
+        <v>14.6815181513722</v>
       </c>
       <c r="G52" t="n">
-        <v>14.9652343278117</v>
+        <v>15.9567945348991</v>
       </c>
       <c r="H52" t="n">
-        <v>16.0535619488861</v>
+        <v>17.58112036841</v>
       </c>
       <c r="I52" t="n">
-        <v>16.7959757522317</v>
+        <v>19.1850840476194</v>
       </c>
       <c r="J52" t="n">
-        <v>18.6425090632315</v>
+        <v>20.0158473347585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.5923926642363</v>
+        <v>10.194983496423</v>
       </c>
       <c r="B53" t="n">
-        <v>11.4389299672638</v>
+        <v>12.7190441812037</v>
       </c>
       <c r="C53" t="n">
-        <v>12.7821414459228</v>
+        <v>12.0062557349402</v>
       </c>
       <c r="D53" t="n">
-        <v>12.8545331622877</v>
+        <v>12.6123299601934</v>
       </c>
       <c r="E53" t="n">
-        <v>14.2520806133252</v>
+        <v>13.3637837095555</v>
       </c>
       <c r="F53" t="n">
-        <v>15.8805680676475</v>
+        <v>14.5243061108568</v>
       </c>
       <c r="G53" t="n">
-        <v>16.6823927041771</v>
+        <v>16.4102732292151</v>
       </c>
       <c r="H53" t="n">
-        <v>17.3226693901632</v>
+        <v>16.624495498683</v>
       </c>
       <c r="I53" t="n">
-        <v>17.4833222141578</v>
+        <v>16.7666851902786</v>
       </c>
       <c r="J53" t="n">
-        <v>18.4115302840031</v>
+        <v>18.061154889856</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.25393241585361</v>
+        <v>9.66527578923545</v>
       </c>
       <c r="B54" t="n">
-        <v>8.55447718777774</v>
+        <v>11.6290418263076</v>
       </c>
       <c r="C54" t="n">
-        <v>8.3706807152021</v>
+        <v>13.0414697142158</v>
       </c>
       <c r="D54" t="n">
-        <v>7.27002990687009</v>
+        <v>13.4956143153269</v>
       </c>
       <c r="E54" t="n">
-        <v>6.89632834885029</v>
+        <v>14.4015428509166</v>
       </c>
       <c r="F54" t="n">
-        <v>6.78468564779903</v>
+        <v>14.6242926883416</v>
       </c>
       <c r="G54" t="n">
-        <v>5.63927592149159</v>
+        <v>15.3662150629563</v>
       </c>
       <c r="H54" t="n">
-        <v>5.46536640106003</v>
+        <v>17.1948376685899</v>
       </c>
       <c r="I54" t="n">
-        <v>4.92058728298014</v>
+        <v>18.5109966605611</v>
       </c>
       <c r="J54" t="n">
-        <v>4.45617875341786</v>
+        <v>19.3875172208274</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.85312993934547</v>
+        <v>9.93251120438577</v>
       </c>
       <c r="B55" t="n">
-        <v>10.9494619888965</v>
+        <v>9.84084448326859</v>
       </c>
       <c r="C55" t="n">
-        <v>10.5327606755733</v>
+        <v>9.4834538731889</v>
       </c>
       <c r="D55" t="n">
-        <v>14.7775223353801</v>
+        <v>7.89986080963695</v>
       </c>
       <c r="E55" t="n">
-        <v>15.2495503678705</v>
+        <v>8.39786400065588</v>
       </c>
       <c r="F55" t="n">
-        <v>15.0101620488406</v>
+        <v>7.54043091817321</v>
       </c>
       <c r="G55" t="n">
-        <v>16.7065245683346</v>
+        <v>7.23227068038066</v>
       </c>
       <c r="H55" t="n">
-        <v>17.4853670949177</v>
+        <v>6.67066067197188</v>
       </c>
       <c r="I55" t="n">
-        <v>18.5792741130544</v>
+        <v>5.9886853433791</v>
       </c>
       <c r="J55" t="n">
-        <v>19.2348549672439</v>
+        <v>5.41129418218721</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.31928751012175</v>
+        <v>10.1410318994389</v>
       </c>
       <c r="B56" t="n">
-        <v>10.9765649918429</v>
+        <v>11.1639763574891</v>
       </c>
       <c r="C56" t="n">
-        <v>12.3701131272487</v>
+        <v>11.2809070268208</v>
       </c>
       <c r="D56" t="n">
-        <v>13.0195599624721</v>
+        <v>13.284322791538</v>
       </c>
       <c r="E56" t="n">
-        <v>13.7211847906329</v>
+        <v>12.8603267271933</v>
       </c>
       <c r="F56" t="n">
-        <v>14.7686664930188</v>
+        <v>15.8650347790506</v>
       </c>
       <c r="G56" t="n">
-        <v>15.7596930216923</v>
+        <v>16.2477753713189</v>
       </c>
       <c r="H56" t="n">
-        <v>17.1443299797827</v>
+        <v>16.172236922306</v>
       </c>
       <c r="I56" t="n">
-        <v>18.616324655191</v>
+        <v>18.3299536509043</v>
       </c>
       <c r="J56" t="n">
-        <v>19.5466543842083</v>
+        <v>18.4369404183406</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.24564425819948</v>
+        <v>10.010428950091</v>
       </c>
       <c r="B57" t="n">
-        <v>8.64149663485954</v>
+        <v>11.5814269092442</v>
       </c>
       <c r="C57" t="n">
-        <v>7.58007642577381</v>
+        <v>11.8916343724143</v>
       </c>
       <c r="D57" t="n">
-        <v>7.45401446507612</v>
+        <v>13.4019433863584</v>
       </c>
       <c r="E57" t="n">
-        <v>6.99921711405498</v>
+        <v>15.0773851396195</v>
       </c>
       <c r="F57" t="n">
-        <v>6.76616671512448</v>
+        <v>14.2975957312361</v>
       </c>
       <c r="G57" t="n">
-        <v>6.26134359128918</v>
+        <v>15.4191960494305</v>
       </c>
       <c r="H57" t="n">
-        <v>5.2659838504777</v>
+        <v>17.140788890531</v>
       </c>
       <c r="I57" t="n">
-        <v>5.39384797772527</v>
+        <v>18.1575951977633</v>
       </c>
       <c r="J57" t="n">
-        <v>4.69962653520353</v>
+        <v>19.8609484093697</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9.85641186096536</v>
+        <v>8.91625768627834</v>
       </c>
       <c r="B58" t="n">
-        <v>12.3439712294814</v>
+        <v>10.6361241625732</v>
       </c>
       <c r="C58" t="n">
-        <v>12.0139330694797</v>
+        <v>13.5934456653458</v>
       </c>
       <c r="D58" t="n">
-        <v>11.3985778728841</v>
+        <v>13.084017779189</v>
       </c>
       <c r="E58" t="n">
-        <v>14.2708381612473</v>
+        <v>13.2843794814762</v>
       </c>
       <c r="F58" t="n">
-        <v>14.100339464788</v>
+        <v>15.4956453189202</v>
       </c>
       <c r="G58" t="n">
-        <v>16.4595318115022</v>
+        <v>15.9609122391889</v>
       </c>
       <c r="H58" t="n">
-        <v>17.6885478363096</v>
+        <v>17.2465969123322</v>
       </c>
       <c r="I58" t="n">
-        <v>18.0416296347</v>
+        <v>19.9454468895906</v>
       </c>
       <c r="J58" t="n">
-        <v>20.8838153081841</v>
+        <v>17.9651667014766</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.93578128467444</v>
+        <v>10.0133863157927</v>
       </c>
       <c r="B59" t="n">
-        <v>8.45011346215498</v>
+        <v>11.6812664758674</v>
       </c>
       <c r="C59" t="n">
-        <v>7.8611900587755</v>
+        <v>12.8775172353823</v>
       </c>
       <c r="D59" t="n">
-        <v>7.70653233320204</v>
+        <v>12.5595583539879</v>
       </c>
       <c r="E59" t="n">
-        <v>6.85157202312676</v>
+        <v>13.2820432626302</v>
       </c>
       <c r="F59" t="n">
-        <v>6.81423365627711</v>
+        <v>14.4533876447178</v>
       </c>
       <c r="G59" t="n">
-        <v>5.88912938120585</v>
+        <v>16.6880113711215</v>
       </c>
       <c r="H59" t="n">
-        <v>5.39253728773014</v>
+        <v>16.1189128960322</v>
       </c>
       <c r="I59" t="n">
-        <v>5.37521436674308</v>
+        <v>17.4071588697482</v>
       </c>
       <c r="J59" t="n">
-        <v>4.3874856671922</v>
+        <v>19.4102126638654</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.41616182108348</v>
+        <v>9.22527457971873</v>
       </c>
       <c r="B60" t="n">
-        <v>9.60290496417748</v>
+        <v>10.7790226729012</v>
       </c>
       <c r="C60" t="n">
-        <v>11.1139370625521</v>
+        <v>11.3013235844884</v>
       </c>
       <c r="D60" t="n">
-        <v>14.0951019797843</v>
+        <v>14.5094000474094</v>
       </c>
       <c r="E60" t="n">
-        <v>13.5890456062699</v>
+        <v>14.4382853605507</v>
       </c>
       <c r="F60" t="n">
-        <v>14.0749097253866</v>
+        <v>15.04852126159</v>
       </c>
       <c r="G60" t="n">
-        <v>16.0206929258223</v>
+        <v>15.4962172148651</v>
       </c>
       <c r="H60" t="n">
-        <v>17.4363572647345</v>
+        <v>19.0829685818464</v>
       </c>
       <c r="I60" t="n">
-        <v>18.7637439376987</v>
+        <v>18.2909680413402</v>
       </c>
       <c r="J60" t="n">
-        <v>19.8087995120578</v>
+        <v>19.6577566608059</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.8369795151602</v>
+        <v>10.1951518318997</v>
       </c>
       <c r="B61" t="n">
-        <v>11.6602745434499</v>
+        <v>10.4634239737993</v>
       </c>
       <c r="C61" t="n">
-        <v>11.3727576090072</v>
+        <v>13.1457875455919</v>
       </c>
       <c r="D61" t="n">
-        <v>13.8669213686622</v>
+        <v>12.3319967185909</v>
       </c>
       <c r="E61" t="n">
-        <v>12.9442692507194</v>
+        <v>14.2492551544558</v>
       </c>
       <c r="F61" t="n">
-        <v>14.1970596369957</v>
+        <v>14.623341167675</v>
       </c>
       <c r="G61" t="n">
-        <v>16.012404959523</v>
+        <v>15.7740425098336</v>
       </c>
       <c r="H61" t="n">
-        <v>15.9352430398787</v>
+        <v>17.3555225912319</v>
       </c>
       <c r="I61" t="n">
-        <v>17.6339422830948</v>
+        <v>17.792484029672</v>
       </c>
       <c r="J61" t="n">
-        <v>19.1553260287077</v>
+        <v>19.1059162454385</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.31674257889249</v>
+        <v>9.875813080796</v>
       </c>
       <c r="B62" t="n">
-        <v>8.38035887693108</v>
+        <v>9.48901852654187</v>
       </c>
       <c r="C62" t="n">
-        <v>8.1639877652568</v>
+        <v>8.73236595480675</v>
       </c>
       <c r="D62" t="n">
-        <v>7.80294311431833</v>
+        <v>8.68346792225727</v>
       </c>
       <c r="E62" t="n">
-        <v>6.41716118016602</v>
+        <v>7.80213605026774</v>
       </c>
       <c r="F62" t="n">
-        <v>6.54321821246249</v>
+        <v>7.56826319446364</v>
       </c>
       <c r="G62" t="n">
-        <v>5.72518168201434</v>
+        <v>7.40673686551855</v>
       </c>
       <c r="H62" t="n">
-        <v>5.42483806295134</v>
+        <v>6.66505093093631</v>
       </c>
       <c r="I62" t="n">
-        <v>5.02607160062205</v>
+        <v>6.14698122072185</v>
       </c>
       <c r="J62" t="n">
-        <v>4.5169074175295</v>
+        <v>5.39069176700364</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.9260734725464</v>
+        <v>10.8465234260342</v>
       </c>
       <c r="B63" t="n">
-        <v>10.1340763228746</v>
+        <v>10.5677388427961</v>
       </c>
       <c r="C63" t="n">
-        <v>11.9840144880114</v>
+        <v>12.1995824342457</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4355077801409</v>
+        <v>12.8805060612767</v>
       </c>
       <c r="E63" t="n">
-        <v>14.0658442950374</v>
+        <v>14.525131276966</v>
       </c>
       <c r="F63" t="n">
-        <v>14.6062490138205</v>
+        <v>14.2977632215825</v>
       </c>
       <c r="G63" t="n">
-        <v>16.3208704525761</v>
+        <v>15.5410921707239</v>
       </c>
       <c r="H63" t="n">
-        <v>17.2352493300875</v>
+        <v>16.0351103993703</v>
       </c>
       <c r="I63" t="n">
-        <v>18.3849909336983</v>
+        <v>16.5980064939646</v>
       </c>
       <c r="J63" t="n">
-        <v>18.9306466351188</v>
+        <v>20.7001514350479</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.84609110364858</v>
+        <v>9.26881412747046</v>
       </c>
       <c r="B64" t="n">
-        <v>12.2259653240035</v>
+        <v>10.284385002222</v>
       </c>
       <c r="C64" t="n">
-        <v>12.5599467630915</v>
+        <v>12.7399640237369</v>
       </c>
       <c r="D64" t="n">
-        <v>14.0320982291627</v>
+        <v>12.4000681176811</v>
       </c>
       <c r="E64" t="n">
-        <v>13.4927069111999</v>
+        <v>13.584002983538</v>
       </c>
       <c r="F64" t="n">
-        <v>14.6854424823706</v>
+        <v>12.9597387815623</v>
       </c>
       <c r="G64" t="n">
-        <v>16.2862696285757</v>
+        <v>15.2952112639956</v>
       </c>
       <c r="H64" t="n">
-        <v>17.4730453856507</v>
+        <v>16.7479103115703</v>
       </c>
       <c r="I64" t="n">
-        <v>18.3483972997276</v>
+        <v>19.1757474545886</v>
       </c>
       <c r="J64" t="n">
-        <v>19.0350153819607</v>
+        <v>19.7274349152926</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9.24994458360133</v>
+        <v>11.0796400603976</v>
       </c>
       <c r="B65" t="n">
-        <v>8.42491059634826</v>
+        <v>10.3171229012755</v>
       </c>
       <c r="C65" t="n">
-        <v>8.16839302110309</v>
+        <v>12.9438450567402</v>
       </c>
       <c r="D65" t="n">
-        <v>7.42091580385093</v>
+        <v>12.0877369300293</v>
       </c>
       <c r="E65" t="n">
-        <v>6.80115240033895</v>
+        <v>13.3774596043299</v>
       </c>
       <c r="F65" t="n">
-        <v>6.36338177500077</v>
+        <v>14.383464986583</v>
       </c>
       <c r="G65" t="n">
-        <v>5.7581501053436</v>
+        <v>16.7473951817517</v>
       </c>
       <c r="H65" t="n">
-        <v>6.17585938543202</v>
+        <v>17.1797333275824</v>
       </c>
       <c r="I65" t="n">
-        <v>5.27041701406949</v>
+        <v>17.6119900377761</v>
       </c>
       <c r="J65" t="n">
-        <v>4.47912091308393</v>
+        <v>18.4276611877152</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.1708009662488</v>
+        <v>11.1587775829833</v>
       </c>
       <c r="B66" t="n">
-        <v>9.82217203406896</v>
+        <v>12.0360023640432</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8526859973473</v>
+        <v>10.6623687802703</v>
       </c>
       <c r="D66" t="n">
-        <v>14.0104509284025</v>
+        <v>14.1929523691448</v>
       </c>
       <c r="E66" t="n">
-        <v>13.6016208529982</v>
+        <v>14.9627792044748</v>
       </c>
       <c r="F66" t="n">
-        <v>13.4627234188033</v>
+        <v>16.5324254866127</v>
       </c>
       <c r="G66" t="n">
-        <v>15.9091332129506</v>
+        <v>15.4618436875995</v>
       </c>
       <c r="H66" t="n">
-        <v>16.1882803144697</v>
+        <v>17.443562551061</v>
       </c>
       <c r="I66" t="n">
-        <v>19.7624637187859</v>
+        <v>18.0972649183497</v>
       </c>
       <c r="J66" t="n">
-        <v>19.1063777449943</v>
+        <v>18.233404656092</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8.78839979231691</v>
+        <v>9.75945305355056</v>
       </c>
       <c r="B67" t="n">
-        <v>8.62977427632437</v>
+        <v>9.26038004192696</v>
       </c>
       <c r="C67" t="n">
-        <v>8.00208123696921</v>
+        <v>8.91816791516066</v>
       </c>
       <c r="D67" t="n">
-        <v>7.23962079972009</v>
+        <v>8.28604867023006</v>
       </c>
       <c r="E67" t="n">
-        <v>6.71502508459231</v>
+        <v>7.74928095962071</v>
       </c>
       <c r="F67" t="n">
-        <v>6.77218756655605</v>
+        <v>7.24104251795907</v>
       </c>
       <c r="G67" t="n">
-        <v>5.80657966321243</v>
+        <v>7.74429879620691</v>
       </c>
       <c r="H67" t="n">
-        <v>5.20915976975544</v>
+        <v>6.37053532987234</v>
       </c>
       <c r="I67" t="n">
-        <v>4.71679208981443</v>
+        <v>6.2771941421464</v>
       </c>
       <c r="J67" t="n">
-        <v>4.64661443271785</v>
+        <v>5.81209962745816</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8.92915804508509</v>
+        <v>9.69926239547805</v>
       </c>
       <c r="B68" t="n">
-        <v>8.37149261073335</v>
+        <v>11.8013556761106</v>
       </c>
       <c r="C68" t="n">
-        <v>8.0851398251488</v>
+        <v>11.803814670681</v>
       </c>
       <c r="D68" t="n">
-        <v>7.66218355636129</v>
+        <v>12.926801302127</v>
       </c>
       <c r="E68" t="n">
-        <v>6.78449402897661</v>
+        <v>13.7094812348392</v>
       </c>
       <c r="F68" t="n">
-        <v>6.36837756373926</v>
+        <v>15.258369276336</v>
       </c>
       <c r="G68" t="n">
-        <v>5.721776778009</v>
+        <v>16.0272912124288</v>
       </c>
       <c r="H68" t="n">
-        <v>5.77356337375531</v>
+        <v>16.2839431425398</v>
       </c>
       <c r="I68" t="n">
-        <v>5.01499618719696</v>
+        <v>18.4735858517659</v>
       </c>
       <c r="J68" t="n">
-        <v>4.33188475364605</v>
+        <v>19.2454675965257</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.51874790708047</v>
+        <v>9.59229266066502</v>
       </c>
       <c r="B69" t="n">
-        <v>8.75307315435273</v>
+        <v>11.9587293906966</v>
       </c>
       <c r="C69" t="n">
-        <v>8.09712523710514</v>
+        <v>11.7247374044862</v>
       </c>
       <c r="D69" t="n">
-        <v>7.38512169224497</v>
+        <v>13.2777375668992</v>
       </c>
       <c r="E69" t="n">
-        <v>6.71942317660953</v>
+        <v>14.4875419376128</v>
       </c>
       <c r="F69" t="n">
-        <v>6.51836197555324</v>
+        <v>14.4366813078842</v>
       </c>
       <c r="G69" t="n">
-        <v>6.16455350479913</v>
+        <v>17.4811968438198</v>
       </c>
       <c r="H69" t="n">
-        <v>5.11950928538513</v>
+        <v>17.7995113306924</v>
       </c>
       <c r="I69" t="n">
-        <v>4.84781428512588</v>
+        <v>18.5878199542819</v>
       </c>
       <c r="J69" t="n">
-        <v>4.67540072276527</v>
+        <v>19.0145315922371</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.1444372896147</v>
+        <v>9.24206071291849</v>
       </c>
       <c r="B70" t="n">
-        <v>10.4169944819331</v>
+        <v>10.9813183223795</v>
       </c>
       <c r="C70" t="n">
-        <v>12.0936125250409</v>
+        <v>11.4875769656475</v>
       </c>
       <c r="D70" t="n">
-        <v>13.2340827777789</v>
+        <v>13.7101691834152</v>
       </c>
       <c r="E70" t="n">
-        <v>14.5166097453094</v>
+        <v>12.681503755782</v>
       </c>
       <c r="F70" t="n">
-        <v>15.3903476367501</v>
+        <v>14.6474328575052</v>
       </c>
       <c r="G70" t="n">
-        <v>16.455132992111</v>
+        <v>17.1680336344455</v>
       </c>
       <c r="H70" t="n">
-        <v>17.5047085639723</v>
+        <v>17.3874630640547</v>
       </c>
       <c r="I70" t="n">
-        <v>16.6560237704438</v>
+        <v>19.5184909177917</v>
       </c>
       <c r="J70" t="n">
-        <v>19.1774370200537</v>
+        <v>19.9772005748261</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.06752514035306</v>
+        <v>10.2475813800684</v>
       </c>
       <c r="B71" t="n">
-        <v>8.71190339677587</v>
+        <v>9.73171912384359</v>
       </c>
       <c r="C71" t="n">
-        <v>7.857417245898</v>
+        <v>9.21977554215777</v>
       </c>
       <c r="D71" t="n">
-        <v>7.23066508245645</v>
+        <v>8.34980471797159</v>
       </c>
       <c r="E71" t="n">
-        <v>6.77849482053626</v>
+        <v>8.15131487886964</v>
       </c>
       <c r="F71" t="n">
-        <v>6.42164365154796</v>
+        <v>7.25839431213801</v>
       </c>
       <c r="G71" t="n">
-        <v>5.63217721770883</v>
+        <v>6.80198581924205</v>
       </c>
       <c r="H71" t="n">
-        <v>5.827700675807</v>
+        <v>6.66344469516166</v>
       </c>
       <c r="I71" t="n">
-        <v>4.95789527549604</v>
+        <v>5.65336118398013</v>
       </c>
       <c r="J71" t="n">
-        <v>4.25430431951089</v>
+        <v>5.26185171953777</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.74865923969932</v>
+        <v>9.83171821271308</v>
       </c>
       <c r="B72" t="n">
-        <v>8.68574093616601</v>
+        <v>12.0127885303655</v>
       </c>
       <c r="C72" t="n">
-        <v>7.9735226747506</v>
+        <v>11.6759106232028</v>
       </c>
       <c r="D72" t="n">
-        <v>7.4646227059338</v>
+        <v>11.6067422694086</v>
       </c>
       <c r="E72" t="n">
-        <v>6.88601223707588</v>
+        <v>15.1267457036784</v>
       </c>
       <c r="F72" t="n">
-        <v>6.90137341207663</v>
+        <v>14.7543970684934</v>
       </c>
       <c r="G72" t="n">
-        <v>6.00173862936804</v>
+        <v>15.7724217145822</v>
       </c>
       <c r="H72" t="n">
-        <v>4.99645317862334</v>
+        <v>17.7563998004248</v>
       </c>
       <c r="I72" t="n">
-        <v>5.27202257986128</v>
+        <v>18.693545315425</v>
       </c>
       <c r="J72" t="n">
-        <v>4.72277299200606</v>
+        <v>18.6700360580563</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.4617818696073</v>
+        <v>9.00931020237129</v>
       </c>
       <c r="B73" t="n">
-        <v>10.0560044585854</v>
+        <v>10.448933910671</v>
       </c>
       <c r="C73" t="n">
-        <v>11.4624260059113</v>
+        <v>12.7553257359645</v>
       </c>
       <c r="D73" t="n">
-        <v>13.6571680042534</v>
+        <v>12.14619786409</v>
       </c>
       <c r="E73" t="n">
-        <v>15.010020561487</v>
+        <v>13.6287457108252</v>
       </c>
       <c r="F73" t="n">
-        <v>14.7080409047173</v>
+        <v>13.5096060524581</v>
       </c>
       <c r="G73" t="n">
-        <v>16.4747105354452</v>
+        <v>14.3830857140253</v>
       </c>
       <c r="H73" t="n">
-        <v>16.6735754267414</v>
+        <v>16.7857088735919</v>
       </c>
       <c r="I73" t="n">
-        <v>18.2638389879738</v>
+        <v>18.5853224516144</v>
       </c>
       <c r="J73" t="n">
-        <v>19.7381915185288</v>
+        <v>18.5964713790402</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.9227638209014</v>
+        <v>10.1182592363367</v>
       </c>
       <c r="B74" t="n">
-        <v>8.47122410222569</v>
+        <v>9.61912592586789</v>
       </c>
       <c r="C74" t="n">
-        <v>7.92478693250288</v>
+        <v>8.6704226788889</v>
       </c>
       <c r="D74" t="n">
-        <v>7.62472883668117</v>
+        <v>8.64772891935162</v>
       </c>
       <c r="E74" t="n">
-        <v>7.31053492849534</v>
+        <v>8.07450290625292</v>
       </c>
       <c r="F74" t="n">
-        <v>6.88387335279699</v>
+        <v>7.65176762642739</v>
       </c>
       <c r="G74" t="n">
-        <v>6.46679912359245</v>
+        <v>7.14142339445985</v>
       </c>
       <c r="H74" t="n">
-        <v>5.4022406780074</v>
+        <v>6.59575833707548</v>
       </c>
       <c r="I74" t="n">
-        <v>5.04975697558464</v>
+        <v>6.18793149823128</v>
       </c>
       <c r="J74" t="n">
-        <v>4.2466409990247</v>
+        <v>5.79602842599882</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9.00304999469477</v>
+        <v>10.5102009970083</v>
       </c>
       <c r="B75" t="n">
-        <v>8.51306710019204</v>
+        <v>11.7094965224073</v>
       </c>
       <c r="C75" t="n">
-        <v>7.9166816046597</v>
+        <v>12.4245240782073</v>
       </c>
       <c r="D75" t="n">
-        <v>7.53642440293061</v>
+        <v>13.8801136040163</v>
       </c>
       <c r="E75" t="n">
-        <v>7.45735539946435</v>
+        <v>12.9604678768632</v>
       </c>
       <c r="F75" t="n">
-        <v>6.18838084444569</v>
+        <v>15.4269537875317</v>
       </c>
       <c r="G75" t="n">
-        <v>5.91590452986474</v>
+        <v>15.60077656571</v>
       </c>
       <c r="H75" t="n">
-        <v>5.61525495077628</v>
+        <v>16.956538949019</v>
       </c>
       <c r="I75" t="n">
-        <v>4.8019000979691</v>
+        <v>18.8138633622036</v>
       </c>
       <c r="J75" t="n">
-        <v>4.08914749681337</v>
+        <v>18.9169545337104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.41204707294359</v>
+        <v>11.0439915053426</v>
       </c>
       <c r="B76" t="n">
-        <v>8.38627308561163</v>
+        <v>11.2301611960731</v>
       </c>
       <c r="C76" t="n">
-        <v>7.67923962610141</v>
+        <v>12.5007154763482</v>
       </c>
       <c r="D76" t="n">
-        <v>7.53762764447123</v>
+        <v>13.4126416893269</v>
       </c>
       <c r="E76" t="n">
-        <v>7.241094436532</v>
+        <v>14.420585845803</v>
       </c>
       <c r="F76" t="n">
-        <v>6.6109367969854</v>
+        <v>15.3415364037124</v>
       </c>
       <c r="G76" t="n">
-        <v>5.86641432078483</v>
+        <v>16.6992707096175</v>
       </c>
       <c r="H76" t="n">
-        <v>5.40566860800198</v>
+        <v>16.5045301550322</v>
       </c>
       <c r="I76" t="n">
-        <v>5.24784397927913</v>
+        <v>18.4261477023453</v>
       </c>
       <c r="J76" t="n">
-        <v>4.61943790273273</v>
+        <v>19.1894114944778</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.0871216208034</v>
+        <v>9.38921736787298</v>
       </c>
       <c r="B77" t="n">
-        <v>9.9209963140694</v>
+        <v>9.93816010574172</v>
       </c>
       <c r="C77" t="n">
-        <v>13.2011208353232</v>
+        <v>11.0440664339376</v>
       </c>
       <c r="D77" t="n">
-        <v>12.1221150862211</v>
+        <v>12.0805866101663</v>
       </c>
       <c r="E77" t="n">
-        <v>12.6924665019144</v>
+        <v>14.562915315437</v>
       </c>
       <c r="F77" t="n">
-        <v>15.5173616657842</v>
+        <v>15.4446417048795</v>
       </c>
       <c r="G77" t="n">
-        <v>16.0134523643501</v>
+        <v>15.2563497088449</v>
       </c>
       <c r="H77" t="n">
-        <v>17.3706744200135</v>
+        <v>16.4929317246677</v>
       </c>
       <c r="I77" t="n">
-        <v>18.4332139809893</v>
+        <v>17.4899573742312</v>
       </c>
       <c r="J77" t="n">
-        <v>19.5242694300681</v>
+        <v>20.4296249119423</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10.9576057384892</v>
+        <v>10.0116821317191</v>
       </c>
       <c r="B78" t="n">
-        <v>11.5441793979359</v>
+        <v>10.738269948924</v>
       </c>
       <c r="C78" t="n">
-        <v>11.1057719986818</v>
+        <v>11.4177928634839</v>
       </c>
       <c r="D78" t="n">
-        <v>13.0168443539404</v>
+        <v>12.1448054497154</v>
       </c>
       <c r="E78" t="n">
-        <v>13.2916222548358</v>
+        <v>14.8379537368107</v>
       </c>
       <c r="F78" t="n">
-        <v>15.116233636064</v>
+        <v>15.6132048781373</v>
       </c>
       <c r="G78" t="n">
-        <v>15.6837737004476</v>
+        <v>15.9024043416658</v>
       </c>
       <c r="H78" t="n">
-        <v>17.3723844420213</v>
+        <v>17.5492037074523</v>
       </c>
       <c r="I78" t="n">
-        <v>17.7733241698995</v>
+        <v>16.6179870303403</v>
       </c>
       <c r="J78" t="n">
-        <v>18.774609036352</v>
+        <v>18.6282899642245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.96274673548509</v>
+        <v>11.4475920664705</v>
       </c>
       <c r="B79" t="n">
-        <v>11.5248202234568</v>
+        <v>10.4398084107395</v>
       </c>
       <c r="C79" t="n">
-        <v>12.8318175494442</v>
+        <v>11.4922967535454</v>
       </c>
       <c r="D79" t="n">
-        <v>13.4797690247867</v>
+        <v>12.6670556672558</v>
       </c>
       <c r="E79" t="n">
-        <v>13.0279095481591</v>
+        <v>13.6303482610842</v>
       </c>
       <c r="F79" t="n">
-        <v>15.0514431192134</v>
+        <v>15.1208729947868</v>
       </c>
       <c r="G79" t="n">
-        <v>16.4317678005053</v>
+        <v>13.9924455859811</v>
       </c>
       <c r="H79" t="n">
-        <v>15.6849540243693</v>
+        <v>16.7140325641749</v>
       </c>
       <c r="I79" t="n">
-        <v>19.2083921358805</v>
+        <v>19.1564302463993</v>
       </c>
       <c r="J79" t="n">
-        <v>19.053560075979</v>
+        <v>19.3113910450704</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8.94521838278253</v>
+        <v>10.0729441883664</v>
       </c>
       <c r="B80" t="n">
-        <v>8.30591486377879</v>
+        <v>9.36297344317213</v>
       </c>
       <c r="C80" t="n">
-        <v>7.52380729869847</v>
+        <v>9.34349314116881</v>
       </c>
       <c r="D80" t="n">
-        <v>7.45266914720995</v>
+        <v>8.6375152630106</v>
       </c>
       <c r="E80" t="n">
-        <v>7.05206680723743</v>
+        <v>7.92509355047596</v>
       </c>
       <c r="F80" t="n">
-        <v>6.57553513224222</v>
+        <v>7.72277962472974</v>
       </c>
       <c r="G80" t="n">
-        <v>6.30697546067564</v>
+        <v>7.41764241732257</v>
       </c>
       <c r="H80" t="n">
-        <v>5.44044228270044</v>
+        <v>6.59864190212975</v>
       </c>
       <c r="I80" t="n">
-        <v>5.1231686583713</v>
+        <v>6.09667632537882</v>
       </c>
       <c r="J80" t="n">
-        <v>4.20870477546872</v>
+        <v>5.11881420960778</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8.61970473703739</v>
+        <v>9.25561069036206</v>
       </c>
       <c r="B81" t="n">
-        <v>8.53080368419383</v>
+        <v>11.5360023719941</v>
       </c>
       <c r="C81" t="n">
-        <v>7.63646526793092</v>
+        <v>10.8920639401341</v>
       </c>
       <c r="D81" t="n">
-        <v>7.51976867746209</v>
+        <v>12.7784554670374</v>
       </c>
       <c r="E81" t="n">
-        <v>7.07120934775205</v>
+        <v>12.5310322974384</v>
       </c>
       <c r="F81" t="n">
-        <v>6.6191358482275</v>
+        <v>16.1132322378772</v>
       </c>
       <c r="G81" t="n">
-        <v>5.53148452654789</v>
+        <v>15.7663585247905</v>
       </c>
       <c r="H81" t="n">
-        <v>5.68155588919329</v>
+        <v>17.4157939833113</v>
       </c>
       <c r="I81" t="n">
-        <v>4.82587737485518</v>
+        <v>17.6129017073013</v>
       </c>
       <c r="J81" t="n">
-        <v>4.3522320628699</v>
+        <v>20.1031125342929</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8.88299813558002</v>
+        <v>10.1021049266131</v>
       </c>
       <c r="B82" t="n">
-        <v>10.7002458409308</v>
+        <v>11.3376103124754</v>
       </c>
       <c r="C82" t="n">
-        <v>11.6951105948794</v>
+        <v>12.109756917994</v>
       </c>
       <c r="D82" t="n">
-        <v>12.9919193727973</v>
+        <v>14.1047081544834</v>
       </c>
       <c r="E82" t="n">
-        <v>13.2180900197142</v>
+        <v>12.4496381483264</v>
       </c>
       <c r="F82" t="n">
-        <v>15.491662340461</v>
+        <v>13.3810253500006</v>
       </c>
       <c r="G82" t="n">
-        <v>16.9501656410076</v>
+        <v>16.0484715535302</v>
       </c>
       <c r="H82" t="n">
-        <v>16.1155099628707</v>
+        <v>16.9709675626749</v>
       </c>
       <c r="I82" t="n">
-        <v>18.4252221912792</v>
+        <v>18.9538643133043</v>
       </c>
       <c r="J82" t="n">
-        <v>19.4951871484743</v>
+        <v>18.8986873686139</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.73438194098926</v>
+        <v>9.27364552144244</v>
       </c>
       <c r="B83" t="n">
-        <v>9.97243845406928</v>
+        <v>12.2355836905635</v>
       </c>
       <c r="C83" t="n">
-        <v>11.6986170310462</v>
+        <v>12.4339810048878</v>
       </c>
       <c r="D83" t="n">
-        <v>11.7928256314837</v>
+        <v>14.1379304061017</v>
       </c>
       <c r="E83" t="n">
-        <v>13.1074654455561</v>
+        <v>15.0361677470809</v>
       </c>
       <c r="F83" t="n">
-        <v>13.8573204363891</v>
+        <v>15.3358468893369</v>
       </c>
       <c r="G83" t="n">
-        <v>15.1738744625811</v>
+        <v>15.6975173075438</v>
       </c>
       <c r="H83" t="n">
-        <v>17.1990117525323</v>
+        <v>17.7850566429266</v>
       </c>
       <c r="I83" t="n">
-        <v>18.1448825660266</v>
+        <v>17.4340032613713</v>
       </c>
       <c r="J83" t="n">
-        <v>19.0839304642245</v>
+        <v>19.5860065608813</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.23703125369904</v>
+        <v>10.1252851061759</v>
       </c>
       <c r="B84" t="n">
-        <v>8.56267505785751</v>
+        <v>9.50106469573668</v>
       </c>
       <c r="C84" t="n">
-        <v>7.97998389757753</v>
+        <v>8.77015761930997</v>
       </c>
       <c r="D84" t="n">
-        <v>7.68944231207227</v>
+        <v>8.2176595937781</v>
       </c>
       <c r="E84" t="n">
-        <v>7.53121861886778</v>
+        <v>8.34816513290317</v>
       </c>
       <c r="F84" t="n">
-        <v>6.4463247000332</v>
+        <v>7.83291942071203</v>
       </c>
       <c r="G84" t="n">
-        <v>5.64096119441544</v>
+        <v>7.31641923130768</v>
       </c>
       <c r="H84" t="n">
-        <v>5.64068511561907</v>
+        <v>6.73315603003348</v>
       </c>
       <c r="I84" t="n">
-        <v>5.25089768442304</v>
+        <v>5.59339153499947</v>
       </c>
       <c r="J84" t="n">
-        <v>4.42055553058511</v>
+        <v>5.786294823748</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11.9654744585561</v>
+        <v>9.94371637384278</v>
       </c>
       <c r="B85" t="n">
-        <v>10.9768646714285</v>
+        <v>9.68685121792608</v>
       </c>
       <c r="C85" t="n">
-        <v>11.1091843153259</v>
+        <v>9.17799442590456</v>
       </c>
       <c r="D85" t="n">
-        <v>13.0760108377739</v>
+        <v>8.79958936001626</v>
       </c>
       <c r="E85" t="n">
-        <v>13.4063352806516</v>
+        <v>8.14879967790845</v>
       </c>
       <c r="F85" t="n">
-        <v>14.422292063624</v>
+        <v>7.40182833142302</v>
       </c>
       <c r="G85" t="n">
-        <v>16.0975730588688</v>
+        <v>7.0726032689689</v>
       </c>
       <c r="H85" t="n">
-        <v>17.398535481944</v>
+        <v>6.61604829871557</v>
       </c>
       <c r="I85" t="n">
-        <v>18.882072352525</v>
+        <v>5.87743947653105</v>
       </c>
       <c r="J85" t="n">
-        <v>20.6632144456679</v>
+        <v>5.73804237831284</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8.97490778532038</v>
+        <v>10.3537622875846</v>
       </c>
       <c r="B86" t="n">
-        <v>10.705844431024</v>
+        <v>9.69638748741018</v>
       </c>
       <c r="C86" t="n">
-        <v>13.3749839753796</v>
+        <v>8.72068757527891</v>
       </c>
       <c r="D86" t="n">
-        <v>12.857922039268</v>
+        <v>8.57303388121099</v>
       </c>
       <c r="E86" t="n">
-        <v>15.2407279329694</v>
+        <v>8.05976848671351</v>
       </c>
       <c r="F86" t="n">
-        <v>15.2700444924673</v>
+        <v>7.18518029074084</v>
       </c>
       <c r="G86" t="n">
-        <v>15.9263607874743</v>
+        <v>6.69625286410236</v>
       </c>
       <c r="H86" t="n">
-        <v>16.3417970434007</v>
+        <v>6.58033679644039</v>
       </c>
       <c r="I86" t="n">
-        <v>18.3428031313338</v>
+        <v>6.38636452709845</v>
       </c>
       <c r="J86" t="n">
-        <v>19.594847773943</v>
+        <v>5.53302706505457</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.79365287255565</v>
+        <v>10.0488661939302</v>
       </c>
       <c r="B87" t="n">
-        <v>8.09575435979453</v>
+        <v>9.50344286798456</v>
       </c>
       <c r="C87" t="n">
-        <v>8.32047827615384</v>
+        <v>8.77952208159244</v>
       </c>
       <c r="D87" t="n">
-        <v>8.11090717931499</v>
+        <v>8.60912076721217</v>
       </c>
       <c r="E87" t="n">
-        <v>7.36869260642195</v>
+        <v>7.9428156084281</v>
       </c>
       <c r="F87" t="n">
-        <v>6.36466449056092</v>
+        <v>7.36702469087614</v>
       </c>
       <c r="G87" t="n">
-        <v>5.94004654668798</v>
+        <v>6.46130898831209</v>
       </c>
       <c r="H87" t="n">
-        <v>5.66611195172126</v>
+        <v>6.77486286052535</v>
       </c>
       <c r="I87" t="n">
-        <v>4.8922248228164</v>
+        <v>5.9011257219017</v>
       </c>
       <c r="J87" t="n">
-        <v>4.24738766929241</v>
+        <v>5.81924741814746</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11.3278394261991</v>
+        <v>10.2719924223064</v>
       </c>
       <c r="B88" t="n">
-        <v>10.0338319582184</v>
+        <v>9.33689764373151</v>
       </c>
       <c r="C88" t="n">
-        <v>13.2409308722806</v>
+        <v>8.70207668901883</v>
       </c>
       <c r="D88" t="n">
-        <v>12.944542953231</v>
+        <v>8.64403199922802</v>
       </c>
       <c r="E88" t="n">
-        <v>13.8902108939163</v>
+        <v>8.12668367514317</v>
       </c>
       <c r="F88" t="n">
-        <v>15.2504446196092</v>
+        <v>7.49880773929854</v>
       </c>
       <c r="G88" t="n">
-        <v>15.854906204697</v>
+        <v>7.45506132710081</v>
       </c>
       <c r="H88" t="n">
-        <v>16.6663553642657</v>
+        <v>6.58564577790775</v>
       </c>
       <c r="I88" t="n">
-        <v>18.346253099875</v>
+        <v>6.2024482804395</v>
       </c>
       <c r="J88" t="n">
-        <v>20.457702674006</v>
+        <v>5.18632728367034</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10.2903663632539</v>
+        <v>9.53966637209873</v>
       </c>
       <c r="B89" t="n">
-        <v>10.0733245061432</v>
+        <v>11.403626927404</v>
       </c>
       <c r="C89" t="n">
-        <v>11.7259327358986</v>
+        <v>11.3505999126013</v>
       </c>
       <c r="D89" t="n">
-        <v>13.0795037371502</v>
+        <v>12.8918204936387</v>
       </c>
       <c r="E89" t="n">
-        <v>13.63987700474</v>
+        <v>15.0639059147902</v>
       </c>
       <c r="F89" t="n">
-        <v>14.9640071701402</v>
+        <v>13.7036345830381</v>
       </c>
       <c r="G89" t="n">
-        <v>16.6725078264823</v>
+        <v>14.7449459104885</v>
       </c>
       <c r="H89" t="n">
-        <v>19.2460382356657</v>
+        <v>16.1737976014336</v>
       </c>
       <c r="I89" t="n">
-        <v>18.7801026897014</v>
+        <v>17.0250672202916</v>
       </c>
       <c r="J89" t="n">
-        <v>18.2530830420068</v>
+        <v>18.1216319811887</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>11.4526416901989</v>
+        <v>9.64580518172299</v>
       </c>
       <c r="B90" t="n">
-        <v>10.8694788177516</v>
+        <v>10.5215026511899</v>
       </c>
       <c r="C90" t="n">
-        <v>13.2905475256129</v>
+        <v>12.04784792558</v>
       </c>
       <c r="D90" t="n">
-        <v>13.8593757622295</v>
+        <v>13.1505865611845</v>
       </c>
       <c r="E90" t="n">
-        <v>14.103539889692</v>
+        <v>13.0789509918494</v>
       </c>
       <c r="F90" t="n">
-        <v>14.047862190067</v>
+        <v>15.3920640874005</v>
       </c>
       <c r="G90" t="n">
-        <v>15.9281356338535</v>
+        <v>16.9767091252545</v>
       </c>
       <c r="H90" t="n">
-        <v>17.9281323565779</v>
+        <v>16.6699674762132</v>
       </c>
       <c r="I90" t="n">
-        <v>18.2071365326642</v>
+        <v>17.8265397075073</v>
       </c>
       <c r="J90" t="n">
-        <v>19.329471511539</v>
+        <v>18.6092297736116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10.748024696835</v>
+        <v>9.29882592259253</v>
       </c>
       <c r="B91" t="n">
-        <v>10.855592210349</v>
+        <v>11.0804644817756</v>
       </c>
       <c r="C91" t="n">
-        <v>12.3455082185583</v>
+        <v>11.8997021121917</v>
       </c>
       <c r="D91" t="n">
-        <v>13.4065737924577</v>
+        <v>12.8334133147941</v>
       </c>
       <c r="E91" t="n">
-        <v>12.668148240598</v>
+        <v>13.572326839548</v>
       </c>
       <c r="F91" t="n">
-        <v>14.0526674023478</v>
+        <v>15.482482832899</v>
       </c>
       <c r="G91" t="n">
-        <v>14.2953585514748</v>
+        <v>14.6460238658005</v>
       </c>
       <c r="H91" t="n">
-        <v>17.1988423767973</v>
+        <v>16.2446090325672</v>
       </c>
       <c r="I91" t="n">
-        <v>18.7709768023867</v>
+        <v>18.6094116475433</v>
       </c>
       <c r="J91" t="n">
-        <v>19.7692437823767</v>
+        <v>19.2682498960224</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10.7549017066152</v>
+        <v>9.52160298144876</v>
       </c>
       <c r="B92" t="n">
-        <v>11.3350110592669</v>
+        <v>11.7425399364822</v>
       </c>
       <c r="C92" t="n">
-        <v>10.8782380914617</v>
+        <v>11.7579192183485</v>
       </c>
       <c r="D92" t="n">
-        <v>14.8509441465022</v>
+        <v>12.7776825696782</v>
       </c>
       <c r="E92" t="n">
-        <v>14.2172128373019</v>
+        <v>13.7650433122614</v>
       </c>
       <c r="F92" t="n">
-        <v>14.8146695846529</v>
+        <v>15.2354799190163</v>
       </c>
       <c r="G92" t="n">
-        <v>14.7140839059997</v>
+        <v>14.943421781216</v>
       </c>
       <c r="H92" t="n">
-        <v>17.0818604002849</v>
+        <v>16.4474976875748</v>
       </c>
       <c r="I92" t="n">
-        <v>17.1949981265577</v>
+        <v>17.6990969139371</v>
       </c>
       <c r="J92" t="n">
-        <v>19.0749462769969</v>
+        <v>18.0551510289652</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.68991663411447</v>
+        <v>9.89195525644838</v>
       </c>
       <c r="B93" t="n">
-        <v>8.46027331423368</v>
+        <v>9.44822591257175</v>
       </c>
       <c r="C93" t="n">
-        <v>8.05283952431036</v>
+        <v>8.86204145561222</v>
       </c>
       <c r="D93" t="n">
-        <v>8.20918982334428</v>
+        <v>8.47885906914026</v>
       </c>
       <c r="E93" t="n">
-        <v>6.91067779767015</v>
+        <v>7.97024923282707</v>
       </c>
       <c r="F93" t="n">
-        <v>6.07515839250335</v>
+        <v>7.53208235208482</v>
       </c>
       <c r="G93" t="n">
-        <v>5.90525410101926</v>
+        <v>6.73770012752682</v>
       </c>
       <c r="H93" t="n">
-        <v>5.48459453891708</v>
+        <v>6.55156060482708</v>
       </c>
       <c r="I93" t="n">
-        <v>4.88898825386314</v>
+        <v>5.63931718346606</v>
       </c>
       <c r="J93" t="n">
-        <v>4.2969524608626</v>
+        <v>5.7750864750364</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.2875131267865</v>
+        <v>11.0353068032385</v>
       </c>
       <c r="B94" t="n">
-        <v>10.8108922678506</v>
+        <v>10.3109634338635</v>
       </c>
       <c r="C94" t="n">
-        <v>11.8731256883026</v>
+        <v>12.0479487057619</v>
       </c>
       <c r="D94" t="n">
-        <v>12.1143975759577</v>
+        <v>14.1127098896072</v>
       </c>
       <c r="E94" t="n">
-        <v>14.656844192921</v>
+        <v>12.8757746547361</v>
       </c>
       <c r="F94" t="n">
-        <v>13.9388602851915</v>
+        <v>15.2884288254449</v>
       </c>
       <c r="G94" t="n">
-        <v>16.6249255672632</v>
+        <v>15.8857766927555</v>
       </c>
       <c r="H94" t="n">
-        <v>15.3178108170367</v>
+        <v>15.7550421848087</v>
       </c>
       <c r="I94" t="n">
-        <v>17.5947695189333</v>
+        <v>18.7374649877233</v>
       </c>
       <c r="J94" t="n">
-        <v>18.5779356667313</v>
+        <v>19.1678578789651</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.87901144632749</v>
+        <v>10.384986788288</v>
       </c>
       <c r="B95" t="n">
-        <v>8.19131183968431</v>
+        <v>9.13420778701139</v>
       </c>
       <c r="C95" t="n">
-        <v>7.94192850133567</v>
+        <v>8.8877648418576</v>
       </c>
       <c r="D95" t="n">
-        <v>7.08724080581253</v>
+        <v>8.3021580045605</v>
       </c>
       <c r="E95" t="n">
-        <v>6.67009808484949</v>
+        <v>8.22892603139333</v>
       </c>
       <c r="F95" t="n">
-        <v>6.62601316328032</v>
+        <v>7.72071980334739</v>
       </c>
       <c r="G95" t="n">
-        <v>5.87052495098913</v>
+        <v>7.00574603631258</v>
       </c>
       <c r="H95" t="n">
-        <v>5.42531412163152</v>
+        <v>6.75573579402278</v>
       </c>
       <c r="I95" t="n">
-        <v>4.93579637691513</v>
+        <v>5.99464507909517</v>
       </c>
       <c r="J95" t="n">
-        <v>4.45818877505322</v>
+        <v>5.35698712220244</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.56402479851552</v>
+        <v>9.28838524428957</v>
       </c>
       <c r="B96" t="n">
-        <v>8.8199060616664</v>
+        <v>10.5619173965108</v>
       </c>
       <c r="C96" t="n">
-        <v>7.76217635616699</v>
+        <v>12.7049585077664</v>
       </c>
       <c r="D96" t="n">
-        <v>7.25494788141436</v>
+        <v>12.9660318468071</v>
       </c>
       <c r="E96" t="n">
-        <v>6.92634660215623</v>
+        <v>14.6586137439873</v>
       </c>
       <c r="F96" t="n">
-        <v>6.89698215844019</v>
+        <v>15.0844916398195</v>
       </c>
       <c r="G96" t="n">
-        <v>6.24249542869859</v>
+        <v>16.8685777766202</v>
       </c>
       <c r="H96" t="n">
-        <v>5.56221388740672</v>
+        <v>16.3005373281078</v>
       </c>
       <c r="I96" t="n">
-        <v>4.81489012662763</v>
+        <v>16.6962204660588</v>
       </c>
       <c r="J96" t="n">
-        <v>4.33662058358683</v>
+        <v>18.973043920215</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.31568744495102</v>
+        <v>10.3870224260751</v>
       </c>
       <c r="B97" t="n">
-        <v>12.9026783042694</v>
+        <v>9.23044672542425</v>
       </c>
       <c r="C97" t="n">
-        <v>11.4014881424454</v>
+        <v>8.82783186522824</v>
       </c>
       <c r="D97" t="n">
-        <v>13.5012258403447</v>
+        <v>8.36871519987476</v>
       </c>
       <c r="E97" t="n">
-        <v>13.6997490005235</v>
+        <v>8.36699263256275</v>
       </c>
       <c r="F97" t="n">
-        <v>14.0865988035328</v>
+        <v>7.64331992570724</v>
       </c>
       <c r="G97" t="n">
-        <v>16.0641807772311</v>
+        <v>6.5826335494902</v>
       </c>
       <c r="H97" t="n">
-        <v>16.4279841708185</v>
+        <v>6.74471442114446</v>
       </c>
       <c r="I97" t="n">
-        <v>18.8362736650964</v>
+        <v>6.12931802091609</v>
       </c>
       <c r="J97" t="n">
-        <v>18.3884996244136</v>
+        <v>5.95886103905459</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.18999761949165</v>
+        <v>10.4035943104203</v>
       </c>
       <c r="B98" t="n">
-        <v>8.69203379571681</v>
+        <v>10.0660693747844</v>
       </c>
       <c r="C98" t="n">
-        <v>8.02222055002731</v>
+        <v>12.0010148422418</v>
       </c>
       <c r="D98" t="n">
-        <v>7.55642116259544</v>
+        <v>14.0476258014388</v>
       </c>
       <c r="E98" t="n">
-        <v>6.98890449715305</v>
+        <v>14.2010489425732</v>
       </c>
       <c r="F98" t="n">
-        <v>6.50818138883674</v>
+        <v>14.8579301473817</v>
       </c>
       <c r="G98" t="n">
-        <v>6.10751939480547</v>
+        <v>15.2486562005196</v>
       </c>
       <c r="H98" t="n">
-        <v>5.24841514783523</v>
+        <v>15.6823510984718</v>
       </c>
       <c r="I98" t="n">
-        <v>5.34090645924809</v>
+        <v>16.8334771697072</v>
       </c>
       <c r="J98" t="n">
-        <v>4.21957108589356</v>
+        <v>18.9921629760653</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.4309920733156</v>
+        <v>9.91898335963242</v>
       </c>
       <c r="B99" t="n">
-        <v>10.8492300960817</v>
+        <v>11.5801399528674</v>
       </c>
       <c r="C99" t="n">
-        <v>11.5091478048865</v>
+        <v>10.9436162552647</v>
       </c>
       <c r="D99" t="n">
-        <v>12.4075096256674</v>
+        <v>14.136124080087</v>
       </c>
       <c r="E99" t="n">
-        <v>12.6705189083828</v>
+        <v>12.6771832949762</v>
       </c>
       <c r="F99" t="n">
-        <v>14.873668774958</v>
+        <v>15.2866773946994</v>
       </c>
       <c r="G99" t="n">
-        <v>16.1422947564103</v>
+        <v>14.6815993307675</v>
       </c>
       <c r="H99" t="n">
-        <v>16.8209930747429</v>
+        <v>16.3166079998654</v>
       </c>
       <c r="I99" t="n">
-        <v>18.4162481984112</v>
+        <v>18.523047133888</v>
       </c>
       <c r="J99" t="n">
-        <v>17.6611371395422</v>
+        <v>19.2297637856273</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.35715483102822</v>
+        <v>10.3562261239813</v>
       </c>
       <c r="B100" t="n">
-        <v>8.38167211539009</v>
+        <v>10.7706049023819</v>
       </c>
       <c r="C100" t="n">
-        <v>8.31044449071289</v>
+        <v>10.2498540448061</v>
       </c>
       <c r="D100" t="n">
-        <v>7.24162655918774</v>
+        <v>11.580452400137</v>
       </c>
       <c r="E100" t="n">
-        <v>6.97539267850073</v>
+        <v>14.4886251454668</v>
       </c>
       <c r="F100" t="n">
-        <v>6.39640356692527</v>
+        <v>15.5151337101753</v>
       </c>
       <c r="G100" t="n">
-        <v>5.77175630435666</v>
+        <v>17.0074574502721</v>
       </c>
       <c r="H100" t="n">
-        <v>5.14123077080875</v>
+        <v>17.5979503060985</v>
       </c>
       <c r="I100" t="n">
-        <v>4.79790623109549</v>
+        <v>16.6248128017148</v>
       </c>
       <c r="J100" t="n">
-        <v>4.48020594513147</v>
+        <v>18.5365477397906</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10.6302871826706</v>
+        <v>9.59499464171514</v>
       </c>
       <c r="B101" t="n">
-        <v>10.7341528332205</v>
+        <v>10.874233530676</v>
       </c>
       <c r="C101" t="n">
-        <v>11.7513252764517</v>
+        <v>11.5041954905699</v>
       </c>
       <c r="D101" t="n">
-        <v>13.8115524724443</v>
+        <v>13.0290392464673</v>
       </c>
       <c r="E101" t="n">
-        <v>13.5118014831949</v>
+        <v>14.0524804937027</v>
       </c>
       <c r="F101" t="n">
-        <v>14.1760977926777</v>
+        <v>14.3290283743529</v>
       </c>
       <c r="G101" t="n">
-        <v>15.6770032309335</v>
+        <v>15.1286336784619</v>
       </c>
       <c r="H101" t="n">
-        <v>16.3194650897908</v>
+        <v>17.6348473228384</v>
       </c>
       <c r="I101" t="n">
-        <v>17.5452838509643</v>
+        <v>18.2209366667015</v>
       </c>
       <c r="J101" t="n">
-        <v>20.0848286310147</v>
+        <v>18.8107438739914</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.15073685075391</v>
+        <v>10.0177551320933</v>
       </c>
       <c r="B102" t="n">
-        <v>8.40891732894035</v>
+        <v>9.54656989922712</v>
       </c>
       <c r="C102" t="n">
-        <v>7.99272739041739</v>
+        <v>8.66973369105964</v>
       </c>
       <c r="D102" t="n">
-        <v>7.39084321347346</v>
+        <v>8.81953818193015</v>
       </c>
       <c r="E102" t="n">
-        <v>7.05672854986771</v>
+        <v>7.70830506992286</v>
       </c>
       <c r="F102" t="n">
-        <v>6.38059368112925</v>
+        <v>7.58007669898106</v>
       </c>
       <c r="G102" t="n">
-        <v>5.74677080755797</v>
+        <v>6.86487442491953</v>
       </c>
       <c r="H102" t="n">
-        <v>5.19166421933497</v>
+        <v>6.24713248886094</v>
       </c>
       <c r="I102" t="n">
-        <v>4.99521950857843</v>
+        <v>5.46148744118448</v>
       </c>
       <c r="J102" t="n">
-        <v>4.15720367958744</v>
+        <v>5.49193779381861</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.75606141054143</v>
+        <v>10.0106720756897</v>
       </c>
       <c r="B103" t="n">
-        <v>8.55181011128577</v>
+        <v>11.6007781026624</v>
       </c>
       <c r="C103" t="n">
-        <v>7.67042379226677</v>
+        <v>11.7045776341934</v>
       </c>
       <c r="D103" t="n">
-        <v>7.75452196862518</v>
+        <v>12.9120118310506</v>
       </c>
       <c r="E103" t="n">
-        <v>6.80479294393765</v>
+        <v>15.2482105828764</v>
       </c>
       <c r="F103" t="n">
-        <v>6.25269599741065</v>
+        <v>14.8524885071398</v>
       </c>
       <c r="G103" t="n">
-        <v>6.14376425210645</v>
+        <v>15.911632731237</v>
       </c>
       <c r="H103" t="n">
-        <v>5.28466552548198</v>
+        <v>17.9347154256681</v>
       </c>
       <c r="I103" t="n">
-        <v>5.18946388858774</v>
+        <v>18.5425478274612</v>
       </c>
       <c r="J103" t="n">
-        <v>4.75552934874018</v>
+        <v>18.8828415498716</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.68656802378832</v>
+        <v>9.77291092754447</v>
       </c>
       <c r="B104" t="n">
-        <v>8.61104086699173</v>
+        <v>9.35599278666334</v>
       </c>
       <c r="C104" t="n">
-        <v>8.03086738273227</v>
+        <v>8.99397981453474</v>
       </c>
       <c r="D104" t="n">
-        <v>7.62242634082017</v>
+        <v>8.19238319437068</v>
       </c>
       <c r="E104" t="n">
-        <v>6.88056138506445</v>
+        <v>7.96277707677226</v>
       </c>
       <c r="F104" t="n">
-        <v>6.54998100098072</v>
+        <v>7.63224956707434</v>
       </c>
       <c r="G104" t="n">
-        <v>6.20894450852048</v>
+        <v>7.01142915699041</v>
       </c>
       <c r="H104" t="n">
-        <v>5.87866016537668</v>
+        <v>6.23654659787045</v>
       </c>
       <c r="I104" t="n">
-        <v>5.19757643735993</v>
+        <v>6.61540779248128</v>
       </c>
       <c r="J104" t="n">
-        <v>4.65733450550748</v>
+        <v>5.64554241782574</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.66290282466967</v>
+        <v>9.899458745841</v>
       </c>
       <c r="B105" t="n">
-        <v>11.3319115046904</v>
+        <v>10.5653948427796</v>
       </c>
       <c r="C105" t="n">
-        <v>11.430560910028</v>
+        <v>11.2803785447751</v>
       </c>
       <c r="D105" t="n">
-        <v>12.2212554421441</v>
+        <v>12.7727291148294</v>
       </c>
       <c r="E105" t="n">
-        <v>13.7260329799288</v>
+        <v>14.1221760171636</v>
       </c>
       <c r="F105" t="n">
-        <v>14.5776872483458</v>
+        <v>13.9294314306738</v>
       </c>
       <c r="G105" t="n">
-        <v>15.8437330841107</v>
+        <v>15.5030914699566</v>
       </c>
       <c r="H105" t="n">
-        <v>17.3197993026054</v>
+        <v>16.4803925656982</v>
       </c>
       <c r="I105" t="n">
-        <v>18.6100656534447</v>
+        <v>18.1119719048023</v>
       </c>
       <c r="J105" t="n">
-        <v>20.5015372256595</v>
+        <v>19.4881492539836</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.58946352310537</v>
+        <v>9.48520012767716</v>
       </c>
       <c r="B106" t="n">
-        <v>11.1475224597253</v>
+        <v>10.7305062878354</v>
       </c>
       <c r="C106" t="n">
-        <v>12.6419145830353</v>
+        <v>11.1055232073432</v>
       </c>
       <c r="D106" t="n">
-        <v>14.0240639293516</v>
+        <v>11.9640599050853</v>
       </c>
       <c r="E106" t="n">
-        <v>14.4284715758603</v>
+        <v>13.6296772606181</v>
       </c>
       <c r="F106" t="n">
-        <v>14.5802888571776</v>
+        <v>15.4267611759062</v>
       </c>
       <c r="G106" t="n">
-        <v>15.3104858086839</v>
+        <v>16.2927128654383</v>
       </c>
       <c r="H106" t="n">
-        <v>17.2369046005475</v>
+        <v>18.4360302706057</v>
       </c>
       <c r="I106" t="n">
-        <v>18.7447629239992</v>
+        <v>18.4637693574095</v>
       </c>
       <c r="J106" t="n">
-        <v>19.5890310114547</v>
+        <v>18.7133651243521</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.91491235855786</v>
+        <v>10.0061157234523</v>
       </c>
       <c r="B107" t="n">
-        <v>8.24108476938419</v>
+        <v>11.0103262735703</v>
       </c>
       <c r="C107" t="n">
-        <v>7.99704933773799</v>
+        <v>12.3977870591341</v>
       </c>
       <c r="D107" t="n">
-        <v>7.30480237436726</v>
+        <v>14.1980032400187</v>
       </c>
       <c r="E107" t="n">
-        <v>6.97147782296875</v>
+        <v>13.4921813831956</v>
       </c>
       <c r="F107" t="n">
-        <v>6.68201107469153</v>
+        <v>15.4193526059212</v>
       </c>
       <c r="G107" t="n">
-        <v>5.74071501736793</v>
+        <v>15.2105537862409</v>
       </c>
       <c r="H107" t="n">
-        <v>5.8026828259695</v>
+        <v>17.4275426337243</v>
       </c>
       <c r="I107" t="n">
-        <v>4.77015188070957</v>
+        <v>18.3123765347343</v>
       </c>
       <c r="J107" t="n">
-        <v>4.06701796250199</v>
+        <v>19.512541337002</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.84596302787148</v>
+        <v>9.11502801999383</v>
       </c>
       <c r="B108" t="n">
-        <v>10.8585052794462</v>
+        <v>12.1104871964711</v>
       </c>
       <c r="C108" t="n">
-        <v>12.882739413595</v>
+        <v>12.590318004453</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4503243631</v>
+        <v>13.0407326748967</v>
       </c>
       <c r="E108" t="n">
-        <v>14.5683593531999</v>
+        <v>14.2565596805793</v>
       </c>
       <c r="F108" t="n">
-        <v>15.449602631778</v>
+        <v>14.1996011585186</v>
       </c>
       <c r="G108" t="n">
-        <v>16.0587382748216</v>
+        <v>16.0979370501586</v>
       </c>
       <c r="H108" t="n">
-        <v>16.9850319865192</v>
+        <v>14.6052723231318</v>
       </c>
       <c r="I108" t="n">
-        <v>17.0502503440495</v>
+        <v>17.704542435062</v>
       </c>
       <c r="J108" t="n">
-        <v>19.7520632673921</v>
+        <v>18.9499803829443</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>9.24622282024773</v>
+        <v>10.2976704713864</v>
       </c>
       <c r="B109" t="n">
-        <v>8.58300176635163</v>
+        <v>10.6416731057728</v>
       </c>
       <c r="C109" t="n">
-        <v>8.45534233618667</v>
+        <v>13.0284508376549</v>
       </c>
       <c r="D109" t="n">
-        <v>7.88217511093851</v>
+        <v>12.0777988434914</v>
       </c>
       <c r="E109" t="n">
-        <v>7.04735979880757</v>
+        <v>13.5742025843345</v>
       </c>
       <c r="F109" t="n">
-        <v>6.79409982611909</v>
+        <v>15.9924124864334</v>
       </c>
       <c r="G109" t="n">
-        <v>5.85128048282509</v>
+        <v>16.7550662707863</v>
       </c>
       <c r="H109" t="n">
-        <v>5.87688910825734</v>
+        <v>17.9135903931485</v>
       </c>
       <c r="I109" t="n">
-        <v>5.00846082844026</v>
+        <v>17.869976742683</v>
       </c>
       <c r="J109" t="n">
-        <v>4.42718768305572</v>
+        <v>18.1001481420891</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.22198290144766</v>
+        <v>9.91427876814527</v>
       </c>
       <c r="B110" t="n">
-        <v>10.1389362969742</v>
+        <v>9.77266151172094</v>
       </c>
       <c r="C110" t="n">
-        <v>12.3648582653925</v>
+        <v>13.5057922933258</v>
       </c>
       <c r="D110" t="n">
-        <v>13.5644810412328</v>
+        <v>13.8597231971093</v>
       </c>
       <c r="E110" t="n">
-        <v>14.0466552638603</v>
+        <v>14.3013703292393</v>
       </c>
       <c r="F110" t="n">
-        <v>15.8859237962285</v>
+        <v>15.0864993364557</v>
       </c>
       <c r="G110" t="n">
-        <v>14.539429467356</v>
+        <v>16.6671466197319</v>
       </c>
       <c r="H110" t="n">
-        <v>16.2145538484178</v>
+        <v>17.413899983267</v>
       </c>
       <c r="I110" t="n">
-        <v>18.8088051440289</v>
+        <v>16.773196381229</v>
       </c>
       <c r="J110" t="n">
-        <v>18.6033145133742</v>
+        <v>18.8345964951099</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.5505101337942</v>
+        <v>10.648782673823</v>
       </c>
       <c r="B111" t="n">
-        <v>11.2134520223387</v>
+        <v>10.3822228007388</v>
       </c>
       <c r="C111" t="n">
-        <v>11.256818669737</v>
+        <v>11.3622020402678</v>
       </c>
       <c r="D111" t="n">
-        <v>12.8966358052419</v>
+        <v>12.4564708003168</v>
       </c>
       <c r="E111" t="n">
-        <v>15.2100768904148</v>
+        <v>14.1898950982098</v>
       </c>
       <c r="F111" t="n">
-        <v>14.5809183290675</v>
+        <v>14.3593839290475</v>
       </c>
       <c r="G111" t="n">
-        <v>16.1651129607725</v>
+        <v>15.4233636759908</v>
       </c>
       <c r="H111" t="n">
-        <v>17.6939673919548</v>
+        <v>16.7973160507597</v>
       </c>
       <c r="I111" t="n">
-        <v>17.1909707428706</v>
+        <v>19.6079830900588</v>
       </c>
       <c r="J111" t="n">
-        <v>18.3340323575824</v>
+        <v>19.2930026949083</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.8029995702146</v>
+        <v>9.57352040600983</v>
       </c>
       <c r="B112" t="n">
-        <v>9.4296772419803</v>
+        <v>11.2359427856709</v>
       </c>
       <c r="C112" t="n">
-        <v>10.5128295215986</v>
+        <v>12.5817735720529</v>
       </c>
       <c r="D112" t="n">
-        <v>13.4487722211719</v>
+        <v>14.3417840043115</v>
       </c>
       <c r="E112" t="n">
-        <v>13.2060475275047</v>
+        <v>14.0892242190635</v>
       </c>
       <c r="F112" t="n">
-        <v>13.7007418347874</v>
+        <v>13.8652883051674</v>
       </c>
       <c r="G112" t="n">
-        <v>16.7531414658767</v>
+        <v>15.6182535241589</v>
       </c>
       <c r="H112" t="n">
-        <v>16.2126573733111</v>
+        <v>16.9937755932194</v>
       </c>
       <c r="I112" t="n">
-        <v>18.8924709134031</v>
+        <v>17.7433649807283</v>
       </c>
       <c r="J112" t="n">
-        <v>18.888656806405</v>
+        <v>17.977269006865</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>11.2370819754282</v>
+        <v>8.12570708291208</v>
       </c>
       <c r="B113" t="n">
-        <v>10.2721984032749</v>
+        <v>10.9017950365466</v>
       </c>
       <c r="C113" t="n">
-        <v>11.0788218431032</v>
+        <v>11.2049005037545</v>
       </c>
       <c r="D113" t="n">
-        <v>13.4723831209573</v>
+        <v>12.7494367402038</v>
       </c>
       <c r="E113" t="n">
-        <v>15.623323462738</v>
+        <v>13.4002757108333</v>
       </c>
       <c r="F113" t="n">
-        <v>14.7758229621645</v>
+        <v>13.6682938606191</v>
       </c>
       <c r="G113" t="n">
-        <v>16.2742321640622</v>
+        <v>15.9316606655859</v>
       </c>
       <c r="H113" t="n">
-        <v>17.1760570951681</v>
+        <v>17.3976274655169</v>
       </c>
       <c r="I113" t="n">
-        <v>17.2776364309543</v>
+        <v>18.9399413690465</v>
       </c>
       <c r="J113" t="n">
-        <v>20.2116316330717</v>
+        <v>18.6438569685121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.89982062341729</v>
+        <v>9.78702702806135</v>
       </c>
       <c r="B114" t="n">
-        <v>8.47381081484683</v>
+        <v>9.51702801662356</v>
       </c>
       <c r="C114" t="n">
-        <v>7.98600530795094</v>
+        <v>9.31085855315004</v>
       </c>
       <c r="D114" t="n">
-        <v>7.73926976850759</v>
+        <v>8.69737159651303</v>
       </c>
       <c r="E114" t="n">
-        <v>7.14481255889411</v>
+        <v>7.9406993918551</v>
       </c>
       <c r="F114" t="n">
-        <v>6.41884891400997</v>
+        <v>7.45391346300964</v>
       </c>
       <c r="G114" t="n">
-        <v>5.84544773628728</v>
+        <v>6.99127264123212</v>
       </c>
       <c r="H114" t="n">
-        <v>5.74746785131442</v>
+        <v>6.61295786928535</v>
       </c>
       <c r="I114" t="n">
-        <v>4.70527365202316</v>
+        <v>6.18568347802325</v>
       </c>
       <c r="J114" t="n">
-        <v>4.65802836490062</v>
+        <v>5.63608395838809</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.90312143084612</v>
+        <v>10.1609718971666</v>
       </c>
       <c r="B115" t="n">
-        <v>9.04887384952847</v>
+        <v>9.96258357035097</v>
       </c>
       <c r="C115" t="n">
-        <v>7.65084246672826</v>
+        <v>11.9963027497783</v>
       </c>
       <c r="D115" t="n">
-        <v>7.88312542477746</v>
+        <v>14.6588399935476</v>
       </c>
       <c r="E115" t="n">
-        <v>7.30450133839512</v>
+        <v>14.9267036365447</v>
       </c>
       <c r="F115" t="n">
-        <v>7.19056633970165</v>
+        <v>15.0860750208975</v>
       </c>
       <c r="G115" t="n">
-        <v>5.68887149831971</v>
+        <v>15.8362246982056</v>
       </c>
       <c r="H115" t="n">
-        <v>5.5675098913795</v>
+        <v>17.9227736204222</v>
       </c>
       <c r="I115" t="n">
-        <v>5.0374875840615</v>
+        <v>17.625075541439</v>
       </c>
       <c r="J115" t="n">
-        <v>4.60684880328383</v>
+        <v>19.2751384754526</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.0842795617704</v>
+        <v>10.6090422999763</v>
       </c>
       <c r="B116" t="n">
-        <v>10.8686281744239</v>
+        <v>12.1673870140344</v>
       </c>
       <c r="C116" t="n">
-        <v>12.5152022628321</v>
+        <v>12.1638927564939</v>
       </c>
       <c r="D116" t="n">
-        <v>12.3694909284186</v>
+        <v>13.8123456813967</v>
       </c>
       <c r="E116" t="n">
-        <v>15.3821826527969</v>
+        <v>13.4310650990552</v>
       </c>
       <c r="F116" t="n">
-        <v>15.0542612650616</v>
+        <v>16.0835715981818</v>
       </c>
       <c r="G116" t="n">
-        <v>16.0545534557539</v>
+        <v>16.6236441882181</v>
       </c>
       <c r="H116" t="n">
-        <v>17.3230382414089</v>
+        <v>17.6004227615821</v>
       </c>
       <c r="I116" t="n">
-        <v>17.7650650231342</v>
+        <v>18.3961332244272</v>
       </c>
       <c r="J116" t="n">
-        <v>18.3454428846283</v>
+        <v>18.9881870219538</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>10.4658239433482</v>
+        <v>10.3663459961593</v>
       </c>
       <c r="B117" t="n">
-        <v>10.5289112371674</v>
+        <v>10.3980067783341</v>
       </c>
       <c r="C117" t="n">
-        <v>11.8416190464756</v>
+        <v>12.0295012658261</v>
       </c>
       <c r="D117" t="n">
-        <v>12.8094890673241</v>
+        <v>12.3237799001795</v>
       </c>
       <c r="E117" t="n">
-        <v>13.3868797347451</v>
+        <v>14.6538978294574</v>
       </c>
       <c r="F117" t="n">
-        <v>14.2455837062958</v>
+        <v>15.8432707730975</v>
       </c>
       <c r="G117" t="n">
-        <v>15.2414927901144</v>
+        <v>15.5941157922001</v>
       </c>
       <c r="H117" t="n">
-        <v>16.9995436669843</v>
+        <v>17.5397490499328</v>
       </c>
       <c r="I117" t="n">
-        <v>17.4701122968056</v>
+        <v>17.5589432271362</v>
       </c>
       <c r="J117" t="n">
-        <v>19.6989506520148</v>
+        <v>19.6754762771936</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.99319561463559</v>
+        <v>9.44689058816349</v>
       </c>
       <c r="B118" t="n">
-        <v>9.99662141608304</v>
+        <v>11.2350455189439</v>
       </c>
       <c r="C118" t="n">
-        <v>11.3497960639245</v>
+        <v>12.1442603752331</v>
       </c>
       <c r="D118" t="n">
-        <v>13.8982913403544</v>
+        <v>12.6831987084156</v>
       </c>
       <c r="E118" t="n">
-        <v>14.3645980248799</v>
+        <v>14.3453689154247</v>
       </c>
       <c r="F118" t="n">
-        <v>14.4779249206977</v>
+        <v>14.1286875906615</v>
       </c>
       <c r="G118" t="n">
-        <v>17.0332502603431</v>
+        <v>15.8633928592895</v>
       </c>
       <c r="H118" t="n">
-        <v>16.7282810139204</v>
+        <v>16.7816522422341</v>
       </c>
       <c r="I118" t="n">
-        <v>18.2044110774755</v>
+        <v>17.802547477681</v>
       </c>
       <c r="J118" t="n">
-        <v>18.5871034801291</v>
+        <v>19.0401153729894</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.3730556426238</v>
+        <v>9.37203830560235</v>
       </c>
       <c r="B119" t="n">
-        <v>10.4805477433531</v>
+        <v>11.924589786027</v>
       </c>
       <c r="C119" t="n">
-        <v>12.822993238476</v>
+        <v>13.0926080390049</v>
       </c>
       <c r="D119" t="n">
-        <v>12.7468265857919</v>
+        <v>11.8875552341777</v>
       </c>
       <c r="E119" t="n">
-        <v>13.2098253776507</v>
+        <v>14.1971041879367</v>
       </c>
       <c r="F119" t="n">
-        <v>14.2012770708057</v>
+        <v>14.8819193909108</v>
       </c>
       <c r="G119" t="n">
-        <v>16.4359825101346</v>
+        <v>17.2273192967887</v>
       </c>
       <c r="H119" t="n">
-        <v>17.9776847224506</v>
+        <v>17.8673937928179</v>
       </c>
       <c r="I119" t="n">
-        <v>17.8529683345755</v>
+        <v>18.5320485971433</v>
       </c>
       <c r="J119" t="n">
-        <v>19.0505565433142</v>
+        <v>19.3637240540626</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.87401761224704</v>
+        <v>10.3134404825732</v>
       </c>
       <c r="B120" t="n">
-        <v>10.7445273804674</v>
+        <v>9.43965429272079</v>
       </c>
       <c r="C120" t="n">
-        <v>11.6270352881192</v>
+        <v>9.02796654582949</v>
       </c>
       <c r="D120" t="n">
-        <v>13.0283186672116</v>
+        <v>8.4881282730597</v>
       </c>
       <c r="E120" t="n">
-        <v>13.9683459961303</v>
+        <v>7.7462144174504</v>
       </c>
       <c r="F120" t="n">
-        <v>15.6948041958348</v>
+        <v>7.2378244530081</v>
       </c>
       <c r="G120" t="n">
-        <v>16.0665832087317</v>
+        <v>7.12724107049465</v>
       </c>
       <c r="H120" t="n">
-        <v>18.3994948907324</v>
+        <v>6.22946867815531</v>
       </c>
       <c r="I120" t="n">
-        <v>17.8572885810517</v>
+        <v>6.00923740480525</v>
       </c>
       <c r="J120" t="n">
-        <v>18.7542858411704</v>
+        <v>5.46830569530393</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.91862212325988</v>
+        <v>9.44000157539632</v>
       </c>
       <c r="B121" t="n">
-        <v>11.2644392337676</v>
+        <v>10.9832067678347</v>
       </c>
       <c r="C121" t="n">
-        <v>13.55537054431</v>
+        <v>11.8674012135043</v>
       </c>
       <c r="D121" t="n">
-        <v>14.435503563138</v>
+        <v>15.1734237691975</v>
       </c>
       <c r="E121" t="n">
-        <v>12.5135276486778</v>
+        <v>14.7365037204797</v>
       </c>
       <c r="F121" t="n">
-        <v>13.9312519226739</v>
+        <v>15.0718155666811</v>
       </c>
       <c r="G121" t="n">
-        <v>15.756052103289</v>
+        <v>16.1371010560786</v>
       </c>
       <c r="H121" t="n">
-        <v>17.0931784803344</v>
+        <v>16.5525787712431</v>
       </c>
       <c r="I121" t="n">
-        <v>16.9888190024093</v>
+        <v>18.7313999065478</v>
       </c>
       <c r="J121" t="n">
-        <v>17.5834884740921</v>
+        <v>18.3410589378733</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.2312360255192</v>
+        <v>10.8600472875469</v>
       </c>
       <c r="B122" t="n">
-        <v>11.3052369998372</v>
+        <v>10.7389198199385</v>
       </c>
       <c r="C122" t="n">
-        <v>12.1780507535221</v>
+        <v>12.8718037753836</v>
       </c>
       <c r="D122" t="n">
-        <v>10.9693315740485</v>
+        <v>12.3186241648239</v>
       </c>
       <c r="E122" t="n">
-        <v>14.2425225137812</v>
+        <v>13.4674022331483</v>
       </c>
       <c r="F122" t="n">
-        <v>14.9603452603956</v>
+        <v>15.9443122657469</v>
       </c>
       <c r="G122" t="n">
-        <v>15.7738900198801</v>
+        <v>17.2923582405852</v>
       </c>
       <c r="H122" t="n">
-        <v>16.4617526598124</v>
+        <v>17.3733526254757</v>
       </c>
       <c r="I122" t="n">
-        <v>17.8462264408147</v>
+        <v>17.0208998711556</v>
       </c>
       <c r="J122" t="n">
-        <v>18.6890987785024</v>
+        <v>19.4372778191119</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.10884155390376</v>
+        <v>9.91839606585593</v>
       </c>
       <c r="B123" t="n">
-        <v>8.45274405570743</v>
+        <v>9.90110860247065</v>
       </c>
       <c r="C123" t="n">
-        <v>8.14148056633434</v>
+        <v>8.95165955749349</v>
       </c>
       <c r="D123" t="n">
-        <v>7.42387818737816</v>
+        <v>8.59304229305597</v>
       </c>
       <c r="E123" t="n">
-        <v>7.17037708879898</v>
+        <v>8.09438955077587</v>
       </c>
       <c r="F123" t="n">
-        <v>6.57128976516539</v>
+        <v>7.84220253631609</v>
       </c>
       <c r="G123" t="n">
-        <v>6.46160510543824</v>
+        <v>7.10869846660021</v>
       </c>
       <c r="H123" t="n">
-        <v>5.66845898845253</v>
+        <v>7.00052653696416</v>
       </c>
       <c r="I123" t="n">
-        <v>5.24551384540975</v>
+        <v>6.30891777835632</v>
       </c>
       <c r="J123" t="n">
-        <v>4.48466205831956</v>
+        <v>5.15241131948996</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.7655690353157</v>
+        <v>9.9912903265654</v>
       </c>
       <c r="B124" t="n">
-        <v>11.2675762359848</v>
+        <v>9.67271733808642</v>
       </c>
       <c r="C124" t="n">
-        <v>12.4703110369571</v>
+        <v>8.40829145229966</v>
       </c>
       <c r="D124" t="n">
-        <v>12.365721730977</v>
+        <v>8.10637170948979</v>
       </c>
       <c r="E124" t="n">
-        <v>14.8742632352493</v>
+        <v>7.92034447449142</v>
       </c>
       <c r="F124" t="n">
-        <v>15.1187234384755</v>
+        <v>7.63728525155767</v>
       </c>
       <c r="G124" t="n">
-        <v>15.5988038419816</v>
+        <v>6.82799388981836</v>
       </c>
       <c r="H124" t="n">
-        <v>16.6115973741757</v>
+        <v>6.18154261634319</v>
       </c>
       <c r="I124" t="n">
-        <v>20.3098302606029</v>
+        <v>5.96779657114953</v>
       </c>
       <c r="J124" t="n">
-        <v>21.1476884643139</v>
+        <v>5.44012980961435</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.39135712946759</v>
+        <v>9.7876648149988</v>
       </c>
       <c r="B125" t="n">
-        <v>7.95087884106727</v>
+        <v>9.22002578011346</v>
       </c>
       <c r="C125" t="n">
-        <v>8.29370982084937</v>
+        <v>9.71649675963268</v>
       </c>
       <c r="D125" t="n">
-        <v>7.48579583192229</v>
+        <v>8.50248907537327</v>
       </c>
       <c r="E125" t="n">
-        <v>6.72964967752865</v>
+        <v>8.24850580864505</v>
       </c>
       <c r="F125" t="n">
-        <v>6.87734451329353</v>
+        <v>7.49420019379927</v>
       </c>
       <c r="G125" t="n">
-        <v>5.52871758386794</v>
+        <v>6.66068724877074</v>
       </c>
       <c r="H125" t="n">
-        <v>5.5648217908305</v>
+        <v>7.22445418029362</v>
       </c>
       <c r="I125" t="n">
-        <v>4.89779383329039</v>
+        <v>5.48820996378212</v>
       </c>
       <c r="J125" t="n">
-        <v>4.42329641895445</v>
+        <v>5.74379171184288</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.89002620810303</v>
+        <v>10.7661755827465</v>
       </c>
       <c r="B126" t="n">
-        <v>10.8261660757024</v>
+        <v>10.6293292121848</v>
       </c>
       <c r="C126" t="n">
-        <v>11.3222614790407</v>
+        <v>11.8341693226201</v>
       </c>
       <c r="D126" t="n">
-        <v>12.499374968909</v>
+        <v>12.2766708661182</v>
       </c>
       <c r="E126" t="n">
-        <v>14.0744772900442</v>
+        <v>13.7390489948374</v>
       </c>
       <c r="F126" t="n">
-        <v>14.1915406922147</v>
+        <v>14.3854632411872</v>
       </c>
       <c r="G126" t="n">
-        <v>15.9921621786262</v>
+        <v>16.295017457075</v>
       </c>
       <c r="H126" t="n">
-        <v>18.6189136712847</v>
+        <v>17.8318624765194</v>
       </c>
       <c r="I126" t="n">
-        <v>17.5600392483963</v>
+        <v>18.351315813469</v>
       </c>
       <c r="J126" t="n">
-        <v>18.961852747437</v>
+        <v>19.7353048482752</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.05283695299244</v>
+        <v>10.3418486077817</v>
       </c>
       <c r="B127" t="n">
-        <v>8.81950684986756</v>
+        <v>10.4891102824462</v>
       </c>
       <c r="C127" t="n">
-        <v>8.27480149319627</v>
+        <v>12.3424391795226</v>
       </c>
       <c r="D127" t="n">
-        <v>7.16432978303568</v>
+        <v>13.2250138712501</v>
       </c>
       <c r="E127" t="n">
-        <v>6.84400125608867</v>
+        <v>14.4862616007208</v>
       </c>
       <c r="F127" t="n">
-        <v>6.71063912066758</v>
+        <v>15.9235234400969</v>
       </c>
       <c r="G127" t="n">
-        <v>6.09961224237813</v>
+        <v>15.6700343201393</v>
       </c>
       <c r="H127" t="n">
-        <v>5.61362438096566</v>
+        <v>16.0553903836874</v>
       </c>
       <c r="I127" t="n">
-        <v>5.06916027455997</v>
+        <v>19.2081372374093</v>
       </c>
       <c r="J127" t="n">
-        <v>4.48192456613353</v>
+        <v>19.0784084128376</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10.5732461056952</v>
+        <v>10.0733603523472</v>
       </c>
       <c r="B128" t="n">
-        <v>11.4094873901777</v>
+        <v>11.0867526216233</v>
       </c>
       <c r="C128" t="n">
-        <v>11.6501787344695</v>
+        <v>12.2689247689807</v>
       </c>
       <c r="D128" t="n">
-        <v>12.2586178389031</v>
+        <v>12.8386169863214</v>
       </c>
       <c r="E128" t="n">
-        <v>15.3153947958921</v>
+        <v>13.8903809951935</v>
       </c>
       <c r="F128" t="n">
-        <v>14.6246774697896</v>
+        <v>13.7675804034523</v>
       </c>
       <c r="G128" t="n">
-        <v>16.2866197111203</v>
+        <v>16.5794965428448</v>
       </c>
       <c r="H128" t="n">
-        <v>17.1566582311169</v>
+        <v>16.8313392454681</v>
       </c>
       <c r="I128" t="n">
-        <v>17.240325633902</v>
+        <v>17.468972398175</v>
       </c>
       <c r="J128" t="n">
-        <v>18.5525189716321</v>
+        <v>19.2571097807595</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>11.5514635964513</v>
+        <v>9.60676244255962</v>
       </c>
       <c r="B129" t="n">
-        <v>12.1018960990723</v>
+        <v>11.6195201277506</v>
       </c>
       <c r="C129" t="n">
-        <v>12.4882385218249</v>
+        <v>12.2783026694602</v>
       </c>
       <c r="D129" t="n">
-        <v>12.3335862687518</v>
+        <v>12.2007520038653</v>
       </c>
       <c r="E129" t="n">
-        <v>14.6813230217309</v>
+        <v>13.4833185203942</v>
       </c>
       <c r="F129" t="n">
-        <v>15.163605485107</v>
+        <v>14.4945440098568</v>
       </c>
       <c r="G129" t="n">
-        <v>15.907174844154</v>
+        <v>17.9950004901405</v>
       </c>
       <c r="H129" t="n">
-        <v>16.780383694099</v>
+        <v>17.2528506055081</v>
       </c>
       <c r="I129" t="n">
-        <v>17.7667386195986</v>
+        <v>17.5958596578584</v>
       </c>
       <c r="J129" t="n">
-        <v>19.7805335173286</v>
+        <v>18.8360569387526</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.99956299271858</v>
+        <v>10.3358387862955</v>
       </c>
       <c r="B130" t="n">
-        <v>11.7615053122389</v>
+        <v>11.1234998679062</v>
       </c>
       <c r="C130" t="n">
-        <v>12.0486022409427</v>
+        <v>12.0939860807991</v>
       </c>
       <c r="D130" t="n">
-        <v>13.1122488037408</v>
+        <v>12.6119217485317</v>
       </c>
       <c r="E130" t="n">
-        <v>14.5088451939986</v>
+        <v>13.7309936995052</v>
       </c>
       <c r="F130" t="n">
-        <v>14.5092003107561</v>
+        <v>16.2206719586768</v>
       </c>
       <c r="G130" t="n">
-        <v>16.3655462423036</v>
+        <v>16.7471667647222</v>
       </c>
       <c r="H130" t="n">
-        <v>16.6550976103804</v>
+        <v>18.392264268098</v>
       </c>
       <c r="I130" t="n">
-        <v>18.8239742823354</v>
+        <v>18.8951910239857</v>
       </c>
       <c r="J130" t="n">
-        <v>19.9711570146187</v>
+        <v>19.308992840094</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.6056672988753</v>
+        <v>10.3715941018126</v>
       </c>
       <c r="B131" t="n">
-        <v>10.4403398324143</v>
+        <v>10.6282704727166</v>
       </c>
       <c r="C131" t="n">
-        <v>12.6112496703938</v>
+        <v>13.7366724782205</v>
       </c>
       <c r="D131" t="n">
-        <v>11.6887966973188</v>
+        <v>13.1241123213382</v>
       </c>
       <c r="E131" t="n">
-        <v>13.9804258077705</v>
+        <v>13.0701427241357</v>
       </c>
       <c r="F131" t="n">
-        <v>15.2393271647521</v>
+        <v>15.024383154994</v>
       </c>
       <c r="G131" t="n">
-        <v>16.1341259139934</v>
+        <v>16.593558526381</v>
       </c>
       <c r="H131" t="n">
-        <v>17.9990968700912</v>
+        <v>17.4493730206594</v>
       </c>
       <c r="I131" t="n">
-        <v>17.0693544665195</v>
+        <v>18.5793646200338</v>
       </c>
       <c r="J131" t="n">
-        <v>18.7149528549308</v>
+        <v>19.1739196890181</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.3672255952482</v>
+        <v>10.4544425776092</v>
       </c>
       <c r="B132" t="n">
-        <v>8.44710555727378</v>
+        <v>11.6986824351858</v>
       </c>
       <c r="C132" t="n">
-        <v>7.98760100018987</v>
+        <v>12.1492157378195</v>
       </c>
       <c r="D132" t="n">
-        <v>7.35245896427392</v>
+        <v>13.2582246055667</v>
       </c>
       <c r="E132" t="n">
-        <v>6.90759018053408</v>
+        <v>13.6014777488783</v>
       </c>
       <c r="F132" t="n">
-        <v>6.88910066431036</v>
+        <v>15.1968331585688</v>
       </c>
       <c r="G132" t="n">
-        <v>5.95717490644763</v>
+        <v>16.5959333279277</v>
       </c>
       <c r="H132" t="n">
-        <v>5.28087925547266</v>
+        <v>17.0986007429829</v>
       </c>
       <c r="I132" t="n">
-        <v>4.99498698325164</v>
+        <v>16.8686010842695</v>
       </c>
       <c r="J132" t="n">
-        <v>4.9760412261008</v>
+        <v>18.2542742459208</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8.8719344995235</v>
+        <v>9.57719437252823</v>
       </c>
       <c r="B133" t="n">
-        <v>8.31696143362749</v>
+        <v>12.2292871790298</v>
       </c>
       <c r="C133" t="n">
-        <v>8.03510497096243</v>
+        <v>12.4537654148944</v>
       </c>
       <c r="D133" t="n">
-        <v>7.36173781742238</v>
+        <v>12.4926840270944</v>
       </c>
       <c r="E133" t="n">
-        <v>7.46846925404404</v>
+        <v>13.386629171519</v>
       </c>
       <c r="F133" t="n">
-        <v>6.01923748368589</v>
+        <v>14.7850089056843</v>
       </c>
       <c r="G133" t="n">
-        <v>5.55804622129696</v>
+        <v>15.7914454813228</v>
       </c>
       <c r="H133" t="n">
-        <v>5.611568767613</v>
+        <v>16.745545132339</v>
       </c>
       <c r="I133" t="n">
-        <v>4.72676994562147</v>
+        <v>19.7059418367664</v>
       </c>
       <c r="J133" t="n">
-        <v>4.27058683917967</v>
+        <v>18.9759221249602</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.60194635173809</v>
+        <v>9.52133699818976</v>
       </c>
       <c r="B134" t="n">
-        <v>11.0240962149211</v>
+        <v>10.7660756691858</v>
       </c>
       <c r="C134" t="n">
-        <v>11.6692293649979</v>
+        <v>13.4427647856574</v>
       </c>
       <c r="D134" t="n">
-        <v>13.0394547062246</v>
+        <v>13.2534883443133</v>
       </c>
       <c r="E134" t="n">
-        <v>13.4253889332657</v>
+        <v>14.3540242250612</v>
       </c>
       <c r="F134" t="n">
-        <v>14.5500306718315</v>
+        <v>16.0791684445096</v>
       </c>
       <c r="G134" t="n">
-        <v>16.8989334251681</v>
+        <v>17.2332491442014</v>
       </c>
       <c r="H134" t="n">
-        <v>16.0708878992201</v>
+        <v>17.4025648666958</v>
       </c>
       <c r="I134" t="n">
-        <v>17.5255487351798</v>
+        <v>16.9779003623801</v>
       </c>
       <c r="J134" t="n">
-        <v>19.6510404216534</v>
+        <v>20.0380240155448</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.50184838633445</v>
+        <v>9.14243929053987</v>
       </c>
       <c r="B135" t="n">
-        <v>10.8589022711349</v>
+        <v>11.8548294872038</v>
       </c>
       <c r="C135" t="n">
-        <v>12.0256792279091</v>
+        <v>10.7674922358666</v>
       </c>
       <c r="D135" t="n">
-        <v>14.0760830846978</v>
+        <v>12.0603260265216</v>
       </c>
       <c r="E135" t="n">
-        <v>14.8770231063642</v>
+        <v>12.906399023722</v>
       </c>
       <c r="F135" t="n">
-        <v>15.1858443647209</v>
+        <v>15.3244149953745</v>
       </c>
       <c r="G135" t="n">
-        <v>16.8041585657164</v>
+        <v>16.4513658478822</v>
       </c>
       <c r="H135" t="n">
-        <v>17.3428091719689</v>
+        <v>17.2182978911871</v>
       </c>
       <c r="I135" t="n">
-        <v>17.5977184574695</v>
+        <v>19.3018084285108</v>
       </c>
       <c r="J135" t="n">
-        <v>20.7986836872706</v>
+        <v>19.0350812678451</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.8273943419317</v>
+        <v>9.68273341163718</v>
       </c>
       <c r="B136" t="n">
-        <v>10.6464524077714</v>
+        <v>10.0409389332547</v>
       </c>
       <c r="C136" t="n">
-        <v>11.8177085283452</v>
+        <v>12.9244324981715</v>
       </c>
       <c r="D136" t="n">
-        <v>12.0421700061616</v>
+        <v>13.1405940661379</v>
       </c>
       <c r="E136" t="n">
-        <v>13.4749059438906</v>
+        <v>13.3234834742005</v>
       </c>
       <c r="F136" t="n">
-        <v>14.2286057193039</v>
+        <v>14.8664751230152</v>
       </c>
       <c r="G136" t="n">
-        <v>17.5276422788012</v>
+        <v>17.089051941214</v>
       </c>
       <c r="H136" t="n">
-        <v>17.3537180719054</v>
+        <v>17.4830515387846</v>
       </c>
       <c r="I136" t="n">
-        <v>19.1515974591561</v>
+        <v>18.961774868757</v>
       </c>
       <c r="J136" t="n">
-        <v>19.7237387393101</v>
+        <v>18.752786702623</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.73354069101798</v>
+        <v>9.98084893469349</v>
       </c>
       <c r="B137" t="n">
-        <v>11.8804748483911</v>
+        <v>10.0911956540811</v>
       </c>
       <c r="C137" t="n">
-        <v>12.5993407058471</v>
+        <v>12.4439482675333</v>
       </c>
       <c r="D137" t="n">
-        <v>12.5804546896486</v>
+        <v>13.1783229380807</v>
       </c>
       <c r="E137" t="n">
-        <v>13.6493447800097</v>
+        <v>13.8330739295408</v>
       </c>
       <c r="F137" t="n">
-        <v>14.4033199106349</v>
+        <v>15.4785996304561</v>
       </c>
       <c r="G137" t="n">
-        <v>16.4812161325049</v>
+        <v>15.8229498708354</v>
       </c>
       <c r="H137" t="n">
-        <v>16.3993218309666</v>
+        <v>17.1762312045125</v>
       </c>
       <c r="I137" t="n">
-        <v>19.3463228818904</v>
+        <v>18.1230240105923</v>
       </c>
       <c r="J137" t="n">
-        <v>18.4576141457686</v>
+        <v>19.75311027312</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8.96501131026625</v>
+        <v>10.1905790976471</v>
       </c>
       <c r="B138" t="n">
-        <v>10.9783172434554</v>
+        <v>9.53083232292803</v>
       </c>
       <c r="C138" t="n">
-        <v>12.2068223289317</v>
+        <v>8.82649579076726</v>
       </c>
       <c r="D138" t="n">
-        <v>13.9851918134132</v>
+        <v>8.42309264420367</v>
       </c>
       <c r="E138" t="n">
-        <v>13.5428693149065</v>
+        <v>7.98642830414981</v>
       </c>
       <c r="F138" t="n">
-        <v>13.7083007225937</v>
+        <v>7.46894268967295</v>
       </c>
       <c r="G138" t="n">
-        <v>15.7412314396555</v>
+        <v>7.16686200189646</v>
       </c>
       <c r="H138" t="n">
-        <v>17.0057824041217</v>
+        <v>6.22907119939467</v>
       </c>
       <c r="I138" t="n">
-        <v>17.6575799469902</v>
+        <v>5.77497374585891</v>
       </c>
       <c r="J138" t="n">
-        <v>18.804554063911</v>
+        <v>4.99272316754656</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.46286316714045</v>
+        <v>10.5330610285962</v>
       </c>
       <c r="B139" t="n">
-        <v>8.63441478095806</v>
+        <v>11.111709175031</v>
       </c>
       <c r="C139" t="n">
-        <v>8.64649729738788</v>
+        <v>13.7936208369295</v>
       </c>
       <c r="D139" t="n">
-        <v>7.23410145081513</v>
+        <v>13.2111601425317</v>
       </c>
       <c r="E139" t="n">
-        <v>6.88396866857699</v>
+        <v>12.9771987866446</v>
       </c>
       <c r="F139" t="n">
-        <v>6.49854051375665</v>
+        <v>14.9250068097915</v>
       </c>
       <c r="G139" t="n">
-        <v>6.16680537458339</v>
+        <v>16.0647861085807</v>
       </c>
       <c r="H139" t="n">
-        <v>5.90076639847249</v>
+        <v>17.8293493666154</v>
       </c>
       <c r="I139" t="n">
-        <v>5.0014501075733</v>
+        <v>18.4980421282857</v>
       </c>
       <c r="J139" t="n">
-        <v>4.60242465211674</v>
+        <v>18.9449112372376</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8.99440889822042</v>
+        <v>10.6805787867705</v>
       </c>
       <c r="B140" t="n">
-        <v>8.62464876884859</v>
+        <v>10.4677018195988</v>
       </c>
       <c r="C140" t="n">
-        <v>7.71284150923191</v>
+        <v>10.8837793532325</v>
       </c>
       <c r="D140" t="n">
-        <v>7.04948032141849</v>
+        <v>12.3094852499397</v>
       </c>
       <c r="E140" t="n">
-        <v>7.04813853035441</v>
+        <v>12.4440098775274</v>
       </c>
       <c r="F140" t="n">
-        <v>6.27423393307111</v>
+        <v>14.8414106592384</v>
       </c>
       <c r="G140" t="n">
-        <v>6.21994780713128</v>
+        <v>16.7973364283136</v>
       </c>
       <c r="H140" t="n">
-        <v>5.23491069291177</v>
+        <v>17.4773629873643</v>
       </c>
       <c r="I140" t="n">
-        <v>4.97400409697417</v>
+        <v>19.5620097028458</v>
       </c>
       <c r="J140" t="n">
-        <v>4.78753322766807</v>
+        <v>17.7931816387287</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8.85482275512326</v>
+        <v>9.64358274079861</v>
       </c>
       <c r="B141" t="n">
-        <v>8.37561475346822</v>
+        <v>11.0967912978994</v>
       </c>
       <c r="C141" t="n">
-        <v>8.01386848607499</v>
+        <v>11.3323094775159</v>
       </c>
       <c r="D141" t="n">
-        <v>7.47824758962975</v>
+        <v>13.6846647921475</v>
       </c>
       <c r="E141" t="n">
-        <v>7.02551123990491</v>
+        <v>13.6528719180426</v>
       </c>
       <c r="F141" t="n">
-        <v>6.83230656118111</v>
+        <v>15.3168074876543</v>
       </c>
       <c r="G141" t="n">
-        <v>6.04235879196263</v>
+        <v>16.0013980663149</v>
       </c>
       <c r="H141" t="n">
-        <v>5.68324263858326</v>
+        <v>17.5855253939108</v>
       </c>
       <c r="I141" t="n">
-        <v>4.97881848289593</v>
+        <v>18.1323843668224</v>
       </c>
       <c r="J141" t="n">
-        <v>4.17272635246029</v>
+        <v>17.7254398083868</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8.8836028438279</v>
+        <v>9.84335460177336</v>
       </c>
       <c r="B142" t="n">
-        <v>8.18537507102211</v>
+        <v>11.2331114315261</v>
       </c>
       <c r="C142" t="n">
-        <v>8.01000906149668</v>
+        <v>12.1855835661378</v>
       </c>
       <c r="D142" t="n">
-        <v>7.55632770207186</v>
+        <v>13.2258789175565</v>
       </c>
       <c r="E142" t="n">
-        <v>7.56826096368617</v>
+        <v>16.2619827707861</v>
       </c>
       <c r="F142" t="n">
-        <v>6.70675178680962</v>
+        <v>15.7167419434296</v>
       </c>
       <c r="G142" t="n">
-        <v>6.21483083490613</v>
+        <v>16.5895887442608</v>
       </c>
       <c r="H142" t="n">
-        <v>5.76685919450342</v>
+        <v>17.2925150285729</v>
       </c>
       <c r="I142" t="n">
-        <v>4.88274766188163</v>
+        <v>18.2169088772287</v>
       </c>
       <c r="J142" t="n">
-        <v>4.60429746983531</v>
+        <v>17.3171469920898</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.12040134584064</v>
+        <v>9.84687954363377</v>
       </c>
       <c r="B143" t="n">
-        <v>8.66890978735295</v>
+        <v>9.58242808467048</v>
       </c>
       <c r="C143" t="n">
-        <v>8.20461270936451</v>
+        <v>9.23162439610617</v>
       </c>
       <c r="D143" t="n">
-        <v>7.48812613028513</v>
+        <v>8.33492628641935</v>
       </c>
       <c r="E143" t="n">
-        <v>7.27220078456091</v>
+        <v>7.58496071694992</v>
       </c>
       <c r="F143" t="n">
-        <v>6.57587630928408</v>
+        <v>7.70849172759618</v>
       </c>
       <c r="G143" t="n">
-        <v>5.88253222485004</v>
+        <v>6.79418856570047</v>
       </c>
       <c r="H143" t="n">
-        <v>5.4918083640665</v>
+        <v>6.2146023485931</v>
       </c>
       <c r="I143" t="n">
-        <v>4.77889285505211</v>
+        <v>6.00905936581038</v>
       </c>
       <c r="J143" t="n">
-        <v>4.80444483313801</v>
+        <v>5.39421414388793</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.76653078313883</v>
+        <v>9.93981230088645</v>
       </c>
       <c r="B144" t="n">
-        <v>11.9901556065035</v>
+        <v>9.34917694635737</v>
       </c>
       <c r="C144" t="n">
-        <v>13.9782822430253</v>
+        <v>9.21763719274492</v>
       </c>
       <c r="D144" t="n">
-        <v>12.6279444568734</v>
+        <v>8.96377706315604</v>
       </c>
       <c r="E144" t="n">
-        <v>13.408530119966</v>
+        <v>8.04363362283586</v>
       </c>
       <c r="F144" t="n">
-        <v>14.5214398867998</v>
+        <v>7.17984644394393</v>
       </c>
       <c r="G144" t="n">
-        <v>15.7340666012779</v>
+        <v>7.02326882463941</v>
       </c>
       <c r="H144" t="n">
-        <v>17.6709036425101</v>
+        <v>6.48170891554495</v>
       </c>
       <c r="I144" t="n">
-        <v>18.6951430393943</v>
+        <v>5.95421879916993</v>
       </c>
       <c r="J144" t="n">
-        <v>18.2480143435245</v>
+        <v>5.48647555001286</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.029289604108</v>
+        <v>9.74143230881893</v>
       </c>
       <c r="B145" t="n">
-        <v>10.4902594435323</v>
+        <v>9.54120071194134</v>
       </c>
       <c r="C145" t="n">
-        <v>10.9791306040542</v>
+        <v>9.11128736387995</v>
       </c>
       <c r="D145" t="n">
-        <v>13.4335210377776</v>
+        <v>8.36249077052005</v>
       </c>
       <c r="E145" t="n">
-        <v>13.0455151326855</v>
+        <v>7.85877433435998</v>
       </c>
       <c r="F145" t="n">
-        <v>13.5306764481585</v>
+        <v>7.61054920116075</v>
       </c>
       <c r="G145" t="n">
-        <v>15.7571573106967</v>
+        <v>7.230308945993</v>
       </c>
       <c r="H145" t="n">
-        <v>16.8906661904712</v>
+        <v>7.00156656412184</v>
       </c>
       <c r="I145" t="n">
-        <v>16.7473883650484</v>
+        <v>5.88098844950629</v>
       </c>
       <c r="J145" t="n">
-        <v>17.9169366683872</v>
+        <v>5.87378024533793</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9.16817098132103</v>
+        <v>9.49016261214322</v>
       </c>
       <c r="B146" t="n">
-        <v>8.6870769852717</v>
+        <v>9.40973443383625</v>
       </c>
       <c r="C146" t="n">
-        <v>8.30382218681578</v>
+        <v>11.1329737513976</v>
       </c>
       <c r="D146" t="n">
-        <v>7.76148804263654</v>
+        <v>11.037306548664</v>
       </c>
       <c r="E146" t="n">
-        <v>7.18246584921558</v>
+        <v>13.7918092883458</v>
       </c>
       <c r="F146" t="n">
-        <v>7.11264717629383</v>
+        <v>14.6941035711663</v>
       </c>
       <c r="G146" t="n">
-        <v>5.96070164680101</v>
+        <v>16.2736314086063</v>
       </c>
       <c r="H146" t="n">
-        <v>5.61495206471526</v>
+        <v>15.9463798735152</v>
       </c>
       <c r="I146" t="n">
-        <v>5.08577386607724</v>
+        <v>18.6652120412948</v>
       </c>
       <c r="J146" t="n">
-        <v>4.3103814319637</v>
+        <v>19.4488284206467</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.301928500676</v>
+        <v>10.1137813834456</v>
       </c>
       <c r="B147" t="n">
-        <v>11.1611279616172</v>
+        <v>9.13466808616902</v>
       </c>
       <c r="C147" t="n">
-        <v>12.0414916350504</v>
+        <v>9.31967282338311</v>
       </c>
       <c r="D147" t="n">
-        <v>11.9771583718149</v>
+        <v>8.42910212417692</v>
       </c>
       <c r="E147" t="n">
-        <v>14.010402227862</v>
+        <v>8.54129304456355</v>
       </c>
       <c r="F147" t="n">
-        <v>14.1151225467458</v>
+        <v>7.2461150538356</v>
       </c>
       <c r="G147" t="n">
-        <v>16.2128532826753</v>
+        <v>7.08414828994491</v>
       </c>
       <c r="H147" t="n">
-        <v>17.0927514867996</v>
+        <v>6.48203413252854</v>
       </c>
       <c r="I147" t="n">
-        <v>17.9715001896541</v>
+        <v>5.68973764347973</v>
       </c>
       <c r="J147" t="n">
-        <v>18.7460166724226</v>
+        <v>5.22356211298227</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.1757872000121</v>
+        <v>9.9307956228279</v>
       </c>
       <c r="B148" t="n">
-        <v>12.3851372053839</v>
+        <v>10.0536381076469</v>
       </c>
       <c r="C148" t="n">
-        <v>12.5848726815196</v>
+        <v>11.2280072372316</v>
       </c>
       <c r="D148" t="n">
-        <v>13.6605928320149</v>
+        <v>13.8024245052144</v>
       </c>
       <c r="E148" t="n">
-        <v>12.7966512942146</v>
+        <v>14.5047498162482</v>
       </c>
       <c r="F148" t="n">
-        <v>16.2415543233139</v>
+        <v>14.1537791861282</v>
       </c>
       <c r="G148" t="n">
-        <v>15.8948043837446</v>
+        <v>15.663948768489</v>
       </c>
       <c r="H148" t="n">
-        <v>16.3061747082309</v>
+        <v>16.6345873082168</v>
       </c>
       <c r="I148" t="n">
-        <v>17.5637040580489</v>
+        <v>17.3104677925514</v>
       </c>
       <c r="J148" t="n">
-        <v>19.8085911573877</v>
+        <v>18.6195080440849</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.9824761529187</v>
+        <v>9.53546747026476</v>
       </c>
       <c r="B149" t="n">
-        <v>11.3748849403202</v>
+        <v>10.5438855327646</v>
       </c>
       <c r="C149" t="n">
-        <v>11.8834385018577</v>
+        <v>11.7236705568925</v>
       </c>
       <c r="D149" t="n">
-        <v>12.6662506083196</v>
+        <v>13.0743968144386</v>
       </c>
       <c r="E149" t="n">
-        <v>12.5635386004939</v>
+        <v>13.0500206853295</v>
       </c>
       <c r="F149" t="n">
-        <v>14.6956389561321</v>
+        <v>14.2350266924987</v>
       </c>
       <c r="G149" t="n">
-        <v>15.3125663387714</v>
+        <v>16.4509145412235</v>
       </c>
       <c r="H149" t="n">
-        <v>15.9845985731768</v>
+        <v>15.2293450360266</v>
       </c>
       <c r="I149" t="n">
-        <v>17.8356344363315</v>
+        <v>17.4131988734815</v>
       </c>
       <c r="J149" t="n">
-        <v>19.0578749233875</v>
+        <v>19.4686130901202</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.71401932095642</v>
+        <v>10.2994869602734</v>
       </c>
       <c r="B150" t="n">
-        <v>10.382805529656</v>
+        <v>11.8798033640067</v>
       </c>
       <c r="C150" t="n">
-        <v>12.2680354592733</v>
+        <v>11.089206051029</v>
       </c>
       <c r="D150" t="n">
-        <v>12.2013525779162</v>
+        <v>12.7112213834052</v>
       </c>
       <c r="E150" t="n">
-        <v>13.8341884669481</v>
+        <v>12.9061231025423</v>
       </c>
       <c r="F150" t="n">
-        <v>14.3147267232365</v>
+        <v>15.789849880272</v>
       </c>
       <c r="G150" t="n">
-        <v>15.5020899785722</v>
+        <v>16.4794119694481</v>
       </c>
       <c r="H150" t="n">
-        <v>16.8292756529314</v>
+        <v>17.2256132754669</v>
       </c>
       <c r="I150" t="n">
-        <v>16.407117111187</v>
+        <v>18.8210717351416</v>
       </c>
       <c r="J150" t="n">
-        <v>19.2113467425483</v>
+        <v>18.6164592933123</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8.75636937073094</v>
+        <v>10.2380438050163</v>
       </c>
       <c r="B151" t="n">
-        <v>8.31196441388597</v>
+        <v>9.51053610344048</v>
       </c>
       <c r="C151" t="n">
-        <v>8.38956396540537</v>
+        <v>8.73443405965606</v>
       </c>
       <c r="D151" t="n">
-        <v>7.54909478388214</v>
+        <v>8.44712186052387</v>
       </c>
       <c r="E151" t="n">
-        <v>7.02870067335529</v>
+        <v>7.83622943759634</v>
       </c>
       <c r="F151" t="n">
-        <v>6.3492636230821</v>
+        <v>7.78830309544203</v>
       </c>
       <c r="G151" t="n">
-        <v>5.97606417581374</v>
+        <v>7.41225376111756</v>
       </c>
       <c r="H151" t="n">
-        <v>5.3210406776481</v>
+        <v>6.66806587018047</v>
       </c>
       <c r="I151" t="n">
-        <v>4.78699425481973</v>
+        <v>6.34475392976213</v>
       </c>
       <c r="J151" t="n">
-        <v>4.14746230405626</v>
+        <v>5.49986256627451</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8.28623899022678</v>
+        <v>10.0258584261363</v>
       </c>
       <c r="B152" t="n">
-        <v>8.53077773046487</v>
+        <v>9.60613715048891</v>
       </c>
       <c r="C152" t="n">
-        <v>7.77867705409457</v>
+        <v>9.08302877468047</v>
       </c>
       <c r="D152" t="n">
-        <v>7.45428167342049</v>
+        <v>8.53393964319495</v>
       </c>
       <c r="E152" t="n">
-        <v>7.11041164801502</v>
+        <v>8.38155484748283</v>
       </c>
       <c r="F152" t="n">
-        <v>6.08045394592597</v>
+        <v>7.0476897601277</v>
       </c>
       <c r="G152" t="n">
-        <v>6.27940267103892</v>
+        <v>7.13520224129283</v>
       </c>
       <c r="H152" t="n">
-        <v>5.176237028368</v>
+        <v>6.11524411486835</v>
       </c>
       <c r="I152" t="n">
-        <v>5.00831616570213</v>
+        <v>5.7767868879217</v>
       </c>
       <c r="J152" t="n">
-        <v>5.04998366476122</v>
+        <v>5.29808365880247</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.46663790448651</v>
+        <v>9.76428120237953</v>
       </c>
       <c r="B153" t="n">
-        <v>11.1439806048216</v>
+        <v>10.0184186223275</v>
       </c>
       <c r="C153" t="n">
-        <v>13.0868932632127</v>
+        <v>8.97881044535755</v>
       </c>
       <c r="D153" t="n">
-        <v>13.5715886633716</v>
+        <v>8.55771314707521</v>
       </c>
       <c r="E153" t="n">
-        <v>12.8939197487331</v>
+        <v>8.58279264303907</v>
       </c>
       <c r="F153" t="n">
-        <v>16.3715687710979</v>
+        <v>7.54867402092571</v>
       </c>
       <c r="G153" t="n">
-        <v>17.035311965469</v>
+        <v>6.9435267241855</v>
       </c>
       <c r="H153" t="n">
-        <v>16.1378690402918</v>
+        <v>6.53263950150721</v>
       </c>
       <c r="I153" t="n">
-        <v>18.0531986601195</v>
+        <v>6.42164064315582</v>
       </c>
       <c r="J153" t="n">
-        <v>18.1292510351984</v>
+        <v>6.12910340461346</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8.91724152669233</v>
+        <v>9.71102521064121</v>
       </c>
       <c r="B154" t="n">
-        <v>8.21888244764521</v>
+        <v>9.40977501825259</v>
       </c>
       <c r="C154" t="n">
-        <v>7.83405921061107</v>
+        <v>8.91385988818114</v>
       </c>
       <c r="D154" t="n">
-        <v>7.93632456592774</v>
+        <v>8.68152631947003</v>
       </c>
       <c r="E154" t="n">
-        <v>7.10041529564742</v>
+        <v>8.51511816954513</v>
       </c>
       <c r="F154" t="n">
-        <v>6.11031069742392</v>
+        <v>7.46524721187382</v>
       </c>
       <c r="G154" t="n">
-        <v>6.06570124055193</v>
+        <v>6.66985334881028</v>
       </c>
       <c r="H154" t="n">
-        <v>5.42647459467355</v>
+        <v>6.40561536527609</v>
       </c>
       <c r="I154" t="n">
-        <v>4.78191838292371</v>
+        <v>5.9078776908041</v>
       </c>
       <c r="J154" t="n">
-        <v>4.01304979122817</v>
+        <v>5.6559711417581</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.4067140816356</v>
+        <v>9.66033741058336</v>
       </c>
       <c r="B155" t="n">
-        <v>11.4277433860781</v>
+        <v>9.76845910844449</v>
       </c>
       <c r="C155" t="n">
-        <v>12.432809478622</v>
+        <v>9.01910339550219</v>
       </c>
       <c r="D155" t="n">
-        <v>13.3062504490108</v>
+        <v>8.3958187869703</v>
       </c>
       <c r="E155" t="n">
-        <v>14.539909223532</v>
+        <v>8.04868718653367</v>
       </c>
       <c r="F155" t="n">
-        <v>14.678603795572</v>
+        <v>7.64147588490283</v>
       </c>
       <c r="G155" t="n">
-        <v>17.9450719464422</v>
+        <v>6.13199265776831</v>
       </c>
       <c r="H155" t="n">
-        <v>15.1622650583521</v>
+        <v>6.54949939904984</v>
       </c>
       <c r="I155" t="n">
-        <v>18.2306219794395</v>
+        <v>5.74244784191364</v>
       </c>
       <c r="J155" t="n">
-        <v>18.8143024714298</v>
+        <v>5.89362198184871</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11.4756214998538</v>
+        <v>9.77341477979849</v>
       </c>
       <c r="B156" t="n">
-        <v>10.3671791091908</v>
+        <v>9.51085871940436</v>
       </c>
       <c r="C156" t="n">
-        <v>12.1945942536726</v>
+        <v>9.21393780206472</v>
       </c>
       <c r="D156" t="n">
-        <v>13.7097789456313</v>
+        <v>8.39147760422114</v>
       </c>
       <c r="E156" t="n">
-        <v>14.5915646018978</v>
+        <v>8.20190293765178</v>
       </c>
       <c r="F156" t="n">
-        <v>13.8169813804182</v>
+        <v>7.83594444011138</v>
       </c>
       <c r="G156" t="n">
-        <v>16.526469942312</v>
+        <v>7.08676872479577</v>
       </c>
       <c r="H156" t="n">
-        <v>16.7851882311952</v>
+        <v>6.61006882163927</v>
       </c>
       <c r="I156" t="n">
-        <v>18.0657411210842</v>
+        <v>5.79782026674565</v>
       </c>
       <c r="J156" t="n">
-        <v>18.4018841109072</v>
+        <v>5.60240779132648</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8.98385855351263</v>
+        <v>10.5079024987783</v>
       </c>
       <c r="B157" t="n">
-        <v>10.2788811335779</v>
+        <v>11.1657211441942</v>
       </c>
       <c r="C157" t="n">
-        <v>12.2274571438779</v>
+        <v>11.2580137341212</v>
       </c>
       <c r="D157" t="n">
-        <v>12.6031998519011</v>
+        <v>11.6207612779775</v>
       </c>
       <c r="E157" t="n">
-        <v>13.9267051623493</v>
+        <v>14.2624735530873</v>
       </c>
       <c r="F157" t="n">
-        <v>14.41538587012</v>
+        <v>15.3337322518277</v>
       </c>
       <c r="G157" t="n">
-        <v>16.3463819824098</v>
+        <v>17.2906714832478</v>
       </c>
       <c r="H157" t="n">
-        <v>17.5694578977164</v>
+        <v>18.6082601563607</v>
       </c>
       <c r="I157" t="n">
-        <v>17.8284247967977</v>
+        <v>17.4730321443574</v>
       </c>
       <c r="J157" t="n">
-        <v>18.6328097912922</v>
+        <v>19.1394978717647</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9.48011703912578</v>
+        <v>10.3504485819063</v>
       </c>
       <c r="B158" t="n">
-        <v>10.5802324619732</v>
+        <v>11.7815447967667</v>
       </c>
       <c r="C158" t="n">
-        <v>12.916871459769</v>
+        <v>11.6593112172393</v>
       </c>
       <c r="D158" t="n">
-        <v>13.9409488436431</v>
+        <v>13.2277460268345</v>
       </c>
       <c r="E158" t="n">
-        <v>12.8804775960492</v>
+        <v>14.567358155583</v>
       </c>
       <c r="F158" t="n">
-        <v>13.2581530215203</v>
+        <v>14.7235847359296</v>
       </c>
       <c r="G158" t="n">
-        <v>15.9758192496413</v>
+        <v>15.6304442006423</v>
       </c>
       <c r="H158" t="n">
-        <v>17.250139242687</v>
+        <v>16.3541036406495</v>
       </c>
       <c r="I158" t="n">
-        <v>17.9126091361896</v>
+        <v>17.897116726449</v>
       </c>
       <c r="J158" t="n">
-        <v>18.3148741039511</v>
+        <v>19.5087705330604</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.1663965371745</v>
+        <v>9.74227967444519</v>
       </c>
       <c r="B159" t="n">
-        <v>10.1498720181813</v>
+        <v>9.00588538096727</v>
       </c>
       <c r="C159" t="n">
-        <v>12.2985328606223</v>
+        <v>8.89013022842813</v>
       </c>
       <c r="D159" t="n">
-        <v>13.2781517424919</v>
+        <v>8.39820754961642</v>
       </c>
       <c r="E159" t="n">
-        <v>12.7553699229113</v>
+        <v>8.05783742586698</v>
       </c>
       <c r="F159" t="n">
-        <v>14.576908908099</v>
+        <v>7.41143155640388</v>
       </c>
       <c r="G159" t="n">
-        <v>16.0885531459427</v>
+        <v>6.88553703448008</v>
       </c>
       <c r="H159" t="n">
-        <v>15.939775973599</v>
+        <v>6.36437661338724</v>
       </c>
       <c r="I159" t="n">
-        <v>16.1087625023555</v>
+        <v>5.99415959382305</v>
       </c>
       <c r="J159" t="n">
-        <v>18.5196334722108</v>
+        <v>6.10926365199912</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8.52064780044149</v>
+        <v>9.99396465814273</v>
       </c>
       <c r="B160" t="n">
-        <v>10.2215525007184</v>
+        <v>12.0442810040176</v>
       </c>
       <c r="C160" t="n">
-        <v>12.5653476089588</v>
+        <v>12.863030030171</v>
       </c>
       <c r="D160" t="n">
-        <v>12.7963205887755</v>
+        <v>12.0605414912125</v>
       </c>
       <c r="E160" t="n">
-        <v>13.8724736497807</v>
+        <v>14.7107188640148</v>
       </c>
       <c r="F160" t="n">
-        <v>16.0296851300375</v>
+        <v>15.0223419634195</v>
       </c>
       <c r="G160" t="n">
-        <v>16.3465410052523</v>
+        <v>15.5130363037044</v>
       </c>
       <c r="H160" t="n">
-        <v>18.0775351590144</v>
+        <v>17.5583567977639</v>
       </c>
       <c r="I160" t="n">
-        <v>18.2609080296015</v>
+        <v>18.5913729714222</v>
       </c>
       <c r="J160" t="n">
-        <v>18.0191785406172</v>
+        <v>19.8872217471686</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.41633383142373</v>
+        <v>10.412434297149</v>
       </c>
       <c r="B161" t="n">
-        <v>12.6998959892039</v>
+        <v>9.50705394557956</v>
       </c>
       <c r="C161" t="n">
-        <v>12.0055648113875</v>
+        <v>9.08812522026</v>
       </c>
       <c r="D161" t="n">
-        <v>12.9364677907575</v>
+        <v>8.36473358044922</v>
       </c>
       <c r="E161" t="n">
-        <v>14.7407230601953</v>
+        <v>7.82969171830118</v>
       </c>
       <c r="F161" t="n">
-        <v>15.3015917183438</v>
+        <v>7.60275789083938</v>
       </c>
       <c r="G161" t="n">
-        <v>15.7075221116568</v>
+        <v>6.69152371752258</v>
       </c>
       <c r="H161" t="n">
-        <v>16.3619592036793</v>
+        <v>6.59343428416371</v>
       </c>
       <c r="I161" t="n">
-        <v>18.6113517710174</v>
+        <v>6.37101616331184</v>
       </c>
       <c r="J161" t="n">
-        <v>18.6012670937436</v>
+        <v>5.20938044146358</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8.39026171758361</v>
+        <v>10.0770857643284</v>
       </c>
       <c r="B162" t="n">
-        <v>11.0417107325039</v>
+        <v>11.055940283722</v>
       </c>
       <c r="C162" t="n">
-        <v>12.4391426065439</v>
+        <v>11.9998644838891</v>
       </c>
       <c r="D162" t="n">
-        <v>12.9842527355518</v>
+        <v>11.7300011846269</v>
       </c>
       <c r="E162" t="n">
-        <v>13.7899889607148</v>
+        <v>14.4116225525457</v>
       </c>
       <c r="F162" t="n">
-        <v>14.4939271144043</v>
+        <v>15.7039597053553</v>
       </c>
       <c r="G162" t="n">
-        <v>15.1321662071627</v>
+        <v>15.8767656378967</v>
       </c>
       <c r="H162" t="n">
-        <v>15.8721095364517</v>
+        <v>17.4533095657642</v>
       </c>
       <c r="I162" t="n">
-        <v>16.9982207723614</v>
+        <v>18.5289066992034</v>
       </c>
       <c r="J162" t="n">
-        <v>18.9222026273419</v>
+        <v>20.1750709714391</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>9.00995403694422</v>
+        <v>10.4191076742951</v>
       </c>
       <c r="B163" t="n">
-        <v>8.87425923577609</v>
+        <v>9.46244854527219</v>
       </c>
       <c r="C163" t="n">
-        <v>7.60409228588932</v>
+        <v>9.05245920882351</v>
       </c>
       <c r="D163" t="n">
-        <v>7.07816300864808</v>
+        <v>8.7953474974137</v>
       </c>
       <c r="E163" t="n">
-        <v>6.83654324656286</v>
+        <v>7.93431703376662</v>
       </c>
       <c r="F163" t="n">
-        <v>6.69597919911738</v>
+        <v>7.201365524565</v>
       </c>
       <c r="G163" t="n">
-        <v>5.70252315665788</v>
+        <v>6.97963833596118</v>
       </c>
       <c r="H163" t="n">
-        <v>5.51865690693184</v>
+        <v>6.42501463683824</v>
       </c>
       <c r="I163" t="n">
-        <v>5.12352151466609</v>
+        <v>5.61444099051953</v>
       </c>
       <c r="J163" t="n">
-        <v>4.9347790814327</v>
+        <v>5.81455416150902</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.08365438678416</v>
+        <v>11.5246913825205</v>
       </c>
       <c r="B164" t="n">
-        <v>8.65808509039258</v>
+        <v>10.5990470762601</v>
       </c>
       <c r="C164" t="n">
-        <v>8.02343243684127</v>
+        <v>13.686806137329</v>
       </c>
       <c r="D164" t="n">
-        <v>7.91806139310951</v>
+        <v>13.6166951331036</v>
       </c>
       <c r="E164" t="n">
-        <v>7.26183962153386</v>
+        <v>13.0133463458093</v>
       </c>
       <c r="F164" t="n">
-        <v>6.2461269626749</v>
+        <v>14.0864556819139</v>
       </c>
       <c r="G164" t="n">
-        <v>5.27021259949201</v>
+        <v>16.2168274655074</v>
       </c>
       <c r="H164" t="n">
-        <v>5.51086629003941</v>
+        <v>16.9803265816461</v>
       </c>
       <c r="I164" t="n">
-        <v>5.1249499312553</v>
+        <v>18.0209039333194</v>
       </c>
       <c r="J164" t="n">
-        <v>3.78224905357653</v>
+        <v>18.5534296652604</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.2976112880193</v>
+        <v>10.149141531893</v>
       </c>
       <c r="B165" t="n">
-        <v>10.710811188545</v>
+        <v>10.5839779483058</v>
       </c>
       <c r="C165" t="n">
-        <v>10.6260619197309</v>
+        <v>12.4334210583666</v>
       </c>
       <c r="D165" t="n">
-        <v>13.5790193053624</v>
+        <v>12.4318579058501</v>
       </c>
       <c r="E165" t="n">
-        <v>13.132310885458</v>
+        <v>14.4578470108427</v>
       </c>
       <c r="F165" t="n">
-        <v>14.840845459512</v>
+        <v>14.3817758300372</v>
       </c>
       <c r="G165" t="n">
-        <v>16.4411617698953</v>
+        <v>17.0978145145693</v>
       </c>
       <c r="H165" t="n">
-        <v>16.2716753581507</v>
+        <v>17.3966330627205</v>
       </c>
       <c r="I165" t="n">
-        <v>17.6531067138237</v>
+        <v>17.752925084836</v>
       </c>
       <c r="J165" t="n">
-        <v>19.5537969742349</v>
+        <v>18.1181485430054</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.3264382987203</v>
+        <v>9.85071755057998</v>
       </c>
       <c r="B166" t="n">
-        <v>10.8974755155291</v>
+        <v>10.2106446962778</v>
       </c>
       <c r="C166" t="n">
-        <v>12.7228813806457</v>
+        <v>11.2170804177586</v>
       </c>
       <c r="D166" t="n">
-        <v>13.1982408711866</v>
+        <v>12.1457101315403</v>
       </c>
       <c r="E166" t="n">
-        <v>13.7265818553847</v>
+        <v>14.6300234342297</v>
       </c>
       <c r="F166" t="n">
-        <v>14.7683723450232</v>
+        <v>15.5462036317096</v>
       </c>
       <c r="G166" t="n">
-        <v>14.213253725319</v>
+        <v>15.8195493814741</v>
       </c>
       <c r="H166" t="n">
-        <v>16.1070662335935</v>
+        <v>18.4249217340197</v>
       </c>
       <c r="I166" t="n">
-        <v>17.4184279251792</v>
+        <v>16.6834344665855</v>
       </c>
       <c r="J166" t="n">
-        <v>19.6404155183533</v>
+        <v>18.5952822029384</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.297244069804</v>
+        <v>9.32494933736103</v>
       </c>
       <c r="B167" t="n">
-        <v>9.29839916102023</v>
+        <v>11.7819494836495</v>
       </c>
       <c r="C167" t="n">
-        <v>11.4895081306431</v>
+        <v>11.6519909493813</v>
       </c>
       <c r="D167" t="n">
-        <v>13.3430476619661</v>
+        <v>13.7345975063406</v>
       </c>
       <c r="E167" t="n">
-        <v>16.189639905924</v>
+        <v>14.3593708401952</v>
       </c>
       <c r="F167" t="n">
-        <v>15.9169984191962</v>
+        <v>16.0290163597207</v>
       </c>
       <c r="G167" t="n">
-        <v>16.9163717326613</v>
+        <v>15.4175528631582</v>
       </c>
       <c r="H167" t="n">
-        <v>17.74830378857</v>
+        <v>18.6838065507338</v>
       </c>
       <c r="I167" t="n">
-        <v>17.9053982406805</v>
+        <v>18.8059026328276</v>
       </c>
       <c r="J167" t="n">
-        <v>18.8004522839538</v>
+        <v>18.6276476719032</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.392332556161</v>
+        <v>10.1860146102997</v>
       </c>
       <c r="B168" t="n">
-        <v>11.8033539035944</v>
+        <v>10.8320219673462</v>
       </c>
       <c r="C168" t="n">
-        <v>11.4971346994504</v>
+        <v>11.3278908737958</v>
       </c>
       <c r="D168" t="n">
-        <v>12.3210536162424</v>
+        <v>11.6954967099641</v>
       </c>
       <c r="E168" t="n">
-        <v>13.890526465898</v>
+        <v>13.8856916802416</v>
       </c>
       <c r="F168" t="n">
-        <v>14.8077672529625</v>
+        <v>15.1237771164043</v>
       </c>
       <c r="G168" t="n">
-        <v>15.7952746987245</v>
+        <v>15.4739519948555</v>
       </c>
       <c r="H168" t="n">
-        <v>16.6273985306964</v>
+        <v>18.4967840668147</v>
       </c>
       <c r="I168" t="n">
-        <v>16.4005900792222</v>
+        <v>17.305454450439</v>
       </c>
       <c r="J168" t="n">
-        <v>19.5669665168006</v>
+        <v>18.7204126717941</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.7215087875533</v>
+        <v>9.76175949856612</v>
       </c>
       <c r="B169" t="n">
-        <v>10.4128526643512</v>
+        <v>11.6090538300496</v>
       </c>
       <c r="C169" t="n">
-        <v>11.7449507431321</v>
+        <v>13.2126452541676</v>
       </c>
       <c r="D169" t="n">
-        <v>13.3521586277493</v>
+        <v>12.3368667645476</v>
       </c>
       <c r="E169" t="n">
-        <v>14.5820922460435</v>
+        <v>13.510133192144</v>
       </c>
       <c r="F169" t="n">
-        <v>13.6608385755147</v>
+        <v>14.8428623161529</v>
       </c>
       <c r="G169" t="n">
-        <v>16.4355657166593</v>
+        <v>16.1387870652885</v>
       </c>
       <c r="H169" t="n">
-        <v>17.0487889122259</v>
+        <v>17.2119332622571</v>
       </c>
       <c r="I169" t="n">
-        <v>17.9757221375431</v>
+        <v>18.7238609479194</v>
       </c>
       <c r="J169" t="n">
-        <v>18.3031594295602</v>
+        <v>18.4289561755199</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>9.01327774181561</v>
+        <v>10.7258898415294</v>
       </c>
       <c r="B170" t="n">
-        <v>8.57939881195015</v>
+        <v>10.6889636322159</v>
       </c>
       <c r="C170" t="n">
-        <v>7.85720498770569</v>
+        <v>12.5918877521162</v>
       </c>
       <c r="D170" t="n">
-        <v>7.73090267646037</v>
+        <v>13.0136559757741</v>
       </c>
       <c r="E170" t="n">
-        <v>7.19229439785763</v>
+        <v>13.4644720791431</v>
       </c>
       <c r="F170" t="n">
-        <v>6.28801891776093</v>
+        <v>15.4751175897246</v>
       </c>
       <c r="G170" t="n">
-        <v>5.97941619072145</v>
+        <v>14.9272586744019</v>
       </c>
       <c r="H170" t="n">
-        <v>5.65444068302786</v>
+        <v>16.1755983120729</v>
       </c>
       <c r="I170" t="n">
-        <v>4.90192528083412</v>
+        <v>18.4422909532966</v>
       </c>
       <c r="J170" t="n">
-        <v>4.33249007340369</v>
+        <v>17.7474859261917</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.57886133865717</v>
+        <v>10.102702170797</v>
       </c>
       <c r="B171" t="n">
-        <v>8.59317747274209</v>
+        <v>12.6157206520119</v>
       </c>
       <c r="C171" t="n">
-        <v>7.96155053521136</v>
+        <v>11.249021066568</v>
       </c>
       <c r="D171" t="n">
-        <v>6.85025388682836</v>
+        <v>13.5969271383138</v>
       </c>
       <c r="E171" t="n">
-        <v>7.20286177010883</v>
+        <v>14.9925472574535</v>
       </c>
       <c r="F171" t="n">
-        <v>6.65845899726176</v>
+        <v>14.8149076488918</v>
       </c>
       <c r="G171" t="n">
-        <v>6.17501412307513</v>
+        <v>16.5764509106018</v>
       </c>
       <c r="H171" t="n">
-        <v>5.62782152667499</v>
+        <v>17.7154537135571</v>
       </c>
       <c r="I171" t="n">
-        <v>4.8895994380147</v>
+        <v>16.9186694608272</v>
       </c>
       <c r="J171" t="n">
-        <v>4.47810599787372</v>
+        <v>19.4750956250413</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.81505885886808</v>
+        <v>9.93523611836355</v>
       </c>
       <c r="B172" t="n">
-        <v>11.1906127738315</v>
+        <v>9.57694909884591</v>
       </c>
       <c r="C172" t="n">
-        <v>12.2228607608261</v>
+        <v>8.63012935189773</v>
       </c>
       <c r="D172" t="n">
-        <v>13.8424027907834</v>
+        <v>8.32387084294126</v>
       </c>
       <c r="E172" t="n">
-        <v>14.0084095918703</v>
+        <v>7.98898666006418</v>
       </c>
       <c r="F172" t="n">
-        <v>16.5971103813618</v>
+        <v>7.2774978201688</v>
       </c>
       <c r="G172" t="n">
-        <v>16.9771850740405</v>
+        <v>7.12596784835454</v>
       </c>
       <c r="H172" t="n">
-        <v>16.4095267539283</v>
+        <v>6.53858273927754</v>
       </c>
       <c r="I172" t="n">
-        <v>18.2077249414557</v>
+        <v>6.06201754897541</v>
       </c>
       <c r="J172" t="n">
-        <v>19.2588738377635</v>
+        <v>6.0584975600359</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.9136512500694</v>
+        <v>10.4300244288546</v>
       </c>
       <c r="B173" t="n">
-        <v>11.8264065422547</v>
+        <v>10.6673950322768</v>
       </c>
       <c r="C173" t="n">
-        <v>12.2138566802302</v>
+        <v>12.2210699820757</v>
       </c>
       <c r="D173" t="n">
-        <v>14.0469912069932</v>
+        <v>13.7932725114668</v>
       </c>
       <c r="E173" t="n">
-        <v>13.4668471481827</v>
+        <v>14.7335456452396</v>
       </c>
       <c r="F173" t="n">
-        <v>14.7506971599774</v>
+        <v>13.6287324168283</v>
       </c>
       <c r="G173" t="n">
-        <v>16.2803590427509</v>
+        <v>16.3883950568831</v>
       </c>
       <c r="H173" t="n">
-        <v>16.6251635536746</v>
+        <v>18.00918487254</v>
       </c>
       <c r="I173" t="n">
-        <v>18.4681376161231</v>
+        <v>17.9079278861803</v>
       </c>
       <c r="J173" t="n">
-        <v>18.9541432774269</v>
+        <v>19.5050903548097</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8.96136910817632</v>
+        <v>9.77225029194248</v>
       </c>
       <c r="B174" t="n">
-        <v>8.90118769990647</v>
+        <v>9.09046055967427</v>
       </c>
       <c r="C174" t="n">
-        <v>8.32840054240873</v>
+        <v>9.32021856453348</v>
       </c>
       <c r="D174" t="n">
-        <v>8.02240225935667</v>
+        <v>8.86439518392273</v>
       </c>
       <c r="E174" t="n">
-        <v>7.25936225064484</v>
+        <v>7.79041036884768</v>
       </c>
       <c r="F174" t="n">
-        <v>6.32102520053931</v>
+        <v>7.06683305119098</v>
       </c>
       <c r="G174" t="n">
-        <v>6.18899213249906</v>
+        <v>6.90086817123078</v>
       </c>
       <c r="H174" t="n">
-        <v>5.67993195865085</v>
+        <v>6.62491019377084</v>
       </c>
       <c r="I174" t="n">
-        <v>5.11331354441482</v>
+        <v>6.15947250728124</v>
       </c>
       <c r="J174" t="n">
-        <v>4.94064287273073</v>
+        <v>5.80381436719041</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.5651202778027</v>
+        <v>10.0194816167604</v>
       </c>
       <c r="B175" t="n">
-        <v>10.8631363659092</v>
+        <v>9.18713703803998</v>
       </c>
       <c r="C175" t="n">
-        <v>12.4948219710195</v>
+        <v>9.06694561782063</v>
       </c>
       <c r="D175" t="n">
-        <v>12.7321229062086</v>
+        <v>8.64792830427478</v>
       </c>
       <c r="E175" t="n">
-        <v>14.1767851033834</v>
+        <v>8.10658215550107</v>
       </c>
       <c r="F175" t="n">
-        <v>14.8860168278882</v>
+        <v>7.35324159218948</v>
       </c>
       <c r="G175" t="n">
-        <v>16.2669970904209</v>
+        <v>6.73008657950668</v>
       </c>
       <c r="H175" t="n">
-        <v>16.7228396149519</v>
+        <v>6.77022947430568</v>
       </c>
       <c r="I175" t="n">
-        <v>16.8703187961283</v>
+        <v>6.27368695395057</v>
       </c>
       <c r="J175" t="n">
-        <v>18.4120648759208</v>
+        <v>5.64349469286432</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>10.7006113868041</v>
+        <v>9.59125405342503</v>
       </c>
       <c r="B176" t="n">
-        <v>10.8367964338064</v>
+        <v>10.6432356898723</v>
       </c>
       <c r="C176" t="n">
-        <v>9.94089643379072</v>
+        <v>12.5842904144592</v>
       </c>
       <c r="D176" t="n">
-        <v>12.4728865873128</v>
+        <v>12.7964146317998</v>
       </c>
       <c r="E176" t="n">
-        <v>15.1109515563195</v>
+        <v>14.8690754322442</v>
       </c>
       <c r="F176" t="n">
-        <v>15.2410456069532</v>
+        <v>15.7506466635336</v>
       </c>
       <c r="G176" t="n">
-        <v>16.9692851630612</v>
+        <v>16.9780611138748</v>
       </c>
       <c r="H176" t="n">
-        <v>17.0297627125153</v>
+        <v>17.4276615920128</v>
       </c>
       <c r="I176" t="n">
-        <v>18.1760616114982</v>
+        <v>18.0160615251266</v>
       </c>
       <c r="J176" t="n">
-        <v>18.5341216938497</v>
+        <v>18.4203596883549</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.269400436758</v>
+        <v>9.80790679381264</v>
       </c>
       <c r="B177" t="n">
-        <v>10.748567306262</v>
+        <v>11.4639894521199</v>
       </c>
       <c r="C177" t="n">
-        <v>12.0411281299211</v>
+        <v>11.7550285563751</v>
       </c>
       <c r="D177" t="n">
-        <v>12.5310932924566</v>
+        <v>13.3456645307013</v>
       </c>
       <c r="E177" t="n">
-        <v>13.8355836993125</v>
+        <v>13.0409845769179</v>
       </c>
       <c r="F177" t="n">
-        <v>15.1816202679492</v>
+        <v>13.2952257342656</v>
       </c>
       <c r="G177" t="n">
-        <v>16.0716168581992</v>
+        <v>17.0926061577156</v>
       </c>
       <c r="H177" t="n">
-        <v>16.9884958925938</v>
+        <v>15.8405656382158</v>
       </c>
       <c r="I177" t="n">
-        <v>18.3784815932835</v>
+        <v>17.8793283920893</v>
       </c>
       <c r="J177" t="n">
-        <v>18.5158028899514</v>
+        <v>18.7845885548636</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>10.6930493278639</v>
+        <v>9.87233351305856</v>
       </c>
       <c r="B178" t="n">
-        <v>11.502399358275</v>
+        <v>9.3665365797623</v>
       </c>
       <c r="C178" t="n">
-        <v>12.5002973687574</v>
+        <v>8.78182309474644</v>
       </c>
       <c r="D178" t="n">
-        <v>12.9844415858842</v>
+        <v>8.68112214660344</v>
       </c>
       <c r="E178" t="n">
-        <v>14.769276790541</v>
+        <v>8.21325054402037</v>
       </c>
       <c r="F178" t="n">
-        <v>15.1589711984096</v>
+        <v>7.59142905018334</v>
       </c>
       <c r="G178" t="n">
-        <v>15.9379172253866</v>
+        <v>6.89907689646031</v>
       </c>
       <c r="H178" t="n">
-        <v>15.9747076094166</v>
+        <v>6.36645262108346</v>
       </c>
       <c r="I178" t="n">
-        <v>17.8697597518358</v>
+        <v>6.12281748302915</v>
       </c>
       <c r="J178" t="n">
-        <v>18.6743316987822</v>
+        <v>5.38893704629916</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>9.10790959408828</v>
+        <v>10.4612907392422</v>
       </c>
       <c r="B179" t="n">
-        <v>10.3931618027806</v>
+        <v>11.1933119906306</v>
       </c>
       <c r="C179" t="n">
-        <v>12.271128737708</v>
+        <v>11.8221613611367</v>
       </c>
       <c r="D179" t="n">
-        <v>13.5424769145706</v>
+        <v>14.9593650319647</v>
       </c>
       <c r="E179" t="n">
-        <v>14.2088668289683</v>
+        <v>13.2247092540661</v>
       </c>
       <c r="F179" t="n">
-        <v>15.4600906900713</v>
+        <v>15.9981699458076</v>
       </c>
       <c r="G179" t="n">
-        <v>15.8600080194015</v>
+        <v>16.0776890981524</v>
       </c>
       <c r="H179" t="n">
-        <v>17.8486006717711</v>
+        <v>16.7903716212673</v>
       </c>
       <c r="I179" t="n">
-        <v>19.0062076110451</v>
+        <v>18.0454343021587</v>
       </c>
       <c r="J179" t="n">
-        <v>20.3088681593613</v>
+        <v>18.6354834969283</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.82668501406568</v>
+        <v>9.76380550753504</v>
       </c>
       <c r="B180" t="n">
-        <v>10.7123084528972</v>
+        <v>9.53210927137008</v>
       </c>
       <c r="C180" t="n">
-        <v>12.0807486660866</v>
+        <v>9.35161192285648</v>
       </c>
       <c r="D180" t="n">
-        <v>12.399255988179</v>
+        <v>8.97615197022993</v>
       </c>
       <c r="E180" t="n">
-        <v>14.9338985495378</v>
+        <v>7.68689263229573</v>
       </c>
       <c r="F180" t="n">
-        <v>14.3129900709521</v>
+        <v>7.43196971795253</v>
       </c>
       <c r="G180" t="n">
-        <v>16.7174128109872</v>
+        <v>7.16510679164767</v>
       </c>
       <c r="H180" t="n">
-        <v>17.8150456416361</v>
+        <v>6.12348697354237</v>
       </c>
       <c r="I180" t="n">
-        <v>18.0098697273876</v>
+        <v>6.27274077087622</v>
       </c>
       <c r="J180" t="n">
-        <v>18.8269011466138</v>
+        <v>5.12479846366048</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8.77826259477798</v>
+        <v>10.1856535373122</v>
       </c>
       <c r="B181" t="n">
-        <v>8.68979218330028</v>
+        <v>9.80297369935221</v>
       </c>
       <c r="C181" t="n">
-        <v>8.19669361609119</v>
+        <v>8.79805657213139</v>
       </c>
       <c r="D181" t="n">
-        <v>7.93552173624887</v>
+        <v>8.07036610630948</v>
       </c>
       <c r="E181" t="n">
-        <v>7.09477444313518</v>
+        <v>7.57096406180882</v>
       </c>
       <c r="F181" t="n">
-        <v>6.457446318855</v>
+        <v>7.18660711771728</v>
       </c>
       <c r="G181" t="n">
-        <v>5.71040229038597</v>
+        <v>7.07883852208742</v>
       </c>
       <c r="H181" t="n">
-        <v>5.62510774527772</v>
+        <v>6.76794704152658</v>
       </c>
       <c r="I181" t="n">
-        <v>5.14332857077438</v>
+        <v>5.97885286563468</v>
       </c>
       <c r="J181" t="n">
-        <v>4.92708716403843</v>
+        <v>5.57425982742128</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.983198896357</v>
+        <v>10.1428860976467</v>
       </c>
       <c r="B182" t="n">
-        <v>10.1461403339075</v>
+        <v>10.6335556920137</v>
       </c>
       <c r="C182" t="n">
-        <v>13.8747905521374</v>
+        <v>11.633632496229</v>
       </c>
       <c r="D182" t="n">
-        <v>12.9428979399783</v>
+        <v>12.7314642268947</v>
       </c>
       <c r="E182" t="n">
-        <v>14.707263039861</v>
+        <v>13.6761427836127</v>
       </c>
       <c r="F182" t="n">
-        <v>15.3277748438466</v>
+        <v>14.5330707519833</v>
       </c>
       <c r="G182" t="n">
-        <v>16.1038507422826</v>
+        <v>15.2814406467612</v>
       </c>
       <c r="H182" t="n">
-        <v>17.1148432916481</v>
+        <v>17.4089724884963</v>
       </c>
       <c r="I182" t="n">
-        <v>18.0304657590193</v>
+        <v>17.8889426514409</v>
       </c>
       <c r="J182" t="n">
-        <v>19.1310446553294</v>
+        <v>18.4531556903587</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.3149411792104</v>
+        <v>9.92948752178694</v>
       </c>
       <c r="B183" t="n">
-        <v>8.23314980138556</v>
+        <v>9.20448016689695</v>
       </c>
       <c r="C183" t="n">
-        <v>7.91725160787663</v>
+        <v>10.6480133986392</v>
       </c>
       <c r="D183" t="n">
-        <v>7.61184875382334</v>
+        <v>13.7900549022955</v>
       </c>
       <c r="E183" t="n">
-        <v>7.05489348544475</v>
+        <v>13.0517182913834</v>
       </c>
       <c r="F183" t="n">
-        <v>6.55464065071279</v>
+        <v>15.4025348832424</v>
       </c>
       <c r="G183" t="n">
-        <v>6.21658757001973</v>
+        <v>16.4379261025755</v>
       </c>
       <c r="H183" t="n">
-        <v>5.25470780207356</v>
+        <v>17.2462494434219</v>
       </c>
       <c r="I183" t="n">
-        <v>4.77335854491895</v>
+        <v>18.4121956274265</v>
       </c>
       <c r="J183" t="n">
-        <v>4.69348070142454</v>
+        <v>18.2320608449353</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8.92191839232714</v>
+        <v>9.78317822324132</v>
       </c>
       <c r="B184" t="n">
-        <v>8.8863360251442</v>
+        <v>11.2878834698834</v>
       </c>
       <c r="C184" t="n">
-        <v>8.14281424881703</v>
+        <v>12.5385298089298</v>
       </c>
       <c r="D184" t="n">
-        <v>7.48020056951196</v>
+        <v>12.4840804542902</v>
       </c>
       <c r="E184" t="n">
-        <v>7.12874803523035</v>
+        <v>13.4308898012711</v>
       </c>
       <c r="F184" t="n">
-        <v>6.28756955185108</v>
+        <v>15.3674758457666</v>
       </c>
       <c r="G184" t="n">
-        <v>5.97047580587721</v>
+        <v>17.4677777226782</v>
       </c>
       <c r="H184" t="n">
-        <v>5.25840186668265</v>
+        <v>17.0885312415377</v>
       </c>
       <c r="I184" t="n">
-        <v>4.73474815255367</v>
+        <v>17.8678115021882</v>
       </c>
       <c r="J184" t="n">
-        <v>4.09727813319294</v>
+        <v>18.3701465689366</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.36520764028193</v>
+        <v>9.324204022328</v>
       </c>
       <c r="B185" t="n">
-        <v>8.2437747261484</v>
+        <v>10.0622494169865</v>
       </c>
       <c r="C185" t="n">
-        <v>8.24360147578264</v>
+        <v>11.6543440870003</v>
       </c>
       <c r="D185" t="n">
-        <v>7.60281473350209</v>
+        <v>13.6066170539547</v>
       </c>
       <c r="E185" t="n">
-        <v>6.88574799661523</v>
+        <v>13.8360611622991</v>
       </c>
       <c r="F185" t="n">
-        <v>6.86215863454359</v>
+        <v>15.165833291285</v>
       </c>
       <c r="G185" t="n">
-        <v>6.06122211663219</v>
+        <v>15.623116491188</v>
       </c>
       <c r="H185" t="n">
-        <v>5.62939544887926</v>
+        <v>15.8600989992747</v>
       </c>
       <c r="I185" t="n">
-        <v>4.84293456822303</v>
+        <v>16.9735542796258</v>
       </c>
       <c r="J185" t="n">
-        <v>4.57496932774889</v>
+        <v>17.7098941369358</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10.8580975419762</v>
+        <v>10.3026237740122</v>
       </c>
       <c r="B186" t="n">
-        <v>9.8288634922261</v>
+        <v>11.8381618588703</v>
       </c>
       <c r="C186" t="n">
-        <v>12.0118227427617</v>
+        <v>11.6694625033275</v>
       </c>
       <c r="D186" t="n">
-        <v>13.7584050531406</v>
+        <v>15.0879599375693</v>
       </c>
       <c r="E186" t="n">
-        <v>12.2206967919487</v>
+        <v>14.44552935738</v>
       </c>
       <c r="F186" t="n">
-        <v>14.953031010305</v>
+        <v>13.5985810245746</v>
       </c>
       <c r="G186" t="n">
-        <v>15.3528959395492</v>
+        <v>15.1676612952401</v>
       </c>
       <c r="H186" t="n">
-        <v>18.0541502617256</v>
+        <v>16.121889335029</v>
       </c>
       <c r="I186" t="n">
-        <v>17.9743045139404</v>
+        <v>18.2882776277483</v>
       </c>
       <c r="J186" t="n">
-        <v>18.1088224412939</v>
+        <v>19.1069635360663</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>9.80980533828229</v>
+        <v>10.1587650519086</v>
       </c>
       <c r="B187" t="n">
-        <v>11.6617253255041</v>
+        <v>10.3369070511653</v>
       </c>
       <c r="C187" t="n">
-        <v>11.4963959387656</v>
+        <v>11.5288989317244</v>
       </c>
       <c r="D187" t="n">
-        <v>13.8775610427762</v>
+        <v>11.1424688670945</v>
       </c>
       <c r="E187" t="n">
-        <v>13.8967889754005</v>
+        <v>13.8681361871336</v>
       </c>
       <c r="F187" t="n">
-        <v>15.0573178912106</v>
+        <v>15.5424702943868</v>
       </c>
       <c r="G187" t="n">
-        <v>16.0567078835478</v>
+        <v>15.4388847513068</v>
       </c>
       <c r="H187" t="n">
-        <v>16.9647578660862</v>
+        <v>17.379137178645</v>
       </c>
       <c r="I187" t="n">
-        <v>16.9953362403</v>
+        <v>17.7239300586327</v>
       </c>
       <c r="J187" t="n">
-        <v>19.2821096183998</v>
+        <v>18.8770815135032</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9.78532221642505</v>
+        <v>8.47259581666592</v>
       </c>
       <c r="B188" t="n">
-        <v>10.7932383146715</v>
+        <v>11.1107023317213</v>
       </c>
       <c r="C188" t="n">
-        <v>12.2884402742529</v>
+        <v>11.7496803282779</v>
       </c>
       <c r="D188" t="n">
-        <v>12.0698290908092</v>
+        <v>12.7223395616749</v>
       </c>
       <c r="E188" t="n">
-        <v>14.365228329317</v>
+        <v>12.8065110144178</v>
       </c>
       <c r="F188" t="n">
-        <v>14.5190412900268</v>
+        <v>15.1800922978787</v>
       </c>
       <c r="G188" t="n">
-        <v>15.1422739861</v>
+        <v>16.3814513945914</v>
       </c>
       <c r="H188" t="n">
-        <v>17.1471243658648</v>
+        <v>16.2773962946051</v>
       </c>
       <c r="I188" t="n">
-        <v>18.6894844243909</v>
+        <v>18.4850893810945</v>
       </c>
       <c r="J188" t="n">
-        <v>17.9492040506809</v>
+        <v>19.4940257160503</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8.81397713824274</v>
+        <v>10.0599945010638</v>
       </c>
       <c r="B189" t="n">
-        <v>8.42047562005507</v>
+        <v>10.0852397139468</v>
       </c>
       <c r="C189" t="n">
-        <v>8.04246261380394</v>
+        <v>11.7492185907313</v>
       </c>
       <c r="D189" t="n">
-        <v>7.46585581672166</v>
+        <v>13.803282011339</v>
       </c>
       <c r="E189" t="n">
-        <v>7.43350705933761</v>
+        <v>13.2303945142033</v>
       </c>
       <c r="F189" t="n">
-        <v>6.38263577620683</v>
+        <v>15.1133237510004</v>
       </c>
       <c r="G189" t="n">
-        <v>5.97165471297817</v>
+        <v>16.7586210226816</v>
       </c>
       <c r="H189" t="n">
-        <v>5.6854849318077</v>
+        <v>17.2804277800658</v>
       </c>
       <c r="I189" t="n">
-        <v>5.14357615159673</v>
+        <v>18.2055892660398</v>
       </c>
       <c r="J189" t="n">
-        <v>4.332845751046</v>
+        <v>17.9617242871257</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8.59601872018001</v>
+        <v>9.74501355907582</v>
       </c>
       <c r="B190" t="n">
-        <v>8.75241690427851</v>
+        <v>11.8213378384615</v>
       </c>
       <c r="C190" t="n">
-        <v>7.78924353245896</v>
+        <v>11.7899650654139</v>
       </c>
       <c r="D190" t="n">
-        <v>7.53041301584508</v>
+        <v>13.7986166241524</v>
       </c>
       <c r="E190" t="n">
-        <v>6.96748168533944</v>
+        <v>15.0123773894204</v>
       </c>
       <c r="F190" t="n">
-        <v>6.53406711796698</v>
+        <v>15.2838297341316</v>
       </c>
       <c r="G190" t="n">
-        <v>6.05299205824503</v>
+        <v>16.4302640902926</v>
       </c>
       <c r="H190" t="n">
-        <v>5.45337835740457</v>
+        <v>18.1811287450918</v>
       </c>
       <c r="I190" t="n">
-        <v>5.63373249717646</v>
+        <v>18.0544152856945</v>
       </c>
       <c r="J190" t="n">
-        <v>4.43030203450522</v>
+        <v>20.8735148852645</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>9.41211805903985</v>
+        <v>10.4658822757316</v>
       </c>
       <c r="B191" t="n">
-        <v>12.4024575470611</v>
+        <v>9.69266026350963</v>
       </c>
       <c r="C191" t="n">
-        <v>10.5001274683214</v>
+        <v>8.79404838139933</v>
       </c>
       <c r="D191" t="n">
-        <v>13.0972355004124</v>
+        <v>8.51877334156718</v>
       </c>
       <c r="E191" t="n">
-        <v>13.6716400015359</v>
+        <v>8.29258174764564</v>
       </c>
       <c r="F191" t="n">
-        <v>14.4881519467144</v>
+        <v>7.70376741668951</v>
       </c>
       <c r="G191" t="n">
-        <v>15.5095281673908</v>
+        <v>6.80835235134937</v>
       </c>
       <c r="H191" t="n">
-        <v>17.4223498881844</v>
+        <v>6.86099215468145</v>
       </c>
       <c r="I191" t="n">
-        <v>17.7257940650047</v>
+        <v>5.71126094266259</v>
       </c>
       <c r="J191" t="n">
-        <v>19.3468940074082</v>
+        <v>5.55435991528995</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9.81512063692734</v>
+        <v>10.5071127916498</v>
       </c>
       <c r="B192" t="n">
-        <v>11.919381949501</v>
+        <v>11.9099759380529</v>
       </c>
       <c r="C192" t="n">
-        <v>11.1786595973062</v>
+        <v>12.3354155252746</v>
       </c>
       <c r="D192" t="n">
-        <v>13.0826024133644</v>
+        <v>13.5793473319298</v>
       </c>
       <c r="E192" t="n">
-        <v>14.0515294843551</v>
+        <v>13.3456178427015</v>
       </c>
       <c r="F192" t="n">
-        <v>15.0934184825917</v>
+        <v>15.8807973945574</v>
       </c>
       <c r="G192" t="n">
-        <v>15.6486374060112</v>
+        <v>16.0591392602181</v>
       </c>
       <c r="H192" t="n">
-        <v>18.0291391190909</v>
+        <v>17.8934914961142</v>
       </c>
       <c r="I192" t="n">
-        <v>16.7800916869238</v>
+        <v>18.4669999177497</v>
       </c>
       <c r="J192" t="n">
-        <v>19.6104029505432</v>
+        <v>19.4713858635797</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>9.50903028737439</v>
+        <v>10.0248857288453</v>
       </c>
       <c r="B193" t="n">
-        <v>8.47420454523093</v>
+        <v>11.3809869293045</v>
       </c>
       <c r="C193" t="n">
-        <v>8.14380531662838</v>
+        <v>12.8339578885035</v>
       </c>
       <c r="D193" t="n">
-        <v>7.21390363865926</v>
+        <v>12.4174911950076</v>
       </c>
       <c r="E193" t="n">
-        <v>6.71252357807843</v>
+        <v>14.2146803387571</v>
       </c>
       <c r="F193" t="n">
-        <v>6.42259343024098</v>
+        <v>14.1537310825918</v>
       </c>
       <c r="G193" t="n">
-        <v>5.93216403525589</v>
+        <v>16.4256910524732</v>
       </c>
       <c r="H193" t="n">
-        <v>5.52212116679964</v>
+        <v>17.6122087738602</v>
       </c>
       <c r="I193" t="n">
-        <v>4.95990829695321</v>
+        <v>18.3921994841077</v>
       </c>
       <c r="J193" t="n">
-        <v>4.49276144167866</v>
+        <v>18.2076139146144</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.1289817654819</v>
+        <v>10.2678189815123</v>
       </c>
       <c r="B194" t="n">
-        <v>10.6303020903709</v>
+        <v>9.56814883369649</v>
       </c>
       <c r="C194" t="n">
-        <v>13.3651916563001</v>
+        <v>8.89578481837318</v>
       </c>
       <c r="D194" t="n">
-        <v>11.5690411776231</v>
+        <v>8.2594901816956</v>
       </c>
       <c r="E194" t="n">
-        <v>14.8892899679872</v>
+        <v>8.34192865434173</v>
       </c>
       <c r="F194" t="n">
-        <v>14.7470729870112</v>
+        <v>7.55772457079262</v>
       </c>
       <c r="G194" t="n">
-        <v>14.6044189865959</v>
+        <v>6.96764025408385</v>
       </c>
       <c r="H194" t="n">
-        <v>16.2187863542908</v>
+        <v>6.38933760303094</v>
       </c>
       <c r="I194" t="n">
-        <v>19.1075369304788</v>
+        <v>5.77667633491397</v>
       </c>
       <c r="J194" t="n">
-        <v>17.3366610697414</v>
+        <v>5.66668424975096</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11.0040340112164</v>
+        <v>9.979824771155</v>
       </c>
       <c r="B195" t="n">
-        <v>11.0227836936551</v>
+        <v>9.50876207513402</v>
       </c>
       <c r="C195" t="n">
-        <v>11.3844776639264</v>
+        <v>8.96912808496185</v>
       </c>
       <c r="D195" t="n">
-        <v>12.3324071722181</v>
+        <v>8.66383427893969</v>
       </c>
       <c r="E195" t="n">
-        <v>12.9767128274844</v>
+        <v>8.37211533767623</v>
       </c>
       <c r="F195" t="n">
-        <v>13.1207075441352</v>
+        <v>7.58384584997442</v>
       </c>
       <c r="G195" t="n">
-        <v>15.1993740407483</v>
+        <v>7.03129788327705</v>
       </c>
       <c r="H195" t="n">
-        <v>17.0804687362076</v>
+        <v>6.52334192677539</v>
       </c>
       <c r="I195" t="n">
-        <v>17.9583750844198</v>
+        <v>5.89665541711421</v>
       </c>
       <c r="J195" t="n">
-        <v>18.3445475023534</v>
+        <v>5.30438736702303</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.46720906935896</v>
+        <v>9.65706687208774</v>
       </c>
       <c r="B196" t="n">
-        <v>10.7270209468048</v>
+        <v>11.0877455587672</v>
       </c>
       <c r="C196" t="n">
-        <v>13.2578995133482</v>
+        <v>12.0809277290441</v>
       </c>
       <c r="D196" t="n">
-        <v>13.298706895783</v>
+        <v>12.4072732112208</v>
       </c>
       <c r="E196" t="n">
-        <v>13.1403530883703</v>
+        <v>14.3622438151407</v>
       </c>
       <c r="F196" t="n">
-        <v>13.640833586605</v>
+        <v>14.3206459146099</v>
       </c>
       <c r="G196" t="n">
-        <v>16.4667648549086</v>
+        <v>16.0686837915077</v>
       </c>
       <c r="H196" t="n">
-        <v>18.252260012525</v>
+        <v>17.5635540817448</v>
       </c>
       <c r="I196" t="n">
-        <v>18.0454823048267</v>
+        <v>17.4033842719033</v>
       </c>
       <c r="J196" t="n">
-        <v>17.6713903026608</v>
+        <v>19.603287782895</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.29055985274198</v>
+        <v>9.91192392416336</v>
       </c>
       <c r="B197" t="n">
-        <v>11.8354090568511</v>
+        <v>9.69724324067494</v>
       </c>
       <c r="C197" t="n">
-        <v>12.9475020829754</v>
+        <v>8.97278606653058</v>
       </c>
       <c r="D197" t="n">
-        <v>12.3060519072097</v>
+        <v>8.56706219506166</v>
       </c>
       <c r="E197" t="n">
-        <v>12.9164517009033</v>
+        <v>7.68666646478921</v>
       </c>
       <c r="F197" t="n">
-        <v>15.19722403813</v>
+        <v>7.68919538785727</v>
       </c>
       <c r="G197" t="n">
-        <v>15.1561152800895</v>
+        <v>7.08492383219019</v>
       </c>
       <c r="H197" t="n">
-        <v>16.1645046368397</v>
+        <v>6.40711614905813</v>
       </c>
       <c r="I197" t="n">
-        <v>19.0885368813161</v>
+        <v>5.96710767056503</v>
       </c>
       <c r="J197" t="n">
-        <v>18.9113604472769</v>
+        <v>5.45159123875917</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.00374452259358</v>
+        <v>9.4131352232548</v>
       </c>
       <c r="B198" t="n">
-        <v>8.3913955801077</v>
+        <v>9.43982417513744</v>
       </c>
       <c r="C198" t="n">
-        <v>8.23000149803034</v>
+        <v>10.9131456375646</v>
       </c>
       <c r="D198" t="n">
-        <v>7.40274648362745</v>
+        <v>12.6814078480419</v>
       </c>
       <c r="E198" t="n">
-        <v>6.85246664396224</v>
+        <v>12.8589911625483</v>
       </c>
       <c r="F198" t="n">
-        <v>6.36809556552298</v>
+        <v>14.9819015761069</v>
       </c>
       <c r="G198" t="n">
-        <v>6.17757580735683</v>
+        <v>16.3875560339836</v>
       </c>
       <c r="H198" t="n">
-        <v>5.22537342165045</v>
+        <v>18.573490242836</v>
       </c>
       <c r="I198" t="n">
-        <v>5.02302510537176</v>
+        <v>16.8646966121198</v>
       </c>
       <c r="J198" t="n">
-        <v>4.33843910394356</v>
+        <v>19.4455022788284</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.2982386018753</v>
+        <v>8.45414202469737</v>
       </c>
       <c r="B199" t="n">
-        <v>11.8029194081533</v>
+        <v>10.6194078440559</v>
       </c>
       <c r="C199" t="n">
-        <v>12.2616188682065</v>
+        <v>12.5659248771791</v>
       </c>
       <c r="D199" t="n">
-        <v>12.5931309010834</v>
+        <v>12.3730661732795</v>
       </c>
       <c r="E199" t="n">
-        <v>13.7779717439268</v>
+        <v>14.4578009910795</v>
       </c>
       <c r="F199" t="n">
-        <v>14.6592250770935</v>
+        <v>14.6363673369504</v>
       </c>
       <c r="G199" t="n">
-        <v>16.183373789701</v>
+        <v>16.9626037060711</v>
       </c>
       <c r="H199" t="n">
-        <v>16.5627638484924</v>
+        <v>18.4080722888313</v>
       </c>
       <c r="I199" t="n">
-        <v>17.4878805908761</v>
+        <v>18.3915383616024</v>
       </c>
       <c r="J199" t="n">
-        <v>19.4181905703815</v>
+        <v>19.5184234167765</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.23623297584</v>
+        <v>10.2926449776494</v>
       </c>
       <c r="B200" t="n">
-        <v>10.8924813597038</v>
+        <v>9.11429254831172</v>
       </c>
       <c r="C200" t="n">
-        <v>12.9580692310342</v>
+        <v>9.00849026551069</v>
       </c>
       <c r="D200" t="n">
-        <v>13.9265136818783</v>
+        <v>8.22820915568887</v>
       </c>
       <c r="E200" t="n">
-        <v>13.2939110773729</v>
+        <v>7.85440889575125</v>
       </c>
       <c r="F200" t="n">
-        <v>15.8584316030405</v>
+        <v>7.2846403059222</v>
       </c>
       <c r="G200" t="n">
-        <v>15.6602532913045</v>
+        <v>7.03399794093015</v>
       </c>
       <c r="H200" t="n">
-        <v>17.6044823292653</v>
+        <v>6.51626312085724</v>
       </c>
       <c r="I200" t="n">
-        <v>17.8329386136344</v>
+        <v>5.66062422154308</v>
       </c>
       <c r="J200" t="n">
-        <v>18.4326914641307</v>
+        <v>5.41334238737526</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>10.2892993709846</v>
+        <v>8.80542176600968</v>
       </c>
       <c r="B201" t="n">
-        <v>10.8687261315483</v>
+        <v>10.3478485576081</v>
       </c>
       <c r="C201" t="n">
-        <v>13.1159613526475</v>
+        <v>10.7886049844327</v>
       </c>
       <c r="D201" t="n">
-        <v>13.0274205745418</v>
+        <v>13.1447229816821</v>
       </c>
       <c r="E201" t="n">
-        <v>14.2387015668294</v>
+        <v>13.7136448720746</v>
       </c>
       <c r="F201" t="n">
-        <v>16.0793840910244</v>
+        <v>14.786314559789</v>
       </c>
       <c r="G201" t="n">
-        <v>14.7054201879283</v>
+        <v>15.5180585327993</v>
       </c>
       <c r="H201" t="n">
-        <v>18.2803394482152</v>
+        <v>15.5718396982295</v>
       </c>
       <c r="I201" t="n">
-        <v>17.4508159793231</v>
+        <v>17.674285644678</v>
       </c>
       <c r="J201" t="n">
-        <v>17.8666499137959</v>
+        <v>19.1390857859525</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationStudyData/Dataset3_Yobs.xlsx
+++ b/SimulationStudyData/Dataset3_Yobs.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.61018436074297</v>
+        <v>1.81178067475822</v>
       </c>
       <c r="B2" t="n">
-        <v>9.67461903512848</v>
+        <v>3.82893725360339</v>
       </c>
       <c r="C2" t="n">
-        <v>9.10771846506756</v>
+        <v>2.79823470233612</v>
       </c>
       <c r="D2" t="n">
-        <v>8.2967985356269</v>
+        <v>5.29131684831769</v>
       </c>
       <c r="E2" t="n">
-        <v>8.00423717862858</v>
+        <v>6.14855535121567</v>
       </c>
       <c r="F2" t="n">
-        <v>7.72918464598953</v>
+        <v>9.07340486634575</v>
       </c>
       <c r="G2" t="n">
-        <v>7.27529022783115</v>
+        <v>9.76394587111436</v>
       </c>
       <c r="H2" t="n">
-        <v>6.56544527093718</v>
+        <v>10.4925170532518</v>
       </c>
       <c r="I2" t="n">
-        <v>6.02928061572968</v>
+        <v>9.9301576104819</v>
       </c>
       <c r="J2" t="n">
-        <v>5.61502417448979</v>
+        <v>12.0109040085162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.1891686053647</v>
+        <v>3.87954849571224</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9892378145162</v>
+        <v>4.4550320657233</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7388599001622</v>
+        <v>3.81724429204678</v>
       </c>
       <c r="D3" t="n">
-        <v>12.0490344774381</v>
+        <v>6.3695861378065</v>
       </c>
       <c r="E3" t="n">
-        <v>15.8854200928812</v>
+        <v>5.59060050938103</v>
       </c>
       <c r="F3" t="n">
-        <v>14.6951296952599</v>
+        <v>6.39702359461279</v>
       </c>
       <c r="G3" t="n">
-        <v>16.4925109507786</v>
+        <v>7.88488161464747</v>
       </c>
       <c r="H3" t="n">
-        <v>18.5833704989104</v>
+        <v>9.04314951026174</v>
       </c>
       <c r="I3" t="n">
-        <v>17.7885869831938</v>
+        <v>9.93352814177642</v>
       </c>
       <c r="J3" t="n">
-        <v>19.2654263896779</v>
+        <v>12.4003997078325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.1103375623099</v>
+        <v>3.46473760457851</v>
       </c>
       <c r="B4" t="n">
-        <v>10.017420260021</v>
+        <v>2.45981082233819</v>
       </c>
       <c r="C4" t="n">
-        <v>8.7277579525225</v>
+        <v>5.18492125736957</v>
       </c>
       <c r="D4" t="n">
-        <v>8.51593847939242</v>
+        <v>7.10552550854609</v>
       </c>
       <c r="E4" t="n">
-        <v>8.10676359976335</v>
+        <v>5.85300715660927</v>
       </c>
       <c r="F4" t="n">
-        <v>7.62266964242039</v>
+        <v>8.77652590765701</v>
       </c>
       <c r="G4" t="n">
-        <v>6.62409586901421</v>
+        <v>9.94378736788572</v>
       </c>
       <c r="H4" t="n">
-        <v>6.54166282931479</v>
+        <v>10.3075934159499</v>
       </c>
       <c r="I4" t="n">
-        <v>6.07451910937523</v>
+        <v>11.083351760824</v>
       </c>
       <c r="J4" t="n">
-        <v>5.71792743927241</v>
+        <v>12.293187343637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.1337563737462</v>
+        <v>1.88455838959075</v>
       </c>
       <c r="B5" t="n">
-        <v>9.44023264880428</v>
+        <v>1.78170090383914</v>
       </c>
       <c r="C5" t="n">
-        <v>9.23604516223998</v>
+        <v>0.840856395240202</v>
       </c>
       <c r="D5" t="n">
-        <v>8.29530188578377</v>
+        <v>0.502987535216665</v>
       </c>
       <c r="E5" t="n">
-        <v>7.66411214039436</v>
+        <v>0.122777457920251</v>
       </c>
       <c r="F5" t="n">
-        <v>7.27245638258663</v>
+        <v>-0.301152230761255</v>
       </c>
       <c r="G5" t="n">
-        <v>7.12692025986713</v>
+        <v>-0.796685273052849</v>
       </c>
       <c r="H5" t="n">
-        <v>6.26289410985678</v>
+        <v>-2.03986307200443</v>
       </c>
       <c r="I5" t="n">
-        <v>6.23195245903488</v>
+        <v>-1.92449559366215</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3605844727854</v>
+        <v>-2.70198463183645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.0615370480217</v>
+        <v>1.91642311761644</v>
       </c>
       <c r="B6" t="n">
-        <v>9.90126230423407</v>
+        <v>1.20153753390453</v>
       </c>
       <c r="C6" t="n">
-        <v>9.1662045276751</v>
+        <v>0.955421590907831</v>
       </c>
       <c r="D6" t="n">
-        <v>8.55656953692866</v>
+        <v>0.822344067536962</v>
       </c>
       <c r="E6" t="n">
-        <v>7.78558556618601</v>
+        <v>0.174698669452443</v>
       </c>
       <c r="F6" t="n">
-        <v>7.26057681994102</v>
+        <v>-0.812886867360059</v>
       </c>
       <c r="G6" t="n">
-        <v>7.10040512223109</v>
+        <v>-1.18747057177436</v>
       </c>
       <c r="H6" t="n">
-        <v>6.30386194951779</v>
+        <v>-1.96206674782229</v>
       </c>
       <c r="I6" t="n">
-        <v>6.01291712037712</v>
+        <v>-2.170173308658</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5222379485199</v>
+        <v>-2.3648110927041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.0021238827372</v>
+        <v>1.9839383444268</v>
       </c>
       <c r="B7" t="n">
-        <v>9.67813407216834</v>
+        <v>1.76679451388328</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0911338863945</v>
+        <v>0.925476859147874</v>
       </c>
       <c r="D7" t="n">
-        <v>13.0684757127879</v>
+        <v>0.513431414643777</v>
       </c>
       <c r="E7" t="n">
-        <v>15.4995290796829</v>
+        <v>0.434437890199765</v>
       </c>
       <c r="F7" t="n">
-        <v>15.7646072389027</v>
+        <v>-0.761844985843058</v>
       </c>
       <c r="G7" t="n">
-        <v>15.7183915145396</v>
+        <v>-1.04275594290508</v>
       </c>
       <c r="H7" t="n">
-        <v>17.8593355598203</v>
+        <v>-1.17163897870984</v>
       </c>
       <c r="I7" t="n">
-        <v>17.4352867668605</v>
+        <v>-2.15290015115005</v>
       </c>
       <c r="J7" t="n">
-        <v>19.9843703205561</v>
+        <v>-2.61775270691424</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.9980676790744</v>
+        <v>2.66374609779225</v>
       </c>
       <c r="B8" t="n">
-        <v>10.2578175093445</v>
+        <v>4.17339181518021</v>
       </c>
       <c r="C8" t="n">
-        <v>12.1822944074913</v>
+        <v>4.47534376753577</v>
       </c>
       <c r="D8" t="n">
-        <v>13.3975260306602</v>
+        <v>6.84772133124835</v>
       </c>
       <c r="E8" t="n">
-        <v>13.2502908767004</v>
+        <v>6.59922825988306</v>
       </c>
       <c r="F8" t="n">
-        <v>14.5063680844742</v>
+        <v>8.23260390534064</v>
       </c>
       <c r="G8" t="n">
-        <v>17.4517164156206</v>
+        <v>9.44285271734379</v>
       </c>
       <c r="H8" t="n">
-        <v>17.7844361950539</v>
+        <v>10.2708813429183</v>
       </c>
       <c r="I8" t="n">
-        <v>18.320553642258</v>
+        <v>10.5057272511172</v>
       </c>
       <c r="J8" t="n">
-        <v>19.2676691204912</v>
+        <v>11.6665254414472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.91813901313605</v>
+        <v>2.21540378401411</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7640833872065</v>
+        <v>1.69072852714361</v>
       </c>
       <c r="C9" t="n">
-        <v>12.5892842225617</v>
+        <v>1.05529664453823</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0494776281644</v>
+        <v>0.292828331597662</v>
       </c>
       <c r="E9" t="n">
-        <v>14.2135250933201</v>
+        <v>0.182207568430159</v>
       </c>
       <c r="F9" t="n">
-        <v>14.9965487404555</v>
+        <v>-0.574369684503723</v>
       </c>
       <c r="G9" t="n">
-        <v>16.2229157710705</v>
+        <v>-1.12443500215174</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9295688914687</v>
+        <v>-1.54939082695633</v>
       </c>
       <c r="I9" t="n">
-        <v>17.8934835827905</v>
+        <v>-1.62163404562337</v>
       </c>
       <c r="J9" t="n">
-        <v>19.2851631630942</v>
+        <v>-2.73560984348927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11.1759617221836</v>
+        <v>2.2384525591715</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2650868902401</v>
+        <v>1.63837863249297</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3307505991335</v>
+        <v>0.959881957466835</v>
       </c>
       <c r="D10" t="n">
-        <v>13.0674973843142</v>
+        <v>0.380706022194343</v>
       </c>
       <c r="E10" t="n">
-        <v>15.1249342696868</v>
+        <v>0.346194453520452</v>
       </c>
       <c r="F10" t="n">
-        <v>15.6378370576041</v>
+        <v>-0.134695833246015</v>
       </c>
       <c r="G10" t="n">
-        <v>15.5701832236848</v>
+        <v>-1.58591667295264</v>
       </c>
       <c r="H10" t="n">
-        <v>16.7679497821619</v>
+        <v>-1.59140999576731</v>
       </c>
       <c r="I10" t="n">
-        <v>18.3503536105098</v>
+        <v>-2.03097713559301</v>
       </c>
       <c r="J10" t="n">
-        <v>18.9071918330659</v>
+        <v>-2.45679599754813</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.0012908614847</v>
+        <v>1.91102379585517</v>
       </c>
       <c r="B11" t="n">
-        <v>10.5867100083826</v>
+        <v>1.3603872407035</v>
       </c>
       <c r="C11" t="n">
-        <v>11.2602793897428</v>
+        <v>1.00294097699589</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7701594347002</v>
+        <v>0.553962008322426</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9217983357422</v>
+        <v>0.323364132133412</v>
       </c>
       <c r="F11" t="n">
-        <v>15.3623061416792</v>
+        <v>-0.519795602859986</v>
       </c>
       <c r="G11" t="n">
-        <v>15.5967940535974</v>
+        <v>-0.898617996597039</v>
       </c>
       <c r="H11" t="n">
-        <v>17.6654165316712</v>
+        <v>-1.78449687444521</v>
       </c>
       <c r="I11" t="n">
-        <v>18.4642613997684</v>
+        <v>-1.95211343769563</v>
       </c>
       <c r="J11" t="n">
-        <v>18.155001387363</v>
+        <v>-2.26224123334017</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.1305154562459</v>
+        <v>3.30716090629658</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6006192500005</v>
+        <v>5.11033198536665</v>
       </c>
       <c r="C12" t="n">
-        <v>13.2634453871232</v>
+        <v>5.92099673460931</v>
       </c>
       <c r="D12" t="n">
-        <v>13.232683763392</v>
+        <v>4.01680787569674</v>
       </c>
       <c r="E12" t="n">
-        <v>14.2366688507685</v>
+        <v>6.40858103367475</v>
       </c>
       <c r="F12" t="n">
-        <v>16.5783384671116</v>
+        <v>9.05387964307689</v>
       </c>
       <c r="G12" t="n">
-        <v>15.2494199232171</v>
+        <v>9.57829338150949</v>
       </c>
       <c r="H12" t="n">
-        <v>17.472418866054</v>
+        <v>10.4221589539283</v>
       </c>
       <c r="I12" t="n">
-        <v>16.9639394628011</v>
+        <v>11.8113596528023</v>
       </c>
       <c r="J12" t="n">
-        <v>18.2143046069422</v>
+        <v>11.9592894506356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.72504808584114</v>
+        <v>2.09367926482778</v>
       </c>
       <c r="B13" t="n">
-        <v>9.44074199643766</v>
+        <v>1.53671891179281</v>
       </c>
       <c r="C13" t="n">
-        <v>9.17046176524652</v>
+        <v>0.921753172615347</v>
       </c>
       <c r="D13" t="n">
-        <v>8.4272261101537</v>
+        <v>0.680246864746821</v>
       </c>
       <c r="E13" t="n">
-        <v>8.38801365971568</v>
+        <v>0.150655106632338</v>
       </c>
       <c r="F13" t="n">
-        <v>7.80317448101466</v>
+        <v>-0.473653450686426</v>
       </c>
       <c r="G13" t="n">
-        <v>6.65927527274604</v>
+        <v>-1.01467550816501</v>
       </c>
       <c r="H13" t="n">
-        <v>6.47966388847029</v>
+        <v>-1.39073902807236</v>
       </c>
       <c r="I13" t="n">
-        <v>5.72868971055108</v>
+        <v>-2.20971249033168</v>
       </c>
       <c r="J13" t="n">
-        <v>6.0232500578525</v>
+        <v>-2.06823457127156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.68970809056904</v>
+        <v>1.88038832875464</v>
       </c>
       <c r="B14" t="n">
-        <v>9.4293469458926</v>
+        <v>1.54176437577088</v>
       </c>
       <c r="C14" t="n">
-        <v>9.10501351411113</v>
+        <v>1.36174857070926</v>
       </c>
       <c r="D14" t="n">
-        <v>8.73360730779225</v>
+        <v>-0.0223753946765337</v>
       </c>
       <c r="E14" t="n">
-        <v>7.90712640508406</v>
+        <v>0.361320075672053</v>
       </c>
       <c r="F14" t="n">
-        <v>7.52434416417142</v>
+        <v>-0.465920693054903</v>
       </c>
       <c r="G14" t="n">
-        <v>7.0004461867623</v>
+        <v>-1.04398061839142</v>
       </c>
       <c r="H14" t="n">
-        <v>6.63943870350226</v>
+        <v>-1.94477904193236</v>
       </c>
       <c r="I14" t="n">
-        <v>5.77020720766586</v>
+        <v>-1.36830101508865</v>
       </c>
       <c r="J14" t="n">
-        <v>5.72043814538106</v>
+        <v>-2.28016042512915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.73019586821188</v>
+        <v>2.46855427567727</v>
       </c>
       <c r="B15" t="n">
-        <v>9.56097637091836</v>
+        <v>1.49172768847938</v>
       </c>
       <c r="C15" t="n">
-        <v>8.82030836938453</v>
+        <v>1.08476105767694</v>
       </c>
       <c r="D15" t="n">
-        <v>8.31341684652065</v>
+        <v>0.348246281696717</v>
       </c>
       <c r="E15" t="n">
-        <v>8.01850692034987</v>
+        <v>-0.634127781695499</v>
       </c>
       <c r="F15" t="n">
-        <v>7.41451785795578</v>
+        <v>-0.649972143027152</v>
       </c>
       <c r="G15" t="n">
-        <v>6.77157259603941</v>
+        <v>-1.23665131694275</v>
       </c>
       <c r="H15" t="n">
-        <v>6.75418432934994</v>
+        <v>-1.33549922326084</v>
       </c>
       <c r="I15" t="n">
-        <v>5.97568177742402</v>
+        <v>-2.03978101227311</v>
       </c>
       <c r="J15" t="n">
-        <v>5.33174201886577</v>
+        <v>-2.68142228960725</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.128381819037</v>
+        <v>1.82127845299323</v>
       </c>
       <c r="B16" t="n">
-        <v>11.1389980243085</v>
+        <v>1.2484681473116</v>
       </c>
       <c r="C16" t="n">
-        <v>12.7055342956959</v>
+        <v>1.45760298079549</v>
       </c>
       <c r="D16" t="n">
-        <v>13.5972523826103</v>
+        <v>0.14311677834796</v>
       </c>
       <c r="E16" t="n">
-        <v>14.1520690408517</v>
+        <v>-0.0211233732698973</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0837388727202</v>
+        <v>-0.244622390980275</v>
       </c>
       <c r="G16" t="n">
-        <v>17.0741043695712</v>
+        <v>-0.571742577426409</v>
       </c>
       <c r="H16" t="n">
-        <v>16.2077940084852</v>
+        <v>-1.55116014310018</v>
       </c>
       <c r="I16" t="n">
-        <v>16.6482803757084</v>
+        <v>-1.8640917055252</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9317253555943</v>
+        <v>-2.85915735812203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.96407466989927</v>
+        <v>3.47815494948805</v>
       </c>
       <c r="B17" t="n">
-        <v>9.84164665347311</v>
+        <v>4.04773193321303</v>
       </c>
       <c r="C17" t="n">
-        <v>8.79406924150042</v>
+        <v>4.44427392902278</v>
       </c>
       <c r="D17" t="n">
-        <v>8.62288485272303</v>
+        <v>6.10029426666033</v>
       </c>
       <c r="E17" t="n">
-        <v>8.24429831523325</v>
+        <v>7.17273246492617</v>
       </c>
       <c r="F17" t="n">
-        <v>7.46637118244528</v>
+        <v>8.39407118015499</v>
       </c>
       <c r="G17" t="n">
-        <v>7.1933127917711</v>
+        <v>8.4779935968429</v>
       </c>
       <c r="H17" t="n">
-        <v>6.54774503742818</v>
+        <v>9.76396124838482</v>
       </c>
       <c r="I17" t="n">
-        <v>5.88982309285192</v>
+        <v>10.3022093680835</v>
       </c>
       <c r="J17" t="n">
-        <v>5.407531368552</v>
+        <v>12.3384606437497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.76316279867553</v>
+        <v>3.4428296823295</v>
       </c>
       <c r="B18" t="n">
-        <v>10.2930424997</v>
+        <v>3.34451198389667</v>
       </c>
       <c r="C18" t="n">
-        <v>11.5269905411076</v>
+        <v>4.88619508510159</v>
       </c>
       <c r="D18" t="n">
-        <v>12.9673786985296</v>
+        <v>6.22159767195427</v>
       </c>
       <c r="E18" t="n">
-        <v>14.1245880598156</v>
+        <v>7.10352573221789</v>
       </c>
       <c r="F18" t="n">
-        <v>14.3006026435311</v>
+        <v>8.04252561546745</v>
       </c>
       <c r="G18" t="n">
-        <v>16.7193580313382</v>
+        <v>10.0389878372583</v>
       </c>
       <c r="H18" t="n">
-        <v>16.4633529067389</v>
+        <v>10.3280055190435</v>
       </c>
       <c r="I18" t="n">
-        <v>17.5011142652724</v>
+        <v>11.9960863835629</v>
       </c>
       <c r="J18" t="n">
-        <v>18.5735443949239</v>
+        <v>12.0446536388743</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9.93809661606396</v>
+        <v>2.52993577867379</v>
       </c>
       <c r="B19" t="n">
-        <v>12.096132466839</v>
+        <v>1.65101856626172</v>
       </c>
       <c r="C19" t="n">
-        <v>12.3759421515284</v>
+        <v>0.651993589067285</v>
       </c>
       <c r="D19" t="n">
-        <v>13.6265578502827</v>
+        <v>0.594445035351728</v>
       </c>
       <c r="E19" t="n">
-        <v>14.8085848683296</v>
+        <v>-0.0933098942019771</v>
       </c>
       <c r="F19" t="n">
-        <v>15.8368847975444</v>
+        <v>-0.621291423804434</v>
       </c>
       <c r="G19" t="n">
-        <v>15.319391142784</v>
+        <v>-1.13445104771549</v>
       </c>
       <c r="H19" t="n">
-        <v>15.8319172916169</v>
+        <v>-1.37119280216867</v>
       </c>
       <c r="I19" t="n">
-        <v>17.5495166349646</v>
+        <v>-2.03140004444001</v>
       </c>
       <c r="J19" t="n">
-        <v>17.9932108269038</v>
+        <v>-2.33153338133108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.62042383089285</v>
+        <v>2.55317120826265</v>
       </c>
       <c r="B20" t="n">
-        <v>10.2827674241246</v>
+        <v>4.37444326831114</v>
       </c>
       <c r="C20" t="n">
-        <v>12.0655554914588</v>
+        <v>4.81416748267619</v>
       </c>
       <c r="D20" t="n">
-        <v>13.0698016859722</v>
+        <v>7.2827658032081</v>
       </c>
       <c r="E20" t="n">
-        <v>14.572286662233</v>
+        <v>5.58862426882454</v>
       </c>
       <c r="F20" t="n">
-        <v>13.868573753015</v>
+        <v>7.79849443326415</v>
       </c>
       <c r="G20" t="n">
-        <v>16.4606206673289</v>
+        <v>9.96066705395049</v>
       </c>
       <c r="H20" t="n">
-        <v>17.6629981166734</v>
+        <v>10.6869588472276</v>
       </c>
       <c r="I20" t="n">
-        <v>18.1847758846959</v>
+        <v>10.5446954856155</v>
       </c>
       <c r="J20" t="n">
-        <v>19.117721225798</v>
+        <v>11.7661994029303</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11.0600470974054</v>
+        <v>3.12360326003787</v>
       </c>
       <c r="B21" t="n">
-        <v>12.351602114035</v>
+        <v>4.30128880920639</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1446129983148</v>
+        <v>5.58691178941335</v>
       </c>
       <c r="D21" t="n">
-        <v>13.3235097881099</v>
+        <v>5.97303803472343</v>
       </c>
       <c r="E21" t="n">
-        <v>13.8551882502506</v>
+        <v>7.01579578697314</v>
       </c>
       <c r="F21" t="n">
-        <v>15.4663082816444</v>
+        <v>7.84058522681468</v>
       </c>
       <c r="G21" t="n">
-        <v>15.1645867192763</v>
+        <v>9.77748098068006</v>
       </c>
       <c r="H21" t="n">
-        <v>17.543331153083</v>
+        <v>9.56879986266395</v>
       </c>
       <c r="I21" t="n">
-        <v>17.970873894095</v>
+        <v>11.7524797078937</v>
       </c>
       <c r="J21" t="n">
-        <v>18.6498985269129</v>
+        <v>14.1069267280139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.0443385123756</v>
+        <v>3.78680197817818</v>
       </c>
       <c r="B22" t="n">
-        <v>9.07945563503132</v>
+        <v>3.54369879695677</v>
       </c>
       <c r="C22" t="n">
-        <v>8.92249388039622</v>
+        <v>4.69764857547361</v>
       </c>
       <c r="D22" t="n">
-        <v>9.26620396526576</v>
+        <v>6.08262796267983</v>
       </c>
       <c r="E22" t="n">
-        <v>7.57064398388959</v>
+        <v>7.69629069556594</v>
       </c>
       <c r="F22" t="n">
-        <v>7.35153115314965</v>
+        <v>8.07675644775485</v>
       </c>
       <c r="G22" t="n">
-        <v>6.91079770517461</v>
+        <v>10.1565084519867</v>
       </c>
       <c r="H22" t="n">
-        <v>6.29152308856938</v>
+        <v>9.21473260930582</v>
       </c>
       <c r="I22" t="n">
-        <v>6.36320599085133</v>
+        <v>11.9425537749154</v>
       </c>
       <c r="J22" t="n">
-        <v>6.03707304320821</v>
+        <v>11.8861318320246</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.6107280482441</v>
+        <v>1.78665983527805</v>
       </c>
       <c r="B23" t="n">
-        <v>10.1504014085564</v>
+        <v>1.66898070361354</v>
       </c>
       <c r="C23" t="n">
-        <v>11.5156234538725</v>
+        <v>0.774418384005135</v>
       </c>
       <c r="D23" t="n">
-        <v>12.166351896161</v>
+        <v>0.884736824524003</v>
       </c>
       <c r="E23" t="n">
-        <v>14.4325193803831</v>
+        <v>0.0182187188081105</v>
       </c>
       <c r="F23" t="n">
-        <v>15.0072917348604</v>
+        <v>-0.128050097613765</v>
       </c>
       <c r="G23" t="n">
-        <v>15.8637959630034</v>
+        <v>-1.13472664845305</v>
       </c>
       <c r="H23" t="n">
-        <v>17.0323902357062</v>
+        <v>-1.82272139389629</v>
       </c>
       <c r="I23" t="n">
-        <v>17.5936339208985</v>
+        <v>-1.77365214888257</v>
       </c>
       <c r="J23" t="n">
-        <v>18.3491774097527</v>
+        <v>-2.46756851724961</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.0145548192778</v>
+        <v>2.7802096266249</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1107410835804</v>
+        <v>3.95098055764279</v>
       </c>
       <c r="C24" t="n">
-        <v>12.8596363583743</v>
+        <v>5.08895538151345</v>
       </c>
       <c r="D24" t="n">
-        <v>12.9137254101055</v>
+        <v>5.59130068867774</v>
       </c>
       <c r="E24" t="n">
-        <v>14.5397921600475</v>
+        <v>6.60956993945509</v>
       </c>
       <c r="F24" t="n">
-        <v>14.5346694493459</v>
+        <v>8.20341212611829</v>
       </c>
       <c r="G24" t="n">
-        <v>16.848722003869</v>
+        <v>8.08641864704385</v>
       </c>
       <c r="H24" t="n">
-        <v>17.7314125945372</v>
+        <v>9.57894855760651</v>
       </c>
       <c r="I24" t="n">
-        <v>17.9815476376449</v>
+        <v>11.7148581877069</v>
       </c>
       <c r="J24" t="n">
-        <v>19.2207502315259</v>
+        <v>12.5281618418889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.59948400514304</v>
+        <v>2.72475390766063</v>
       </c>
       <c r="B25" t="n">
-        <v>11.362825774738</v>
+        <v>4.89289011910877</v>
       </c>
       <c r="C25" t="n">
-        <v>12.8737412635295</v>
+        <v>4.65859944395394</v>
       </c>
       <c r="D25" t="n">
-        <v>12.7223065376056</v>
+        <v>5.85242797832296</v>
       </c>
       <c r="E25" t="n">
-        <v>14.2421899120715</v>
+        <v>8.24876308553422</v>
       </c>
       <c r="F25" t="n">
-        <v>14.5482486541512</v>
+        <v>8.15592111930976</v>
       </c>
       <c r="G25" t="n">
-        <v>16.1192465064905</v>
+        <v>9.44129556446749</v>
       </c>
       <c r="H25" t="n">
-        <v>16.3374549153747</v>
+        <v>11.1180080252405</v>
       </c>
       <c r="I25" t="n">
-        <v>18.5375248322794</v>
+        <v>10.6959881932647</v>
       </c>
       <c r="J25" t="n">
-        <v>18.814678173298</v>
+        <v>12.1509611122903</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.3001007311515</v>
+        <v>1.68860571216639</v>
       </c>
       <c r="B26" t="n">
-        <v>10.9883097046212</v>
+        <v>1.59875542077632</v>
       </c>
       <c r="C26" t="n">
-        <v>11.6441252932487</v>
+        <v>1.12112003962162</v>
       </c>
       <c r="D26" t="n">
-        <v>12.5856673892415</v>
+        <v>0.281106826771891</v>
       </c>
       <c r="E26" t="n">
-        <v>13.0213413783919</v>
+        <v>0.0917088109680238</v>
       </c>
       <c r="F26" t="n">
-        <v>13.8530799063458</v>
+        <v>-0.170860984905492</v>
       </c>
       <c r="G26" t="n">
-        <v>15.4638537117602</v>
+        <v>-0.896811838559562</v>
       </c>
       <c r="H26" t="n">
-        <v>17.2772040338191</v>
+        <v>-1.09777708668607</v>
       </c>
       <c r="I26" t="n">
-        <v>18.9475200419892</v>
+        <v>-2.33051094614119</v>
       </c>
       <c r="J26" t="n">
-        <v>18.8119114564887</v>
+        <v>-2.30527783819704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.74563125924386</v>
+        <v>3.34292649307545</v>
       </c>
       <c r="B27" t="n">
-        <v>10.6013019429775</v>
+        <v>3.05470807674267</v>
       </c>
       <c r="C27" t="n">
-        <v>11.5995822368601</v>
+        <v>5.59357454824683</v>
       </c>
       <c r="D27" t="n">
-        <v>13.5337993129862</v>
+        <v>5.1764750219715</v>
       </c>
       <c r="E27" t="n">
-        <v>14.5058272718213</v>
+        <v>6.95633776835204</v>
       </c>
       <c r="F27" t="n">
-        <v>14.8299166558839</v>
+        <v>7.23956889690196</v>
       </c>
       <c r="G27" t="n">
-        <v>14.537092564118</v>
+        <v>8.31894074938518</v>
       </c>
       <c r="H27" t="n">
-        <v>16.9686576944785</v>
+        <v>10.5804702535699</v>
       </c>
       <c r="I27" t="n">
-        <v>17.7510239008138</v>
+        <v>9.97689238614301</v>
       </c>
       <c r="J27" t="n">
-        <v>19.1044036343756</v>
+        <v>11.8105677563824</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.1792230519341</v>
+        <v>2.1810450794897</v>
       </c>
       <c r="B28" t="n">
-        <v>9.26898264488277</v>
+        <v>3.86864081103417</v>
       </c>
       <c r="C28" t="n">
-        <v>9.33710524121272</v>
+        <v>5.20572180183302</v>
       </c>
       <c r="D28" t="n">
-        <v>8.26332396604337</v>
+        <v>5.20412259996276</v>
       </c>
       <c r="E28" t="n">
-        <v>8.11653914670488</v>
+        <v>7.47777188372314</v>
       </c>
       <c r="F28" t="n">
-        <v>7.53330125967236</v>
+        <v>9.24780749496361</v>
       </c>
       <c r="G28" t="n">
-        <v>7.3903104826939</v>
+        <v>8.52972323701226</v>
       </c>
       <c r="H28" t="n">
-        <v>6.4986328050245</v>
+        <v>10.1630046106921</v>
       </c>
       <c r="I28" t="n">
-        <v>5.844310886126</v>
+        <v>11.6527928777835</v>
       </c>
       <c r="J28" t="n">
-        <v>5.30867835208839</v>
+        <v>12.5485854723093</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9.51913468377454</v>
+        <v>2.99858533347801</v>
       </c>
       <c r="B29" t="n">
-        <v>10.4748562167919</v>
+        <v>3.4827305524322</v>
       </c>
       <c r="C29" t="n">
-        <v>13.1664618832377</v>
+        <v>4.34404730659177</v>
       </c>
       <c r="D29" t="n">
-        <v>12.8161485520812</v>
+        <v>6.04917448550718</v>
       </c>
       <c r="E29" t="n">
-        <v>13.8817651620748</v>
+        <v>7.00469508236634</v>
       </c>
       <c r="F29" t="n">
-        <v>14.5492326504466</v>
+        <v>8.62731899847647</v>
       </c>
       <c r="G29" t="n">
-        <v>16.0357353732638</v>
+        <v>8.12816947484</v>
       </c>
       <c r="H29" t="n">
-        <v>16.9820826664571</v>
+        <v>11.2733428462915</v>
       </c>
       <c r="I29" t="n">
-        <v>16.8195605755307</v>
+        <v>11.5682247078312</v>
       </c>
       <c r="J29" t="n">
-        <v>19.3673153597432</v>
+        <v>11.6694746944567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.70946755762537</v>
+        <v>2.90878757330404</v>
       </c>
       <c r="B30" t="n">
-        <v>11.2194653401797</v>
+        <v>3.41580976977822</v>
       </c>
       <c r="C30" t="n">
-        <v>12.7325433999883</v>
+        <v>4.81670299593505</v>
       </c>
       <c r="D30" t="n">
-        <v>13.5241846523596</v>
+        <v>5.28554229325131</v>
       </c>
       <c r="E30" t="n">
-        <v>13.1101142137883</v>
+        <v>6.94662607345656</v>
       </c>
       <c r="F30" t="n">
-        <v>15.1973709849384</v>
+        <v>7.47658358940465</v>
       </c>
       <c r="G30" t="n">
-        <v>15.16914588637</v>
+        <v>7.81833966391719</v>
       </c>
       <c r="H30" t="n">
-        <v>17.4751289963734</v>
+        <v>11.0023045586899</v>
       </c>
       <c r="I30" t="n">
-        <v>16.9779764098418</v>
+        <v>11.4484435302084</v>
       </c>
       <c r="J30" t="n">
-        <v>19.5946466639996</v>
+        <v>12.2259826311333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.062370189489</v>
+        <v>4.42571168458623</v>
       </c>
       <c r="B31" t="n">
-        <v>9.48447676702635</v>
+        <v>2.87018824323373</v>
       </c>
       <c r="C31" t="n">
-        <v>9.30113041662022</v>
+        <v>4.71366135907394</v>
       </c>
       <c r="D31" t="n">
-        <v>8.22659112310328</v>
+        <v>5.20394329255162</v>
       </c>
       <c r="E31" t="n">
-        <v>7.83439625899312</v>
+        <v>6.52554930394695</v>
       </c>
       <c r="F31" t="n">
-        <v>7.77766174071263</v>
+        <v>9.05098647584792</v>
       </c>
       <c r="G31" t="n">
-        <v>6.98135348010523</v>
+        <v>8.62417350424253</v>
       </c>
       <c r="H31" t="n">
-        <v>6.16420762965832</v>
+        <v>9.25286985061961</v>
       </c>
       <c r="I31" t="n">
-        <v>6.00775468475557</v>
+        <v>12.0915796122518</v>
       </c>
       <c r="J31" t="n">
-        <v>5.68031801208174</v>
+        <v>11.7819147439725</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.4061777524877</v>
+        <v>2.08084346969362</v>
       </c>
       <c r="B32" t="n">
-        <v>11.9890178275571</v>
+        <v>4.0770878736025</v>
       </c>
       <c r="C32" t="n">
-        <v>12.1250726126754</v>
+        <v>5.12710752762593</v>
       </c>
       <c r="D32" t="n">
-        <v>12.6328225362922</v>
+        <v>5.90126980408366</v>
       </c>
       <c r="E32" t="n">
-        <v>13.6289325125723</v>
+        <v>6.68944036520657</v>
       </c>
       <c r="F32" t="n">
-        <v>15.2741124761191</v>
+        <v>7.78182417400628</v>
       </c>
       <c r="G32" t="n">
-        <v>15.8769034444071</v>
+        <v>7.61391053681078</v>
       </c>
       <c r="H32" t="n">
-        <v>17.6704848803998</v>
+        <v>10.1206405477406</v>
       </c>
       <c r="I32" t="n">
-        <v>18.9558602124959</v>
+        <v>11.1111325137008</v>
       </c>
       <c r="J32" t="n">
-        <v>19.4517371301493</v>
+        <v>10.4603413397006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.9238454293505</v>
+        <v>3.39170665788507</v>
       </c>
       <c r="B33" t="n">
-        <v>10.9884424779232</v>
+        <v>3.26990351832564</v>
       </c>
       <c r="C33" t="n">
-        <v>12.0602276577518</v>
+        <v>4.75805924543424</v>
       </c>
       <c r="D33" t="n">
-        <v>13.7035340506327</v>
+        <v>5.56152482131934</v>
       </c>
       <c r="E33" t="n">
-        <v>13.9693845581438</v>
+        <v>8.22586097455415</v>
       </c>
       <c r="F33" t="n">
-        <v>15.5778045311179</v>
+        <v>8.78341363102024</v>
       </c>
       <c r="G33" t="n">
-        <v>16.2890005482596</v>
+        <v>9.36802838037197</v>
       </c>
       <c r="H33" t="n">
-        <v>17.2297521666718</v>
+        <v>9.57865291111803</v>
       </c>
       <c r="I33" t="n">
-        <v>18.0353123219388</v>
+        <v>12.1118994556518</v>
       </c>
       <c r="J33" t="n">
-        <v>18.6103685047231</v>
+        <v>12.2086946001289</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.50150272853917</v>
+        <v>2.22703834749587</v>
       </c>
       <c r="B34" t="n">
-        <v>9.56920141774238</v>
+        <v>3.25940805388855</v>
       </c>
       <c r="C34" t="n">
-        <v>8.78232401716267</v>
+        <v>4.29052183201684</v>
       </c>
       <c r="D34" t="n">
-        <v>8.54462194508423</v>
+        <v>6.9569890846945</v>
       </c>
       <c r="E34" t="n">
-        <v>7.98646840440591</v>
+        <v>6.81742983165418</v>
       </c>
       <c r="F34" t="n">
-        <v>7.0061060531512</v>
+        <v>9.51553668786425</v>
       </c>
       <c r="G34" t="n">
-        <v>6.99085261097704</v>
+        <v>8.99416083809564</v>
       </c>
       <c r="H34" t="n">
-        <v>6.49557858881087</v>
+        <v>8.99011026619526</v>
       </c>
       <c r="I34" t="n">
-        <v>5.79481969058262</v>
+        <v>10.9191418223876</v>
       </c>
       <c r="J34" t="n">
-        <v>5.63577439005433</v>
+        <v>11.6637335516497</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.81925303071881</v>
+        <v>1.34092655281557</v>
       </c>
       <c r="B35" t="n">
-        <v>9.79496391605769</v>
+        <v>4.56317582395996</v>
       </c>
       <c r="C35" t="n">
-        <v>9.18056670495866</v>
+        <v>4.72717733096938</v>
       </c>
       <c r="D35" t="n">
-        <v>8.40602248602459</v>
+        <v>6.27657676383379</v>
       </c>
       <c r="E35" t="n">
-        <v>8.33040482189018</v>
+        <v>7.12826444403329</v>
       </c>
       <c r="F35" t="n">
-        <v>6.78382416905637</v>
+        <v>7.40159824567737</v>
       </c>
       <c r="G35" t="n">
-        <v>6.83461133641973</v>
+        <v>8.06104348208704</v>
       </c>
       <c r="H35" t="n">
-        <v>6.48235139613182</v>
+        <v>11.4998746598985</v>
       </c>
       <c r="I35" t="n">
-        <v>6.04723324272079</v>
+        <v>12.0855088688845</v>
       </c>
       <c r="J35" t="n">
-        <v>5.76012104840853</v>
+        <v>11.3322320632844</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.6866248457881</v>
+        <v>2.2942361862907</v>
       </c>
       <c r="B36" t="n">
-        <v>10.4809652012151</v>
+        <v>1.66879094733858</v>
       </c>
       <c r="C36" t="n">
-        <v>12.0870017507639</v>
+        <v>1.26638055620963</v>
       </c>
       <c r="D36" t="n">
-        <v>12.674487486128</v>
+        <v>0.470145321315349</v>
       </c>
       <c r="E36" t="n">
-        <v>14.2671809654984</v>
+        <v>0.248561822355072</v>
       </c>
       <c r="F36" t="n">
-        <v>15.0005358216183</v>
+        <v>-0.52025954530484</v>
       </c>
       <c r="G36" t="n">
-        <v>15.159475849011</v>
+        <v>-0.91699253846759</v>
       </c>
       <c r="H36" t="n">
-        <v>17.8083664899482</v>
+        <v>-1.30400322048933</v>
       </c>
       <c r="I36" t="n">
-        <v>18.5102990523752</v>
+        <v>-2.3797673055365</v>
       </c>
       <c r="J36" t="n">
-        <v>20.948334678073</v>
+        <v>-2.43301097734704</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10.2964159767104</v>
+        <v>1.763685007918</v>
       </c>
       <c r="B37" t="n">
-        <v>9.74316167518028</v>
+        <v>1.32612272051696</v>
       </c>
       <c r="C37" t="n">
-        <v>8.74995942049462</v>
+        <v>1.06683032973377</v>
       </c>
       <c r="D37" t="n">
-        <v>8.88624533787743</v>
+        <v>0.917312696262802</v>
       </c>
       <c r="E37" t="n">
-        <v>8.04117769405008</v>
+        <v>0.00630607652674675</v>
       </c>
       <c r="F37" t="n">
-        <v>7.18203488153314</v>
+        <v>-0.610152845272712</v>
       </c>
       <c r="G37" t="n">
-        <v>6.86058169118072</v>
+        <v>-1.02995349184173</v>
       </c>
       <c r="H37" t="n">
-        <v>6.67297080404304</v>
+        <v>-1.87145831776641</v>
       </c>
       <c r="I37" t="n">
-        <v>5.77113639054584</v>
+        <v>-2.2957212237901</v>
       </c>
       <c r="J37" t="n">
-        <v>5.48960167062291</v>
+        <v>-2.17637208839714</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.61359808695158</v>
+        <v>3.57135126364631</v>
       </c>
       <c r="B38" t="n">
-        <v>9.18919540638908</v>
+        <v>4.20956187994986</v>
       </c>
       <c r="C38" t="n">
-        <v>8.8076526229388</v>
+        <v>3.57116273089065</v>
       </c>
       <c r="D38" t="n">
-        <v>8.47902491839826</v>
+        <v>5.95637751550446</v>
       </c>
       <c r="E38" t="n">
-        <v>7.8448278611617</v>
+        <v>7.38323664803011</v>
       </c>
       <c r="F38" t="n">
-        <v>7.7908814624383</v>
+        <v>7.45502484223546</v>
       </c>
       <c r="G38" t="n">
-        <v>7.73098416693663</v>
+        <v>9.36921024514417</v>
       </c>
       <c r="H38" t="n">
-        <v>6.4832758386766</v>
+        <v>10.2938456622669</v>
       </c>
       <c r="I38" t="n">
-        <v>5.89381000786632</v>
+        <v>9.96988068583351</v>
       </c>
       <c r="J38" t="n">
-        <v>5.76300102360086</v>
+        <v>11.6563230662837</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.57953324076691</v>
+        <v>3.33204284277357</v>
       </c>
       <c r="B39" t="n">
-        <v>9.62032191435897</v>
+        <v>4.99984171462208</v>
       </c>
       <c r="C39" t="n">
-        <v>9.27528569531628</v>
+        <v>4.96233377542515</v>
       </c>
       <c r="D39" t="n">
-        <v>8.4171754045328</v>
+        <v>6.18213798855583</v>
       </c>
       <c r="E39" t="n">
-        <v>7.83198197264157</v>
+        <v>7.72796526937418</v>
       </c>
       <c r="F39" t="n">
-        <v>7.08983711087381</v>
+        <v>9.22732724331782</v>
       </c>
       <c r="G39" t="n">
-        <v>7.21325785339772</v>
+        <v>9.37201889255358</v>
       </c>
       <c r="H39" t="n">
-        <v>6.71297312624005</v>
+        <v>9.00552274223968</v>
       </c>
       <c r="I39" t="n">
-        <v>6.45291877694167</v>
+        <v>11.5767179910085</v>
       </c>
       <c r="J39" t="n">
-        <v>5.43580394899343</v>
+        <v>12.3548461093415</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9.75697754182597</v>
+        <v>1.72943473032694</v>
       </c>
       <c r="B40" t="n">
-        <v>11.2967764416595</v>
+        <v>2.00790340201604</v>
       </c>
       <c r="C40" t="n">
-        <v>11.8478523166804</v>
+        <v>0.81217473232406</v>
       </c>
       <c r="D40" t="n">
-        <v>13.2334550361778</v>
+        <v>1.10476273510072</v>
       </c>
       <c r="E40" t="n">
-        <v>14.9067223302408</v>
+        <v>0.450708371539137</v>
       </c>
       <c r="F40" t="n">
-        <v>14.1670741929863</v>
+        <v>-0.246368358261287</v>
       </c>
       <c r="G40" t="n">
-        <v>16.239913752801</v>
+        <v>-1.01790714171221</v>
       </c>
       <c r="H40" t="n">
-        <v>17.1791977329533</v>
+        <v>-1.918043059415</v>
       </c>
       <c r="I40" t="n">
-        <v>17.1611190187288</v>
+        <v>-1.78559600830922</v>
       </c>
       <c r="J40" t="n">
-        <v>19.9746854189477</v>
+        <v>-2.45832312097481</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.3601989213945</v>
+        <v>5.079459875168</v>
       </c>
       <c r="B41" t="n">
-        <v>10.950197213422</v>
+        <v>4.33843689561981</v>
       </c>
       <c r="C41" t="n">
-        <v>11.287487612818</v>
+        <v>4.52916703446973</v>
       </c>
       <c r="D41" t="n">
-        <v>12.9654184160004</v>
+        <v>6.22591599546038</v>
       </c>
       <c r="E41" t="n">
-        <v>13.6773595696141</v>
+        <v>6.95254502879428</v>
       </c>
       <c r="F41" t="n">
-        <v>14.2887002613768</v>
+        <v>8.3448977108593</v>
       </c>
       <c r="G41" t="n">
-        <v>14.5643058757443</v>
+        <v>9.30074687465791</v>
       </c>
       <c r="H41" t="n">
-        <v>16.7877002929761</v>
+        <v>9.67570325642574</v>
       </c>
       <c r="I41" t="n">
-        <v>18.8846873969787</v>
+        <v>11.7010293167345</v>
       </c>
       <c r="J41" t="n">
-        <v>20.8327969241023</v>
+        <v>10.7508546021191</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.9381292802544</v>
+        <v>2.76101982156146</v>
       </c>
       <c r="B42" t="n">
-        <v>10.6457839413033</v>
+        <v>3.96649501370415</v>
       </c>
       <c r="C42" t="n">
-        <v>10.8096931729455</v>
+        <v>4.90253911508062</v>
       </c>
       <c r="D42" t="n">
-        <v>12.4651343631995</v>
+        <v>6.76259234254855</v>
       </c>
       <c r="E42" t="n">
-        <v>14.3777674671556</v>
+        <v>6.50406600199214</v>
       </c>
       <c r="F42" t="n">
-        <v>15.8585311439807</v>
+        <v>8.26432799692521</v>
       </c>
       <c r="G42" t="n">
-        <v>16.0066085597048</v>
+        <v>9.18032811921649</v>
       </c>
       <c r="H42" t="n">
-        <v>16.2803473706359</v>
+        <v>9.98221282385227</v>
       </c>
       <c r="I42" t="n">
-        <v>18.6586994186171</v>
+        <v>9.65778392450142</v>
       </c>
       <c r="J42" t="n">
-        <v>19.0843698969999</v>
+        <v>11.0267441638031</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>9.29005394387275</v>
+        <v>3.13879764991697</v>
       </c>
       <c r="B43" t="n">
-        <v>9.37308094855588</v>
+        <v>4.48345024020156</v>
       </c>
       <c r="C43" t="n">
-        <v>11.8770559382329</v>
+        <v>5.87407236193943</v>
       </c>
       <c r="D43" t="n">
-        <v>13.1992464519261</v>
+        <v>6.30399265968091</v>
       </c>
       <c r="E43" t="n">
-        <v>13.824391203646</v>
+        <v>6.58620507769709</v>
       </c>
       <c r="F43" t="n">
-        <v>15.069417271771</v>
+        <v>8.75939328411308</v>
       </c>
       <c r="G43" t="n">
-        <v>17.236609024073</v>
+        <v>8.15182359192412</v>
       </c>
       <c r="H43" t="n">
-        <v>17.3582966782443</v>
+        <v>10.4480432290343</v>
       </c>
       <c r="I43" t="n">
-        <v>17.6812185584795</v>
+        <v>12.4476649714861</v>
       </c>
       <c r="J43" t="n">
-        <v>18.6810681526606</v>
+        <v>12.0421065277819</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.0296988273221</v>
+        <v>2.40226917529906</v>
       </c>
       <c r="B44" t="n">
-        <v>9.61447352839254</v>
+        <v>4.05412611204832</v>
       </c>
       <c r="C44" t="n">
-        <v>8.65157393334308</v>
+        <v>5.75407462432988</v>
       </c>
       <c r="D44" t="n">
-        <v>8.58159108901999</v>
+        <v>5.96776302173355</v>
       </c>
       <c r="E44" t="n">
-        <v>8.26377509720595</v>
+        <v>5.48411109504403</v>
       </c>
       <c r="F44" t="n">
-        <v>7.37800137044937</v>
+        <v>7.00499970144262</v>
       </c>
       <c r="G44" t="n">
-        <v>6.89488451027624</v>
+        <v>8.30284840596709</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13920629886844</v>
+        <v>10.3601962279651</v>
       </c>
       <c r="I44" t="n">
-        <v>6.31508807567088</v>
+        <v>12.4477724533216</v>
       </c>
       <c r="J44" t="n">
-        <v>5.27965661102762</v>
+        <v>13.724355466367</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.66287488203668</v>
+        <v>1.53470238846759</v>
       </c>
       <c r="B45" t="n">
-        <v>9.92768062175004</v>
+        <v>4.00873334512641</v>
       </c>
       <c r="C45" t="n">
-        <v>13.8386360622172</v>
+        <v>5.17736633794673</v>
       </c>
       <c r="D45" t="n">
-        <v>12.9001836805808</v>
+        <v>7.59827110559824</v>
       </c>
       <c r="E45" t="n">
-        <v>13.9028385801427</v>
+        <v>6.1879799140507</v>
       </c>
       <c r="F45" t="n">
-        <v>14.6032794652545</v>
+        <v>8.88827523933796</v>
       </c>
       <c r="G45" t="n">
-        <v>15.35484072491</v>
+        <v>9.20582340806936</v>
       </c>
       <c r="H45" t="n">
-        <v>16.2371360593969</v>
+        <v>8.2658054294753</v>
       </c>
       <c r="I45" t="n">
-        <v>19.1493014792418</v>
+        <v>10.7970509652611</v>
       </c>
       <c r="J45" t="n">
-        <v>19.1154385523505</v>
+        <v>11.7001329979926</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.2061066417484</v>
+        <v>2.27672724133207</v>
       </c>
       <c r="B46" t="n">
-        <v>10.0013812215696</v>
+        <v>1.15299140754283</v>
       </c>
       <c r="C46" t="n">
-        <v>9.37952445797555</v>
+        <v>0.676239132082341</v>
       </c>
       <c r="D46" t="n">
-        <v>8.54451511356831</v>
+        <v>0.98130058821421</v>
       </c>
       <c r="E46" t="n">
-        <v>7.9696402276654</v>
+        <v>-0.0184071471563335</v>
       </c>
       <c r="F46" t="n">
-        <v>7.5190557699774</v>
+        <v>-0.00557771135622248</v>
       </c>
       <c r="G46" t="n">
-        <v>7.04396602737914</v>
+        <v>-1.23220099571535</v>
       </c>
       <c r="H46" t="n">
-        <v>6.75798031526207</v>
+        <v>-1.69701374880904</v>
       </c>
       <c r="I46" t="n">
-        <v>5.75903299184092</v>
+        <v>-1.94476291214843</v>
       </c>
       <c r="J46" t="n">
-        <v>5.51809712009309</v>
+        <v>-2.69584677113449</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.26273643573989</v>
+        <v>2.22934556805185</v>
       </c>
       <c r="B47" t="n">
-        <v>9.41888364913879</v>
+        <v>4.41426048795198</v>
       </c>
       <c r="C47" t="n">
-        <v>12.3863000695722</v>
+        <v>5.04209020758891</v>
       </c>
       <c r="D47" t="n">
-        <v>12.6453474314013</v>
+        <v>7.10774705649281</v>
       </c>
       <c r="E47" t="n">
-        <v>15.5267251775189</v>
+        <v>6.78574340982171</v>
       </c>
       <c r="F47" t="n">
-        <v>14.8444766849062</v>
+        <v>7.64005337236323</v>
       </c>
       <c r="G47" t="n">
-        <v>15.8666519360611</v>
+        <v>9.01528615591312</v>
       </c>
       <c r="H47" t="n">
-        <v>18.1674312234938</v>
+        <v>8.73837698460721</v>
       </c>
       <c r="I47" t="n">
-        <v>17.3488977423908</v>
+        <v>11.3056909528749</v>
       </c>
       <c r="J47" t="n">
-        <v>17.804566085689</v>
+        <v>12.3431980367035</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.70058047181857</v>
+        <v>3.86595763413952</v>
       </c>
       <c r="B48" t="n">
-        <v>10.336921081817</v>
+        <v>2.97752269925538</v>
       </c>
       <c r="C48" t="n">
-        <v>12.1723647794492</v>
+        <v>6.68886363444434</v>
       </c>
       <c r="D48" t="n">
-        <v>13.4098414963427</v>
+        <v>7.64380242803012</v>
       </c>
       <c r="E48" t="n">
-        <v>14.1385608414246</v>
+        <v>6.14223766434515</v>
       </c>
       <c r="F48" t="n">
-        <v>14.2580172424925</v>
+        <v>7.70317928287625</v>
       </c>
       <c r="G48" t="n">
-        <v>17.2783090740613</v>
+        <v>10.1679146412976</v>
       </c>
       <c r="H48" t="n">
-        <v>16.1880325182989</v>
+        <v>8.88912546753097</v>
       </c>
       <c r="I48" t="n">
-        <v>18.0450969790693</v>
+        <v>11.8072923366398</v>
       </c>
       <c r="J48" t="n">
-        <v>18.0503668089174</v>
+        <v>11.9688076350615</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10.4540638064848</v>
+        <v>1.8521093147476</v>
       </c>
       <c r="B49" t="n">
-        <v>12.3212814552997</v>
+        <v>4.20509709895544</v>
       </c>
       <c r="C49" t="n">
-        <v>10.9442813709609</v>
+        <v>4.99332032673406</v>
       </c>
       <c r="D49" t="n">
-        <v>11.192217735317</v>
+        <v>7.48668604580498</v>
       </c>
       <c r="E49" t="n">
-        <v>15.2636082756375</v>
+        <v>7.02062841635875</v>
       </c>
       <c r="F49" t="n">
-        <v>16.2858368627121</v>
+        <v>8.33989178759999</v>
       </c>
       <c r="G49" t="n">
-        <v>16.9494971398411</v>
+        <v>9.4903881225915</v>
       </c>
       <c r="H49" t="n">
-        <v>16.5633141070755</v>
+        <v>9.78249865482837</v>
       </c>
       <c r="I49" t="n">
-        <v>18.3609758274005</v>
+        <v>12.1907381036251</v>
       </c>
       <c r="J49" t="n">
-        <v>19.2972807690411</v>
+        <v>11.5811349658022</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10.4016770570351</v>
+        <v>2.35435129863223</v>
       </c>
       <c r="B50" t="n">
-        <v>10.0403699418337</v>
+        <v>3.58066319429362</v>
       </c>
       <c r="C50" t="n">
-        <v>11.3254205148145</v>
+        <v>5.30757904587121</v>
       </c>
       <c r="D50" t="n">
-        <v>13.1466905977929</v>
+        <v>5.43039492601279</v>
       </c>
       <c r="E50" t="n">
-        <v>13.2137064646258</v>
+        <v>7.43108345389458</v>
       </c>
       <c r="F50" t="n">
-        <v>15.6625968967969</v>
+        <v>7.84475208249464</v>
       </c>
       <c r="G50" t="n">
-        <v>16.4744732725805</v>
+        <v>8.87418450286258</v>
       </c>
       <c r="H50" t="n">
-        <v>17.1069360849008</v>
+        <v>10.0656281454262</v>
       </c>
       <c r="I50" t="n">
-        <v>17.5875215171718</v>
+        <v>11.5394562921598</v>
       </c>
       <c r="J50" t="n">
-        <v>19.5813174094422</v>
+        <v>11.44356776044</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.1719408824866</v>
+        <v>2.56617177423521</v>
       </c>
       <c r="B51" t="n">
-        <v>10.1953897838178</v>
+        <v>4.39507584181284</v>
       </c>
       <c r="C51" t="n">
-        <v>11.6737015232409</v>
+        <v>5.54765532076287</v>
       </c>
       <c r="D51" t="n">
-        <v>12.4090393642624</v>
+        <v>6.2379436043155</v>
       </c>
       <c r="E51" t="n">
-        <v>14.1873414632208</v>
+        <v>5.34711043881155</v>
       </c>
       <c r="F51" t="n">
-        <v>15.0816553903282</v>
+        <v>7.83602189091795</v>
       </c>
       <c r="G51" t="n">
-        <v>16.2230639381865</v>
+        <v>9.50827770596377</v>
       </c>
       <c r="H51" t="n">
-        <v>17.1881160956496</v>
+        <v>10.3005524637135</v>
       </c>
       <c r="I51" t="n">
-        <v>18.7296950460168</v>
+        <v>10.3943747084013</v>
       </c>
       <c r="J51" t="n">
-        <v>20.3204589289125</v>
+        <v>11.7202248889595</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.73774165041532</v>
+        <v>3.05543823110416</v>
       </c>
       <c r="B52" t="n">
-        <v>10.7597111872397</v>
+        <v>3.92424790948074</v>
       </c>
       <c r="C52" t="n">
-        <v>13.1924470353645</v>
+        <v>5.35109800732476</v>
       </c>
       <c r="D52" t="n">
-        <v>12.9777766043911</v>
+        <v>7.45565397187761</v>
       </c>
       <c r="E52" t="n">
-        <v>14.1393591761514</v>
+        <v>6.52473429258648</v>
       </c>
       <c r="F52" t="n">
-        <v>14.6815181513722</v>
+        <v>7.9127305320095</v>
       </c>
       <c r="G52" t="n">
-        <v>15.9567945348991</v>
+        <v>9.44846707098026</v>
       </c>
       <c r="H52" t="n">
-        <v>17.58112036841</v>
+        <v>10.145005535104</v>
       </c>
       <c r="I52" t="n">
-        <v>19.1850840476194</v>
+        <v>10.71906414025</v>
       </c>
       <c r="J52" t="n">
-        <v>20.0158473347585</v>
+        <v>11.1772008130026</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.194983496423</v>
+        <v>4.78669046765752</v>
       </c>
       <c r="B53" t="n">
-        <v>12.7190441812037</v>
+        <v>4.95427683284159</v>
       </c>
       <c r="C53" t="n">
-        <v>12.0062557349402</v>
+        <v>6.27755352939299</v>
       </c>
       <c r="D53" t="n">
-        <v>12.6123299601934</v>
+        <v>5.10703384404548</v>
       </c>
       <c r="E53" t="n">
-        <v>13.3637837095555</v>
+        <v>7.01916764562007</v>
       </c>
       <c r="F53" t="n">
-        <v>14.5243061108568</v>
+        <v>8.54722894736678</v>
       </c>
       <c r="G53" t="n">
-        <v>16.4102732292151</v>
+        <v>9.24979083801959</v>
       </c>
       <c r="H53" t="n">
-        <v>16.624495498683</v>
+        <v>10.452827492358</v>
       </c>
       <c r="I53" t="n">
-        <v>16.7666851902786</v>
+        <v>10.9918161941798</v>
       </c>
       <c r="J53" t="n">
-        <v>18.061154889856</v>
+        <v>12.4730914049795</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.66527578923545</v>
+        <v>2.53034572759751</v>
       </c>
       <c r="B54" t="n">
-        <v>11.6290418263076</v>
+        <v>4.12043148941954</v>
       </c>
       <c r="C54" t="n">
-        <v>13.0414697142158</v>
+        <v>5.3384069922915</v>
       </c>
       <c r="D54" t="n">
-        <v>13.4956143153269</v>
+        <v>5.71156540552076</v>
       </c>
       <c r="E54" t="n">
-        <v>14.4015428509166</v>
+        <v>5.94506827341596</v>
       </c>
       <c r="F54" t="n">
-        <v>14.6242926883416</v>
+        <v>8.87329821545346</v>
       </c>
       <c r="G54" t="n">
-        <v>15.3662150629563</v>
+        <v>8.91877156099847</v>
       </c>
       <c r="H54" t="n">
-        <v>17.1948376685899</v>
+        <v>8.4589847307923</v>
       </c>
       <c r="I54" t="n">
-        <v>18.5109966605611</v>
+        <v>10.7611524422121</v>
       </c>
       <c r="J54" t="n">
-        <v>19.3875172208274</v>
+        <v>11.8090521093676</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.93251120438577</v>
+        <v>2.08732516403336</v>
       </c>
       <c r="B55" t="n">
-        <v>9.84084448326859</v>
+        <v>4.67639062254659</v>
       </c>
       <c r="C55" t="n">
-        <v>9.4834538731889</v>
+        <v>4.48952054632327</v>
       </c>
       <c r="D55" t="n">
-        <v>7.89986080963695</v>
+        <v>5.33358441985628</v>
       </c>
       <c r="E55" t="n">
-        <v>8.39786400065588</v>
+        <v>7.37884680903638</v>
       </c>
       <c r="F55" t="n">
-        <v>7.54043091817321</v>
+        <v>6.65278835476685</v>
       </c>
       <c r="G55" t="n">
-        <v>7.23227068038066</v>
+        <v>9.32270620296985</v>
       </c>
       <c r="H55" t="n">
-        <v>6.67066067197188</v>
+        <v>9.30481720360082</v>
       </c>
       <c r="I55" t="n">
-        <v>5.9886853433791</v>
+        <v>12.2700441294547</v>
       </c>
       <c r="J55" t="n">
-        <v>5.41129418218721</v>
+        <v>11.6258907225881</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.1410318994389</v>
+        <v>2.44703165895365</v>
       </c>
       <c r="B56" t="n">
-        <v>11.1639763574891</v>
+        <v>1.53822477794713</v>
       </c>
       <c r="C56" t="n">
-        <v>11.2809070268208</v>
+        <v>1.23946106431817</v>
       </c>
       <c r="D56" t="n">
-        <v>13.284322791538</v>
+        <v>0.295352504563435</v>
       </c>
       <c r="E56" t="n">
-        <v>12.8603267271933</v>
+        <v>0.387875916467978</v>
       </c>
       <c r="F56" t="n">
-        <v>15.8650347790506</v>
+        <v>-0.298735993940983</v>
       </c>
       <c r="G56" t="n">
-        <v>16.2477753713189</v>
+        <v>-0.744444791074054</v>
       </c>
       <c r="H56" t="n">
-        <v>16.172236922306</v>
+        <v>-1.2649964463887</v>
       </c>
       <c r="I56" t="n">
-        <v>18.3299536509043</v>
+        <v>-2.0498431741524</v>
       </c>
       <c r="J56" t="n">
-        <v>18.4369404183406</v>
+        <v>-2.34242539600968</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10.010428950091</v>
+        <v>3.67660638214939</v>
       </c>
       <c r="B57" t="n">
-        <v>11.5814269092442</v>
+        <v>3.66049360794256</v>
       </c>
       <c r="C57" t="n">
-        <v>11.8916343724143</v>
+        <v>5.1066482730425</v>
       </c>
       <c r="D57" t="n">
-        <v>13.4019433863584</v>
+        <v>5.83383086964988</v>
       </c>
       <c r="E57" t="n">
-        <v>15.0773851396195</v>
+        <v>7.63376620705932</v>
       </c>
       <c r="F57" t="n">
-        <v>14.2975957312361</v>
+        <v>7.11273772922921</v>
       </c>
       <c r="G57" t="n">
-        <v>15.4191960494305</v>
+        <v>8.93488881688626</v>
       </c>
       <c r="H57" t="n">
-        <v>17.140788890531</v>
+        <v>9.68990084282892</v>
       </c>
       <c r="I57" t="n">
-        <v>18.1575951977633</v>
+        <v>12.9236089300262</v>
       </c>
       <c r="J57" t="n">
-        <v>19.8609484093697</v>
+        <v>12.8812050970247</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.91625768627834</v>
+        <v>1.56921555762444</v>
       </c>
       <c r="B58" t="n">
-        <v>10.6361241625732</v>
+        <v>4.30914400299043</v>
       </c>
       <c r="C58" t="n">
-        <v>13.5934456653458</v>
+        <v>5.52428664555704</v>
       </c>
       <c r="D58" t="n">
-        <v>13.084017779189</v>
+        <v>6.63931195520658</v>
       </c>
       <c r="E58" t="n">
-        <v>13.2843794814762</v>
+        <v>7.53071430931389</v>
       </c>
       <c r="F58" t="n">
-        <v>15.4956453189202</v>
+        <v>8.41512346874788</v>
       </c>
       <c r="G58" t="n">
-        <v>15.9609122391889</v>
+        <v>9.5709374426528</v>
       </c>
       <c r="H58" t="n">
-        <v>17.2465969123322</v>
+        <v>11.0003402887788</v>
       </c>
       <c r="I58" t="n">
-        <v>19.9454468895906</v>
+        <v>11.6446435512558</v>
       </c>
       <c r="J58" t="n">
-        <v>17.9651667014766</v>
+        <v>11.4217078831946</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10.0133863157927</v>
+        <v>2.8417580636603</v>
       </c>
       <c r="B59" t="n">
-        <v>11.6812664758674</v>
+        <v>3.08050164931386</v>
       </c>
       <c r="C59" t="n">
-        <v>12.8775172353823</v>
+        <v>5.76294439397081</v>
       </c>
       <c r="D59" t="n">
-        <v>12.5595583539879</v>
+        <v>5.57348593448115</v>
       </c>
       <c r="E59" t="n">
-        <v>13.2820432626302</v>
+        <v>7.70057690109757</v>
       </c>
       <c r="F59" t="n">
-        <v>14.4533876447178</v>
+        <v>8.64656936023943</v>
       </c>
       <c r="G59" t="n">
-        <v>16.6880113711215</v>
+        <v>9.39825751665944</v>
       </c>
       <c r="H59" t="n">
-        <v>16.1189128960322</v>
+        <v>9.41710868204541</v>
       </c>
       <c r="I59" t="n">
-        <v>17.4071588697482</v>
+        <v>10.827946320463</v>
       </c>
       <c r="J59" t="n">
-        <v>19.4102126638654</v>
+        <v>10.9414580626064</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.22527457971873</v>
+        <v>1.92853535628316</v>
       </c>
       <c r="B60" t="n">
-        <v>10.7790226729012</v>
+        <v>1.39348346927977</v>
       </c>
       <c r="C60" t="n">
-        <v>11.3013235844884</v>
+        <v>0.971068846514495</v>
       </c>
       <c r="D60" t="n">
-        <v>14.5094000474094</v>
+        <v>0.606595734231066</v>
       </c>
       <c r="E60" t="n">
-        <v>14.4382853605507</v>
+        <v>0.45319094118439</v>
       </c>
       <c r="F60" t="n">
-        <v>15.04852126159</v>
+        <v>-0.208975100989724</v>
       </c>
       <c r="G60" t="n">
-        <v>15.4962172148651</v>
+        <v>-0.949296463305714</v>
       </c>
       <c r="H60" t="n">
-        <v>19.0829685818464</v>
+        <v>-1.69359759443113</v>
       </c>
       <c r="I60" t="n">
-        <v>18.2909680413402</v>
+        <v>-1.85972924813427</v>
       </c>
       <c r="J60" t="n">
-        <v>19.6577566608059</v>
+        <v>-2.53840654438944</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.1951518318997</v>
+        <v>2.00876491578264</v>
       </c>
       <c r="B61" t="n">
-        <v>10.4634239737993</v>
+        <v>3.40180434259399</v>
       </c>
       <c r="C61" t="n">
-        <v>13.1457875455919</v>
+        <v>3.89492930728435</v>
       </c>
       <c r="D61" t="n">
-        <v>12.3319967185909</v>
+        <v>6.79825979637371</v>
       </c>
       <c r="E61" t="n">
-        <v>14.2492551544558</v>
+        <v>7.262523278402</v>
       </c>
       <c r="F61" t="n">
-        <v>14.623341167675</v>
+        <v>7.53057216569088</v>
       </c>
       <c r="G61" t="n">
-        <v>15.7740425098336</v>
+        <v>10.2276563693768</v>
       </c>
       <c r="H61" t="n">
-        <v>17.3555225912319</v>
+        <v>9.42867133603608</v>
       </c>
       <c r="I61" t="n">
-        <v>17.792484029672</v>
+        <v>9.93703181481823</v>
       </c>
       <c r="J61" t="n">
-        <v>19.1059162454385</v>
+        <v>12.2674525595303</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.875813080796</v>
+        <v>2.05444152562458</v>
       </c>
       <c r="B62" t="n">
-        <v>9.48901852654187</v>
+        <v>1.26144432931657</v>
       </c>
       <c r="C62" t="n">
-        <v>8.73236595480675</v>
+        <v>0.899308190672435</v>
       </c>
       <c r="D62" t="n">
-        <v>8.68346792225727</v>
+        <v>0.58881297595653</v>
       </c>
       <c r="E62" t="n">
-        <v>7.80213605026774</v>
+        <v>-0.344067427271169</v>
       </c>
       <c r="F62" t="n">
-        <v>7.56826319446364</v>
+        <v>-0.653848390309788</v>
       </c>
       <c r="G62" t="n">
-        <v>7.40673686551855</v>
+        <v>-1.32563167178628</v>
       </c>
       <c r="H62" t="n">
-        <v>6.66505093093631</v>
+        <v>-1.42439300927802</v>
       </c>
       <c r="I62" t="n">
-        <v>6.14698122072185</v>
+        <v>-2.09485969418795</v>
       </c>
       <c r="J62" t="n">
-        <v>5.39069176700364</v>
+        <v>-2.17107145439724</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10.8465234260342</v>
+        <v>1.84939274567445</v>
       </c>
       <c r="B63" t="n">
-        <v>10.5677388427961</v>
+        <v>2.42076664047865</v>
       </c>
       <c r="C63" t="n">
-        <v>12.1995824342457</v>
+        <v>4.26148790259378</v>
       </c>
       <c r="D63" t="n">
-        <v>12.8805060612767</v>
+        <v>5.48663125271164</v>
       </c>
       <c r="E63" t="n">
-        <v>14.525131276966</v>
+        <v>6.02545657590354</v>
       </c>
       <c r="F63" t="n">
-        <v>14.2977632215825</v>
+        <v>7.71340093332204</v>
       </c>
       <c r="G63" t="n">
-        <v>15.5410921707239</v>
+        <v>9.58603972854558</v>
       </c>
       <c r="H63" t="n">
-        <v>16.0351103993703</v>
+        <v>10.1888491255637</v>
       </c>
       <c r="I63" t="n">
-        <v>16.5980064939646</v>
+        <v>11.0654601460674</v>
       </c>
       <c r="J63" t="n">
-        <v>20.7001514350479</v>
+        <v>11.9804267509602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.26881412747046</v>
+        <v>3.80149107109882</v>
       </c>
       <c r="B64" t="n">
-        <v>10.284385002222</v>
+        <v>4.55051300560853</v>
       </c>
       <c r="C64" t="n">
-        <v>12.7399640237369</v>
+        <v>5.97868876955594</v>
       </c>
       <c r="D64" t="n">
-        <v>12.4000681176811</v>
+        <v>6.27545571848872</v>
       </c>
       <c r="E64" t="n">
-        <v>13.584002983538</v>
+        <v>7.25918958755335</v>
       </c>
       <c r="F64" t="n">
-        <v>12.9597387815623</v>
+        <v>8.22469812532707</v>
       </c>
       <c r="G64" t="n">
-        <v>15.2952112639956</v>
+        <v>8.92769152545168</v>
       </c>
       <c r="H64" t="n">
-        <v>16.7479103115703</v>
+        <v>10.3985975497178</v>
       </c>
       <c r="I64" t="n">
-        <v>19.1757474545886</v>
+        <v>12.1367424391329</v>
       </c>
       <c r="J64" t="n">
-        <v>19.7274349152926</v>
+        <v>11.4586091989373</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11.0796400603976</v>
+        <v>1.81438956444804</v>
       </c>
       <c r="B65" t="n">
-        <v>10.3171229012755</v>
+        <v>1.45448976417734</v>
       </c>
       <c r="C65" t="n">
-        <v>12.9438450567402</v>
+        <v>0.882269647785832</v>
       </c>
       <c r="D65" t="n">
-        <v>12.0877369300293</v>
+        <v>0.574902456733903</v>
       </c>
       <c r="E65" t="n">
-        <v>13.3774596043299</v>
+        <v>0.095157245822496</v>
       </c>
       <c r="F65" t="n">
-        <v>14.383464986583</v>
+        <v>-0.546053563806301</v>
       </c>
       <c r="G65" t="n">
-        <v>16.7473951817517</v>
+        <v>-1.18447043785667</v>
       </c>
       <c r="H65" t="n">
-        <v>17.1797333275824</v>
+        <v>-1.73642384173856</v>
       </c>
       <c r="I65" t="n">
-        <v>17.6119900377761</v>
+        <v>-2.12521535154637</v>
       </c>
       <c r="J65" t="n">
-        <v>18.4276611877152</v>
+        <v>-2.61058515002423</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11.1587775829833</v>
+        <v>3.99593436102105</v>
       </c>
       <c r="B66" t="n">
-        <v>12.0360023640432</v>
+        <v>4.7874046452898</v>
       </c>
       <c r="C66" t="n">
-        <v>10.6623687802703</v>
+        <v>5.9350172551086</v>
       </c>
       <c r="D66" t="n">
-        <v>14.1929523691448</v>
+        <v>6.14869997335619</v>
       </c>
       <c r="E66" t="n">
-        <v>14.9627792044748</v>
+        <v>6.1973005551422</v>
       </c>
       <c r="F66" t="n">
-        <v>16.5324254866127</v>
+        <v>7.72121532898836</v>
       </c>
       <c r="G66" t="n">
-        <v>15.4618436875995</v>
+        <v>8.63902412066725</v>
       </c>
       <c r="H66" t="n">
-        <v>17.443562551061</v>
+        <v>9.74757423374671</v>
       </c>
       <c r="I66" t="n">
-        <v>18.0972649183497</v>
+        <v>12.1896440583771</v>
       </c>
       <c r="J66" t="n">
-        <v>18.233404656092</v>
+        <v>11.8696717821658</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.75945305355056</v>
+        <v>1.88007063192491</v>
       </c>
       <c r="B67" t="n">
-        <v>9.26038004192696</v>
+        <v>1.89826144528789</v>
       </c>
       <c r="C67" t="n">
-        <v>8.91816791516066</v>
+        <v>0.938689978506977</v>
       </c>
       <c r="D67" t="n">
-        <v>8.28604867023006</v>
+        <v>0.658096852224199</v>
       </c>
       <c r="E67" t="n">
-        <v>7.74928095962071</v>
+        <v>0.371728553946318</v>
       </c>
       <c r="F67" t="n">
-        <v>7.24104251795907</v>
+        <v>-0.938735310943935</v>
       </c>
       <c r="G67" t="n">
-        <v>7.74429879620691</v>
+        <v>-0.915465466935622</v>
       </c>
       <c r="H67" t="n">
-        <v>6.37053532987234</v>
+        <v>-1.39224098650431</v>
       </c>
       <c r="I67" t="n">
-        <v>6.2771941421464</v>
+        <v>-1.95078909763892</v>
       </c>
       <c r="J67" t="n">
-        <v>5.81209962745816</v>
+        <v>-2.25550566116605</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9.69926239547805</v>
+        <v>1.81420727685943</v>
       </c>
       <c r="B68" t="n">
-        <v>11.8013556761106</v>
+        <v>1.31976286211016</v>
       </c>
       <c r="C68" t="n">
-        <v>11.803814670681</v>
+        <v>1.25193856307529</v>
       </c>
       <c r="D68" t="n">
-        <v>12.926801302127</v>
+        <v>0.609672513380094</v>
       </c>
       <c r="E68" t="n">
-        <v>13.7094812348392</v>
+        <v>0.200586732737031</v>
       </c>
       <c r="F68" t="n">
-        <v>15.258369276336</v>
+        <v>-0.50497842651078</v>
       </c>
       <c r="G68" t="n">
-        <v>16.0272912124288</v>
+        <v>-0.838959004289134</v>
       </c>
       <c r="H68" t="n">
-        <v>16.2839431425398</v>
+        <v>-1.49186853503012</v>
       </c>
       <c r="I68" t="n">
-        <v>18.4735858517659</v>
+        <v>-2.00840118699045</v>
       </c>
       <c r="J68" t="n">
-        <v>19.2454675965257</v>
+        <v>-2.51640871544763</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9.59229266066502</v>
+        <v>2.19474258728247</v>
       </c>
       <c r="B69" t="n">
-        <v>11.9587293906966</v>
+        <v>3.16130374440796</v>
       </c>
       <c r="C69" t="n">
-        <v>11.7247374044862</v>
+        <v>5.42103630456288</v>
       </c>
       <c r="D69" t="n">
-        <v>13.2777375668992</v>
+        <v>6.54821542709167</v>
       </c>
       <c r="E69" t="n">
-        <v>14.4875419376128</v>
+        <v>8.44678322582799</v>
       </c>
       <c r="F69" t="n">
-        <v>14.4366813078842</v>
+        <v>8.69401872406341</v>
       </c>
       <c r="G69" t="n">
-        <v>17.4811968438198</v>
+        <v>7.24172688339009</v>
       </c>
       <c r="H69" t="n">
-        <v>17.7995113306924</v>
+        <v>9.3860754966665</v>
       </c>
       <c r="I69" t="n">
-        <v>18.5878199542819</v>
+        <v>10.9784224368657</v>
       </c>
       <c r="J69" t="n">
-        <v>19.0145315922371</v>
+        <v>12.6319082909494</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9.24206071291849</v>
+        <v>1.97724749323834</v>
       </c>
       <c r="B70" t="n">
-        <v>10.9813183223795</v>
+        <v>1.81320098446132</v>
       </c>
       <c r="C70" t="n">
-        <v>11.4875769656475</v>
+        <v>0.968513012674173</v>
       </c>
       <c r="D70" t="n">
-        <v>13.7101691834152</v>
+        <v>0.306310336128407</v>
       </c>
       <c r="E70" t="n">
-        <v>12.681503755782</v>
+        <v>0.358463246712037</v>
       </c>
       <c r="F70" t="n">
-        <v>14.6474328575052</v>
+        <v>-0.306602131755369</v>
       </c>
       <c r="G70" t="n">
-        <v>17.1680336344455</v>
+        <v>-0.962999094661484</v>
       </c>
       <c r="H70" t="n">
-        <v>17.3874630640547</v>
+        <v>-1.27200399085823</v>
       </c>
       <c r="I70" t="n">
-        <v>19.5184909177917</v>
+        <v>-2.25139106917693</v>
       </c>
       <c r="J70" t="n">
-        <v>19.9772005748261</v>
+        <v>-2.48978157911352</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10.2475813800684</v>
+        <v>3.21811975723458</v>
       </c>
       <c r="B71" t="n">
-        <v>9.73171912384359</v>
+        <v>3.57111594881271</v>
       </c>
       <c r="C71" t="n">
-        <v>9.21977554215777</v>
+        <v>5.13221415603082</v>
       </c>
       <c r="D71" t="n">
-        <v>8.34980471797159</v>
+        <v>5.64122520287907</v>
       </c>
       <c r="E71" t="n">
-        <v>8.15131487886964</v>
+        <v>7.57359366519667</v>
       </c>
       <c r="F71" t="n">
-        <v>7.25839431213801</v>
+        <v>6.74834646733687</v>
       </c>
       <c r="G71" t="n">
-        <v>6.80198581924205</v>
+        <v>9.80273267291228</v>
       </c>
       <c r="H71" t="n">
-        <v>6.66344469516166</v>
+        <v>8.90774897573774</v>
       </c>
       <c r="I71" t="n">
-        <v>5.65336118398013</v>
+        <v>9.73213940178681</v>
       </c>
       <c r="J71" t="n">
-        <v>5.26185171953777</v>
+        <v>13.0602497393</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9.83171821271308</v>
+        <v>3.18898158097702</v>
       </c>
       <c r="B72" t="n">
-        <v>12.0127885303655</v>
+        <v>2.97987704013086</v>
       </c>
       <c r="C72" t="n">
-        <v>11.6759106232028</v>
+        <v>5.62332765692017</v>
       </c>
       <c r="D72" t="n">
-        <v>11.6067422694086</v>
+        <v>6.04463607501928</v>
       </c>
       <c r="E72" t="n">
-        <v>15.1267457036784</v>
+        <v>6.87217544246689</v>
       </c>
       <c r="F72" t="n">
-        <v>14.7543970684934</v>
+        <v>8.16396896119794</v>
       </c>
       <c r="G72" t="n">
-        <v>15.7724217145822</v>
+        <v>8.87681604052506</v>
       </c>
       <c r="H72" t="n">
-        <v>17.7563998004248</v>
+        <v>8.78227532482636</v>
       </c>
       <c r="I72" t="n">
-        <v>18.693545315425</v>
+        <v>10.9496677270042</v>
       </c>
       <c r="J72" t="n">
-        <v>18.6700360580563</v>
+        <v>12.8772635228955</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9.00931020237129</v>
+        <v>2.39996960883578</v>
       </c>
       <c r="B73" t="n">
-        <v>10.448933910671</v>
+        <v>4.2547702858956</v>
       </c>
       <c r="C73" t="n">
-        <v>12.7553257359645</v>
+        <v>5.08031324708049</v>
       </c>
       <c r="D73" t="n">
-        <v>12.14619786409</v>
+        <v>5.58165380356596</v>
       </c>
       <c r="E73" t="n">
-        <v>13.6287457108252</v>
+        <v>5.6584933743047</v>
       </c>
       <c r="F73" t="n">
-        <v>13.5096060524581</v>
+        <v>6.98842116483502</v>
       </c>
       <c r="G73" t="n">
-        <v>14.3830857140253</v>
+        <v>7.82822737051426</v>
       </c>
       <c r="H73" t="n">
-        <v>16.7857088735919</v>
+        <v>8.82124993886552</v>
       </c>
       <c r="I73" t="n">
-        <v>18.5853224516144</v>
+        <v>10.4794449597557</v>
       </c>
       <c r="J73" t="n">
-        <v>18.5964713790402</v>
+        <v>11.5218071191297</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10.1182592363367</v>
+        <v>1.56950591514384</v>
       </c>
       <c r="B74" t="n">
-        <v>9.61912592586789</v>
+        <v>1.68722794535306</v>
       </c>
       <c r="C74" t="n">
-        <v>8.6704226788889</v>
+        <v>1.05067213055307</v>
       </c>
       <c r="D74" t="n">
-        <v>8.64772891935162</v>
+        <v>0.481359477566711</v>
       </c>
       <c r="E74" t="n">
-        <v>8.07450290625292</v>
+        <v>-0.359347590100322</v>
       </c>
       <c r="F74" t="n">
-        <v>7.65176762642739</v>
+        <v>-0.239011939359056</v>
       </c>
       <c r="G74" t="n">
-        <v>7.14142339445985</v>
+        <v>-1.5022584404363</v>
       </c>
       <c r="H74" t="n">
-        <v>6.59575833707548</v>
+        <v>-0.874117257623709</v>
       </c>
       <c r="I74" t="n">
-        <v>6.18793149823128</v>
+        <v>-1.92560032865221</v>
       </c>
       <c r="J74" t="n">
-        <v>5.79602842599882</v>
+        <v>-2.95436013393693</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10.5102009970083</v>
+        <v>2.22789629867696</v>
       </c>
       <c r="B75" t="n">
-        <v>11.7094965224073</v>
+        <v>1.38669416225205</v>
       </c>
       <c r="C75" t="n">
-        <v>12.4245240782073</v>
+        <v>1.18697400515659</v>
       </c>
       <c r="D75" t="n">
-        <v>13.8801136040163</v>
+        <v>0.386672336432402</v>
       </c>
       <c r="E75" t="n">
-        <v>12.9604678768632</v>
+        <v>0.416389912484527</v>
       </c>
       <c r="F75" t="n">
-        <v>15.4269537875317</v>
+        <v>-0.685027440849233</v>
       </c>
       <c r="G75" t="n">
-        <v>15.60077656571</v>
+        <v>-0.830037258862155</v>
       </c>
       <c r="H75" t="n">
-        <v>16.956538949019</v>
+        <v>-1.07026357657585</v>
       </c>
       <c r="I75" t="n">
-        <v>18.8138633622036</v>
+        <v>-2.03173272997339</v>
       </c>
       <c r="J75" t="n">
-        <v>18.9169545337104</v>
+        <v>-2.37692070111543</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>11.0439915053426</v>
+        <v>2.97397660768584</v>
       </c>
       <c r="B76" t="n">
-        <v>11.2301611960731</v>
+        <v>3.94372097186142</v>
       </c>
       <c r="C76" t="n">
-        <v>12.5007154763482</v>
+        <v>6.53283839938204</v>
       </c>
       <c r="D76" t="n">
-        <v>13.4126416893269</v>
+        <v>6.43253303861914</v>
       </c>
       <c r="E76" t="n">
-        <v>14.420585845803</v>
+        <v>6.84838906463491</v>
       </c>
       <c r="F76" t="n">
-        <v>15.3415364037124</v>
+        <v>8.69071971770041</v>
       </c>
       <c r="G76" t="n">
-        <v>16.6992707096175</v>
+        <v>8.4434132171114</v>
       </c>
       <c r="H76" t="n">
-        <v>16.5045301550322</v>
+        <v>9.2529136925179</v>
       </c>
       <c r="I76" t="n">
-        <v>18.4261477023453</v>
+        <v>11.9914241447785</v>
       </c>
       <c r="J76" t="n">
-        <v>19.1894114944778</v>
+        <v>11.2899352153941</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>9.38921736787298</v>
+        <v>2.13430520623933</v>
       </c>
       <c r="B77" t="n">
-        <v>9.93816010574172</v>
+        <v>1.61637566985217</v>
       </c>
       <c r="C77" t="n">
-        <v>11.0440664339376</v>
+        <v>1.10456880956941</v>
       </c>
       <c r="D77" t="n">
-        <v>12.0805866101663</v>
+        <v>0.736745506480263</v>
       </c>
       <c r="E77" t="n">
-        <v>14.562915315437</v>
+        <v>-0.0555650751859112</v>
       </c>
       <c r="F77" t="n">
-        <v>15.4446417048795</v>
+        <v>-0.304574469840651</v>
       </c>
       <c r="G77" t="n">
-        <v>15.2563497088449</v>
+        <v>-0.889569530001941</v>
       </c>
       <c r="H77" t="n">
-        <v>16.4929317246677</v>
+        <v>-1.40447631442928</v>
       </c>
       <c r="I77" t="n">
-        <v>17.4899573742312</v>
+        <v>-2.0722648882176</v>
       </c>
       <c r="J77" t="n">
-        <v>20.4296249119423</v>
+        <v>-3.06160971036746</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10.0116821317191</v>
+        <v>3.76934693193182</v>
       </c>
       <c r="B78" t="n">
-        <v>10.738269948924</v>
+        <v>3.67267235689758</v>
       </c>
       <c r="C78" t="n">
-        <v>11.4177928634839</v>
+        <v>4.76295973305813</v>
       </c>
       <c r="D78" t="n">
-        <v>12.1448054497154</v>
+        <v>6.25725049601032</v>
       </c>
       <c r="E78" t="n">
-        <v>14.8379537368107</v>
+        <v>6.16514979001345</v>
       </c>
       <c r="F78" t="n">
-        <v>15.6132048781373</v>
+        <v>8.39328489245956</v>
       </c>
       <c r="G78" t="n">
-        <v>15.9024043416658</v>
+        <v>8.34454973510687</v>
       </c>
       <c r="H78" t="n">
-        <v>17.5492037074523</v>
+        <v>10.5453763835624</v>
       </c>
       <c r="I78" t="n">
-        <v>16.6179870303403</v>
+        <v>12.1483563162074</v>
       </c>
       <c r="J78" t="n">
-        <v>18.6282899642245</v>
+        <v>11.3917126654227</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>11.4475920664705</v>
+        <v>2.86214059477137</v>
       </c>
       <c r="B79" t="n">
-        <v>10.4398084107395</v>
+        <v>3.70473308881215</v>
       </c>
       <c r="C79" t="n">
-        <v>11.4922967535454</v>
+        <v>5.69244151429948</v>
       </c>
       <c r="D79" t="n">
-        <v>12.6670556672558</v>
+        <v>6.65514146531843</v>
       </c>
       <c r="E79" t="n">
-        <v>13.6303482610842</v>
+        <v>5.50366033243515</v>
       </c>
       <c r="F79" t="n">
-        <v>15.1208729947868</v>
+        <v>7.46688199349577</v>
       </c>
       <c r="G79" t="n">
-        <v>13.9924455859811</v>
+        <v>9.59796759873088</v>
       </c>
       <c r="H79" t="n">
-        <v>16.7140325641749</v>
+        <v>10.9172243723743</v>
       </c>
       <c r="I79" t="n">
-        <v>19.1564302463993</v>
+        <v>11.2621566438171</v>
       </c>
       <c r="J79" t="n">
-        <v>19.3113910450704</v>
+        <v>12.4277847476708</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.0729441883664</v>
+        <v>2.19477921204358</v>
       </c>
       <c r="B80" t="n">
-        <v>9.36297344317213</v>
+        <v>1.40985319741668</v>
       </c>
       <c r="C80" t="n">
-        <v>9.34349314116881</v>
+        <v>1.30626499544693</v>
       </c>
       <c r="D80" t="n">
-        <v>8.6375152630106</v>
+        <v>0.832457338041286</v>
       </c>
       <c r="E80" t="n">
-        <v>7.92509355047596</v>
+        <v>-0.25965024928323</v>
       </c>
       <c r="F80" t="n">
-        <v>7.72277962472974</v>
+        <v>-0.208658635977489</v>
       </c>
       <c r="G80" t="n">
-        <v>7.41764241732257</v>
+        <v>-1.56149603230056</v>
       </c>
       <c r="H80" t="n">
-        <v>6.59864190212975</v>
+        <v>-1.5934740163747</v>
       </c>
       <c r="I80" t="n">
-        <v>6.09667632537882</v>
+        <v>-2.70496298310033</v>
       </c>
       <c r="J80" t="n">
-        <v>5.11881420960778</v>
+        <v>-1.81616754403156</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.25561069036206</v>
+        <v>2.05589560675245</v>
       </c>
       <c r="B81" t="n">
-        <v>11.5360023719941</v>
+        <v>3.50201910293874</v>
       </c>
       <c r="C81" t="n">
-        <v>10.8920639401341</v>
+        <v>5.55812840737251</v>
       </c>
       <c r="D81" t="n">
-        <v>12.7784554670374</v>
+        <v>6.97577228439132</v>
       </c>
       <c r="E81" t="n">
-        <v>12.5310322974384</v>
+        <v>6.91100703888159</v>
       </c>
       <c r="F81" t="n">
-        <v>16.1132322378772</v>
+        <v>8.53313517022123</v>
       </c>
       <c r="G81" t="n">
-        <v>15.7663585247905</v>
+        <v>9.459551962772</v>
       </c>
       <c r="H81" t="n">
-        <v>17.4157939833113</v>
+        <v>9.54094290974382</v>
       </c>
       <c r="I81" t="n">
-        <v>17.6129017073013</v>
+        <v>11.8488181701605</v>
       </c>
       <c r="J81" t="n">
-        <v>20.1031125342929</v>
+        <v>12.5496303429346</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.1021049266131</v>
+        <v>1.7886642742398</v>
       </c>
       <c r="B82" t="n">
-        <v>11.3376103124754</v>
+        <v>1.48687162192387</v>
       </c>
       <c r="C82" t="n">
-        <v>12.109756917994</v>
+        <v>1.17718479249337</v>
       </c>
       <c r="D82" t="n">
-        <v>14.1047081544834</v>
+        <v>0.481208428308264</v>
       </c>
       <c r="E82" t="n">
-        <v>12.4496381483264</v>
+        <v>0.234058157535849</v>
       </c>
       <c r="F82" t="n">
-        <v>13.3810253500006</v>
+        <v>-0.188976728334738</v>
       </c>
       <c r="G82" t="n">
-        <v>16.0484715535302</v>
+        <v>-1.03434987339574</v>
       </c>
       <c r="H82" t="n">
-        <v>16.9709675626749</v>
+        <v>-1.94710299138133</v>
       </c>
       <c r="I82" t="n">
-        <v>18.9538643133043</v>
+        <v>-1.8818559070087</v>
       </c>
       <c r="J82" t="n">
-        <v>18.8986873686139</v>
+        <v>-2.16014764820408</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>9.27364552144244</v>
+        <v>2.51333982368671</v>
       </c>
       <c r="B83" t="n">
-        <v>12.2355836905635</v>
+        <v>4.72672213719983</v>
       </c>
       <c r="C83" t="n">
-        <v>12.4339810048878</v>
+        <v>4.52757867023587</v>
       </c>
       <c r="D83" t="n">
-        <v>14.1379304061017</v>
+        <v>6.40730933711309</v>
       </c>
       <c r="E83" t="n">
-        <v>15.0361677470809</v>
+        <v>6.32038593721067</v>
       </c>
       <c r="F83" t="n">
-        <v>15.3358468893369</v>
+        <v>8.38021108081978</v>
       </c>
       <c r="G83" t="n">
-        <v>15.6975173075438</v>
+        <v>7.93984715682394</v>
       </c>
       <c r="H83" t="n">
-        <v>17.7850566429266</v>
+        <v>8.83829147417725</v>
       </c>
       <c r="I83" t="n">
-        <v>17.4340032613713</v>
+        <v>10.735176041229</v>
       </c>
       <c r="J83" t="n">
-        <v>19.5860065608813</v>
+        <v>13.1268254384755</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10.1252851061759</v>
+        <v>1.59829293802623</v>
       </c>
       <c r="B84" t="n">
-        <v>9.50106469573668</v>
+        <v>1.55872916240684</v>
       </c>
       <c r="C84" t="n">
-        <v>8.77015761930997</v>
+        <v>0.495524615124015</v>
       </c>
       <c r="D84" t="n">
-        <v>8.2176595937781</v>
+        <v>0.446065944613373</v>
       </c>
       <c r="E84" t="n">
-        <v>8.34816513290317</v>
+        <v>0.165000825609464</v>
       </c>
       <c r="F84" t="n">
-        <v>7.83291942071203</v>
+        <v>-0.0125148318930446</v>
       </c>
       <c r="G84" t="n">
-        <v>7.31641923130768</v>
+        <v>-0.239304638462215</v>
       </c>
       <c r="H84" t="n">
-        <v>6.73315603003348</v>
+        <v>-1.31386161391804</v>
       </c>
       <c r="I84" t="n">
-        <v>5.59339153499947</v>
+        <v>-2.47150029542741</v>
       </c>
       <c r="J84" t="n">
-        <v>5.786294823748</v>
+        <v>-2.42196686310434</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.94371637384278</v>
+        <v>1.78442619550244</v>
       </c>
       <c r="B85" t="n">
-        <v>9.68685121792608</v>
+        <v>1.82097411277758</v>
       </c>
       <c r="C85" t="n">
-        <v>9.17799442590456</v>
+        <v>1.00456625037849</v>
       </c>
       <c r="D85" t="n">
-        <v>8.79958936001626</v>
+        <v>0.306610404708605</v>
       </c>
       <c r="E85" t="n">
-        <v>8.14879967790845</v>
+        <v>-0.122770842040185</v>
       </c>
       <c r="F85" t="n">
-        <v>7.40182833142302</v>
+        <v>-0.543435230337244</v>
       </c>
       <c r="G85" t="n">
-        <v>7.0726032689689</v>
+        <v>-1.24343423348683</v>
       </c>
       <c r="H85" t="n">
-        <v>6.61604829871557</v>
+        <v>-1.36513403156281</v>
       </c>
       <c r="I85" t="n">
-        <v>5.87743947653105</v>
+        <v>-2.17170771390178</v>
       </c>
       <c r="J85" t="n">
-        <v>5.73804237831284</v>
+        <v>-2.36975457785504</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10.3537622875846</v>
+        <v>3.50083310464646</v>
       </c>
       <c r="B86" t="n">
-        <v>9.69638748741018</v>
+        <v>4.49796147311468</v>
       </c>
       <c r="C86" t="n">
-        <v>8.72068757527891</v>
+        <v>7.13529848531975</v>
       </c>
       <c r="D86" t="n">
-        <v>8.57303388121099</v>
+        <v>6.80520887084928</v>
       </c>
       <c r="E86" t="n">
-        <v>8.05976848671351</v>
+        <v>5.50223335080637</v>
       </c>
       <c r="F86" t="n">
-        <v>7.18518029074084</v>
+        <v>8.26226676125594</v>
       </c>
       <c r="G86" t="n">
-        <v>6.69625286410236</v>
+        <v>8.27343375100628</v>
       </c>
       <c r="H86" t="n">
-        <v>6.58033679644039</v>
+        <v>11.8634270097305</v>
       </c>
       <c r="I86" t="n">
-        <v>6.38636452709845</v>
+        <v>10.5589229778362</v>
       </c>
       <c r="J86" t="n">
-        <v>5.53302706505457</v>
+        <v>12.365036000906</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10.0488661939302</v>
+        <v>2.77769045744853</v>
       </c>
       <c r="B87" t="n">
-        <v>9.50344286798456</v>
+        <v>3.4995277429816</v>
       </c>
       <c r="C87" t="n">
-        <v>8.77952208159244</v>
+        <v>4.72529619643079</v>
       </c>
       <c r="D87" t="n">
-        <v>8.60912076721217</v>
+        <v>6.20699226555824</v>
       </c>
       <c r="E87" t="n">
-        <v>7.9428156084281</v>
+        <v>5.7120033211146</v>
       </c>
       <c r="F87" t="n">
-        <v>7.36702469087614</v>
+        <v>8.16467523719218</v>
       </c>
       <c r="G87" t="n">
-        <v>6.46130898831209</v>
+        <v>8.52002358543468</v>
       </c>
       <c r="H87" t="n">
-        <v>6.77486286052535</v>
+        <v>9.67880177320269</v>
       </c>
       <c r="I87" t="n">
-        <v>5.9011257219017</v>
+        <v>12.8033070112197</v>
       </c>
       <c r="J87" t="n">
-        <v>5.81924741814746</v>
+        <v>11.8599928639044</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10.2719924223064</v>
+        <v>3.43260194879115</v>
       </c>
       <c r="B88" t="n">
-        <v>9.33689764373151</v>
+        <v>3.78772769944285</v>
       </c>
       <c r="C88" t="n">
-        <v>8.70207668901883</v>
+        <v>5.51460365670479</v>
       </c>
       <c r="D88" t="n">
-        <v>8.64403199922802</v>
+        <v>5.86860397832434</v>
       </c>
       <c r="E88" t="n">
-        <v>8.12668367514317</v>
+        <v>6.76746886987086</v>
       </c>
       <c r="F88" t="n">
-        <v>7.49880773929854</v>
+        <v>8.51443945637431</v>
       </c>
       <c r="G88" t="n">
-        <v>7.45506132710081</v>
+        <v>8.83004916327102</v>
       </c>
       <c r="H88" t="n">
-        <v>6.58564577790775</v>
+        <v>9.65510514533953</v>
       </c>
       <c r="I88" t="n">
-        <v>6.2024482804395</v>
+        <v>11.7034619306752</v>
       </c>
       <c r="J88" t="n">
-        <v>5.18632728367034</v>
+        <v>10.4861730984711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>9.53966637209873</v>
+        <v>2.66968810496493</v>
       </c>
       <c r="B89" t="n">
-        <v>11.403626927404</v>
+        <v>4.01663768844274</v>
       </c>
       <c r="C89" t="n">
-        <v>11.3505999126013</v>
+        <v>4.89211112566594</v>
       </c>
       <c r="D89" t="n">
-        <v>12.8918204936387</v>
+        <v>6.44889167918075</v>
       </c>
       <c r="E89" t="n">
-        <v>15.0639059147902</v>
+        <v>6.40132796107673</v>
       </c>
       <c r="F89" t="n">
-        <v>13.7036345830381</v>
+        <v>8.45781921836667</v>
       </c>
       <c r="G89" t="n">
-        <v>14.7449459104885</v>
+        <v>9.26081730583284</v>
       </c>
       <c r="H89" t="n">
-        <v>16.1737976014336</v>
+        <v>8.792428670779</v>
       </c>
       <c r="I89" t="n">
-        <v>17.0250672202916</v>
+        <v>11.2502712327144</v>
       </c>
       <c r="J89" t="n">
-        <v>18.1216319811887</v>
+        <v>9.98291495436696</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.64580518172299</v>
+        <v>1.92858097674349</v>
       </c>
       <c r="B90" t="n">
-        <v>10.5215026511899</v>
+        <v>1.23937502238593</v>
       </c>
       <c r="C90" t="n">
-        <v>12.04784792558</v>
+        <v>0.839122605582983</v>
       </c>
       <c r="D90" t="n">
-        <v>13.1505865611845</v>
+        <v>0.509083474769814</v>
       </c>
       <c r="E90" t="n">
-        <v>13.0789509918494</v>
+        <v>0.129772360094464</v>
       </c>
       <c r="F90" t="n">
-        <v>15.3920640874005</v>
+        <v>-0.409042982704755</v>
       </c>
       <c r="G90" t="n">
-        <v>16.9767091252545</v>
+        <v>-0.837739567441525</v>
       </c>
       <c r="H90" t="n">
-        <v>16.6699674762132</v>
+        <v>-1.80943301850439</v>
       </c>
       <c r="I90" t="n">
-        <v>17.8265397075073</v>
+        <v>-2.22797160107834</v>
       </c>
       <c r="J90" t="n">
-        <v>18.6092297736116</v>
+        <v>-2.75566265874509</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9.29882592259253</v>
+        <v>2.51987545831249</v>
       </c>
       <c r="B91" t="n">
-        <v>11.0804644817756</v>
+        <v>4.26252163297838</v>
       </c>
       <c r="C91" t="n">
-        <v>11.8997021121917</v>
+        <v>5.26252255352538</v>
       </c>
       <c r="D91" t="n">
-        <v>12.8334133147941</v>
+        <v>6.98216371892599</v>
       </c>
       <c r="E91" t="n">
-        <v>13.572326839548</v>
+        <v>6.71668402704091</v>
       </c>
       <c r="F91" t="n">
-        <v>15.482482832899</v>
+        <v>6.92880237841107</v>
       </c>
       <c r="G91" t="n">
-        <v>14.6460238658005</v>
+        <v>7.67053233715854</v>
       </c>
       <c r="H91" t="n">
-        <v>16.2446090325672</v>
+        <v>10.57718672237</v>
       </c>
       <c r="I91" t="n">
-        <v>18.6094116475433</v>
+        <v>12.2876214763807</v>
       </c>
       <c r="J91" t="n">
-        <v>19.2682498960224</v>
+        <v>12.7298388116985</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.52160298144876</v>
+        <v>2.09455744227285</v>
       </c>
       <c r="B92" t="n">
-        <v>11.7425399364822</v>
+        <v>0.824505966904102</v>
       </c>
       <c r="C92" t="n">
-        <v>11.7579192183485</v>
+        <v>0.952700311941961</v>
       </c>
       <c r="D92" t="n">
-        <v>12.7776825696782</v>
+        <v>0.550008343976678</v>
       </c>
       <c r="E92" t="n">
-        <v>13.7650433122614</v>
+        <v>-0.0770568048156501</v>
       </c>
       <c r="F92" t="n">
-        <v>15.2354799190163</v>
+        <v>-0.638709054266213</v>
       </c>
       <c r="G92" t="n">
-        <v>14.943421781216</v>
+        <v>-1.25976679147858</v>
       </c>
       <c r="H92" t="n">
-        <v>16.4474976875748</v>
+        <v>-1.31920237501126</v>
       </c>
       <c r="I92" t="n">
-        <v>17.6990969139371</v>
+        <v>-1.68839671744572</v>
       </c>
       <c r="J92" t="n">
-        <v>18.0551510289652</v>
+        <v>-2.46535592006315</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.89195525644838</v>
+        <v>2.20153754981449</v>
       </c>
       <c r="B93" t="n">
-        <v>9.44822591257175</v>
+        <v>1.4399498298991</v>
       </c>
       <c r="C93" t="n">
-        <v>8.86204145561222</v>
+        <v>1.55878754558961</v>
       </c>
       <c r="D93" t="n">
-        <v>8.47885906914026</v>
+        <v>0.65827614876514</v>
       </c>
       <c r="E93" t="n">
-        <v>7.97024923282707</v>
+        <v>0.0764700106435278</v>
       </c>
       <c r="F93" t="n">
-        <v>7.53208235208482</v>
+        <v>-0.672041663281846</v>
       </c>
       <c r="G93" t="n">
-        <v>6.73770012752682</v>
+        <v>-0.665282205008715</v>
       </c>
       <c r="H93" t="n">
-        <v>6.55156060482708</v>
+        <v>-1.49672118485606</v>
       </c>
       <c r="I93" t="n">
-        <v>5.63931718346606</v>
+        <v>-1.51221396832976</v>
       </c>
       <c r="J93" t="n">
-        <v>5.7750864750364</v>
+        <v>-2.47118701969304</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11.0353068032385</v>
+        <v>4.29669158698965</v>
       </c>
       <c r="B94" t="n">
-        <v>10.3109634338635</v>
+        <v>2.86783663171155</v>
       </c>
       <c r="C94" t="n">
-        <v>12.0479487057619</v>
+        <v>4.71081109832998</v>
       </c>
       <c r="D94" t="n">
-        <v>14.1127098896072</v>
+        <v>4.85066809394341</v>
       </c>
       <c r="E94" t="n">
-        <v>12.8757746547361</v>
+        <v>6.90518063869919</v>
       </c>
       <c r="F94" t="n">
-        <v>15.2884288254449</v>
+        <v>7.67798187188714</v>
       </c>
       <c r="G94" t="n">
-        <v>15.8857766927555</v>
+        <v>8.16628661803891</v>
       </c>
       <c r="H94" t="n">
-        <v>15.7550421848087</v>
+        <v>9.65912243382253</v>
       </c>
       <c r="I94" t="n">
-        <v>18.7374649877233</v>
+        <v>11.0734868208685</v>
       </c>
       <c r="J94" t="n">
-        <v>19.1678578789651</v>
+        <v>13.1396312232873</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10.384986788288</v>
+        <v>2.66513873272245</v>
       </c>
       <c r="B95" t="n">
-        <v>9.13420778701139</v>
+        <v>4.19234444990569</v>
       </c>
       <c r="C95" t="n">
-        <v>8.8877648418576</v>
+        <v>4.21788701852649</v>
       </c>
       <c r="D95" t="n">
-        <v>8.3021580045605</v>
+        <v>5.6827399663694</v>
       </c>
       <c r="E95" t="n">
-        <v>8.22892603139333</v>
+        <v>8.46137460185216</v>
       </c>
       <c r="F95" t="n">
-        <v>7.72071980334739</v>
+        <v>7.54461837635385</v>
       </c>
       <c r="G95" t="n">
-        <v>7.00574603631258</v>
+        <v>9.00379510237677</v>
       </c>
       <c r="H95" t="n">
-        <v>6.75573579402278</v>
+        <v>10.8451179237463</v>
       </c>
       <c r="I95" t="n">
-        <v>5.99464507909517</v>
+        <v>10.7690900093149</v>
       </c>
       <c r="J95" t="n">
-        <v>5.35698712220244</v>
+        <v>13.5781011664812</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9.28838524428957</v>
+        <v>2.26181817665432</v>
       </c>
       <c r="B96" t="n">
-        <v>10.5619173965108</v>
+        <v>3.9155865392527</v>
       </c>
       <c r="C96" t="n">
-        <v>12.7049585077664</v>
+        <v>4.72321582178746</v>
       </c>
       <c r="D96" t="n">
-        <v>12.9660318468071</v>
+        <v>6.63329460641754</v>
       </c>
       <c r="E96" t="n">
-        <v>14.6586137439873</v>
+        <v>5.73568209180571</v>
       </c>
       <c r="F96" t="n">
-        <v>15.0844916398195</v>
+        <v>6.68678086844398</v>
       </c>
       <c r="G96" t="n">
-        <v>16.8685777766202</v>
+        <v>8.60654107763976</v>
       </c>
       <c r="H96" t="n">
-        <v>16.3005373281078</v>
+        <v>10.2359014685132</v>
       </c>
       <c r="I96" t="n">
-        <v>16.6962204660588</v>
+        <v>11.329107648175</v>
       </c>
       <c r="J96" t="n">
-        <v>18.973043920215</v>
+        <v>11.51545211853</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10.3870224260751</v>
+        <v>2.39444335485939</v>
       </c>
       <c r="B97" t="n">
-        <v>9.23044672542425</v>
+        <v>1.39441378678179</v>
       </c>
       <c r="C97" t="n">
-        <v>8.82783186522824</v>
+        <v>0.995171603527299</v>
       </c>
       <c r="D97" t="n">
-        <v>8.36871519987476</v>
+        <v>0.491266166622788</v>
       </c>
       <c r="E97" t="n">
-        <v>8.36699263256275</v>
+        <v>0.027130308748152</v>
       </c>
       <c r="F97" t="n">
-        <v>7.64331992570724</v>
+        <v>-0.563013713351263</v>
       </c>
       <c r="G97" t="n">
-        <v>6.5826335494902</v>
+        <v>-1.07877049228273</v>
       </c>
       <c r="H97" t="n">
-        <v>6.74471442114446</v>
+        <v>-2.15425820216502</v>
       </c>
       <c r="I97" t="n">
-        <v>6.12931802091609</v>
+        <v>-1.40353573928713</v>
       </c>
       <c r="J97" t="n">
-        <v>5.95886103905459</v>
+        <v>-2.89469741932748</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10.4035943104203</v>
+        <v>3.13676106606316</v>
       </c>
       <c r="B98" t="n">
-        <v>10.0660693747844</v>
+        <v>4.54858283472033</v>
       </c>
       <c r="C98" t="n">
-        <v>12.0010148422418</v>
+        <v>4.62895826862262</v>
       </c>
       <c r="D98" t="n">
-        <v>14.0476258014388</v>
+        <v>5.89924721464484</v>
       </c>
       <c r="E98" t="n">
-        <v>14.2010489425732</v>
+        <v>7.14598224652342</v>
       </c>
       <c r="F98" t="n">
-        <v>14.8579301473817</v>
+        <v>8.00270994393935</v>
       </c>
       <c r="G98" t="n">
-        <v>15.2486562005196</v>
+        <v>8.59100570313942</v>
       </c>
       <c r="H98" t="n">
-        <v>15.6823510984718</v>
+        <v>10.0441381559021</v>
       </c>
       <c r="I98" t="n">
-        <v>16.8334771697072</v>
+        <v>12.1282121191635</v>
       </c>
       <c r="J98" t="n">
-        <v>18.9921629760653</v>
+        <v>11.800779474685</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.91898335963242</v>
+        <v>3.11781054696094</v>
       </c>
       <c r="B99" t="n">
-        <v>11.5801399528674</v>
+        <v>3.24970503477621</v>
       </c>
       <c r="C99" t="n">
-        <v>10.9436162552647</v>
+        <v>5.48048059725873</v>
       </c>
       <c r="D99" t="n">
-        <v>14.136124080087</v>
+        <v>4.95721991898794</v>
       </c>
       <c r="E99" t="n">
-        <v>12.6771832949762</v>
+        <v>8.3377029011081</v>
       </c>
       <c r="F99" t="n">
-        <v>15.2866773946994</v>
+        <v>8.11163387008146</v>
       </c>
       <c r="G99" t="n">
-        <v>14.6815993307675</v>
+        <v>8.92649082171826</v>
       </c>
       <c r="H99" t="n">
-        <v>16.3166079998654</v>
+        <v>10.7404666801796</v>
       </c>
       <c r="I99" t="n">
-        <v>18.523047133888</v>
+        <v>10.5142902674145</v>
       </c>
       <c r="J99" t="n">
-        <v>19.2297637856273</v>
+        <v>11.1841253254608</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.3562261239813</v>
+        <v>2.21622597064017</v>
       </c>
       <c r="B100" t="n">
-        <v>10.7706049023819</v>
+        <v>3.50358697819156</v>
       </c>
       <c r="C100" t="n">
-        <v>10.2498540448061</v>
+        <v>3.86168152389077</v>
       </c>
       <c r="D100" t="n">
-        <v>11.580452400137</v>
+        <v>6.05799493799291</v>
       </c>
       <c r="E100" t="n">
-        <v>14.4886251454668</v>
+        <v>6.09927555957154</v>
       </c>
       <c r="F100" t="n">
-        <v>15.5151337101753</v>
+        <v>8.84677317979111</v>
       </c>
       <c r="G100" t="n">
-        <v>17.0074574502721</v>
+        <v>9.09803244151414</v>
       </c>
       <c r="H100" t="n">
-        <v>17.5979503060985</v>
+        <v>9.4268694438811</v>
       </c>
       <c r="I100" t="n">
-        <v>16.6248128017148</v>
+        <v>13.2399475857198</v>
       </c>
       <c r="J100" t="n">
-        <v>18.5365477397906</v>
+        <v>11.0586789416677</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.59499464171514</v>
+        <v>2.87809647420267</v>
       </c>
       <c r="B101" t="n">
-        <v>10.874233530676</v>
+        <v>5.59497389323191</v>
       </c>
       <c r="C101" t="n">
-        <v>11.5041954905699</v>
+        <v>5.08692235616907</v>
       </c>
       <c r="D101" t="n">
-        <v>13.0290392464673</v>
+        <v>7.31968606932579</v>
       </c>
       <c r="E101" t="n">
-        <v>14.0524804937027</v>
+        <v>7.18884539081286</v>
       </c>
       <c r="F101" t="n">
-        <v>14.3290283743529</v>
+        <v>8.23927619531668</v>
       </c>
       <c r="G101" t="n">
-        <v>15.1286336784619</v>
+        <v>7.94769414789285</v>
       </c>
       <c r="H101" t="n">
-        <v>17.6348473228384</v>
+        <v>10.2139422192979</v>
       </c>
       <c r="I101" t="n">
-        <v>18.2209366667015</v>
+        <v>10.5663615632583</v>
       </c>
       <c r="J101" t="n">
-        <v>18.8107438739914</v>
+        <v>12.1881936830751</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10.0177551320933</v>
+        <v>2.43520027873428</v>
       </c>
       <c r="B102" t="n">
-        <v>9.54656989922712</v>
+        <v>3.43076057142164</v>
       </c>
       <c r="C102" t="n">
-        <v>8.66973369105964</v>
+        <v>6.19648243559943</v>
       </c>
       <c r="D102" t="n">
-        <v>8.81953818193015</v>
+        <v>6.02433562563309</v>
       </c>
       <c r="E102" t="n">
-        <v>7.70830506992286</v>
+        <v>6.60439672699958</v>
       </c>
       <c r="F102" t="n">
-        <v>7.58007669898106</v>
+        <v>7.94291728053278</v>
       </c>
       <c r="G102" t="n">
-        <v>6.86487442491953</v>
+        <v>8.87318428506228</v>
       </c>
       <c r="H102" t="n">
-        <v>6.24713248886094</v>
+        <v>8.96325362290659</v>
       </c>
       <c r="I102" t="n">
-        <v>5.46148744118448</v>
+        <v>10.5397772215078</v>
       </c>
       <c r="J102" t="n">
-        <v>5.49193779381861</v>
+        <v>11.4268748924872</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10.0106720756897</v>
+        <v>3.73316841862219</v>
       </c>
       <c r="B103" t="n">
-        <v>11.6007781026624</v>
+        <v>4.36528035820226</v>
       </c>
       <c r="C103" t="n">
-        <v>11.7045776341934</v>
+        <v>4.47613893136083</v>
       </c>
       <c r="D103" t="n">
-        <v>12.9120118310506</v>
+        <v>5.51870159091625</v>
       </c>
       <c r="E103" t="n">
-        <v>15.2482105828764</v>
+        <v>5.88117388539511</v>
       </c>
       <c r="F103" t="n">
-        <v>14.8524885071398</v>
+        <v>8.01536764278201</v>
       </c>
       <c r="G103" t="n">
-        <v>15.911632731237</v>
+        <v>8.58482143146229</v>
       </c>
       <c r="H103" t="n">
-        <v>17.9347154256681</v>
+        <v>10.3529878084908</v>
       </c>
       <c r="I103" t="n">
-        <v>18.5425478274612</v>
+        <v>10.5364712087479</v>
       </c>
       <c r="J103" t="n">
-        <v>18.8828415498716</v>
+        <v>12.7839569341001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.77291092754447</v>
+        <v>3.35173722546214</v>
       </c>
       <c r="B104" t="n">
-        <v>9.35599278666334</v>
+        <v>2.40283550792591</v>
       </c>
       <c r="C104" t="n">
-        <v>8.99397981453474</v>
+        <v>5.32066602555583</v>
       </c>
       <c r="D104" t="n">
-        <v>8.19238319437068</v>
+        <v>6.25102777879643</v>
       </c>
       <c r="E104" t="n">
-        <v>7.96277707677226</v>
+        <v>6.63177246918546</v>
       </c>
       <c r="F104" t="n">
-        <v>7.63224956707434</v>
+        <v>9.3550576002562</v>
       </c>
       <c r="G104" t="n">
-        <v>7.01142915699041</v>
+        <v>9.80469731653337</v>
       </c>
       <c r="H104" t="n">
-        <v>6.23654659787045</v>
+        <v>9.7860644212975</v>
       </c>
       <c r="I104" t="n">
-        <v>6.61540779248128</v>
+        <v>11.9722838098561</v>
       </c>
       <c r="J104" t="n">
-        <v>5.64554241782574</v>
+        <v>11.3839257441226</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.899458745841</v>
+        <v>2.32348126972157</v>
       </c>
       <c r="B105" t="n">
-        <v>10.5653948427796</v>
+        <v>1.56613253379692</v>
       </c>
       <c r="C105" t="n">
-        <v>11.2803785447751</v>
+        <v>0.804768109500598</v>
       </c>
       <c r="D105" t="n">
-        <v>12.7727291148294</v>
+        <v>0.44015337659223</v>
       </c>
       <c r="E105" t="n">
-        <v>14.1221760171636</v>
+        <v>0.145393089294661</v>
       </c>
       <c r="F105" t="n">
-        <v>13.9294314306738</v>
+        <v>-0.704042638898006</v>
       </c>
       <c r="G105" t="n">
-        <v>15.5030914699566</v>
+        <v>-0.925765830340574</v>
       </c>
       <c r="H105" t="n">
-        <v>16.4803925656982</v>
+        <v>-1.4377182633647</v>
       </c>
       <c r="I105" t="n">
-        <v>18.1119719048023</v>
+        <v>-1.76749702248226</v>
       </c>
       <c r="J105" t="n">
-        <v>19.4881492539836</v>
+        <v>-2.68543137717319</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.48520012767716</v>
+        <v>2.33008595193657</v>
       </c>
       <c r="B106" t="n">
-        <v>10.7305062878354</v>
+        <v>3.58085594954708</v>
       </c>
       <c r="C106" t="n">
-        <v>11.1055232073432</v>
+        <v>5.53174011203712</v>
       </c>
       <c r="D106" t="n">
-        <v>11.9640599050853</v>
+        <v>4.10186008242314</v>
       </c>
       <c r="E106" t="n">
-        <v>13.6296772606181</v>
+        <v>7.65085377813097</v>
       </c>
       <c r="F106" t="n">
-        <v>15.4267611759062</v>
+        <v>7.19964187585774</v>
       </c>
       <c r="G106" t="n">
-        <v>16.2927128654383</v>
+        <v>9.29821359414371</v>
       </c>
       <c r="H106" t="n">
-        <v>18.4360302706057</v>
+        <v>8.32374524820639</v>
       </c>
       <c r="I106" t="n">
-        <v>18.4637693574095</v>
+        <v>10.7461834418152</v>
       </c>
       <c r="J106" t="n">
-        <v>18.7133651243521</v>
+        <v>11.9018285750152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.0061157234523</v>
+        <v>2.27647347286246</v>
       </c>
       <c r="B107" t="n">
-        <v>11.0103262735703</v>
+        <v>3.71250784150846</v>
       </c>
       <c r="C107" t="n">
-        <v>12.3977870591341</v>
+        <v>5.49705643042451</v>
       </c>
       <c r="D107" t="n">
-        <v>14.1980032400187</v>
+        <v>6.70044194629696</v>
       </c>
       <c r="E107" t="n">
-        <v>13.4921813831956</v>
+        <v>6.97621243492213</v>
       </c>
       <c r="F107" t="n">
-        <v>15.4193526059212</v>
+        <v>6.58030878659058</v>
       </c>
       <c r="G107" t="n">
-        <v>15.2105537862409</v>
+        <v>10.6925538900679</v>
       </c>
       <c r="H107" t="n">
-        <v>17.4275426337243</v>
+        <v>10.448199973665</v>
       </c>
       <c r="I107" t="n">
-        <v>18.3123765347343</v>
+        <v>11.6028039826285</v>
       </c>
       <c r="J107" t="n">
-        <v>19.512541337002</v>
+        <v>12.5123850662105</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.11502801999383</v>
+        <v>3.8977778404965</v>
       </c>
       <c r="B108" t="n">
-        <v>12.1104871964711</v>
+        <v>4.72635401232735</v>
       </c>
       <c r="C108" t="n">
-        <v>12.590318004453</v>
+        <v>4.86109263082788</v>
       </c>
       <c r="D108" t="n">
-        <v>13.0407326748967</v>
+        <v>5.83555757281695</v>
       </c>
       <c r="E108" t="n">
-        <v>14.2565596805793</v>
+        <v>6.64579810115989</v>
       </c>
       <c r="F108" t="n">
-        <v>14.1996011585186</v>
+        <v>8.01638324190137</v>
       </c>
       <c r="G108" t="n">
-        <v>16.0979370501586</v>
+        <v>8.90413294774953</v>
       </c>
       <c r="H108" t="n">
-        <v>14.6052723231318</v>
+        <v>10.2296004585466</v>
       </c>
       <c r="I108" t="n">
-        <v>17.704542435062</v>
+        <v>11.3153268084066</v>
       </c>
       <c r="J108" t="n">
-        <v>18.9499803829443</v>
+        <v>12.1183973328849</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.2976704713864</v>
+        <v>1.97679472812532</v>
       </c>
       <c r="B109" t="n">
-        <v>10.6416731057728</v>
+        <v>1.36706926141438</v>
       </c>
       <c r="C109" t="n">
-        <v>13.0284508376549</v>
+        <v>0.914178651992932</v>
       </c>
       <c r="D109" t="n">
-        <v>12.0777988434914</v>
+        <v>0.188693445866342</v>
       </c>
       <c r="E109" t="n">
-        <v>13.5742025843345</v>
+        <v>-0.0401326616980109</v>
       </c>
       <c r="F109" t="n">
-        <v>15.9924124864334</v>
+        <v>-0.222729406356894</v>
       </c>
       <c r="G109" t="n">
-        <v>16.7550662707863</v>
+        <v>-1.63810615599484</v>
       </c>
       <c r="H109" t="n">
-        <v>17.9135903931485</v>
+        <v>-1.37806810113748</v>
       </c>
       <c r="I109" t="n">
-        <v>17.869976742683</v>
+        <v>-1.90703948791883</v>
       </c>
       <c r="J109" t="n">
-        <v>18.1001481420891</v>
+        <v>-2.63462439466134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>9.91427876814527</v>
+        <v>3.0194048819881</v>
       </c>
       <c r="B110" t="n">
-        <v>9.77266151172094</v>
+        <v>3.64834585130318</v>
       </c>
       <c r="C110" t="n">
-        <v>13.5057922933258</v>
+        <v>5.7945334773797</v>
       </c>
       <c r="D110" t="n">
-        <v>13.8597231971093</v>
+        <v>4.97557594420842</v>
       </c>
       <c r="E110" t="n">
-        <v>14.3013703292393</v>
+        <v>5.76941493511224</v>
       </c>
       <c r="F110" t="n">
-        <v>15.0864993364557</v>
+        <v>7.81195216784989</v>
       </c>
       <c r="G110" t="n">
-        <v>16.6671466197319</v>
+        <v>9.68244043511022</v>
       </c>
       <c r="H110" t="n">
-        <v>17.413899983267</v>
+        <v>9.21600315485377</v>
       </c>
       <c r="I110" t="n">
-        <v>16.773196381229</v>
+        <v>11.1790098994648</v>
       </c>
       <c r="J110" t="n">
-        <v>18.8345964951099</v>
+        <v>11.5082197247618</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.648782673823</v>
+        <v>3.59434083137885</v>
       </c>
       <c r="B111" t="n">
-        <v>10.3822228007388</v>
+        <v>4.46767139264091</v>
       </c>
       <c r="C111" t="n">
-        <v>11.3622020402678</v>
+        <v>4.78197377222577</v>
       </c>
       <c r="D111" t="n">
-        <v>12.4564708003168</v>
+        <v>5.35831210093177</v>
       </c>
       <c r="E111" t="n">
-        <v>14.1898950982098</v>
+        <v>6.14484774351779</v>
       </c>
       <c r="F111" t="n">
-        <v>14.3593839290475</v>
+        <v>8.42312746999666</v>
       </c>
       <c r="G111" t="n">
-        <v>15.4233636759908</v>
+        <v>8.23553299149441</v>
       </c>
       <c r="H111" t="n">
-        <v>16.7973160507597</v>
+        <v>9.40704712752115</v>
       </c>
       <c r="I111" t="n">
-        <v>19.6079830900588</v>
+        <v>11.9959062328256</v>
       </c>
       <c r="J111" t="n">
-        <v>19.2930026949083</v>
+        <v>13.2430730786908</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.57352040600983</v>
+        <v>3.46129351503987</v>
       </c>
       <c r="B112" t="n">
-        <v>11.2359427856709</v>
+        <v>2.92234106226363</v>
       </c>
       <c r="C112" t="n">
-        <v>12.5817735720529</v>
+        <v>4.00842019178653</v>
       </c>
       <c r="D112" t="n">
-        <v>14.3417840043115</v>
+        <v>5.87616507343336</v>
       </c>
       <c r="E112" t="n">
-        <v>14.0892242190635</v>
+        <v>7.99475868476067</v>
       </c>
       <c r="F112" t="n">
-        <v>13.8652883051674</v>
+        <v>7.99409908867369</v>
       </c>
       <c r="G112" t="n">
-        <v>15.6182535241589</v>
+        <v>9.30281120098886</v>
       </c>
       <c r="H112" t="n">
-        <v>16.9937755932194</v>
+        <v>10.8583435532363</v>
       </c>
       <c r="I112" t="n">
-        <v>17.7433649807283</v>
+        <v>11.2365320820838</v>
       </c>
       <c r="J112" t="n">
-        <v>17.977269006865</v>
+        <v>11.4568174743959</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.12570708291208</v>
+        <v>3.0236227985729</v>
       </c>
       <c r="B113" t="n">
-        <v>10.9017950365466</v>
+        <v>4.21324391398699</v>
       </c>
       <c r="C113" t="n">
-        <v>11.2049005037545</v>
+        <v>5.31518943778911</v>
       </c>
       <c r="D113" t="n">
-        <v>12.7494367402038</v>
+        <v>5.31133179144373</v>
       </c>
       <c r="E113" t="n">
-        <v>13.4002757108333</v>
+        <v>6.32952629023473</v>
       </c>
       <c r="F113" t="n">
-        <v>13.6682938606191</v>
+        <v>7.4599328660353</v>
       </c>
       <c r="G113" t="n">
-        <v>15.9316606655859</v>
+        <v>8.15593862417975</v>
       </c>
       <c r="H113" t="n">
-        <v>17.3976274655169</v>
+        <v>9.17109146031262</v>
       </c>
       <c r="I113" t="n">
-        <v>18.9399413690465</v>
+        <v>11.1664290402243</v>
       </c>
       <c r="J113" t="n">
-        <v>18.6438569685121</v>
+        <v>12.1432026447405</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.78702702806135</v>
+        <v>2.4852658030606</v>
       </c>
       <c r="B114" t="n">
-        <v>9.51702801662356</v>
+        <v>3.35553563251139</v>
       </c>
       <c r="C114" t="n">
-        <v>9.31085855315004</v>
+        <v>4.62309346017359</v>
       </c>
       <c r="D114" t="n">
-        <v>8.69737159651303</v>
+        <v>5.75562886087253</v>
       </c>
       <c r="E114" t="n">
-        <v>7.9406993918551</v>
+        <v>5.69050890322978</v>
       </c>
       <c r="F114" t="n">
-        <v>7.45391346300964</v>
+        <v>6.79444663918115</v>
       </c>
       <c r="G114" t="n">
-        <v>6.99127264123212</v>
+        <v>7.39648315051308</v>
       </c>
       <c r="H114" t="n">
-        <v>6.61295786928535</v>
+        <v>10.6347073891347</v>
       </c>
       <c r="I114" t="n">
-        <v>6.18568347802325</v>
+        <v>10.8692854973974</v>
       </c>
       <c r="J114" t="n">
-        <v>5.63608395838809</v>
+        <v>11.6028178717383</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.1609718971666</v>
+        <v>2.74019709369828</v>
       </c>
       <c r="B115" t="n">
-        <v>9.96258357035097</v>
+        <v>3.75405439141889</v>
       </c>
       <c r="C115" t="n">
-        <v>11.9963027497783</v>
+        <v>4.85989043350034</v>
       </c>
       <c r="D115" t="n">
-        <v>14.6588399935476</v>
+        <v>5.1171612284423</v>
       </c>
       <c r="E115" t="n">
-        <v>14.9267036365447</v>
+        <v>6.02545374493632</v>
       </c>
       <c r="F115" t="n">
-        <v>15.0860750208975</v>
+        <v>8.826595040926</v>
       </c>
       <c r="G115" t="n">
-        <v>15.8362246982056</v>
+        <v>8.40576005763648</v>
       </c>
       <c r="H115" t="n">
-        <v>17.9227736204222</v>
+        <v>9.12937903982952</v>
       </c>
       <c r="I115" t="n">
-        <v>17.625075541439</v>
+        <v>11.1643159787106</v>
       </c>
       <c r="J115" t="n">
-        <v>19.2751384754526</v>
+        <v>11.9328295583604</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.6090422999763</v>
+        <v>3.86417168942</v>
       </c>
       <c r="B116" t="n">
-        <v>12.1673870140344</v>
+        <v>3.36853523765971</v>
       </c>
       <c r="C116" t="n">
-        <v>12.1638927564939</v>
+        <v>4.93223057514718</v>
       </c>
       <c r="D116" t="n">
-        <v>13.8123456813967</v>
+        <v>6.36487254759185</v>
       </c>
       <c r="E116" t="n">
-        <v>13.4310650990552</v>
+        <v>8.04611231289978</v>
       </c>
       <c r="F116" t="n">
-        <v>16.0835715981818</v>
+        <v>7.61172513679087</v>
       </c>
       <c r="G116" t="n">
-        <v>16.6236441882181</v>
+        <v>9.09528990788686</v>
       </c>
       <c r="H116" t="n">
-        <v>17.6004227615821</v>
+        <v>10.4100075510451</v>
       </c>
       <c r="I116" t="n">
-        <v>18.3961332244272</v>
+        <v>9.8292844754795</v>
       </c>
       <c r="J116" t="n">
-        <v>18.9881870219538</v>
+        <v>11.3665055751672</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>10.3663459961593</v>
+        <v>2.46557214442252</v>
       </c>
       <c r="B117" t="n">
-        <v>10.3980067783341</v>
+        <v>4.55107577796375</v>
       </c>
       <c r="C117" t="n">
-        <v>12.0295012658261</v>
+        <v>5.54715734164797</v>
       </c>
       <c r="D117" t="n">
-        <v>12.3237799001795</v>
+        <v>5.97649284086701</v>
       </c>
       <c r="E117" t="n">
-        <v>14.6538978294574</v>
+        <v>7.07622712186228</v>
       </c>
       <c r="F117" t="n">
-        <v>15.8432707730975</v>
+        <v>8.9203896476155</v>
       </c>
       <c r="G117" t="n">
-        <v>15.5941157922001</v>
+        <v>9.54273018698762</v>
       </c>
       <c r="H117" t="n">
-        <v>17.5397490499328</v>
+        <v>10.530694671814</v>
       </c>
       <c r="I117" t="n">
-        <v>17.5589432271362</v>
+        <v>11.6118366198015</v>
       </c>
       <c r="J117" t="n">
-        <v>19.6754762771936</v>
+        <v>13.2673865239666</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.44689058816349</v>
+        <v>3.84936130292779</v>
       </c>
       <c r="B118" t="n">
-        <v>11.2350455189439</v>
+        <v>3.89450784100598</v>
       </c>
       <c r="C118" t="n">
-        <v>12.1442603752331</v>
+        <v>4.48287312137637</v>
       </c>
       <c r="D118" t="n">
-        <v>12.6831987084156</v>
+        <v>5.50542442424062</v>
       </c>
       <c r="E118" t="n">
-        <v>14.3453689154247</v>
+        <v>7.3844689477803</v>
       </c>
       <c r="F118" t="n">
-        <v>14.1286875906615</v>
+        <v>7.90897716210726</v>
       </c>
       <c r="G118" t="n">
-        <v>15.8633928592895</v>
+        <v>9.39886441369562</v>
       </c>
       <c r="H118" t="n">
-        <v>16.7816522422341</v>
+        <v>9.27747571811163</v>
       </c>
       <c r="I118" t="n">
-        <v>17.802547477681</v>
+        <v>11.0461941828825</v>
       </c>
       <c r="J118" t="n">
-        <v>19.0401153729894</v>
+        <v>12.3077909726079</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.37203830560235</v>
+        <v>3.49169449413697</v>
       </c>
       <c r="B119" t="n">
-        <v>11.924589786027</v>
+        <v>3.89444116826303</v>
       </c>
       <c r="C119" t="n">
-        <v>13.0926080390049</v>
+        <v>5.1999062128603</v>
       </c>
       <c r="D119" t="n">
-        <v>11.8875552341777</v>
+        <v>6.13152141127197</v>
       </c>
       <c r="E119" t="n">
-        <v>14.1971041879367</v>
+        <v>6.90080856222834</v>
       </c>
       <c r="F119" t="n">
-        <v>14.8819193909108</v>
+        <v>9.05171898971809</v>
       </c>
       <c r="G119" t="n">
-        <v>17.2273192967887</v>
+        <v>8.47317389121687</v>
       </c>
       <c r="H119" t="n">
-        <v>17.8673937928179</v>
+        <v>11.6691911865703</v>
       </c>
       <c r="I119" t="n">
-        <v>18.5320485971433</v>
+        <v>11.2094127804815</v>
       </c>
       <c r="J119" t="n">
-        <v>19.3637240540626</v>
+        <v>12.0639076221836</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.3134404825732</v>
+        <v>1.82219797533141</v>
       </c>
       <c r="B120" t="n">
-        <v>9.43965429272079</v>
+        <v>1.58304036411983</v>
       </c>
       <c r="C120" t="n">
-        <v>9.02796654582949</v>
+        <v>0.82480717059383</v>
       </c>
       <c r="D120" t="n">
-        <v>8.4881282730597</v>
+        <v>0.412324812977461</v>
       </c>
       <c r="E120" t="n">
-        <v>7.7462144174504</v>
+        <v>0.353001630123131</v>
       </c>
       <c r="F120" t="n">
-        <v>7.2378244530081</v>
+        <v>-0.570974224360056</v>
       </c>
       <c r="G120" t="n">
-        <v>7.12724107049465</v>
+        <v>-1.01893303661337</v>
       </c>
       <c r="H120" t="n">
-        <v>6.22946867815531</v>
+        <v>-1.55303810438398</v>
       </c>
       <c r="I120" t="n">
-        <v>6.00923740480525</v>
+        <v>-2.0726699987283</v>
       </c>
       <c r="J120" t="n">
-        <v>5.46830569530393</v>
+        <v>-2.22733884837255</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.44000157539632</v>
+        <v>3.87919867479643</v>
       </c>
       <c r="B121" t="n">
-        <v>10.9832067678347</v>
+        <v>3.86853584766845</v>
       </c>
       <c r="C121" t="n">
-        <v>11.8674012135043</v>
+        <v>5.06504887387371</v>
       </c>
       <c r="D121" t="n">
-        <v>15.1734237691975</v>
+        <v>5.98647364190644</v>
       </c>
       <c r="E121" t="n">
-        <v>14.7365037204797</v>
+        <v>7.49751991472737</v>
       </c>
       <c r="F121" t="n">
-        <v>15.0718155666811</v>
+        <v>8.38594822620781</v>
       </c>
       <c r="G121" t="n">
-        <v>16.1371010560786</v>
+        <v>9.28207372093498</v>
       </c>
       <c r="H121" t="n">
-        <v>16.5525787712431</v>
+        <v>10.5495534189961</v>
       </c>
       <c r="I121" t="n">
-        <v>18.7313999065478</v>
+        <v>11.5870999413429</v>
       </c>
       <c r="J121" t="n">
-        <v>18.3410589378733</v>
+        <v>12.3975955275075</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10.8600472875469</v>
+        <v>4.0496458616018</v>
       </c>
       <c r="B122" t="n">
-        <v>10.7389198199385</v>
+        <v>4.22346280397845</v>
       </c>
       <c r="C122" t="n">
-        <v>12.8718037753836</v>
+        <v>4.87866759695329</v>
       </c>
       <c r="D122" t="n">
-        <v>12.3186241648239</v>
+        <v>6.48770317817553</v>
       </c>
       <c r="E122" t="n">
-        <v>13.4674022331483</v>
+        <v>7.44774115103278</v>
       </c>
       <c r="F122" t="n">
-        <v>15.9443122657469</v>
+        <v>7.30098969782948</v>
       </c>
       <c r="G122" t="n">
-        <v>17.2923582405852</v>
+        <v>10.3417134247385</v>
       </c>
       <c r="H122" t="n">
-        <v>17.3733526254757</v>
+        <v>10.1849615155588</v>
       </c>
       <c r="I122" t="n">
-        <v>17.0208998711556</v>
+        <v>11.0017518094421</v>
       </c>
       <c r="J122" t="n">
-        <v>19.4372778191119</v>
+        <v>12.9511624170528</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.91839606585593</v>
+        <v>1.79953170040014</v>
       </c>
       <c r="B123" t="n">
-        <v>9.90110860247065</v>
+        <v>1.59276635023806</v>
       </c>
       <c r="C123" t="n">
-        <v>8.95165955749349</v>
+        <v>0.918790951686012</v>
       </c>
       <c r="D123" t="n">
-        <v>8.59304229305597</v>
+        <v>0.243825674950385</v>
       </c>
       <c r="E123" t="n">
-        <v>8.09438955077587</v>
+        <v>0.448272494802737</v>
       </c>
       <c r="F123" t="n">
-        <v>7.84220253631609</v>
+        <v>-0.547015623961268</v>
       </c>
       <c r="G123" t="n">
-        <v>7.10869846660021</v>
+        <v>-0.660629455518505</v>
       </c>
       <c r="H123" t="n">
-        <v>7.00052653696416</v>
+        <v>-1.80403396318616</v>
       </c>
       <c r="I123" t="n">
-        <v>6.30891777835632</v>
+        <v>-1.71107952863877</v>
       </c>
       <c r="J123" t="n">
-        <v>5.15241131948996</v>
+        <v>-2.98944034732732</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.9912903265654</v>
+        <v>2.68673501711891</v>
       </c>
       <c r="B124" t="n">
-        <v>9.67271733808642</v>
+        <v>3.58566799683211</v>
       </c>
       <c r="C124" t="n">
-        <v>8.40829145229966</v>
+        <v>4.35824186647532</v>
       </c>
       <c r="D124" t="n">
-        <v>8.10637170948979</v>
+        <v>6.39381449564137</v>
       </c>
       <c r="E124" t="n">
-        <v>7.92034447449142</v>
+        <v>6.81788534609233</v>
       </c>
       <c r="F124" t="n">
-        <v>7.63728525155767</v>
+        <v>6.77808169371398</v>
       </c>
       <c r="G124" t="n">
-        <v>6.82799388981836</v>
+        <v>9.74461472467273</v>
       </c>
       <c r="H124" t="n">
-        <v>6.18154261634319</v>
+        <v>9.95873072739908</v>
       </c>
       <c r="I124" t="n">
-        <v>5.96779657114953</v>
+        <v>11.6821964336476</v>
       </c>
       <c r="J124" t="n">
-        <v>5.44012980961435</v>
+        <v>11.297252881575</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.7876648149988</v>
+        <v>2.01148469981237</v>
       </c>
       <c r="B125" t="n">
-        <v>9.22002578011346</v>
+        <v>1.6016381946957</v>
       </c>
       <c r="C125" t="n">
-        <v>9.71649675963268</v>
+        <v>0.460624922823352</v>
       </c>
       <c r="D125" t="n">
-        <v>8.50248907537327</v>
+        <v>0.429043324010196</v>
       </c>
       <c r="E125" t="n">
-        <v>8.24850580864505</v>
+        <v>0.14142480742038</v>
       </c>
       <c r="F125" t="n">
-        <v>7.49420019379927</v>
+        <v>-0.628747434594445</v>
       </c>
       <c r="G125" t="n">
-        <v>6.66068724877074</v>
+        <v>-0.547497445027184</v>
       </c>
       <c r="H125" t="n">
-        <v>7.22445418029362</v>
+        <v>-1.56001244635396</v>
       </c>
       <c r="I125" t="n">
-        <v>5.48820996378212</v>
+        <v>-2.38319624211243</v>
       </c>
       <c r="J125" t="n">
-        <v>5.74379171184288</v>
+        <v>-2.36269002968179</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.7661755827465</v>
+        <v>1.7835264977406</v>
       </c>
       <c r="B126" t="n">
-        <v>10.6293292121848</v>
+        <v>1.36999272173736</v>
       </c>
       <c r="C126" t="n">
-        <v>11.8341693226201</v>
+        <v>0.598378952893448</v>
       </c>
       <c r="D126" t="n">
-        <v>12.2766708661182</v>
+        <v>1.02051606287916</v>
       </c>
       <c r="E126" t="n">
-        <v>13.7390489948374</v>
+        <v>-0.247977315916912</v>
       </c>
       <c r="F126" t="n">
-        <v>14.3854632411872</v>
+        <v>-0.434948798098769</v>
       </c>
       <c r="G126" t="n">
-        <v>16.295017457075</v>
+        <v>-0.822410267981826</v>
       </c>
       <c r="H126" t="n">
-        <v>17.8318624765194</v>
+        <v>-1.61379130046209</v>
       </c>
       <c r="I126" t="n">
-        <v>18.351315813469</v>
+        <v>-2.06210576175269</v>
       </c>
       <c r="J126" t="n">
-        <v>19.7353048482752</v>
+        <v>-2.95332720636758</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.3418486077817</v>
+        <v>3.91610215143695</v>
       </c>
       <c r="B127" t="n">
-        <v>10.4891102824462</v>
+        <v>3.50332020213515</v>
       </c>
       <c r="C127" t="n">
-        <v>12.3424391795226</v>
+        <v>6.20991785578013</v>
       </c>
       <c r="D127" t="n">
-        <v>13.2250138712501</v>
+        <v>5.50665360962464</v>
       </c>
       <c r="E127" t="n">
-        <v>14.4862616007208</v>
+        <v>7.00178079946547</v>
       </c>
       <c r="F127" t="n">
-        <v>15.9235234400969</v>
+        <v>6.94202434796396</v>
       </c>
       <c r="G127" t="n">
-        <v>15.6700343201393</v>
+        <v>8.60915513257607</v>
       </c>
       <c r="H127" t="n">
-        <v>16.0553903836874</v>
+        <v>10.8377334520877</v>
       </c>
       <c r="I127" t="n">
-        <v>19.2081372374093</v>
+        <v>11.1671272700969</v>
       </c>
       <c r="J127" t="n">
-        <v>19.0784084128376</v>
+        <v>13.3506812184904</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10.0733603523472</v>
+        <v>2.0274078118585</v>
       </c>
       <c r="B128" t="n">
-        <v>11.0867526216233</v>
+        <v>1.95135737057521</v>
       </c>
       <c r="C128" t="n">
-        <v>12.2689247689807</v>
+        <v>1.29862023534677</v>
       </c>
       <c r="D128" t="n">
-        <v>12.8386169863214</v>
+        <v>0.597394944971132</v>
       </c>
       <c r="E128" t="n">
-        <v>13.8903809951935</v>
+        <v>0.479001729389726</v>
       </c>
       <c r="F128" t="n">
-        <v>13.7675804034523</v>
+        <v>-0.34784302393094</v>
       </c>
       <c r="G128" t="n">
-        <v>16.5794965428448</v>
+        <v>-1.3409713198142</v>
       </c>
       <c r="H128" t="n">
-        <v>16.8313392454681</v>
+        <v>-1.48329364025883</v>
       </c>
       <c r="I128" t="n">
-        <v>17.468972398175</v>
+        <v>-1.8369882580681</v>
       </c>
       <c r="J128" t="n">
-        <v>19.2571097807595</v>
+        <v>-2.63245496257752</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.60676244255962</v>
+        <v>1.89827914656647</v>
       </c>
       <c r="B129" t="n">
-        <v>11.6195201277506</v>
+        <v>1.56325639692348</v>
       </c>
       <c r="C129" t="n">
-        <v>12.2783026694602</v>
+        <v>0.818395281477874</v>
       </c>
       <c r="D129" t="n">
-        <v>12.2007520038653</v>
+        <v>0.376246146611321</v>
       </c>
       <c r="E129" t="n">
-        <v>13.4833185203942</v>
+        <v>-0.00112861804304635</v>
       </c>
       <c r="F129" t="n">
-        <v>14.4945440098568</v>
+        <v>-0.411349330207886</v>
       </c>
       <c r="G129" t="n">
-        <v>17.9950004901405</v>
+        <v>-1.1350084930762</v>
       </c>
       <c r="H129" t="n">
-        <v>17.2528506055081</v>
+        <v>-1.5488999921166</v>
       </c>
       <c r="I129" t="n">
-        <v>17.5958596578584</v>
+        <v>-1.79687490137837</v>
       </c>
       <c r="J129" t="n">
-        <v>18.8360569387526</v>
+        <v>-2.53282626651198</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.3358387862955</v>
+        <v>2.95449330600893</v>
       </c>
       <c r="B130" t="n">
-        <v>11.1234998679062</v>
+        <v>2.34259378730229</v>
       </c>
       <c r="C130" t="n">
-        <v>12.0939860807991</v>
+        <v>5.88963314438939</v>
       </c>
       <c r="D130" t="n">
-        <v>12.6119217485317</v>
+        <v>5.41848496258151</v>
       </c>
       <c r="E130" t="n">
-        <v>13.7309936995052</v>
+        <v>7.07283844767639</v>
       </c>
       <c r="F130" t="n">
-        <v>16.2206719586768</v>
+        <v>8.6859594120809</v>
       </c>
       <c r="G130" t="n">
-        <v>16.7471667647222</v>
+        <v>9.92876588525947</v>
       </c>
       <c r="H130" t="n">
-        <v>18.392264268098</v>
+        <v>8.8339673300575</v>
       </c>
       <c r="I130" t="n">
-        <v>18.8951910239857</v>
+        <v>10.9829500635437</v>
       </c>
       <c r="J130" t="n">
-        <v>19.308992840094</v>
+        <v>12.1476007854712</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.3715941018126</v>
+        <v>1.75954087754384</v>
       </c>
       <c r="B131" t="n">
-        <v>10.6282704727166</v>
+        <v>4.42128033288705</v>
       </c>
       <c r="C131" t="n">
-        <v>13.7366724782205</v>
+        <v>4.003241135276</v>
       </c>
       <c r="D131" t="n">
-        <v>13.1241123213382</v>
+        <v>4.47806312451873</v>
       </c>
       <c r="E131" t="n">
-        <v>13.0701427241357</v>
+        <v>7.78173676847645</v>
       </c>
       <c r="F131" t="n">
-        <v>15.024383154994</v>
+        <v>7.76833417590765</v>
       </c>
       <c r="G131" t="n">
-        <v>16.593558526381</v>
+        <v>8.0844564642069</v>
       </c>
       <c r="H131" t="n">
-        <v>17.4493730206594</v>
+        <v>10.3120190601352</v>
       </c>
       <c r="I131" t="n">
-        <v>18.5793646200338</v>
+        <v>10.7830645181521</v>
       </c>
       <c r="J131" t="n">
-        <v>19.1739196890181</v>
+        <v>12.8738623085691</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10.4544425776092</v>
+        <v>2.11765094706345</v>
       </c>
       <c r="B132" t="n">
-        <v>11.6986824351858</v>
+        <v>1.27300626132411</v>
       </c>
       <c r="C132" t="n">
-        <v>12.1492157378195</v>
+        <v>1.07722305982433</v>
       </c>
       <c r="D132" t="n">
-        <v>13.2582246055667</v>
+        <v>0.380261893434573</v>
       </c>
       <c r="E132" t="n">
-        <v>13.6014777488783</v>
+        <v>0.0518377302147629</v>
       </c>
       <c r="F132" t="n">
-        <v>15.1968331585688</v>
+        <v>-0.188313358949066</v>
       </c>
       <c r="G132" t="n">
-        <v>16.5959333279277</v>
+        <v>-0.935748186050482</v>
       </c>
       <c r="H132" t="n">
-        <v>17.0986007429829</v>
+        <v>-1.04598975228494</v>
       </c>
       <c r="I132" t="n">
-        <v>16.8686010842695</v>
+        <v>-1.80583670656718</v>
       </c>
       <c r="J132" t="n">
-        <v>18.2542742459208</v>
+        <v>-2.49905769417276</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.57719437252823</v>
+        <v>2.04817429312455</v>
       </c>
       <c r="B133" t="n">
-        <v>12.2292871790298</v>
+        <v>1.773216660134</v>
       </c>
       <c r="C133" t="n">
-        <v>12.4537654148944</v>
+        <v>1.47453993035396</v>
       </c>
       <c r="D133" t="n">
-        <v>12.4926840270944</v>
+        <v>0.443130500894635</v>
       </c>
       <c r="E133" t="n">
-        <v>13.386629171519</v>
+        <v>0.272716178525301</v>
       </c>
       <c r="F133" t="n">
-        <v>14.7850089056843</v>
+        <v>-0.120157585322121</v>
       </c>
       <c r="G133" t="n">
-        <v>15.7914454813228</v>
+        <v>-0.997706743508603</v>
       </c>
       <c r="H133" t="n">
-        <v>16.745545132339</v>
+        <v>-1.70742463252631</v>
       </c>
       <c r="I133" t="n">
-        <v>19.7059418367664</v>
+        <v>-2.00819686811012</v>
       </c>
       <c r="J133" t="n">
-        <v>18.9759221249602</v>
+        <v>-2.59519824299229</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.52133699818976</v>
+        <v>3.35343709652087</v>
       </c>
       <c r="B134" t="n">
-        <v>10.7660756691858</v>
+        <v>4.02481616306234</v>
       </c>
       <c r="C134" t="n">
-        <v>13.4427647856574</v>
+        <v>4.56780777134109</v>
       </c>
       <c r="D134" t="n">
-        <v>13.2534883443133</v>
+        <v>6.35484988523211</v>
       </c>
       <c r="E134" t="n">
-        <v>14.3540242250612</v>
+        <v>7.64741874255273</v>
       </c>
       <c r="F134" t="n">
-        <v>16.0791684445096</v>
+        <v>6.97532178455396</v>
       </c>
       <c r="G134" t="n">
-        <v>17.2332491442014</v>
+        <v>8.89248240054634</v>
       </c>
       <c r="H134" t="n">
-        <v>17.4025648666958</v>
+        <v>10.3004917504166</v>
       </c>
       <c r="I134" t="n">
-        <v>16.9779003623801</v>
+        <v>11.7851079681213</v>
       </c>
       <c r="J134" t="n">
-        <v>20.0380240155448</v>
+        <v>11.9998916062601</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.14243929053987</v>
+        <v>1.65926574988715</v>
       </c>
       <c r="B135" t="n">
-        <v>11.8548294872038</v>
+        <v>3.55998736380974</v>
       </c>
       <c r="C135" t="n">
-        <v>10.7674922358666</v>
+        <v>4.57868452113714</v>
       </c>
       <c r="D135" t="n">
-        <v>12.0603260265216</v>
+        <v>6.63980162353374</v>
       </c>
       <c r="E135" t="n">
-        <v>12.906399023722</v>
+        <v>7.87461580044861</v>
       </c>
       <c r="F135" t="n">
-        <v>15.3244149953745</v>
+        <v>7.71156986928236</v>
       </c>
       <c r="G135" t="n">
-        <v>16.4513658478822</v>
+        <v>9.22748549971281</v>
       </c>
       <c r="H135" t="n">
-        <v>17.2182978911871</v>
+        <v>10.1781270516709</v>
       </c>
       <c r="I135" t="n">
-        <v>19.3018084285108</v>
+        <v>10.7319187300668</v>
       </c>
       <c r="J135" t="n">
-        <v>19.0350812678451</v>
+        <v>11.5174929832946</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.68273341163718</v>
+        <v>1.88692754831664</v>
       </c>
       <c r="B136" t="n">
-        <v>10.0409389332547</v>
+        <v>1.09849216903864</v>
       </c>
       <c r="C136" t="n">
-        <v>12.9244324981715</v>
+        <v>1.12778402072261</v>
       </c>
       <c r="D136" t="n">
-        <v>13.1405940661379</v>
+        <v>0.617498381401415</v>
       </c>
       <c r="E136" t="n">
-        <v>13.3234834742005</v>
+        <v>-0.307442457891704</v>
       </c>
       <c r="F136" t="n">
-        <v>14.8664751230152</v>
+        <v>-0.408403275442019</v>
       </c>
       <c r="G136" t="n">
-        <v>17.089051941214</v>
+        <v>-0.877284083737767</v>
       </c>
       <c r="H136" t="n">
-        <v>17.4830515387846</v>
+        <v>-1.34142342164587</v>
       </c>
       <c r="I136" t="n">
-        <v>18.961774868757</v>
+        <v>-2.10011160387987</v>
       </c>
       <c r="J136" t="n">
-        <v>18.752786702623</v>
+        <v>-2.20536753219025</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.98084893469349</v>
+        <v>3.82742092562549</v>
       </c>
       <c r="B137" t="n">
-        <v>10.0911956540811</v>
+        <v>3.34814993595769</v>
       </c>
       <c r="C137" t="n">
-        <v>12.4439482675333</v>
+        <v>4.70400338692651</v>
       </c>
       <c r="D137" t="n">
-        <v>13.1783229380807</v>
+        <v>6.0288241236093</v>
       </c>
       <c r="E137" t="n">
-        <v>13.8330739295408</v>
+        <v>7.7511753251925</v>
       </c>
       <c r="F137" t="n">
-        <v>15.4785996304561</v>
+        <v>8.13470167413978</v>
       </c>
       <c r="G137" t="n">
-        <v>15.8229498708354</v>
+        <v>9.04512246887251</v>
       </c>
       <c r="H137" t="n">
-        <v>17.1762312045125</v>
+        <v>9.90767134323019</v>
       </c>
       <c r="I137" t="n">
-        <v>18.1230240105923</v>
+        <v>10.4121128439372</v>
       </c>
       <c r="J137" t="n">
-        <v>19.75311027312</v>
+        <v>10.4087075253936</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10.1905790976471</v>
+        <v>1.62217671385472</v>
       </c>
       <c r="B138" t="n">
-        <v>9.53083232292803</v>
+        <v>1.32708740448163</v>
       </c>
       <c r="C138" t="n">
-        <v>8.82649579076726</v>
+        <v>1.16578366923423</v>
       </c>
       <c r="D138" t="n">
-        <v>8.42309264420367</v>
+        <v>0.486883478759523</v>
       </c>
       <c r="E138" t="n">
-        <v>7.98642830414981</v>
+        <v>0.262069133832387</v>
       </c>
       <c r="F138" t="n">
-        <v>7.46894268967295</v>
+        <v>-0.306155616564645</v>
       </c>
       <c r="G138" t="n">
-        <v>7.16686200189646</v>
+        <v>-1.57345786158196</v>
       </c>
       <c r="H138" t="n">
-        <v>6.22907119939467</v>
+        <v>-1.53242209298493</v>
       </c>
       <c r="I138" t="n">
-        <v>5.77497374585891</v>
+        <v>-2.11360864193333</v>
       </c>
       <c r="J138" t="n">
-        <v>4.99272316754656</v>
+        <v>-2.89373749463442</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.5330610285962</v>
+        <v>1.79546061545282</v>
       </c>
       <c r="B139" t="n">
-        <v>11.111709175031</v>
+        <v>1.7543316620949</v>
       </c>
       <c r="C139" t="n">
-        <v>13.7936208369295</v>
+        <v>0.826733873115142</v>
       </c>
       <c r="D139" t="n">
-        <v>13.2111601425317</v>
+        <v>0.61001291697502</v>
       </c>
       <c r="E139" t="n">
-        <v>12.9771987866446</v>
+        <v>-0.147492830691346</v>
       </c>
       <c r="F139" t="n">
-        <v>14.9250068097915</v>
+        <v>-0.560194201490587</v>
       </c>
       <c r="G139" t="n">
-        <v>16.0647861085807</v>
+        <v>-0.770406473351917</v>
       </c>
       <c r="H139" t="n">
-        <v>17.8293493666154</v>
+        <v>-1.46745870574671</v>
       </c>
       <c r="I139" t="n">
-        <v>18.4980421282857</v>
+        <v>-1.73390373146443</v>
       </c>
       <c r="J139" t="n">
-        <v>18.9449112372376</v>
+        <v>-2.39862333649057</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10.6805787867705</v>
+        <v>1.88425113893501</v>
       </c>
       <c r="B140" t="n">
-        <v>10.4677018195988</v>
+        <v>4.17792057055732</v>
       </c>
       <c r="C140" t="n">
-        <v>10.8837793532325</v>
+        <v>5.39437476299789</v>
       </c>
       <c r="D140" t="n">
-        <v>12.3094852499397</v>
+        <v>6.76442768170338</v>
       </c>
       <c r="E140" t="n">
-        <v>12.4440098775274</v>
+        <v>7.9920229707566</v>
       </c>
       <c r="F140" t="n">
-        <v>14.8414106592384</v>
+        <v>8.54861246905644</v>
       </c>
       <c r="G140" t="n">
-        <v>16.7973364283136</v>
+        <v>9.27804979381937</v>
       </c>
       <c r="H140" t="n">
-        <v>17.4773629873643</v>
+        <v>10.9741505098166</v>
       </c>
       <c r="I140" t="n">
-        <v>19.5620097028458</v>
+        <v>12.287332468665</v>
       </c>
       <c r="J140" t="n">
-        <v>17.7931816387287</v>
+        <v>11.5409762054385</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.64358274079861</v>
+        <v>2.9123867633385</v>
       </c>
       <c r="B141" t="n">
-        <v>11.0967912978994</v>
+        <v>4.22395160465283</v>
       </c>
       <c r="C141" t="n">
-        <v>11.3323094775159</v>
+        <v>5.39131381758453</v>
       </c>
       <c r="D141" t="n">
-        <v>13.6846647921475</v>
+        <v>4.81485182367211</v>
       </c>
       <c r="E141" t="n">
-        <v>13.6528719180426</v>
+        <v>8.10545342282358</v>
       </c>
       <c r="F141" t="n">
-        <v>15.3168074876543</v>
+        <v>8.11581680502329</v>
       </c>
       <c r="G141" t="n">
-        <v>16.0013980663149</v>
+        <v>8.24913574234409</v>
       </c>
       <c r="H141" t="n">
-        <v>17.5855253939108</v>
+        <v>10.1000706543343</v>
       </c>
       <c r="I141" t="n">
-        <v>18.1323843668224</v>
+        <v>11.7858799276814</v>
       </c>
       <c r="J141" t="n">
-        <v>17.7254398083868</v>
+        <v>12.0804687399106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.84335460177336</v>
+        <v>2.40990500351361</v>
       </c>
       <c r="B142" t="n">
-        <v>11.2331114315261</v>
+        <v>1.82150216591144</v>
       </c>
       <c r="C142" t="n">
-        <v>12.1855835661378</v>
+        <v>1.16621088345934</v>
       </c>
       <c r="D142" t="n">
-        <v>13.2258789175565</v>
+        <v>0.63070504769371</v>
       </c>
       <c r="E142" t="n">
-        <v>16.2619827707861</v>
+        <v>0.354013466953526</v>
       </c>
       <c r="F142" t="n">
-        <v>15.7167419434296</v>
+        <v>-0.642312005086643</v>
       </c>
       <c r="G142" t="n">
-        <v>16.5895887442608</v>
+        <v>-0.929569806871885</v>
       </c>
       <c r="H142" t="n">
-        <v>17.2925150285729</v>
+        <v>-1.30357349502877</v>
       </c>
       <c r="I142" t="n">
-        <v>18.2169088772287</v>
+        <v>-1.44659907993617</v>
       </c>
       <c r="J142" t="n">
-        <v>17.3171469920898</v>
+        <v>-2.91251647842038</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.84687954363377</v>
+        <v>2.66712805502136</v>
       </c>
       <c r="B143" t="n">
-        <v>9.58242808467048</v>
+        <v>3.14173421984598</v>
       </c>
       <c r="C143" t="n">
-        <v>9.23162439610617</v>
+        <v>4.66301251314887</v>
       </c>
       <c r="D143" t="n">
-        <v>8.33492628641935</v>
+        <v>7.37609510044206</v>
       </c>
       <c r="E143" t="n">
-        <v>7.58496071694992</v>
+        <v>5.46769814474241</v>
       </c>
       <c r="F143" t="n">
-        <v>7.70849172759618</v>
+        <v>8.82205190709326</v>
       </c>
       <c r="G143" t="n">
-        <v>6.79418856570047</v>
+        <v>7.23388137336408</v>
       </c>
       <c r="H143" t="n">
-        <v>6.2146023485931</v>
+        <v>10.5597016693492</v>
       </c>
       <c r="I143" t="n">
-        <v>6.00905936581038</v>
+        <v>11.3297202877852</v>
       </c>
       <c r="J143" t="n">
-        <v>5.39421414388793</v>
+        <v>12.0027444564128</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.93981230088645</v>
+        <v>2.55795601983616</v>
       </c>
       <c r="B144" t="n">
-        <v>9.34917694635737</v>
+        <v>4.43825765700647</v>
       </c>
       <c r="C144" t="n">
-        <v>9.21763719274492</v>
+        <v>6.05408078720554</v>
       </c>
       <c r="D144" t="n">
-        <v>8.96377706315604</v>
+        <v>6.51045005574589</v>
       </c>
       <c r="E144" t="n">
-        <v>8.04363362283586</v>
+        <v>7.56874439612084</v>
       </c>
       <c r="F144" t="n">
-        <v>7.17984644394393</v>
+        <v>8.00024986255156</v>
       </c>
       <c r="G144" t="n">
-        <v>7.02326882463941</v>
+        <v>9.54626332031034</v>
       </c>
       <c r="H144" t="n">
-        <v>6.48170891554495</v>
+        <v>9.08179249369481</v>
       </c>
       <c r="I144" t="n">
-        <v>5.95421879916993</v>
+        <v>11.6509922870039</v>
       </c>
       <c r="J144" t="n">
-        <v>5.48647555001286</v>
+        <v>11.1604126724262</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>9.74143230881893</v>
+        <v>2.81240398047202</v>
       </c>
       <c r="B145" t="n">
-        <v>9.54120071194134</v>
+        <v>4.19392823468409</v>
       </c>
       <c r="C145" t="n">
-        <v>9.11128736387995</v>
+        <v>4.22975924960138</v>
       </c>
       <c r="D145" t="n">
-        <v>8.36249077052005</v>
+        <v>6.00692638289</v>
       </c>
       <c r="E145" t="n">
-        <v>7.85877433435998</v>
+        <v>6.34621608316011</v>
       </c>
       <c r="F145" t="n">
-        <v>7.61054920116075</v>
+        <v>6.97891129191444</v>
       </c>
       <c r="G145" t="n">
-        <v>7.230308945993</v>
+        <v>9.21815461525276</v>
       </c>
       <c r="H145" t="n">
-        <v>7.00156656412184</v>
+        <v>8.80447990608014</v>
       </c>
       <c r="I145" t="n">
-        <v>5.88098844950629</v>
+        <v>10.6315330717628</v>
       </c>
       <c r="J145" t="n">
-        <v>5.87378024533793</v>
+        <v>11.9808500343205</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9.49016261214322</v>
+        <v>1.74811070909229</v>
       </c>
       <c r="B146" t="n">
-        <v>9.40973443383625</v>
+        <v>1.71108646925995</v>
       </c>
       <c r="C146" t="n">
-        <v>11.1329737513976</v>
+        <v>1.3443691699762</v>
       </c>
       <c r="D146" t="n">
-        <v>11.037306548664</v>
+        <v>0.748362895463792</v>
       </c>
       <c r="E146" t="n">
-        <v>13.7918092883458</v>
+        <v>-0.180654369277909</v>
       </c>
       <c r="F146" t="n">
-        <v>14.6941035711663</v>
+        <v>-0.729653495899716</v>
       </c>
       <c r="G146" t="n">
-        <v>16.2736314086063</v>
+        <v>-1.35153436745013</v>
       </c>
       <c r="H146" t="n">
-        <v>15.9463798735152</v>
+        <v>-1.65182621070807</v>
       </c>
       <c r="I146" t="n">
-        <v>18.6652120412948</v>
+        <v>-1.87555405424028</v>
       </c>
       <c r="J146" t="n">
-        <v>19.4488284206467</v>
+        <v>-2.52941773981329</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.1137813834456</v>
+        <v>2.93960005227041</v>
       </c>
       <c r="B147" t="n">
-        <v>9.13466808616902</v>
+        <v>3.38474534052576</v>
       </c>
       <c r="C147" t="n">
-        <v>9.31967282338311</v>
+        <v>5.81954456131949</v>
       </c>
       <c r="D147" t="n">
-        <v>8.42910212417692</v>
+        <v>6.2390496395151</v>
       </c>
       <c r="E147" t="n">
-        <v>8.54129304456355</v>
+        <v>7.66498744502197</v>
       </c>
       <c r="F147" t="n">
-        <v>7.2461150538356</v>
+        <v>9.31342452999064</v>
       </c>
       <c r="G147" t="n">
-        <v>7.08414828994491</v>
+        <v>9.73096687708452</v>
       </c>
       <c r="H147" t="n">
-        <v>6.48203413252854</v>
+        <v>8.6477028582188</v>
       </c>
       <c r="I147" t="n">
-        <v>5.68973764347973</v>
+        <v>10.4368290845093</v>
       </c>
       <c r="J147" t="n">
-        <v>5.22356211298227</v>
+        <v>11.6376231711966</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>9.9307956228279</v>
+        <v>1.060989004053</v>
       </c>
       <c r="B148" t="n">
-        <v>10.0536381076469</v>
+        <v>5.30957907409175</v>
       </c>
       <c r="C148" t="n">
-        <v>11.2280072372316</v>
+        <v>6.02862251626844</v>
       </c>
       <c r="D148" t="n">
-        <v>13.8024245052144</v>
+        <v>5.34225083739765</v>
       </c>
       <c r="E148" t="n">
-        <v>14.5047498162482</v>
+        <v>5.31373359508631</v>
       </c>
       <c r="F148" t="n">
-        <v>14.1537791861282</v>
+        <v>7.78389615967804</v>
       </c>
       <c r="G148" t="n">
-        <v>15.663948768489</v>
+        <v>8.47632449315253</v>
       </c>
       <c r="H148" t="n">
-        <v>16.6345873082168</v>
+        <v>9.95912653267398</v>
       </c>
       <c r="I148" t="n">
-        <v>17.3104677925514</v>
+        <v>11.090371774442</v>
       </c>
       <c r="J148" t="n">
-        <v>18.6195080440849</v>
+        <v>12.2255475889991</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>9.53546747026476</v>
+        <v>3.67614252552397</v>
       </c>
       <c r="B149" t="n">
-        <v>10.5438855327646</v>
+        <v>4.0593567584</v>
       </c>
       <c r="C149" t="n">
-        <v>11.7236705568925</v>
+        <v>4.832334844554</v>
       </c>
       <c r="D149" t="n">
-        <v>13.0743968144386</v>
+        <v>5.53709034885732</v>
       </c>
       <c r="E149" t="n">
-        <v>13.0500206853295</v>
+        <v>7.13435455368407</v>
       </c>
       <c r="F149" t="n">
-        <v>14.2350266924987</v>
+        <v>7.81849024609449</v>
       </c>
       <c r="G149" t="n">
-        <v>16.4509145412235</v>
+        <v>9.71436870257699</v>
       </c>
       <c r="H149" t="n">
-        <v>15.2293450360266</v>
+        <v>8.94394251824676</v>
       </c>
       <c r="I149" t="n">
-        <v>17.4131988734815</v>
+        <v>11.7560099620852</v>
       </c>
       <c r="J149" t="n">
-        <v>19.4686130901202</v>
+        <v>12.181163723764</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.2994869602734</v>
+        <v>2.3622559092078</v>
       </c>
       <c r="B150" t="n">
-        <v>11.8798033640067</v>
+        <v>1.90402884564749</v>
       </c>
       <c r="C150" t="n">
-        <v>11.089206051029</v>
+        <v>0.935293927340849</v>
       </c>
       <c r="D150" t="n">
-        <v>12.7112213834052</v>
+        <v>0.785247923859541</v>
       </c>
       <c r="E150" t="n">
-        <v>12.9061231025423</v>
+        <v>0.0860947704444153</v>
       </c>
       <c r="F150" t="n">
-        <v>15.789849880272</v>
+        <v>-0.620296998973945</v>
       </c>
       <c r="G150" t="n">
-        <v>16.4794119694481</v>
+        <v>-0.724785147718086</v>
       </c>
       <c r="H150" t="n">
-        <v>17.2256132754669</v>
+        <v>-1.37999733338471</v>
       </c>
       <c r="I150" t="n">
-        <v>18.8210717351416</v>
+        <v>-2.14903469552265</v>
       </c>
       <c r="J150" t="n">
-        <v>18.6164592933123</v>
+        <v>-2.50508154547561</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.2380438050163</v>
+        <v>2.93966235946007</v>
       </c>
       <c r="B151" t="n">
-        <v>9.51053610344048</v>
+        <v>4.59880800395551</v>
       </c>
       <c r="C151" t="n">
-        <v>8.73443405965606</v>
+        <v>4.79047131752371</v>
       </c>
       <c r="D151" t="n">
-        <v>8.44712186052387</v>
+        <v>5.80564436407151</v>
       </c>
       <c r="E151" t="n">
-        <v>7.83622943759634</v>
+        <v>5.81915377643983</v>
       </c>
       <c r="F151" t="n">
-        <v>7.78830309544203</v>
+        <v>9.56996115923404</v>
       </c>
       <c r="G151" t="n">
-        <v>7.41225376111756</v>
+        <v>7.52817331690385</v>
       </c>
       <c r="H151" t="n">
-        <v>6.66806587018047</v>
+        <v>10.5879237135946</v>
       </c>
       <c r="I151" t="n">
-        <v>6.34475392976213</v>
+        <v>9.75197321274393</v>
       </c>
       <c r="J151" t="n">
-        <v>5.49986256627451</v>
+        <v>13.0440193960235</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.0258584261363</v>
+        <v>3.52293305569465</v>
       </c>
       <c r="B152" t="n">
-        <v>9.60613715048891</v>
+        <v>3.81675994737512</v>
       </c>
       <c r="C152" t="n">
-        <v>9.08302877468047</v>
+        <v>5.09212093188466</v>
       </c>
       <c r="D152" t="n">
-        <v>8.53393964319495</v>
+        <v>5.71986301959787</v>
       </c>
       <c r="E152" t="n">
-        <v>8.38155484748283</v>
+        <v>8.00778722086269</v>
       </c>
       <c r="F152" t="n">
-        <v>7.0476897601277</v>
+        <v>7.75156116197849</v>
       </c>
       <c r="G152" t="n">
-        <v>7.13520224129283</v>
+        <v>8.54846336430876</v>
       </c>
       <c r="H152" t="n">
-        <v>6.11524411486835</v>
+        <v>10.5133257237412</v>
       </c>
       <c r="I152" t="n">
-        <v>5.7767868879217</v>
+        <v>11.7470626368842</v>
       </c>
       <c r="J152" t="n">
-        <v>5.29808365880247</v>
+        <v>11.6967782734077</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>9.76428120237953</v>
+        <v>1.57260051523122</v>
       </c>
       <c r="B153" t="n">
-        <v>10.0184186223275</v>
+        <v>4.09454562554671</v>
       </c>
       <c r="C153" t="n">
-        <v>8.97881044535755</v>
+        <v>4.69663341861408</v>
       </c>
       <c r="D153" t="n">
-        <v>8.55771314707521</v>
+        <v>5.75968663465344</v>
       </c>
       <c r="E153" t="n">
-        <v>8.58279264303907</v>
+        <v>6.98193049470591</v>
       </c>
       <c r="F153" t="n">
-        <v>7.54867402092571</v>
+        <v>8.41197422234183</v>
       </c>
       <c r="G153" t="n">
-        <v>6.9435267241855</v>
+        <v>9.84500170053743</v>
       </c>
       <c r="H153" t="n">
-        <v>6.53263950150721</v>
+        <v>9.27276223606908</v>
       </c>
       <c r="I153" t="n">
-        <v>6.42164064315582</v>
+        <v>11.7036892751951</v>
       </c>
       <c r="J153" t="n">
-        <v>6.12910340461346</v>
+        <v>12.4460855551613</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.71102521064121</v>
+        <v>4.32725960085889</v>
       </c>
       <c r="B154" t="n">
-        <v>9.40977501825259</v>
+        <v>3.17488839133172</v>
       </c>
       <c r="C154" t="n">
-        <v>8.91385988818114</v>
+        <v>5.15714067166804</v>
       </c>
       <c r="D154" t="n">
-        <v>8.68152631947003</v>
+        <v>5.24047359117855</v>
       </c>
       <c r="E154" t="n">
-        <v>8.51511816954513</v>
+        <v>6.55651519809549</v>
       </c>
       <c r="F154" t="n">
-        <v>7.46524721187382</v>
+        <v>8.73798092573435</v>
       </c>
       <c r="G154" t="n">
-        <v>6.66985334881028</v>
+        <v>9.22040375103715</v>
       </c>
       <c r="H154" t="n">
-        <v>6.40561536527609</v>
+        <v>10.185591808083</v>
       </c>
       <c r="I154" t="n">
-        <v>5.9078776908041</v>
+        <v>11.300176011199</v>
       </c>
       <c r="J154" t="n">
-        <v>5.6559711417581</v>
+        <v>10.7151829514611</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9.66033741058336</v>
+        <v>2.28566560986331</v>
       </c>
       <c r="B155" t="n">
-        <v>9.76845910844449</v>
+        <v>1.73279617213925</v>
       </c>
       <c r="C155" t="n">
-        <v>9.01910339550219</v>
+        <v>1.67513321273541</v>
       </c>
       <c r="D155" t="n">
-        <v>8.3958187869703</v>
+        <v>0.485179849979879</v>
       </c>
       <c r="E155" t="n">
-        <v>8.04868718653367</v>
+        <v>0.0229065633934938</v>
       </c>
       <c r="F155" t="n">
-        <v>7.64147588490283</v>
+        <v>-0.321075420901857</v>
       </c>
       <c r="G155" t="n">
-        <v>6.13199265776831</v>
+        <v>-1.0784138325866</v>
       </c>
       <c r="H155" t="n">
-        <v>6.54949939904984</v>
+        <v>-1.4715986240699</v>
       </c>
       <c r="I155" t="n">
-        <v>5.74244784191364</v>
+        <v>-2.2364892035826</v>
       </c>
       <c r="J155" t="n">
-        <v>5.89362198184871</v>
+        <v>-2.04914571974779</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.77341477979849</v>
+        <v>2.87084714519608</v>
       </c>
       <c r="B156" t="n">
-        <v>9.51085871940436</v>
+        <v>4.18333043192328</v>
       </c>
       <c r="C156" t="n">
-        <v>9.21393780206472</v>
+        <v>4.66819818107099</v>
       </c>
       <c r="D156" t="n">
-        <v>8.39147760422114</v>
+        <v>6.15496970330936</v>
       </c>
       <c r="E156" t="n">
-        <v>8.20190293765178</v>
+        <v>7.7100988432086</v>
       </c>
       <c r="F156" t="n">
-        <v>7.83594444011138</v>
+        <v>7.88141974834134</v>
       </c>
       <c r="G156" t="n">
-        <v>7.08676872479577</v>
+        <v>9.47340484805523</v>
       </c>
       <c r="H156" t="n">
-        <v>6.61006882163927</v>
+        <v>8.97361360490931</v>
       </c>
       <c r="I156" t="n">
-        <v>5.79782026674565</v>
+        <v>10.7580369382803</v>
       </c>
       <c r="J156" t="n">
-        <v>5.60240779132648</v>
+        <v>11.9893751527036</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.5079024987783</v>
+        <v>2.17758959012891</v>
       </c>
       <c r="B157" t="n">
-        <v>11.1657211441942</v>
+        <v>1.77251814561487</v>
       </c>
       <c r="C157" t="n">
-        <v>11.2580137341212</v>
+        <v>1.16785167250789</v>
       </c>
       <c r="D157" t="n">
-        <v>11.6207612779775</v>
+        <v>0.271190228152488</v>
       </c>
       <c r="E157" t="n">
-        <v>14.2624735530873</v>
+        <v>-0.536539720110902</v>
       </c>
       <c r="F157" t="n">
-        <v>15.3337322518277</v>
+        <v>-0.585976275497865</v>
       </c>
       <c r="G157" t="n">
-        <v>17.2906714832478</v>
+        <v>-1.03520460455206</v>
       </c>
       <c r="H157" t="n">
-        <v>18.6082601563607</v>
+        <v>-1.44931106741079</v>
       </c>
       <c r="I157" t="n">
-        <v>17.4730321443574</v>
+        <v>-1.98568168418147</v>
       </c>
       <c r="J157" t="n">
-        <v>19.1394978717647</v>
+        <v>-2.51491636993499</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.3504485819063</v>
+        <v>2.68668609119831</v>
       </c>
       <c r="B158" t="n">
-        <v>11.7815447967667</v>
+        <v>3.63871192304135</v>
       </c>
       <c r="C158" t="n">
-        <v>11.6593112172393</v>
+        <v>4.68735396060662</v>
       </c>
       <c r="D158" t="n">
-        <v>13.2277460268345</v>
+        <v>5.28946751532513</v>
       </c>
       <c r="E158" t="n">
-        <v>14.567358155583</v>
+        <v>6.65812610185655</v>
       </c>
       <c r="F158" t="n">
-        <v>14.7235847359296</v>
+        <v>8.25888315324793</v>
       </c>
       <c r="G158" t="n">
-        <v>15.6304442006423</v>
+        <v>9.59183197720708</v>
       </c>
       <c r="H158" t="n">
-        <v>16.3541036406495</v>
+        <v>9.28442646202675</v>
       </c>
       <c r="I158" t="n">
-        <v>17.897116726449</v>
+        <v>11.6474043100875</v>
       </c>
       <c r="J158" t="n">
-        <v>19.5087705330604</v>
+        <v>11.7156943023489</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.74227967444519</v>
+        <v>2.59404238537709</v>
       </c>
       <c r="B159" t="n">
-        <v>9.00588538096727</v>
+        <v>4.93850038030583</v>
       </c>
       <c r="C159" t="n">
-        <v>8.89013022842813</v>
+        <v>4.98754792994728</v>
       </c>
       <c r="D159" t="n">
-        <v>8.39820754961642</v>
+        <v>7.0034483050259</v>
       </c>
       <c r="E159" t="n">
-        <v>8.05783742586698</v>
+        <v>6.9214817728884</v>
       </c>
       <c r="F159" t="n">
-        <v>7.41143155640388</v>
+        <v>9.04298954938805</v>
       </c>
       <c r="G159" t="n">
-        <v>6.88553703448008</v>
+        <v>8.29239139550826</v>
       </c>
       <c r="H159" t="n">
-        <v>6.36437661338724</v>
+        <v>10.3708659754144</v>
       </c>
       <c r="I159" t="n">
-        <v>5.99415959382305</v>
+        <v>12.46537212727</v>
       </c>
       <c r="J159" t="n">
-        <v>6.10926365199912</v>
+        <v>11.3368447190518</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.99396465814273</v>
+        <v>3.02141374894415</v>
       </c>
       <c r="B160" t="n">
-        <v>12.0442810040176</v>
+        <v>3.43555527567546</v>
       </c>
       <c r="C160" t="n">
-        <v>12.863030030171</v>
+        <v>4.90852900381362</v>
       </c>
       <c r="D160" t="n">
-        <v>12.0605414912125</v>
+        <v>6.12671972320178</v>
       </c>
       <c r="E160" t="n">
-        <v>14.7107188640148</v>
+        <v>7.21131099550775</v>
       </c>
       <c r="F160" t="n">
-        <v>15.0223419634195</v>
+        <v>8.37648971888994</v>
       </c>
       <c r="G160" t="n">
-        <v>15.5130363037044</v>
+        <v>9.7898801141084</v>
       </c>
       <c r="H160" t="n">
-        <v>17.5583567977639</v>
+        <v>10.4133692715279</v>
       </c>
       <c r="I160" t="n">
-        <v>18.5913729714222</v>
+        <v>11.3942086912539</v>
       </c>
       <c r="J160" t="n">
-        <v>19.8872217471686</v>
+        <v>13.2544172829619</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.412434297149</v>
+        <v>4.31177191769361</v>
       </c>
       <c r="B161" t="n">
-        <v>9.50705394557956</v>
+        <v>3.92565819338218</v>
       </c>
       <c r="C161" t="n">
-        <v>9.08812522026</v>
+        <v>4.53434609186205</v>
       </c>
       <c r="D161" t="n">
-        <v>8.36473358044922</v>
+        <v>5.80542080769218</v>
       </c>
       <c r="E161" t="n">
-        <v>7.82969171830118</v>
+        <v>6.74781832762716</v>
       </c>
       <c r="F161" t="n">
-        <v>7.60275789083938</v>
+        <v>7.51561667188346</v>
       </c>
       <c r="G161" t="n">
-        <v>6.69152371752258</v>
+        <v>9.46075267666361</v>
       </c>
       <c r="H161" t="n">
-        <v>6.59343428416371</v>
+        <v>9.37047781946857</v>
       </c>
       <c r="I161" t="n">
-        <v>6.37101616331184</v>
+        <v>9.74669845539731</v>
       </c>
       <c r="J161" t="n">
-        <v>5.20938044146358</v>
+        <v>12.9462027368453</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.0770857643284</v>
+        <v>1.89944405201293</v>
       </c>
       <c r="B162" t="n">
-        <v>11.055940283722</v>
+        <v>4.39684505035224</v>
       </c>
       <c r="C162" t="n">
-        <v>11.9998644838891</v>
+        <v>5.58615154363131</v>
       </c>
       <c r="D162" t="n">
-        <v>11.7300011846269</v>
+        <v>7.63001574223533</v>
       </c>
       <c r="E162" t="n">
-        <v>14.4116225525457</v>
+        <v>6.53247573853689</v>
       </c>
       <c r="F162" t="n">
-        <v>15.7039597053553</v>
+        <v>8.65177731609639</v>
       </c>
       <c r="G162" t="n">
-        <v>15.8767656378967</v>
+        <v>9.22203398732617</v>
       </c>
       <c r="H162" t="n">
-        <v>17.4533095657642</v>
+        <v>10.9672304677997</v>
       </c>
       <c r="I162" t="n">
-        <v>18.5289066992034</v>
+        <v>11.681471976796</v>
       </c>
       <c r="J162" t="n">
-        <v>20.1750709714391</v>
+        <v>11.6878668593586</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.4191076742951</v>
+        <v>2.01586361604184</v>
       </c>
       <c r="B163" t="n">
-        <v>9.46244854527219</v>
+        <v>1.61210405051561</v>
       </c>
       <c r="C163" t="n">
-        <v>9.05245920882351</v>
+        <v>1.07891075248862</v>
       </c>
       <c r="D163" t="n">
-        <v>8.7953474974137</v>
+        <v>0.439975901997631</v>
       </c>
       <c r="E163" t="n">
-        <v>7.93431703376662</v>
+        <v>0.269963615466149</v>
       </c>
       <c r="F163" t="n">
-        <v>7.201365524565</v>
+        <v>-0.774405618132547</v>
       </c>
       <c r="G163" t="n">
-        <v>6.97963833596118</v>
+        <v>-1.02426677059068</v>
       </c>
       <c r="H163" t="n">
-        <v>6.42501463683824</v>
+        <v>-1.68346767499913</v>
       </c>
       <c r="I163" t="n">
-        <v>5.61444099051953</v>
+        <v>-1.98463731094383</v>
       </c>
       <c r="J163" t="n">
-        <v>5.81455416150902</v>
+        <v>-2.77728546611435</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>11.5246913825205</v>
+        <v>3.68658457705839</v>
       </c>
       <c r="B164" t="n">
-        <v>10.5990470762601</v>
+        <v>4.53930404893996</v>
       </c>
       <c r="C164" t="n">
-        <v>13.686806137329</v>
+        <v>6.13213474202198</v>
       </c>
       <c r="D164" t="n">
-        <v>13.6166951331036</v>
+        <v>5.33504346644984</v>
       </c>
       <c r="E164" t="n">
-        <v>13.0133463458093</v>
+        <v>6.73211799342037</v>
       </c>
       <c r="F164" t="n">
-        <v>14.0864556819139</v>
+        <v>8.46690217672263</v>
       </c>
       <c r="G164" t="n">
-        <v>16.2168274655074</v>
+        <v>9.38108787066586</v>
       </c>
       <c r="H164" t="n">
-        <v>16.9803265816461</v>
+        <v>9.56837559524488</v>
       </c>
       <c r="I164" t="n">
-        <v>18.0209039333194</v>
+        <v>11.0142243532115</v>
       </c>
       <c r="J164" t="n">
-        <v>18.5534296652604</v>
+        <v>12.7687789924253</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.149141531893</v>
+        <v>3.09839425107899</v>
       </c>
       <c r="B165" t="n">
-        <v>10.5839779483058</v>
+        <v>4.79570319620991</v>
       </c>
       <c r="C165" t="n">
-        <v>12.4334210583666</v>
+        <v>5.38097457730031</v>
       </c>
       <c r="D165" t="n">
-        <v>12.4318579058501</v>
+        <v>6.02382081354401</v>
       </c>
       <c r="E165" t="n">
-        <v>14.4578470108427</v>
+        <v>7.96636489198929</v>
       </c>
       <c r="F165" t="n">
-        <v>14.3817758300372</v>
+        <v>7.36854152930927</v>
       </c>
       <c r="G165" t="n">
-        <v>17.0978145145693</v>
+        <v>8.18777629802672</v>
       </c>
       <c r="H165" t="n">
-        <v>17.3966330627205</v>
+        <v>10.2856216874065</v>
       </c>
       <c r="I165" t="n">
-        <v>17.752925084836</v>
+        <v>11.557454419892</v>
       </c>
       <c r="J165" t="n">
-        <v>18.1181485430054</v>
+        <v>10.950878298075</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.85071755057998</v>
+        <v>2.20415837759851</v>
       </c>
       <c r="B166" t="n">
-        <v>10.2106446962778</v>
+        <v>1.19876019001195</v>
       </c>
       <c r="C166" t="n">
-        <v>11.2170804177586</v>
+        <v>0.795379174499661</v>
       </c>
       <c r="D166" t="n">
-        <v>12.1457101315403</v>
+        <v>0.444056425380908</v>
       </c>
       <c r="E166" t="n">
-        <v>14.6300234342297</v>
+        <v>0.261529719340519</v>
       </c>
       <c r="F166" t="n">
-        <v>15.5462036317096</v>
+        <v>0.0847060963002657</v>
       </c>
       <c r="G166" t="n">
-        <v>15.8195493814741</v>
+        <v>-1.40513965639721</v>
       </c>
       <c r="H166" t="n">
-        <v>18.4249217340197</v>
+        <v>-1.61310334852633</v>
       </c>
       <c r="I166" t="n">
-        <v>16.6834344665855</v>
+        <v>-1.82572524891824</v>
       </c>
       <c r="J166" t="n">
-        <v>18.5952822029384</v>
+        <v>-3.0887602761072</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.32494933736103</v>
+        <v>1.36563238756956</v>
       </c>
       <c r="B167" t="n">
-        <v>11.7819494836495</v>
+        <v>3.17254836581983</v>
       </c>
       <c r="C167" t="n">
-        <v>11.6519909493813</v>
+        <v>5.22487690446793</v>
       </c>
       <c r="D167" t="n">
-        <v>13.7345975063406</v>
+        <v>6.36739729270092</v>
       </c>
       <c r="E167" t="n">
-        <v>14.3593708401952</v>
+        <v>6.2848555565378</v>
       </c>
       <c r="F167" t="n">
-        <v>16.0290163597207</v>
+        <v>8.79440372219691</v>
       </c>
       <c r="G167" t="n">
-        <v>15.4175528631582</v>
+        <v>8.3461605820868</v>
       </c>
       <c r="H167" t="n">
-        <v>18.6838065507338</v>
+        <v>10.083689333426</v>
       </c>
       <c r="I167" t="n">
-        <v>18.8059026328276</v>
+        <v>12.3162737664903</v>
       </c>
       <c r="J167" t="n">
-        <v>18.6276476719032</v>
+        <v>11.3983678127802</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.1860146102997</v>
+        <v>1.72594177838608</v>
       </c>
       <c r="B168" t="n">
-        <v>10.8320219673462</v>
+        <v>1.04472957579407</v>
       </c>
       <c r="C168" t="n">
-        <v>11.3278908737958</v>
+        <v>0.72019186079489</v>
       </c>
       <c r="D168" t="n">
-        <v>11.6954967099641</v>
+        <v>0.406881189181836</v>
       </c>
       <c r="E168" t="n">
-        <v>13.8856916802416</v>
+        <v>0.0302609714453361</v>
       </c>
       <c r="F168" t="n">
-        <v>15.1237771164043</v>
+        <v>-0.441425718642123</v>
       </c>
       <c r="G168" t="n">
-        <v>15.4739519948555</v>
+        <v>-0.98440066866393</v>
       </c>
       <c r="H168" t="n">
-        <v>18.4967840668147</v>
+        <v>-1.4624634012535</v>
       </c>
       <c r="I168" t="n">
-        <v>17.305454450439</v>
+        <v>-1.88180924830609</v>
       </c>
       <c r="J168" t="n">
-        <v>18.7204126717941</v>
+        <v>-2.48715160695616</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>9.76175949856612</v>
+        <v>2.87127104370944</v>
       </c>
       <c r="B169" t="n">
-        <v>11.6090538300496</v>
+        <v>3.5643311947048</v>
       </c>
       <c r="C169" t="n">
-        <v>13.2126452541676</v>
+        <v>5.05489927484241</v>
       </c>
       <c r="D169" t="n">
-        <v>12.3368667645476</v>
+        <v>5.78615409766535</v>
       </c>
       <c r="E169" t="n">
-        <v>13.510133192144</v>
+        <v>6.25510981900041</v>
       </c>
       <c r="F169" t="n">
-        <v>14.8428623161529</v>
+        <v>8.26063132575209</v>
       </c>
       <c r="G169" t="n">
-        <v>16.1387870652885</v>
+        <v>9.6903526871036</v>
       </c>
       <c r="H169" t="n">
-        <v>17.2119332622571</v>
+        <v>10.216277191305</v>
       </c>
       <c r="I169" t="n">
-        <v>18.7238609479194</v>
+        <v>10.4872693310951</v>
       </c>
       <c r="J169" t="n">
-        <v>18.4289561755199</v>
+        <v>11.9097789694402</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.7258898415294</v>
+        <v>1.65031138109478</v>
       </c>
       <c r="B170" t="n">
-        <v>10.6889636322159</v>
+        <v>1.20120931968906</v>
       </c>
       <c r="C170" t="n">
-        <v>12.5918877521162</v>
+        <v>1.12713376263832</v>
       </c>
       <c r="D170" t="n">
-        <v>13.0136559757741</v>
+        <v>0.679467617655173</v>
       </c>
       <c r="E170" t="n">
-        <v>13.4644720791431</v>
+        <v>0.22153868070911</v>
       </c>
       <c r="F170" t="n">
-        <v>15.4751175897246</v>
+        <v>-0.503023292836399</v>
       </c>
       <c r="G170" t="n">
-        <v>14.9272586744019</v>
+        <v>-0.988149172913263</v>
       </c>
       <c r="H170" t="n">
-        <v>16.1755983120729</v>
+        <v>-1.41723510045677</v>
       </c>
       <c r="I170" t="n">
-        <v>18.4422909532966</v>
+        <v>-1.89153719530126</v>
       </c>
       <c r="J170" t="n">
-        <v>17.7474859261917</v>
+        <v>-2.34381001548171</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.102702170797</v>
+        <v>1.83405294817977</v>
       </c>
       <c r="B171" t="n">
-        <v>12.6157206520119</v>
+        <v>1.86340251381987</v>
       </c>
       <c r="C171" t="n">
-        <v>11.249021066568</v>
+        <v>1.00047692461037</v>
       </c>
       <c r="D171" t="n">
-        <v>13.5969271383138</v>
+        <v>0.315442307721819</v>
       </c>
       <c r="E171" t="n">
-        <v>14.9925472574535</v>
+        <v>0.107734771654874</v>
       </c>
       <c r="F171" t="n">
-        <v>14.8149076488918</v>
+        <v>-0.155174800206749</v>
       </c>
       <c r="G171" t="n">
-        <v>16.5764509106018</v>
+        <v>-0.898644209781245</v>
       </c>
       <c r="H171" t="n">
-        <v>17.7154537135571</v>
+        <v>-1.43454293819419</v>
       </c>
       <c r="I171" t="n">
-        <v>16.9186694608272</v>
+        <v>-1.70269360183711</v>
       </c>
       <c r="J171" t="n">
-        <v>19.4750956250413</v>
+        <v>-2.45126484689226</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>9.93523611836355</v>
+        <v>3.34799599986163</v>
       </c>
       <c r="B172" t="n">
-        <v>9.57694909884591</v>
+        <v>4.46842789380255</v>
       </c>
       <c r="C172" t="n">
-        <v>8.63012935189773</v>
+        <v>5.53987872957673</v>
       </c>
       <c r="D172" t="n">
-        <v>8.32387084294126</v>
+        <v>5.97723339446913</v>
       </c>
       <c r="E172" t="n">
-        <v>7.98898666006418</v>
+        <v>6.58098602334252</v>
       </c>
       <c r="F172" t="n">
-        <v>7.2774978201688</v>
+        <v>8.00953485128348</v>
       </c>
       <c r="G172" t="n">
-        <v>7.12596784835454</v>
+        <v>10.0539293268013</v>
       </c>
       <c r="H172" t="n">
-        <v>6.53858273927754</v>
+        <v>9.906106673573</v>
       </c>
       <c r="I172" t="n">
-        <v>6.06201754897541</v>
+        <v>10.5050728159799</v>
       </c>
       <c r="J172" t="n">
-        <v>6.0584975600359</v>
+        <v>12.7702424744566</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.4300244288546</v>
+        <v>4.04541823183148</v>
       </c>
       <c r="B173" t="n">
-        <v>10.6673950322768</v>
+        <v>4.02827114764572</v>
       </c>
       <c r="C173" t="n">
-        <v>12.2210699820757</v>
+        <v>6.1486108354563</v>
       </c>
       <c r="D173" t="n">
-        <v>13.7932725114668</v>
+        <v>6.92492489022006</v>
       </c>
       <c r="E173" t="n">
-        <v>14.7335456452396</v>
+        <v>5.78697025807369</v>
       </c>
       <c r="F173" t="n">
-        <v>13.6287324168283</v>
+        <v>8.56361797452096</v>
       </c>
       <c r="G173" t="n">
-        <v>16.3883950568831</v>
+        <v>9.2145751735558</v>
       </c>
       <c r="H173" t="n">
-        <v>18.00918487254</v>
+        <v>10.6390225595762</v>
       </c>
       <c r="I173" t="n">
-        <v>17.9079278861803</v>
+        <v>11.0102056307025</v>
       </c>
       <c r="J173" t="n">
-        <v>19.5050903548097</v>
+        <v>12.3928569759293</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>9.77225029194248</v>
+        <v>1.99958010268657</v>
       </c>
       <c r="B174" t="n">
-        <v>9.09046055967427</v>
+        <v>1.43068696653238</v>
       </c>
       <c r="C174" t="n">
-        <v>9.32021856453348</v>
+        <v>0.458078725873886</v>
       </c>
       <c r="D174" t="n">
-        <v>8.86439518392273</v>
+        <v>0.433534477795455</v>
       </c>
       <c r="E174" t="n">
-        <v>7.79041036884768</v>
+        <v>-0.0108238686395539</v>
       </c>
       <c r="F174" t="n">
-        <v>7.06683305119098</v>
+        <v>-0.634686481480973</v>
       </c>
       <c r="G174" t="n">
-        <v>6.90086817123078</v>
+        <v>-0.97007867885662</v>
       </c>
       <c r="H174" t="n">
-        <v>6.62491019377084</v>
+        <v>-1.685628624202</v>
       </c>
       <c r="I174" t="n">
-        <v>6.15947250728124</v>
+        <v>-1.815811616047</v>
       </c>
       <c r="J174" t="n">
-        <v>5.80381436719041</v>
+        <v>-2.66743432750536</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>10.0194816167604</v>
+        <v>1.61639262400626</v>
       </c>
       <c r="B175" t="n">
-        <v>9.18713703803998</v>
+        <v>2.13525162823621</v>
       </c>
       <c r="C175" t="n">
-        <v>9.06694561782063</v>
+        <v>1.38805476639321</v>
       </c>
       <c r="D175" t="n">
-        <v>8.64792830427478</v>
+        <v>0.221984304617369</v>
       </c>
       <c r="E175" t="n">
-        <v>8.10658215550107</v>
+        <v>0.454493115844066</v>
       </c>
       <c r="F175" t="n">
-        <v>7.35324159218948</v>
+        <v>-1.04853513166118</v>
       </c>
       <c r="G175" t="n">
-        <v>6.73008657950668</v>
+        <v>-0.772463305064557</v>
       </c>
       <c r="H175" t="n">
-        <v>6.77022947430568</v>
+        <v>-1.70215502265364</v>
       </c>
       <c r="I175" t="n">
-        <v>6.27368695395057</v>
+        <v>-2.30094858992457</v>
       </c>
       <c r="J175" t="n">
-        <v>5.64349469286432</v>
+        <v>-2.05399512595465</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.59125405342503</v>
+        <v>3.94587152851141</v>
       </c>
       <c r="B176" t="n">
-        <v>10.6432356898723</v>
+        <v>3.91780053424829</v>
       </c>
       <c r="C176" t="n">
-        <v>12.5842904144592</v>
+        <v>5.51909920346866</v>
       </c>
       <c r="D176" t="n">
-        <v>12.7964146317998</v>
+        <v>5.24479221231744</v>
       </c>
       <c r="E176" t="n">
-        <v>14.8690754322442</v>
+        <v>7.45391929000573</v>
       </c>
       <c r="F176" t="n">
-        <v>15.7506466635336</v>
+        <v>8.27853454633493</v>
       </c>
       <c r="G176" t="n">
-        <v>16.9780611138748</v>
+        <v>9.22024582874045</v>
       </c>
       <c r="H176" t="n">
-        <v>17.4276615920128</v>
+        <v>11.5091765922743</v>
       </c>
       <c r="I176" t="n">
-        <v>18.0160615251266</v>
+        <v>11.2096972572441</v>
       </c>
       <c r="J176" t="n">
-        <v>18.4203596883549</v>
+        <v>10.6621100305686</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>9.80790679381264</v>
+        <v>2.80872403693968</v>
       </c>
       <c r="B177" t="n">
-        <v>11.4639894521199</v>
+        <v>5.02150863169351</v>
       </c>
       <c r="C177" t="n">
-        <v>11.7550285563751</v>
+        <v>5.41823047838525</v>
       </c>
       <c r="D177" t="n">
-        <v>13.3456645307013</v>
+        <v>6.3263074859796</v>
       </c>
       <c r="E177" t="n">
-        <v>13.0409845769179</v>
+        <v>7.14461222511169</v>
       </c>
       <c r="F177" t="n">
-        <v>13.2952257342656</v>
+        <v>8.27191610915426</v>
       </c>
       <c r="G177" t="n">
-        <v>17.0926061577156</v>
+        <v>8.31086804829086</v>
       </c>
       <c r="H177" t="n">
-        <v>15.8405656382158</v>
+        <v>9.02211446460184</v>
       </c>
       <c r="I177" t="n">
-        <v>17.8793283920893</v>
+        <v>11.4220254640329</v>
       </c>
       <c r="J177" t="n">
-        <v>18.7845885548636</v>
+        <v>11.1747516456525</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.87233351305856</v>
+        <v>3.87043088775014</v>
       </c>
       <c r="B178" t="n">
-        <v>9.3665365797623</v>
+        <v>1.95172207283883</v>
       </c>
       <c r="C178" t="n">
-        <v>8.78182309474644</v>
+        <v>4.71956792707588</v>
       </c>
       <c r="D178" t="n">
-        <v>8.68112214660344</v>
+        <v>5.76535427545097</v>
       </c>
       <c r="E178" t="n">
-        <v>8.21325054402037</v>
+        <v>7.04377318578215</v>
       </c>
       <c r="F178" t="n">
-        <v>7.59142905018334</v>
+        <v>7.68261482649591</v>
       </c>
       <c r="G178" t="n">
-        <v>6.89907689646031</v>
+        <v>9.44183869273173</v>
       </c>
       <c r="H178" t="n">
-        <v>6.36645262108346</v>
+        <v>10.4620064632371</v>
       </c>
       <c r="I178" t="n">
-        <v>6.12281748302915</v>
+        <v>11.7265659437719</v>
       </c>
       <c r="J178" t="n">
-        <v>5.38893704629916</v>
+        <v>13.8192281553499</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10.4612907392422</v>
+        <v>2.21935163512696</v>
       </c>
       <c r="B179" t="n">
-        <v>11.1933119906306</v>
+        <v>1.37990949801919</v>
       </c>
       <c r="C179" t="n">
-        <v>11.8221613611367</v>
+        <v>0.682405092071522</v>
       </c>
       <c r="D179" t="n">
-        <v>14.9593650319647</v>
+        <v>0.630602618143626</v>
       </c>
       <c r="E179" t="n">
-        <v>13.2247092540661</v>
+        <v>0.417088209579628</v>
       </c>
       <c r="F179" t="n">
-        <v>15.9981699458076</v>
+        <v>-0.631648669783929</v>
       </c>
       <c r="G179" t="n">
-        <v>16.0776890981524</v>
+        <v>-0.692929034292268</v>
       </c>
       <c r="H179" t="n">
-        <v>16.7903716212673</v>
+        <v>-1.74416605846017</v>
       </c>
       <c r="I179" t="n">
-        <v>18.0454343021587</v>
+        <v>-1.84187326006016</v>
       </c>
       <c r="J179" t="n">
-        <v>18.6354834969283</v>
+        <v>-2.81143226763423</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>9.76380550753504</v>
+        <v>1.99749519203716</v>
       </c>
       <c r="B180" t="n">
-        <v>9.53210927137008</v>
+        <v>1.37510355709946</v>
       </c>
       <c r="C180" t="n">
-        <v>9.35161192285648</v>
+        <v>1.225975310779</v>
       </c>
       <c r="D180" t="n">
-        <v>8.97615197022993</v>
+        <v>0.433820576583748</v>
       </c>
       <c r="E180" t="n">
-        <v>7.68689263229573</v>
+        <v>0.0160156726692247</v>
       </c>
       <c r="F180" t="n">
-        <v>7.43196971795253</v>
+        <v>-0.491092198654435</v>
       </c>
       <c r="G180" t="n">
-        <v>7.16510679164767</v>
+        <v>-1.36673575432657</v>
       </c>
       <c r="H180" t="n">
-        <v>6.12348697354237</v>
+        <v>-1.15661945169413</v>
       </c>
       <c r="I180" t="n">
-        <v>6.27274077087622</v>
+        <v>-2.13960794885625</v>
       </c>
       <c r="J180" t="n">
-        <v>5.12479846366048</v>
+        <v>-2.307266455868</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>10.1856535373122</v>
+        <v>2.15558898480866</v>
       </c>
       <c r="B181" t="n">
-        <v>9.80297369935221</v>
+        <v>1.24784719062205</v>
       </c>
       <c r="C181" t="n">
-        <v>8.79805657213139</v>
+        <v>1.18444907208698</v>
       </c>
       <c r="D181" t="n">
-        <v>8.07036610630948</v>
+        <v>0.62118277706238</v>
       </c>
       <c r="E181" t="n">
-        <v>7.57096406180882</v>
+        <v>0.00643147173494244</v>
       </c>
       <c r="F181" t="n">
-        <v>7.18660711771728</v>
+        <v>-0.764833936108324</v>
       </c>
       <c r="G181" t="n">
-        <v>7.07883852208742</v>
+        <v>-0.807755580896984</v>
       </c>
       <c r="H181" t="n">
-        <v>6.76794704152658</v>
+        <v>-1.35209812742305</v>
       </c>
       <c r="I181" t="n">
-        <v>5.97885286563468</v>
+        <v>-2.03534088665756</v>
       </c>
       <c r="J181" t="n">
-        <v>5.57425982742128</v>
+        <v>-2.66350387412348</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.1428860976467</v>
+        <v>2.74791415848229</v>
       </c>
       <c r="B182" t="n">
-        <v>10.6335556920137</v>
+        <v>4.09874859664008</v>
       </c>
       <c r="C182" t="n">
-        <v>11.633632496229</v>
+        <v>5.28532598532191</v>
       </c>
       <c r="D182" t="n">
-        <v>12.7314642268947</v>
+        <v>4.73942638724935</v>
       </c>
       <c r="E182" t="n">
-        <v>13.6761427836127</v>
+        <v>6.58234176377772</v>
       </c>
       <c r="F182" t="n">
-        <v>14.5330707519833</v>
+        <v>7.80916796732439</v>
       </c>
       <c r="G182" t="n">
-        <v>15.2814406467612</v>
+        <v>8.41112463949094</v>
       </c>
       <c r="H182" t="n">
-        <v>17.4089724884963</v>
+        <v>11.3038289740733</v>
       </c>
       <c r="I182" t="n">
-        <v>17.8889426514409</v>
+        <v>11.712565605298</v>
       </c>
       <c r="J182" t="n">
-        <v>18.4531556903587</v>
+        <v>11.2851774523216</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9.92948752178694</v>
+        <v>1.21877693298917</v>
       </c>
       <c r="B183" t="n">
-        <v>9.20448016689695</v>
+        <v>3.59845769526771</v>
       </c>
       <c r="C183" t="n">
-        <v>10.6480133986392</v>
+        <v>4.30742424659926</v>
       </c>
       <c r="D183" t="n">
-        <v>13.7900549022955</v>
+        <v>6.30179045884508</v>
       </c>
       <c r="E183" t="n">
-        <v>13.0517182913834</v>
+        <v>6.66861557571667</v>
       </c>
       <c r="F183" t="n">
-        <v>15.4025348832424</v>
+        <v>8.16210214470845</v>
       </c>
       <c r="G183" t="n">
-        <v>16.4379261025755</v>
+        <v>7.55672216872914</v>
       </c>
       <c r="H183" t="n">
-        <v>17.2462494434219</v>
+        <v>10.8848123177989</v>
       </c>
       <c r="I183" t="n">
-        <v>18.4121956274265</v>
+        <v>10.2203633827815</v>
       </c>
       <c r="J183" t="n">
-        <v>18.2320608449353</v>
+        <v>12.066946666108</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.78317822324132</v>
+        <v>2.05850421127217</v>
       </c>
       <c r="B184" t="n">
-        <v>11.2878834698834</v>
+        <v>1.59918511557053</v>
       </c>
       <c r="C184" t="n">
-        <v>12.5385298089298</v>
+        <v>0.917109208477831</v>
       </c>
       <c r="D184" t="n">
-        <v>12.4840804542902</v>
+        <v>0.554308376995177</v>
       </c>
       <c r="E184" t="n">
-        <v>13.4308898012711</v>
+        <v>0.131562212465657</v>
       </c>
       <c r="F184" t="n">
-        <v>15.3674758457666</v>
+        <v>-0.652464437745264</v>
       </c>
       <c r="G184" t="n">
-        <v>17.4677777226782</v>
+        <v>-0.923616334646682</v>
       </c>
       <c r="H184" t="n">
-        <v>17.0885312415377</v>
+        <v>-1.74946909990602</v>
       </c>
       <c r="I184" t="n">
-        <v>17.8678115021882</v>
+        <v>-1.73575354734331</v>
       </c>
       <c r="J184" t="n">
-        <v>18.3701465689366</v>
+        <v>-2.14917645592219</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.324204022328</v>
+        <v>2.26359707520068</v>
       </c>
       <c r="B185" t="n">
-        <v>10.0622494169865</v>
+        <v>4.14648371992885</v>
       </c>
       <c r="C185" t="n">
-        <v>11.6543440870003</v>
+        <v>5.02807723178499</v>
       </c>
       <c r="D185" t="n">
-        <v>13.6066170539547</v>
+        <v>5.48092221226403</v>
       </c>
       <c r="E185" t="n">
-        <v>13.8360611622991</v>
+        <v>6.41715164161771</v>
       </c>
       <c r="F185" t="n">
-        <v>15.165833291285</v>
+        <v>7.38982399116266</v>
       </c>
       <c r="G185" t="n">
-        <v>15.623116491188</v>
+        <v>9.33349288212954</v>
       </c>
       <c r="H185" t="n">
-        <v>15.8600989992747</v>
+        <v>9.51961521385615</v>
       </c>
       <c r="I185" t="n">
-        <v>16.9735542796258</v>
+        <v>10.9053468573283</v>
       </c>
       <c r="J185" t="n">
-        <v>17.7098941369358</v>
+        <v>11.9489932666336</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10.3026237740122</v>
+        <v>2.93273540267994</v>
       </c>
       <c r="B186" t="n">
-        <v>11.8381618588703</v>
+        <v>4.95528804738433</v>
       </c>
       <c r="C186" t="n">
-        <v>11.6694625033275</v>
+        <v>4.26965086265698</v>
       </c>
       <c r="D186" t="n">
-        <v>15.0879599375693</v>
+        <v>6.7284295390376</v>
       </c>
       <c r="E186" t="n">
-        <v>14.44552935738</v>
+        <v>7.52082262781738</v>
       </c>
       <c r="F186" t="n">
-        <v>13.5985810245746</v>
+        <v>8.64841451379175</v>
       </c>
       <c r="G186" t="n">
-        <v>15.1676612952401</v>
+        <v>8.64292560747151</v>
       </c>
       <c r="H186" t="n">
-        <v>16.121889335029</v>
+        <v>10.3586065173725</v>
       </c>
       <c r="I186" t="n">
-        <v>18.2882776277483</v>
+        <v>11.8676518490819</v>
       </c>
       <c r="J186" t="n">
-        <v>19.1069635360663</v>
+        <v>11.2811999939898</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.1587650519086</v>
+        <v>1.83313427781751</v>
       </c>
       <c r="B187" t="n">
-        <v>10.3369070511653</v>
+        <v>1.6442438663159</v>
       </c>
       <c r="C187" t="n">
-        <v>11.5288989317244</v>
+        <v>1.06633022639422</v>
       </c>
       <c r="D187" t="n">
-        <v>11.1424688670945</v>
+        <v>0.280420684143834</v>
       </c>
       <c r="E187" t="n">
-        <v>13.8681361871336</v>
+        <v>0.239531210257203</v>
       </c>
       <c r="F187" t="n">
-        <v>15.5424702943868</v>
+        <v>0.00822845039005304</v>
       </c>
       <c r="G187" t="n">
-        <v>15.4388847513068</v>
+        <v>-1.42558980669105</v>
       </c>
       <c r="H187" t="n">
-        <v>17.379137178645</v>
+        <v>-1.54894174769738</v>
       </c>
       <c r="I187" t="n">
-        <v>17.7239300586327</v>
+        <v>-1.99736414663732</v>
       </c>
       <c r="J187" t="n">
-        <v>18.8770815135032</v>
+        <v>-2.26226263808817</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8.47259581666592</v>
+        <v>2.03678324573133</v>
       </c>
       <c r="B188" t="n">
-        <v>11.1107023317213</v>
+        <v>0.895578222616169</v>
       </c>
       <c r="C188" t="n">
-        <v>11.7496803282779</v>
+        <v>0.771795186214222</v>
       </c>
       <c r="D188" t="n">
-        <v>12.7223395616749</v>
+        <v>1.30873736076588</v>
       </c>
       <c r="E188" t="n">
-        <v>12.8065110144178</v>
+        <v>0.458718430355371</v>
       </c>
       <c r="F188" t="n">
-        <v>15.1800922978787</v>
+        <v>-0.993255824393021</v>
       </c>
       <c r="G188" t="n">
-        <v>16.3814513945914</v>
+        <v>-1.21265758845971</v>
       </c>
       <c r="H188" t="n">
-        <v>16.2773962946051</v>
+        <v>-1.26729701953291</v>
       </c>
       <c r="I188" t="n">
-        <v>18.4850893810945</v>
+        <v>-1.79074121299302</v>
       </c>
       <c r="J188" t="n">
-        <v>19.4940257160503</v>
+        <v>-2.7841958802142</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>10.0599945010638</v>
+        <v>1.76813325166632</v>
       </c>
       <c r="B189" t="n">
-        <v>10.0852397139468</v>
+        <v>4.41634979691129</v>
       </c>
       <c r="C189" t="n">
-        <v>11.7492185907313</v>
+        <v>5.99968616083337</v>
       </c>
       <c r="D189" t="n">
-        <v>13.803282011339</v>
+        <v>5.54101009511211</v>
       </c>
       <c r="E189" t="n">
-        <v>13.2303945142033</v>
+        <v>5.87734113678501</v>
       </c>
       <c r="F189" t="n">
-        <v>15.1133237510004</v>
+        <v>7.90618723703157</v>
       </c>
       <c r="G189" t="n">
-        <v>16.7586210226816</v>
+        <v>9.58370301498744</v>
       </c>
       <c r="H189" t="n">
-        <v>17.2804277800658</v>
+        <v>10.4626471263808</v>
       </c>
       <c r="I189" t="n">
-        <v>18.2055892660398</v>
+        <v>10.8044565870377</v>
       </c>
       <c r="J189" t="n">
-        <v>17.9617242871257</v>
+        <v>11.0435312989224</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.74501355907582</v>
+        <v>2.75060245709055</v>
       </c>
       <c r="B190" t="n">
-        <v>11.8213378384615</v>
+        <v>3.84884395805364</v>
       </c>
       <c r="C190" t="n">
-        <v>11.7899650654139</v>
+        <v>4.5332922287456</v>
       </c>
       <c r="D190" t="n">
-        <v>13.7986166241524</v>
+        <v>6.12626366541042</v>
       </c>
       <c r="E190" t="n">
-        <v>15.0123773894204</v>
+        <v>6.67502323602797</v>
       </c>
       <c r="F190" t="n">
-        <v>15.2838297341316</v>
+        <v>8.29621379506819</v>
       </c>
       <c r="G190" t="n">
-        <v>16.4302640902926</v>
+        <v>9.4927846431686</v>
       </c>
       <c r="H190" t="n">
-        <v>18.1811287450918</v>
+        <v>10.2712041174435</v>
       </c>
       <c r="I190" t="n">
-        <v>18.0544152856945</v>
+        <v>12.664072733864</v>
       </c>
       <c r="J190" t="n">
-        <v>20.8735148852645</v>
+        <v>11.0126471225915</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>10.4658822757316</v>
+        <v>1.67899722771463</v>
       </c>
       <c r="B191" t="n">
-        <v>9.69266026350963</v>
+        <v>1.00247794353776</v>
       </c>
       <c r="C191" t="n">
-        <v>8.79404838139933</v>
+        <v>1.10728898110201</v>
       </c>
       <c r="D191" t="n">
-        <v>8.51877334156718</v>
+        <v>0.383570453157505</v>
       </c>
       <c r="E191" t="n">
-        <v>8.29258174764564</v>
+        <v>0.566606425207424</v>
       </c>
       <c r="F191" t="n">
-        <v>7.70376741668951</v>
+        <v>-0.823108376394671</v>
       </c>
       <c r="G191" t="n">
-        <v>6.80835235134937</v>
+        <v>-0.814245215660753</v>
       </c>
       <c r="H191" t="n">
-        <v>6.86099215468145</v>
+        <v>-1.83752591110689</v>
       </c>
       <c r="I191" t="n">
-        <v>5.71126094266259</v>
+        <v>-1.76608178502129</v>
       </c>
       <c r="J191" t="n">
-        <v>5.55435991528995</v>
+        <v>-2.44769590502938</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>10.5071127916498</v>
+        <v>1.67054673898874</v>
       </c>
       <c r="B192" t="n">
-        <v>11.9099759380529</v>
+        <v>3.15294451343626</v>
       </c>
       <c r="C192" t="n">
-        <v>12.3354155252746</v>
+        <v>5.07845360434549</v>
       </c>
       <c r="D192" t="n">
-        <v>13.5793473319298</v>
+        <v>5.0003069355704</v>
       </c>
       <c r="E192" t="n">
-        <v>13.3456178427015</v>
+        <v>5.73623142450074</v>
       </c>
       <c r="F192" t="n">
-        <v>15.8807973945574</v>
+        <v>7.58460475364432</v>
       </c>
       <c r="G192" t="n">
-        <v>16.0591392602181</v>
+        <v>9.60484590745915</v>
       </c>
       <c r="H192" t="n">
-        <v>17.8934914961142</v>
+        <v>10.3444757548855</v>
       </c>
       <c r="I192" t="n">
-        <v>18.4669999177497</v>
+        <v>11.7394363715699</v>
       </c>
       <c r="J192" t="n">
-        <v>19.4713858635797</v>
+        <v>10.9363164224236</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.0248857288453</v>
+        <v>2.2790859775106</v>
       </c>
       <c r="B193" t="n">
-        <v>11.3809869293045</v>
+        <v>1.40820431031905</v>
       </c>
       <c r="C193" t="n">
-        <v>12.8339578885035</v>
+        <v>1.35064701546259</v>
       </c>
       <c r="D193" t="n">
-        <v>12.4174911950076</v>
+        <v>0.698728325802347</v>
       </c>
       <c r="E193" t="n">
-        <v>14.2146803387571</v>
+        <v>-0.128845760456908</v>
       </c>
       <c r="F193" t="n">
-        <v>14.1537310825918</v>
+        <v>-0.766079538256426</v>
       </c>
       <c r="G193" t="n">
-        <v>16.4256910524732</v>
+        <v>-0.800747916858455</v>
       </c>
       <c r="H193" t="n">
-        <v>17.6122087738602</v>
+        <v>-1.62762824147544</v>
       </c>
       <c r="I193" t="n">
-        <v>18.3921994841077</v>
+        <v>-1.93634153743721</v>
       </c>
       <c r="J193" t="n">
-        <v>18.2076139146144</v>
+        <v>-2.41462424743948</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>10.2678189815123</v>
+        <v>2.20834340849637</v>
       </c>
       <c r="B194" t="n">
-        <v>9.56814883369649</v>
+        <v>1.31062275742331</v>
       </c>
       <c r="C194" t="n">
-        <v>8.89578481837318</v>
+        <v>1.11181925337551</v>
       </c>
       <c r="D194" t="n">
-        <v>8.2594901816956</v>
+        <v>0.345469793211848</v>
       </c>
       <c r="E194" t="n">
-        <v>8.34192865434173</v>
+        <v>-0.0985672653374267</v>
       </c>
       <c r="F194" t="n">
-        <v>7.55772457079262</v>
+        <v>-0.256486401247317</v>
       </c>
       <c r="G194" t="n">
-        <v>6.96764025408385</v>
+        <v>-0.782368249786432</v>
       </c>
       <c r="H194" t="n">
-        <v>6.38933760303094</v>
+        <v>-1.72429092035099</v>
       </c>
       <c r="I194" t="n">
-        <v>5.77667633491397</v>
+        <v>-2.00447754835018</v>
       </c>
       <c r="J194" t="n">
-        <v>5.66668424975096</v>
+        <v>-2.69522962954249</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.979824771155</v>
+        <v>2.16249421725159</v>
       </c>
       <c r="B195" t="n">
-        <v>9.50876207513402</v>
+        <v>1.98699279339623</v>
       </c>
       <c r="C195" t="n">
-        <v>8.96912808496185</v>
+        <v>0.11907393621191</v>
       </c>
       <c r="D195" t="n">
-        <v>8.66383427893969</v>
+        <v>0.619235334225047</v>
       </c>
       <c r="E195" t="n">
-        <v>8.37211533767623</v>
+        <v>-0.21386057942771</v>
       </c>
       <c r="F195" t="n">
-        <v>7.58384584997442</v>
+        <v>-0.514096621005852</v>
       </c>
       <c r="G195" t="n">
-        <v>7.03129788327705</v>
+        <v>-0.591774531057368</v>
       </c>
       <c r="H195" t="n">
-        <v>6.52334192677539</v>
+        <v>-1.81169387714522</v>
       </c>
       <c r="I195" t="n">
-        <v>5.89665541711421</v>
+        <v>-2.5343295468314</v>
       </c>
       <c r="J195" t="n">
-        <v>5.30438736702303</v>
+        <v>-2.74623933816776</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.65706687208774</v>
+        <v>3.77198311286315</v>
       </c>
       <c r="B196" t="n">
-        <v>11.0877455587672</v>
+        <v>4.82115307867265</v>
       </c>
       <c r="C196" t="n">
-        <v>12.0809277290441</v>
+        <v>4.71069380143205</v>
       </c>
       <c r="D196" t="n">
-        <v>12.4072732112208</v>
+        <v>5.66075646884772</v>
       </c>
       <c r="E196" t="n">
-        <v>14.3622438151407</v>
+        <v>7.28237745292615</v>
       </c>
       <c r="F196" t="n">
-        <v>14.3206459146099</v>
+        <v>10.2778544326661</v>
       </c>
       <c r="G196" t="n">
-        <v>16.0686837915077</v>
+        <v>9.05860949803092</v>
       </c>
       <c r="H196" t="n">
-        <v>17.5635540817448</v>
+        <v>9.77934173695758</v>
       </c>
       <c r="I196" t="n">
-        <v>17.4033842719033</v>
+        <v>11.3256396743664</v>
       </c>
       <c r="J196" t="n">
-        <v>19.603287782895</v>
+        <v>12.7015333204369</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>9.91192392416336</v>
+        <v>3.09155167616005</v>
       </c>
       <c r="B197" t="n">
-        <v>9.69724324067494</v>
+        <v>4.32169671862025</v>
       </c>
       <c r="C197" t="n">
-        <v>8.97278606653058</v>
+        <v>4.75774834345268</v>
       </c>
       <c r="D197" t="n">
-        <v>8.56706219506166</v>
+        <v>5.52962412169387</v>
       </c>
       <c r="E197" t="n">
-        <v>7.68666646478921</v>
+        <v>7.62275323343142</v>
       </c>
       <c r="F197" t="n">
-        <v>7.68919538785727</v>
+        <v>7.43671048005953</v>
       </c>
       <c r="G197" t="n">
-        <v>7.08492383219019</v>
+        <v>9.39694907541459</v>
       </c>
       <c r="H197" t="n">
-        <v>6.40711614905813</v>
+        <v>9.34409321157698</v>
       </c>
       <c r="I197" t="n">
-        <v>5.96710767056503</v>
+        <v>10.3711478398963</v>
       </c>
       <c r="J197" t="n">
-        <v>5.45159123875917</v>
+        <v>11.4284863459738</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.4131352232548</v>
+        <v>3.38123802946512</v>
       </c>
       <c r="B198" t="n">
-        <v>9.43982417513744</v>
+        <v>4.45830262877312</v>
       </c>
       <c r="C198" t="n">
-        <v>10.9131456375646</v>
+        <v>4.7116755122164</v>
       </c>
       <c r="D198" t="n">
-        <v>12.6814078480419</v>
+        <v>6.03174913691881</v>
       </c>
       <c r="E198" t="n">
-        <v>12.8589911625483</v>
+        <v>6.64265622643825</v>
       </c>
       <c r="F198" t="n">
-        <v>14.9819015761069</v>
+        <v>8.34806814589088</v>
       </c>
       <c r="G198" t="n">
-        <v>16.3875560339836</v>
+        <v>8.94920438277634</v>
       </c>
       <c r="H198" t="n">
-        <v>18.573490242836</v>
+        <v>9.70825242804839</v>
       </c>
       <c r="I198" t="n">
-        <v>16.8646966121198</v>
+        <v>9.72350652199975</v>
       </c>
       <c r="J198" t="n">
-        <v>19.4455022788284</v>
+        <v>11.7263964982781</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.45414202469737</v>
+        <v>1.69239798514288</v>
       </c>
       <c r="B199" t="n">
-        <v>10.6194078440559</v>
+        <v>0.856305958158865</v>
       </c>
       <c r="C199" t="n">
-        <v>12.5659248771791</v>
+        <v>0.967007982733993</v>
       </c>
       <c r="D199" t="n">
-        <v>12.3730661732795</v>
+        <v>0.489190292813989</v>
       </c>
       <c r="E199" t="n">
-        <v>14.4578009910795</v>
+        <v>0.469242655083276</v>
       </c>
       <c r="F199" t="n">
-        <v>14.6363673369504</v>
+        <v>-0.745308013453943</v>
       </c>
       <c r="G199" t="n">
-        <v>16.9626037060711</v>
+        <v>-1.28723991185137</v>
       </c>
       <c r="H199" t="n">
-        <v>18.4080722888313</v>
+        <v>-1.9341540039249</v>
       </c>
       <c r="I199" t="n">
-        <v>18.3915383616024</v>
+        <v>-2.1570997132881</v>
       </c>
       <c r="J199" t="n">
-        <v>19.5184234167765</v>
+        <v>-2.69056601360307</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>10.2926449776494</v>
+        <v>2.96184998719534</v>
       </c>
       <c r="B200" t="n">
-        <v>9.11429254831172</v>
+        <v>4.78001728196739</v>
       </c>
       <c r="C200" t="n">
-        <v>9.00849026551069</v>
+        <v>5.08753464845908</v>
       </c>
       <c r="D200" t="n">
-        <v>8.22820915568887</v>
+        <v>4.66830332441846</v>
       </c>
       <c r="E200" t="n">
-        <v>7.85440889575125</v>
+        <v>6.67992142149752</v>
       </c>
       <c r="F200" t="n">
-        <v>7.2846403059222</v>
+        <v>7.24341545494514</v>
       </c>
       <c r="G200" t="n">
-        <v>7.03399794093015</v>
+        <v>9.72785740912045</v>
       </c>
       <c r="H200" t="n">
-        <v>6.51626312085724</v>
+        <v>9.45262964057627</v>
       </c>
       <c r="I200" t="n">
-        <v>5.66062422154308</v>
+        <v>11.0276213909251</v>
       </c>
       <c r="J200" t="n">
-        <v>5.41334238737526</v>
+        <v>11.1933465439335</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8.80542176600968</v>
+        <v>1.95341463170468</v>
       </c>
       <c r="B201" t="n">
-        <v>10.3478485576081</v>
+        <v>3.72813346874625</v>
       </c>
       <c r="C201" t="n">
-        <v>10.7886049844327</v>
+        <v>4.00931176818775</v>
       </c>
       <c r="D201" t="n">
-        <v>13.1447229816821</v>
+        <v>4.45855243677309</v>
       </c>
       <c r="E201" t="n">
-        <v>13.7136448720746</v>
+        <v>6.69083768480442</v>
       </c>
       <c r="F201" t="n">
-        <v>14.786314559789</v>
+        <v>7.99287117284176</v>
       </c>
       <c r="G201" t="n">
-        <v>15.5180585327993</v>
+        <v>9.39400317727423</v>
       </c>
       <c r="H201" t="n">
-        <v>15.5718396982295</v>
+        <v>9.1451009943011</v>
       </c>
       <c r="I201" t="n">
-        <v>17.674285644678</v>
+        <v>10.2281149571619</v>
       </c>
       <c r="J201" t="n">
-        <v>19.1390857859525</v>
+        <v>11.8127029226738</v>
       </c>
     </row>
   </sheetData>
